--- a/rki-data/RKI-Nowcasting_Zahlen.xlsx
+++ b/rki-data/RKI-Nowcasting_Zahlen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2020-10-31\Nowcast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2020-11-04\Nowcast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822022C2-BEE8-429F-B760-A6E4AFF0682D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555E9F3B-FEC2-4367-B767-5277C27DA7D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <t>Ergebnisse des Nowcastings und der Schätzung der Reproduktionszahl R</t>
   </si>
   <si>
-    <t>Datenstand: 31.10.2020, 00:00 Uhr</t>
+    <t>Datenstand: 04.11.2020, 00:00 Uhr</t>
   </si>
   <si>
     <t>Die Ergebnisse des Nowcastings, also die Schätzung der Anzahl von COVID-19 Neuerkrankungen wird dargestellt mit einem gleitenden 4-Tages-Mittelwert.</t>
@@ -41,7 +41,7 @@
     <t>Dabei wird jeder Wert mit den Werten der 3 vorhergehenden Tage gemittelt.</t>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 31.10.2020 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 04.11.2020 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -137,14 +137,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,31 +560,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M241"/>
+  <dimension ref="A1:M245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A244" sqref="A244:XFD244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="13" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="93" customHeight="1">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="120">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -626,16 +621,16 @@
         <v>304</v>
       </c>
       <c r="C2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E2">
         <v>225</v>
       </c>
       <c r="F2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G2">
         <v>238</v>
@@ -649,16 +644,16 @@
         <v>321</v>
       </c>
       <c r="C3">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D3">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E3">
         <v>261</v>
       </c>
       <c r="F3">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G3">
         <v>276</v>
@@ -672,19 +667,19 @@
         <v>450</v>
       </c>
       <c r="C4">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D4">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E4">
         <v>326</v>
       </c>
       <c r="F4">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G4">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -695,19 +690,19 @@
         <v>503</v>
       </c>
       <c r="C5">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D5">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="E5">
         <v>395</v>
       </c>
       <c r="F5">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G5">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -718,19 +713,19 @@
         <v>759</v>
       </c>
       <c r="C6">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="D6">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E6">
         <v>508</v>
       </c>
       <c r="F6">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G6">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H6">
         <v>2.2599999999999998</v>
@@ -739,7 +734,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="J6">
-        <v>2.33</v>
+        <v>2.34</v>
       </c>
       <c r="K6">
         <v>2.34</v>
@@ -748,7 +743,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="M6">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -756,13 +751,13 @@
         <v>43897</v>
       </c>
       <c r="B7">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C7">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="D7">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="E7">
         <v>674</v>
@@ -771,16 +766,16 @@
         <v>652</v>
       </c>
       <c r="G7">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H7">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="I7">
         <v>2.5</v>
       </c>
       <c r="J7">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="K7">
         <v>2.56</v>
@@ -789,7 +784,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="M7">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -797,16 +792,16 @@
         <v>43898</v>
       </c>
       <c r="B8">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="C8">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="D8">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="E8">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F8">
         <v>869</v>
@@ -821,16 +816,16 @@
         <v>2.67</v>
       </c>
       <c r="J8">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="K8">
         <v>2.93</v>
       </c>
       <c r="L8">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M8">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -838,28 +833,28 @@
         <v>43899</v>
       </c>
       <c r="B9">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="C9">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="D9">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="E9">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F9">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G9">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H9">
         <v>3.23</v>
       </c>
       <c r="I9">
-        <v>3.15</v>
+        <v>3.14</v>
       </c>
       <c r="J9">
         <v>3.33</v>
@@ -868,10 +863,10 @@
         <v>3.13</v>
       </c>
       <c r="L9">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="M9">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -882,25 +877,25 @@
         <v>2569</v>
       </c>
       <c r="C10">
-        <v>2527</v>
+        <v>2521</v>
       </c>
       <c r="D10">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="E10">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="F10">
-        <v>1693</v>
+        <v>1688</v>
       </c>
       <c r="G10">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="H10">
         <v>3.4</v>
       </c>
       <c r="I10">
-        <v>3.33</v>
+        <v>3.32</v>
       </c>
       <c r="J10">
         <v>3.48</v>
@@ -909,10 +904,10 @@
         <v>3.21</v>
       </c>
       <c r="L10">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="M10">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -920,37 +915,37 @@
         <v>43901</v>
       </c>
       <c r="B11">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="C11">
-        <v>3192</v>
+        <v>3190</v>
       </c>
       <c r="D11">
-        <v>3281</v>
+        <v>3286</v>
       </c>
       <c r="E11">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="F11">
-        <v>2251</v>
+        <v>2247</v>
       </c>
       <c r="G11">
         <v>2331</v>
       </c>
       <c r="H11">
-        <v>3.4</v>
+        <v>3.39</v>
       </c>
       <c r="I11">
-        <v>3.34</v>
+        <v>3.33</v>
       </c>
       <c r="J11">
-        <v>3.47</v>
+        <v>3.46</v>
       </c>
       <c r="K11">
         <v>3.11</v>
       </c>
       <c r="L11">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="M11">
         <v>3.15</v>
@@ -961,19 +956,19 @@
         <v>43902</v>
       </c>
       <c r="B12">
-        <v>3601</v>
+        <v>3600</v>
       </c>
       <c r="C12">
         <v>3553</v>
       </c>
       <c r="D12">
-        <v>3655</v>
+        <v>3649</v>
       </c>
       <c r="E12">
         <v>2856</v>
       </c>
       <c r="F12">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="G12">
         <v>2902</v>
@@ -982,7 +977,7 @@
         <v>3.19</v>
       </c>
       <c r="I12">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
       <c r="J12">
         <v>3.25</v>
@@ -991,7 +986,7 @@
         <v>2.84</v>
       </c>
       <c r="L12">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="M12">
         <v>2.87</v>
@@ -1005,19 +1000,19 @@
         <v>4364</v>
       </c>
       <c r="C13">
-        <v>4311</v>
+        <v>4317</v>
       </c>
       <c r="D13">
-        <v>4420</v>
+        <v>4416</v>
       </c>
       <c r="E13">
         <v>3442</v>
       </c>
       <c r="F13">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="G13">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="H13">
         <v>2.7</v>
@@ -1026,7 +1021,7 @@
         <v>2.66</v>
       </c>
       <c r="J13">
-        <v>2.73</v>
+        <v>2.74</v>
       </c>
       <c r="K13">
         <v>2.5</v>
@@ -1043,28 +1038,28 @@
         <v>43904</v>
       </c>
       <c r="B14">
-        <v>4440</v>
+        <v>4436</v>
       </c>
       <c r="C14">
-        <v>4391</v>
+        <v>4383</v>
       </c>
       <c r="D14">
-        <v>4494</v>
+        <v>4495</v>
       </c>
       <c r="E14">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="F14">
-        <v>3862</v>
+        <v>3860</v>
       </c>
       <c r="G14">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="H14">
         <v>2.2599999999999998</v>
       </c>
       <c r="I14">
-        <v>2.2400000000000002</v>
+        <v>2.23</v>
       </c>
       <c r="J14">
         <v>2.29</v>
@@ -1084,13 +1079,13 @@
         <v>43905</v>
       </c>
       <c r="B15">
-        <v>4678</v>
+        <v>4679</v>
       </c>
       <c r="C15">
-        <v>4618</v>
+        <v>4621</v>
       </c>
       <c r="D15">
-        <v>4730</v>
+        <v>4740</v>
       </c>
       <c r="E15">
         <v>4270</v>
@@ -1099,13 +1094,13 @@
         <v>4218</v>
       </c>
       <c r="G15">
-        <v>4324</v>
+        <v>4325</v>
       </c>
       <c r="H15">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I15">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="J15">
         <v>1.89</v>
@@ -1117,7 +1112,7 @@
         <v>1.98</v>
       </c>
       <c r="M15">
-        <v>2.0099999999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1125,13 +1120,13 @@
         <v>43906</v>
       </c>
       <c r="B16">
-        <v>6020</v>
+        <v>6022</v>
       </c>
       <c r="C16">
-        <v>5958</v>
+        <v>5957</v>
       </c>
       <c r="D16">
-        <v>6081</v>
+        <v>6085</v>
       </c>
       <c r="E16">
         <v>4875</v>
@@ -1140,7 +1135,7 @@
         <v>4819</v>
       </c>
       <c r="G16">
-        <v>4931</v>
+        <v>4934</v>
       </c>
       <c r="H16">
         <v>1.71</v>
@@ -1166,13 +1161,13 @@
         <v>43907</v>
       </c>
       <c r="B17">
-        <v>5229</v>
+        <v>5230</v>
       </c>
       <c r="C17">
-        <v>5162</v>
+        <v>5166</v>
       </c>
       <c r="D17">
-        <v>5292</v>
+        <v>5300</v>
       </c>
       <c r="E17">
         <v>5092</v>
@@ -1181,16 +1176,16 @@
         <v>5032</v>
       </c>
       <c r="G17">
-        <v>5149</v>
+        <v>5155</v>
       </c>
       <c r="H17">
         <v>1.48</v>
       </c>
       <c r="I17">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="J17">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="K17">
         <v>1.56</v>
@@ -1207,22 +1202,22 @@
         <v>43908</v>
       </c>
       <c r="B18">
-        <v>5288</v>
+        <v>5289</v>
       </c>
       <c r="C18">
-        <v>5227</v>
+        <v>5223</v>
       </c>
       <c r="D18">
-        <v>5346</v>
+        <v>5349</v>
       </c>
       <c r="E18">
-        <v>5304</v>
+        <v>5305</v>
       </c>
       <c r="F18">
-        <v>5241</v>
+        <v>5242</v>
       </c>
       <c r="G18">
-        <v>5362</v>
+        <v>5368</v>
       </c>
       <c r="H18">
         <v>1.36</v>
@@ -1234,7 +1229,7 @@
         <v>1.37</v>
       </c>
       <c r="K18">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="L18">
         <v>1.39</v>
@@ -1248,25 +1243,25 @@
         <v>43909</v>
       </c>
       <c r="B19">
-        <v>4723</v>
+        <v>4725</v>
       </c>
       <c r="C19">
-        <v>4659</v>
+        <v>4667</v>
       </c>
       <c r="D19">
-        <v>4784</v>
+        <v>4787</v>
       </c>
       <c r="E19">
-        <v>5315</v>
+        <v>5316</v>
       </c>
       <c r="F19">
-        <v>5252</v>
+        <v>5253</v>
       </c>
       <c r="G19">
-        <v>5375</v>
+        <v>5380</v>
       </c>
       <c r="H19">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="I19">
         <v>1.23</v>
@@ -1289,28 +1284,28 @@
         <v>43910</v>
       </c>
       <c r="B20">
-        <v>5328</v>
+        <v>5324</v>
       </c>
       <c r="C20">
-        <v>5267</v>
+        <v>5270</v>
       </c>
       <c r="D20">
-        <v>5397</v>
+        <v>5386</v>
       </c>
       <c r="E20">
         <v>5142</v>
       </c>
       <c r="F20">
-        <v>5079</v>
+        <v>5081</v>
       </c>
       <c r="G20">
-        <v>5204</v>
+        <v>5205</v>
       </c>
       <c r="H20">
         <v>1.05</v>
       </c>
       <c r="I20">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="J20">
         <v>1.06</v>
@@ -1330,22 +1325,22 @@
         <v>43911</v>
       </c>
       <c r="B21">
-        <v>4441</v>
+        <v>4444</v>
       </c>
       <c r="C21">
-        <v>4383</v>
+        <v>4385</v>
       </c>
       <c r="D21">
-        <v>4509</v>
+        <v>4506</v>
       </c>
       <c r="E21">
-        <v>4945</v>
+        <v>4946</v>
       </c>
       <c r="F21">
-        <v>4884</v>
+        <v>4886</v>
       </c>
       <c r="G21">
-        <v>5009</v>
+        <v>5007</v>
       </c>
       <c r="H21">
         <v>0.97</v>
@@ -1371,28 +1366,28 @@
         <v>43912</v>
       </c>
       <c r="B22">
-        <v>3813</v>
+        <v>3811</v>
       </c>
       <c r="C22">
-        <v>3758</v>
+        <v>3761</v>
       </c>
       <c r="D22">
-        <v>3873</v>
+        <v>3864</v>
       </c>
       <c r="E22">
         <v>4576</v>
       </c>
       <c r="F22">
-        <v>4517</v>
+        <v>4521</v>
       </c>
       <c r="G22">
-        <v>4641</v>
+        <v>4635</v>
       </c>
       <c r="H22">
         <v>0.86</v>
       </c>
       <c r="I22">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="J22">
         <v>0.87</v>
@@ -1412,22 +1407,22 @@
         <v>43913</v>
       </c>
       <c r="B23">
-        <v>5152</v>
+        <v>5153</v>
       </c>
       <c r="C23">
-        <v>5096</v>
+        <v>5095</v>
       </c>
       <c r="D23">
-        <v>5221</v>
+        <v>5210</v>
       </c>
       <c r="E23">
         <v>4683</v>
       </c>
       <c r="F23">
-        <v>4626</v>
+        <v>4628</v>
       </c>
       <c r="G23">
-        <v>4750</v>
+        <v>4741</v>
       </c>
       <c r="H23">
         <v>0.88</v>
@@ -1453,22 +1448,22 @@
         <v>43914</v>
       </c>
       <c r="B24">
-        <v>4073</v>
+        <v>4071</v>
       </c>
       <c r="C24">
-        <v>4020</v>
+        <v>4009</v>
       </c>
       <c r="D24">
-        <v>4136</v>
+        <v>4134</v>
       </c>
       <c r="E24">
         <v>4370</v>
       </c>
       <c r="F24">
-        <v>4314</v>
+        <v>4312</v>
       </c>
       <c r="G24">
-        <v>4435</v>
+        <v>4428</v>
       </c>
       <c r="H24">
         <v>0.85</v>
@@ -1494,13 +1489,13 @@
         <v>43915</v>
       </c>
       <c r="B25">
-        <v>4416</v>
+        <v>4419</v>
       </c>
       <c r="C25">
-        <v>4352</v>
+        <v>4361</v>
       </c>
       <c r="D25">
-        <v>4483</v>
+        <v>4487</v>
       </c>
       <c r="E25">
         <v>4364</v>
@@ -1509,7 +1504,7 @@
         <v>4306</v>
       </c>
       <c r="G25">
-        <v>4428</v>
+        <v>4423</v>
       </c>
       <c r="H25">
         <v>0.88</v>
@@ -1535,22 +1530,22 @@
         <v>43916</v>
       </c>
       <c r="B26">
-        <v>3994</v>
+        <v>3997</v>
       </c>
       <c r="C26">
         <v>3939</v>
       </c>
       <c r="D26">
-        <v>4049</v>
+        <v>4051</v>
       </c>
       <c r="E26">
-        <v>4409</v>
+        <v>4410</v>
       </c>
       <c r="F26">
-        <v>4352</v>
+        <v>4351</v>
       </c>
       <c r="G26">
-        <v>4472</v>
+        <v>4470</v>
       </c>
       <c r="H26">
         <v>0.96</v>
@@ -1579,19 +1574,19 @@
         <v>4123</v>
       </c>
       <c r="C27">
-        <v>4072</v>
+        <v>4074</v>
       </c>
       <c r="D27">
-        <v>4178</v>
+        <v>4184</v>
       </c>
       <c r="E27">
-        <v>4152</v>
+        <v>4153</v>
       </c>
       <c r="F27">
-        <v>4096</v>
+        <v>4095</v>
       </c>
       <c r="G27">
-        <v>4211</v>
+        <v>4214</v>
       </c>
       <c r="H27">
         <v>0.89</v>
@@ -1620,19 +1615,19 @@
         <v>3888</v>
       </c>
       <c r="C28">
-        <v>3831</v>
+        <v>3821</v>
       </c>
       <c r="D28">
-        <v>3946</v>
+        <v>3956</v>
       </c>
       <c r="E28">
-        <v>4105</v>
+        <v>4107</v>
       </c>
       <c r="F28">
         <v>4048</v>
       </c>
       <c r="G28">
-        <v>4164</v>
+        <v>4169</v>
       </c>
       <c r="H28">
         <v>0.94</v>
@@ -1658,13 +1653,13 @@
         <v>43919</v>
       </c>
       <c r="B29">
-        <v>3261</v>
+        <v>3259</v>
       </c>
       <c r="C29">
-        <v>3198</v>
+        <v>3207</v>
       </c>
       <c r="D29">
-        <v>3328</v>
+        <v>3322</v>
       </c>
       <c r="E29">
         <v>3817</v>
@@ -1673,13 +1668,13 @@
         <v>3760</v>
       </c>
       <c r="G29">
-        <v>3875</v>
+        <v>3878</v>
       </c>
       <c r="H29">
         <v>0.87</v>
       </c>
       <c r="I29">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="J29">
         <v>0.88</v>
@@ -1699,22 +1694,22 @@
         <v>43920</v>
       </c>
       <c r="B30">
-        <v>4391</v>
+        <v>4395</v>
       </c>
       <c r="C30">
-        <v>4329</v>
+        <v>4337</v>
       </c>
       <c r="D30">
-        <v>4450</v>
+        <v>4461</v>
       </c>
       <c r="E30">
         <v>3916</v>
       </c>
       <c r="F30">
-        <v>3857</v>
+        <v>3859</v>
       </c>
       <c r="G30">
-        <v>3975</v>
+        <v>3981</v>
       </c>
       <c r="H30">
         <v>0.89</v>
@@ -1740,7 +1735,7 @@
         <v>43921</v>
       </c>
       <c r="B31">
-        <v>3579</v>
+        <v>3577</v>
       </c>
       <c r="C31">
         <v>3517</v>
@@ -1752,10 +1747,10 @@
         <v>3780</v>
       </c>
       <c r="F31">
-        <v>3718</v>
+        <v>3720</v>
       </c>
       <c r="G31">
-        <v>3841</v>
+        <v>3845</v>
       </c>
       <c r="H31">
         <v>0.91</v>
@@ -1781,19 +1776,19 @@
         <v>43922</v>
       </c>
       <c r="B32">
-        <v>4038</v>
+        <v>4037</v>
       </c>
       <c r="C32">
-        <v>3970</v>
+        <v>3986</v>
       </c>
       <c r="D32">
-        <v>4110</v>
+        <v>4104</v>
       </c>
       <c r="E32">
         <v>3817</v>
       </c>
       <c r="F32">
-        <v>3753</v>
+        <v>3761</v>
       </c>
       <c r="G32">
         <v>3882</v>
@@ -1825,19 +1820,19 @@
         <v>3727</v>
       </c>
       <c r="C33">
-        <v>3657</v>
+        <v>3671</v>
       </c>
       <c r="D33">
-        <v>3788</v>
+        <v>3797</v>
       </c>
       <c r="E33">
         <v>3934</v>
       </c>
       <c r="F33">
-        <v>3868</v>
+        <v>3877</v>
       </c>
       <c r="G33">
-        <v>3997</v>
+        <v>4000</v>
       </c>
       <c r="H33">
         <v>1.03</v>
@@ -1866,16 +1861,16 @@
         <v>3727</v>
       </c>
       <c r="C34">
-        <v>3671</v>
+        <v>3660</v>
       </c>
       <c r="D34">
         <v>3793</v>
       </c>
       <c r="E34">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="F34">
-        <v>3704</v>
+        <v>3708</v>
       </c>
       <c r="G34">
         <v>3833</v>
@@ -1893,7 +1888,7 @@
         <v>0.93</v>
       </c>
       <c r="L34">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="M34">
         <v>0.94</v>
@@ -1904,22 +1899,22 @@
         <v>43925</v>
       </c>
       <c r="B35">
-        <v>3006</v>
+        <v>3008</v>
       </c>
       <c r="C35">
         <v>2951</v>
       </c>
       <c r="D35">
-        <v>3064</v>
+        <v>3071</v>
       </c>
       <c r="E35">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="F35">
-        <v>3562</v>
+        <v>3567</v>
       </c>
       <c r="G35">
-        <v>3689</v>
+        <v>3691</v>
       </c>
       <c r="H35">
         <v>0.96</v>
@@ -1945,10 +1940,10 @@
         <v>43926</v>
       </c>
       <c r="B36">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="C36">
-        <v>2640</v>
+        <v>2648</v>
       </c>
       <c r="D36">
         <v>2741</v>
@@ -1957,10 +1952,10 @@
         <v>3289</v>
       </c>
       <c r="F36">
-        <v>3229</v>
+        <v>3232</v>
       </c>
       <c r="G36">
-        <v>3346</v>
+        <v>3350</v>
       </c>
       <c r="H36">
         <v>0.86</v>
@@ -1986,22 +1981,22 @@
         <v>43927</v>
       </c>
       <c r="B37">
-        <v>3351</v>
+        <v>3349</v>
       </c>
       <c r="C37">
-        <v>3286</v>
+        <v>3295</v>
       </c>
       <c r="D37">
-        <v>3402</v>
+        <v>3407</v>
       </c>
       <c r="E37">
         <v>3195</v>
       </c>
       <c r="F37">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="G37">
-        <v>3250</v>
+        <v>3253</v>
       </c>
       <c r="H37">
         <v>0.81</v>
@@ -2027,22 +2022,22 @@
         <v>43928</v>
       </c>
       <c r="B38">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="C38">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="D38">
-        <v>3117</v>
+        <v>3112</v>
       </c>
       <c r="E38">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="F38">
-        <v>2968</v>
+        <v>2972</v>
       </c>
       <c r="G38">
-        <v>3081</v>
+        <v>3083</v>
       </c>
       <c r="H38">
         <v>0.8</v>
@@ -2068,28 +2063,28 @@
         <v>43929</v>
       </c>
       <c r="B39">
-        <v>2875</v>
+        <v>2878</v>
       </c>
       <c r="C39">
-        <v>2823</v>
+        <v>2819</v>
       </c>
       <c r="D39">
-        <v>2929</v>
+        <v>2940</v>
       </c>
       <c r="E39">
         <v>2994</v>
       </c>
       <c r="F39">
-        <v>2936</v>
+        <v>2939</v>
       </c>
       <c r="G39">
-        <v>3047</v>
+        <v>3050</v>
       </c>
       <c r="H39">
         <v>0.83</v>
       </c>
       <c r="I39">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="J39">
         <v>0.84</v>
@@ -2109,22 +2104,22 @@
         <v>43930</v>
       </c>
       <c r="B40">
-        <v>2689</v>
+        <v>2691</v>
       </c>
       <c r="C40">
         <v>2635</v>
       </c>
       <c r="D40">
-        <v>2749</v>
+        <v>2745</v>
       </c>
       <c r="E40">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="F40">
-        <v>2934</v>
+        <v>2936</v>
       </c>
       <c r="G40">
-        <v>3049</v>
+        <v>3051</v>
       </c>
       <c r="H40">
         <v>0.91</v>
@@ -2142,7 +2137,7 @@
         <v>0.82</v>
       </c>
       <c r="M40">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2150,19 +2145,19 @@
         <v>43931</v>
       </c>
       <c r="B41">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="C41">
-        <v>2265</v>
+        <v>2280</v>
       </c>
       <c r="D41">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="E41">
-        <v>2735</v>
+        <v>2737</v>
       </c>
       <c r="F41">
-        <v>2679</v>
+        <v>2682</v>
       </c>
       <c r="G41">
         <v>2792</v>
@@ -2171,7 +2166,7 @@
         <v>0.86</v>
       </c>
       <c r="I41">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J41">
         <v>0.87</v>
@@ -2191,22 +2186,22 @@
         <v>43932</v>
       </c>
       <c r="B42">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="C42">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="D42">
-        <v>2060</v>
+        <v>2072</v>
       </c>
       <c r="E42">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="F42">
-        <v>2423</v>
+        <v>2426</v>
       </c>
       <c r="G42">
-        <v>2527</v>
+        <v>2532</v>
       </c>
       <c r="H42">
         <v>0.82</v>
@@ -2235,19 +2230,19 @@
         <v>1950</v>
       </c>
       <c r="C43">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D43">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E43">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="F43">
-        <v>2193</v>
+        <v>2196</v>
       </c>
       <c r="G43">
-        <v>2295</v>
+        <v>2298</v>
       </c>
       <c r="H43">
         <v>0.75</v>
@@ -2273,22 +2268,22 @@
         <v>43934</v>
       </c>
       <c r="B44">
-        <v>1885</v>
+        <v>1888</v>
       </c>
       <c r="C44">
         <v>1836</v>
       </c>
       <c r="D44">
-        <v>1931</v>
+        <v>1936</v>
       </c>
       <c r="E44">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="F44">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="G44">
-        <v>2090</v>
+        <v>2096</v>
       </c>
       <c r="H44">
         <v>0.68</v>
@@ -2317,19 +2312,19 @@
         <v>1941</v>
       </c>
       <c r="C45">
-        <v>1896</v>
+        <v>1890</v>
       </c>
       <c r="D45">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="E45">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="F45">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="G45">
-        <v>1994</v>
+        <v>2000</v>
       </c>
       <c r="H45">
         <v>0.71</v>
@@ -2358,19 +2353,19 @@
         <v>1936</v>
       </c>
       <c r="C46">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="D46">
-        <v>1977</v>
+        <v>1995</v>
       </c>
       <c r="E46">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="F46">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="G46">
-        <v>1973</v>
+        <v>1981</v>
       </c>
       <c r="H46">
         <v>0.78</v>
@@ -2396,22 +2391,22 @@
         <v>43937</v>
       </c>
       <c r="B47">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="C47">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="D47">
-        <v>1801</v>
+        <v>1794</v>
       </c>
       <c r="E47">
         <v>1878</v>
       </c>
       <c r="F47">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="G47">
-        <v>1924</v>
+        <v>1929</v>
       </c>
       <c r="H47">
         <v>0.84</v>
@@ -2437,22 +2432,22 @@
         <v>43938</v>
       </c>
       <c r="B48">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C48">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D48">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E48">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F48">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="G48">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="H48">
         <v>0.89</v>
@@ -2461,7 +2456,7 @@
         <v>0.87</v>
       </c>
       <c r="J48">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="K48">
         <v>0.8</v>
@@ -2478,22 +2473,22 @@
         <v>43939</v>
       </c>
       <c r="B49">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="C49">
-        <v>1393</v>
+        <v>1382</v>
       </c>
       <c r="D49">
         <v>1477</v>
       </c>
       <c r="E49">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="F49">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="G49">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="H49">
         <v>0.87</v>
@@ -2522,22 +2517,22 @@
         <v>1310</v>
       </c>
       <c r="C50">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="D50">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="E50">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="F50">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="G50">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="H50">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="I50">
         <v>0.78</v>
@@ -2560,22 +2555,22 @@
         <v>43941</v>
       </c>
       <c r="B51">
-        <v>1572</v>
+        <v>1576</v>
       </c>
       <c r="C51">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D51">
-        <v>1612</v>
+        <v>1624</v>
       </c>
       <c r="E51">
         <v>1491</v>
       </c>
       <c r="F51">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="G51">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="H51">
         <v>0.79</v>
@@ -2601,22 +2596,22 @@
         <v>43942</v>
       </c>
       <c r="B52">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="C52">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D52">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="E52">
         <v>1417</v>
       </c>
       <c r="F52">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G52">
-        <v>1458</v>
+        <v>1463</v>
       </c>
       <c r="H52">
         <v>0.78</v>
@@ -2634,7 +2629,7 @@
         <v>0.82</v>
       </c>
       <c r="M52">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2642,22 +2637,22 @@
         <v>43943</v>
       </c>
       <c r="B53">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="C53">
-        <v>1252</v>
+        <v>1258</v>
       </c>
       <c r="D53">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="E53">
         <v>1382</v>
       </c>
       <c r="F53">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="G53">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="H53">
         <v>0.82</v>
@@ -2683,22 +2678,22 @@
         <v>43944</v>
       </c>
       <c r="B54">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="C54">
-        <v>1219</v>
+        <v>1224</v>
       </c>
       <c r="D54">
-        <v>1302</v>
+        <v>1312</v>
       </c>
       <c r="E54">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="F54">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="G54">
-        <v>1412</v>
+        <v>1417</v>
       </c>
       <c r="H54">
         <v>0.89</v>
@@ -2707,7 +2702,7 @@
         <v>0.87</v>
       </c>
       <c r="J54">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="K54">
         <v>0.81</v>
@@ -2724,19 +2719,19 @@
         <v>43945</v>
       </c>
       <c r="B55">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C55">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D55">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="E55">
         <v>1265</v>
       </c>
       <c r="F55">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="G55">
         <v>1307</v>
@@ -2754,7 +2749,7 @@
         <v>0.81</v>
       </c>
       <c r="L55">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="M55">
         <v>0.82</v>
@@ -2771,16 +2766,16 @@
         <v>968</v>
       </c>
       <c r="D56">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="E56">
         <v>1179</v>
       </c>
       <c r="F56">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="G56">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="H56">
         <v>0.83</v>
@@ -2792,7 +2787,7 @@
         <v>0.85</v>
       </c>
       <c r="K56">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="L56">
         <v>0.81</v>
@@ -2809,25 +2804,25 @@
         <v>902</v>
       </c>
       <c r="C57">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D57">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E57">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F57">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="G57">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H57">
         <v>0.78</v>
       </c>
       <c r="I57">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="J57">
         <v>0.8</v>
@@ -2847,13 +2842,13 @@
         <v>43948</v>
       </c>
       <c r="B58">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C58">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="D58">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="E58">
         <v>1039</v>
@@ -2862,7 +2857,7 @@
         <v>1002</v>
       </c>
       <c r="G58">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="H58">
         <v>0.76</v>
@@ -2871,7 +2866,7 @@
         <v>0.74</v>
       </c>
       <c r="J58">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="K58">
         <v>0.82</v>
@@ -2891,25 +2886,25 @@
         <v>945</v>
       </c>
       <c r="C59">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D59">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="E59">
         <v>988</v>
       </c>
       <c r="F59">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G59">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H59">
         <v>0.78</v>
       </c>
       <c r="I59">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="J59">
         <v>0.8</v>
@@ -2929,19 +2924,19 @@
         <v>43950</v>
       </c>
       <c r="B60">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C60">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="D60">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="E60">
         <v>953</v>
       </c>
       <c r="F60">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G60">
         <v>990</v>
@@ -2970,19 +2965,19 @@
         <v>43951</v>
       </c>
       <c r="B61">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C61">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="D61">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E61">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F61">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="G61">
         <v>998</v>
@@ -2994,16 +2989,16 @@
         <v>0.87</v>
       </c>
       <c r="J61">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="K61">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="L61">
         <v>0.8</v>
       </c>
       <c r="M61">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3011,31 +3006,31 @@
         <v>43952</v>
       </c>
       <c r="B62">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C62">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="D62">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E62">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F62">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="G62">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="H62">
         <v>0.86</v>
       </c>
       <c r="I62">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="J62">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="K62">
         <v>0.82</v>
@@ -3044,7 +3039,7 @@
         <v>0.81</v>
       </c>
       <c r="M62">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3052,31 +3047,31 @@
         <v>43953</v>
       </c>
       <c r="B63">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C63">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="D63">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="E63">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F63">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G63">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="H63">
         <v>0.85</v>
       </c>
       <c r="I63">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="J63">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="K63">
         <v>0.85</v>
@@ -3093,22 +3088,22 @@
         <v>43954</v>
       </c>
       <c r="B64">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C64">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D64">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="E64">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F64">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G64">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="H64">
         <v>0.85</v>
@@ -3117,7 +3112,7 @@
         <v>0.83</v>
       </c>
       <c r="J64">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="K64">
         <v>0.86</v>
@@ -3134,13 +3129,13 @@
         <v>43955</v>
       </c>
       <c r="B65">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C65">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="D65">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E65">
         <v>800</v>
@@ -3149,7 +3144,7 @@
         <v>767</v>
       </c>
       <c r="G65">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H65">
         <v>0.83</v>
@@ -3175,31 +3170,31 @@
         <v>43956</v>
       </c>
       <c r="B66">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C66">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="D66">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E66">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F66">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="G66">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H66">
         <v>0.9</v>
       </c>
       <c r="I66">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J66">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="K66">
         <v>0.9</v>
@@ -3216,28 +3211,28 @@
         <v>43957</v>
       </c>
       <c r="B67">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C67">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D67">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="E67">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F67">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="G67">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="H67">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="I67">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="J67">
         <v>0.98</v>
@@ -3246,7 +3241,7 @@
         <v>0.89</v>
       </c>
       <c r="L67">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="M67">
         <v>0.9</v>
@@ -3257,22 +3252,22 @@
         <v>43958</v>
       </c>
       <c r="B68">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C68">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D68">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E68">
         <v>789</v>
       </c>
       <c r="F68">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="G68">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H68">
         <v>0.97</v>
@@ -3284,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="K68">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="L68">
         <v>0.88</v>
@@ -3298,22 +3293,22 @@
         <v>43959</v>
       </c>
       <c r="B69">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C69">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D69">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E69">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F69">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="G69">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="H69">
         <v>0.92</v>
@@ -3328,10 +3323,10 @@
         <v>0.89</v>
       </c>
       <c r="L69">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="M69">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3339,28 +3334,28 @@
         <v>43960</v>
       </c>
       <c r="B70">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C70">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D70">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E70">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F70">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G70">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H70">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="I70">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="J70">
         <v>0.87</v>
@@ -3383,19 +3378,19 @@
         <v>553</v>
       </c>
       <c r="C71">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D71">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E71">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F71">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G71">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H71">
         <v>0.79</v>
@@ -3421,22 +3416,22 @@
         <v>43962</v>
       </c>
       <c r="B72">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C72">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D72">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="E72">
         <v>620</v>
       </c>
       <c r="F72">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G72">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H72">
         <v>0.79</v>
@@ -3462,22 +3457,22 @@
         <v>43963</v>
       </c>
       <c r="B73">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C73">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D73">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="E73">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F73">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G73">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H73">
         <v>0.82</v>
@@ -3486,7 +3481,7 @@
         <v>0.8</v>
       </c>
       <c r="J73">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="K73">
         <v>0.85</v>
@@ -3495,7 +3490,7 @@
         <v>0.84</v>
       </c>
       <c r="M73">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3503,22 +3498,22 @@
         <v>43964</v>
       </c>
       <c r="B74">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C74">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D74">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="E74">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F74">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G74">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="H74">
         <v>0.9</v>
@@ -3544,22 +3539,22 @@
         <v>43965</v>
       </c>
       <c r="B75">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C75">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D75">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E75">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F75">
         <v>569</v>
       </c>
       <c r="G75">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="H75">
         <v>0.95</v>
@@ -3585,22 +3580,22 @@
         <v>43966</v>
       </c>
       <c r="B76">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C76">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D76">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="E76">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F76">
         <v>572</v>
       </c>
       <c r="G76">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="H76">
         <v>0.97</v>
@@ -3609,7 +3604,7 @@
         <v>0.94</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="K76">
         <v>0.92</v>
@@ -3626,28 +3621,28 @@
         <v>43967</v>
       </c>
       <c r="B77">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C77">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D77">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="E77">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F77">
         <v>556</v>
       </c>
       <c r="G77">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H77">
         <v>0.97</v>
       </c>
       <c r="I77">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -3659,7 +3654,7 @@
         <v>0.91</v>
       </c>
       <c r="M77">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3670,16 +3665,16 @@
         <v>442</v>
       </c>
       <c r="C78">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D78">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E78">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F78">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G78">
         <v>581</v>
@@ -3688,7 +3683,7 @@
         <v>0.91</v>
       </c>
       <c r="I78">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="J78">
         <v>0.94</v>
@@ -3708,19 +3703,19 @@
         <v>43969</v>
       </c>
       <c r="B79">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C79">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="D79">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E79">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F79">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G79">
         <v>605</v>
@@ -3729,7 +3724,7 @@
         <v>0.96</v>
       </c>
       <c r="I79">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="J79">
         <v>0.99</v>
@@ -3738,10 +3733,10 @@
         <v>0.92</v>
       </c>
       <c r="L79">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="M79">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3752,28 +3747,28 @@
         <v>468</v>
       </c>
       <c r="C80">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D80">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E80">
         <v>521</v>
       </c>
       <c r="F80">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G80">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H80">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="I80">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="J80">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="K80">
         <v>0.92</v>
@@ -3782,7 +3777,7 @@
         <v>0.9</v>
       </c>
       <c r="M80">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3790,22 +3785,22 @@
         <v>43971</v>
       </c>
       <c r="B81">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C81">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D81">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="E81">
         <v>523</v>
       </c>
       <c r="F81">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G81">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H81">
         <v>0.89</v>
@@ -3814,13 +3809,13 @@
         <v>0.86</v>
       </c>
       <c r="J81">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="K81">
         <v>0.91</v>
       </c>
       <c r="L81">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="M81">
         <v>0.93</v>
@@ -3834,19 +3829,19 @@
         <v>389</v>
       </c>
       <c r="C82">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D82">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E82">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F82">
         <v>479</v>
       </c>
       <c r="G82">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H82">
         <v>0.93</v>
@@ -3855,13 +3850,13 @@
         <v>0.89</v>
       </c>
       <c r="J82">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="K82">
         <v>0.85</v>
       </c>
       <c r="L82">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="M82">
         <v>0.87</v>
@@ -3875,16 +3870,16 @@
         <v>387</v>
       </c>
       <c r="C83">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D83">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E83">
         <v>452</v>
       </c>
       <c r="F83">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G83">
         <v>481</v>
@@ -3919,16 +3914,16 @@
         <v>337</v>
       </c>
       <c r="D84">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E84">
         <v>426</v>
       </c>
       <c r="F84">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G84">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H84">
         <v>0.82</v>
@@ -3954,31 +3949,31 @@
         <v>43975</v>
       </c>
       <c r="B85">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C85">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D85">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E85">
         <v>378</v>
       </c>
       <c r="F85">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G85">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H85">
         <v>0.72</v>
       </c>
       <c r="I85">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="J85">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="K85">
         <v>0.81</v>
@@ -3995,28 +3990,28 @@
         <v>43976</v>
       </c>
       <c r="B86">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C86">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D86">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E86">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F86">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G86">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H86">
         <v>0.78</v>
       </c>
       <c r="I86">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="J86">
         <v>0.81</v>
@@ -4036,19 +4031,19 @@
         <v>43977</v>
       </c>
       <c r="B87">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C87">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D87">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E87">
         <v>409</v>
       </c>
       <c r="F87">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G87">
         <v>435</v>
@@ -4060,7 +4055,7 @@
         <v>0.87</v>
       </c>
       <c r="J87">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="K87">
         <v>0.89</v>
@@ -4080,19 +4075,19 @@
         <v>454</v>
       </c>
       <c r="C88">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D88">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E88">
         <v>432</v>
       </c>
       <c r="F88">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G88">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H88">
         <v>1.01</v>
@@ -4118,22 +4113,22 @@
         <v>43979</v>
       </c>
       <c r="B89">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C89">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D89">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E89">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F89">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G89">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H89">
         <v>1.1499999999999999</v>
@@ -4145,7 +4140,7 @@
         <v>1.2</v>
       </c>
       <c r="K89">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="L89">
         <v>0.91</v>
@@ -4162,16 +4157,16 @@
         <v>347</v>
       </c>
       <c r="C90">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D90">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E90">
         <v>403</v>
       </c>
       <c r="F90">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G90">
         <v>428</v>
@@ -4203,25 +4198,25 @@
         <v>290</v>
       </c>
       <c r="C91">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D91">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E91">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F91">
         <v>344</v>
       </c>
       <c r="G91">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H91">
         <v>0.9</v>
       </c>
       <c r="I91">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="J91">
         <v>0.94</v>
@@ -4241,22 +4236,22 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C92">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D92">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E92">
         <v>321</v>
       </c>
       <c r="F92">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G92">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H92">
         <v>0.74</v>
@@ -4271,7 +4266,7 @@
         <v>0.88</v>
       </c>
       <c r="L92">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="M92">
         <v>0.9</v>
@@ -4285,19 +4280,19 @@
         <v>329</v>
       </c>
       <c r="C93">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D93">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E93">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F93">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G93">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H93">
         <v>0.71</v>
@@ -4326,19 +4321,19 @@
         <v>438</v>
       </c>
       <c r="C94">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D94">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E94">
         <v>331</v>
       </c>
       <c r="F94">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G94">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H94">
         <v>0.82</v>
@@ -4356,7 +4351,7 @@
         <v>0.87</v>
       </c>
       <c r="M94">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4364,28 +4359,28 @@
         <v>43985</v>
       </c>
       <c r="B95">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C95">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D95">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E95">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F95">
         <v>334</v>
       </c>
       <c r="G95">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H95">
         <v>0.98</v>
       </c>
       <c r="I95">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="J95">
         <v>1.02</v>
@@ -4405,13 +4400,13 @@
         <v>43986</v>
       </c>
       <c r="B96">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C96">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D96">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E96">
         <v>377</v>
@@ -4420,19 +4415,19 @@
         <v>351</v>
       </c>
       <c r="G96">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H96">
         <v>1.17</v>
       </c>
       <c r="I96">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J96">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="K96">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="L96">
         <v>0.93</v>
@@ -4446,13 +4441,13 @@
         <v>43987</v>
       </c>
       <c r="B97">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C97">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D97">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E97">
         <v>375</v>
@@ -4461,22 +4456,22 @@
         <v>350</v>
       </c>
       <c r="G97">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H97">
         <v>1.22</v>
       </c>
       <c r="I97">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J97">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="K97">
         <v>0.96</v>
       </c>
       <c r="L97">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="M97">
         <v>0.98</v>
@@ -4487,31 +4482,31 @@
         <v>43988</v>
       </c>
       <c r="B98">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C98">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D98">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E98">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F98">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G98">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H98">
         <v>1.03</v>
       </c>
       <c r="I98">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="J98">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K98">
         <v>0.96</v>
@@ -4528,10 +4523,10 @@
         <v>43989</v>
       </c>
       <c r="B99">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C99">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D99">
         <v>256</v>
@@ -4543,10 +4538,10 @@
         <v>278</v>
       </c>
       <c r="G99">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H99">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="I99">
         <v>0.79</v>
@@ -4569,22 +4564,22 @@
         <v>43990</v>
       </c>
       <c r="B100">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C100">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D100">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E100">
         <v>317</v>
       </c>
       <c r="F100">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G100">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H100">
         <v>0.84</v>
@@ -4593,7 +4588,7 @@
         <v>0.8</v>
       </c>
       <c r="J100">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="K100">
         <v>1.03</v>
@@ -4602,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="M100">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4610,31 +4605,31 @@
         <v>43991</v>
       </c>
       <c r="B101">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C101">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D101">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E101">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F101">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G101">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H101">
         <v>0.93</v>
       </c>
       <c r="I101">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="J101">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="K101">
         <v>1.04</v>
@@ -4643,7 +4638,7 @@
         <v>1.01</v>
       </c>
       <c r="M101">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4651,31 +4646,31 @@
         <v>43992</v>
       </c>
       <c r="B102">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C102">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D102">
         <v>461</v>
       </c>
       <c r="E102">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F102">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G102">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H102">
         <v>1.1200000000000001</v>
       </c>
       <c r="I102">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="J102">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="K102">
         <v>1.07</v>
@@ -4684,7 +4679,7 @@
         <v>1.04</v>
       </c>
       <c r="M102">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4692,22 +4687,22 @@
         <v>43993</v>
       </c>
       <c r="B103">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C103">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D103">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E103">
         <v>416</v>
       </c>
       <c r="F103">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G103">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H103">
         <v>1.39</v>
@@ -4716,7 +4711,7 @@
         <v>1.32</v>
       </c>
       <c r="J103">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="K103">
         <v>1.05</v>
@@ -4733,31 +4728,31 @@
         <v>43994</v>
       </c>
       <c r="B104">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C104">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D104">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E104">
         <v>406</v>
       </c>
       <c r="F104">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G104">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H104">
         <v>1.28</v>
       </c>
       <c r="I104">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="J104">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="K104">
         <v>1.07</v>
@@ -4777,28 +4772,28 @@
         <v>365</v>
       </c>
       <c r="C105">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D105">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E105">
         <v>385</v>
       </c>
       <c r="F105">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G105">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H105">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I105">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="J105">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="K105">
         <v>1.1100000000000001</v>
@@ -4815,22 +4810,22 @@
         <v>43996</v>
       </c>
       <c r="B106">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C106">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D106">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E106">
         <v>366</v>
       </c>
       <c r="F106">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G106">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H106">
         <v>0.96</v>
@@ -4839,7 +4834,7 @@
         <v>0.91</v>
       </c>
       <c r="J106">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="K106">
         <v>1.19</v>
@@ -4848,7 +4843,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="M106">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4859,34 +4854,34 @@
         <v>643</v>
       </c>
       <c r="C107">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D107">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E107">
         <v>434</v>
       </c>
       <c r="F107">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G107">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H107">
         <v>1.05</v>
       </c>
       <c r="I107">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="J107">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K107">
         <v>1.42</v>
       </c>
       <c r="L107">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M107">
         <v>1.46</v>
@@ -4897,37 +4892,37 @@
         <v>43998</v>
       </c>
       <c r="B108">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C108">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D108">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E108">
         <v>620</v>
       </c>
       <c r="F108">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G108">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H108">
         <v>1.53</v>
       </c>
       <c r="I108">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="J108">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="K108">
         <v>1.47</v>
       </c>
       <c r="L108">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M108">
         <v>1.51</v>
@@ -4938,31 +4933,31 @@
         <v>43999</v>
       </c>
       <c r="B109">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C109">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D109">
         <v>697</v>
       </c>
       <c r="E109">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F109">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G109">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H109">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="I109">
         <v>1.73</v>
       </c>
       <c r="J109">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="K109">
         <v>1.47</v>
@@ -4971,7 +4966,7 @@
         <v>1.43</v>
       </c>
       <c r="M109">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4979,22 +4974,22 @@
         <v>44000</v>
       </c>
       <c r="B110">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C110">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D110">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E110">
         <v>739</v>
       </c>
       <c r="F110">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="G110">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H110">
         <v>2.02</v>
@@ -5003,7 +4998,7 @@
         <v>1.94</v>
       </c>
       <c r="J110">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="K110">
         <v>1.42</v>
@@ -5023,7 +5018,7 @@
         <v>569</v>
       </c>
       <c r="C111">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D111">
         <v>600</v>
@@ -5035,16 +5030,16 @@
         <v>687</v>
       </c>
       <c r="G111">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H111">
         <v>1.66</v>
       </c>
       <c r="I111">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="J111">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="K111">
         <v>1.19</v>
@@ -5053,7 +5048,7 @@
         <v>1.17</v>
       </c>
       <c r="M111">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5064,13 +5059,13 @@
         <v>472</v>
       </c>
       <c r="C112">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D112">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E112">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F112">
         <v>527</v>
@@ -5085,13 +5080,13 @@
         <v>0.87</v>
       </c>
       <c r="J112">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="K112">
         <v>1.1200000000000001</v>
       </c>
       <c r="L112">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="M112">
         <v>1.1399999999999999</v>
@@ -5102,19 +5097,19 @@
         <v>44003</v>
       </c>
       <c r="B113">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C113">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D113">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E113">
         <v>486</v>
       </c>
       <c r="F113">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G113">
         <v>516</v>
@@ -5149,7 +5144,7 @@
         <v>447</v>
       </c>
       <c r="D114">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E114">
         <v>471</v>
@@ -5158,13 +5153,13 @@
         <v>443</v>
       </c>
       <c r="G114">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H114">
         <v>0.64</v>
       </c>
       <c r="I114">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="J114">
         <v>0.66</v>
@@ -5184,13 +5179,13 @@
         <v>44005</v>
       </c>
       <c r="B115">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C115">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D115">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="E115">
         <v>437</v>
@@ -5199,7 +5194,7 @@
         <v>410</v>
       </c>
       <c r="G115">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H115">
         <v>0.61</v>
@@ -5228,19 +5223,19 @@
         <v>466</v>
       </c>
       <c r="C116">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D116">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="E116">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F116">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G116">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H116">
         <v>0.78</v>
@@ -5266,22 +5261,22 @@
         <v>44007</v>
       </c>
       <c r="B117">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C117">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D117">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E117">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F117">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G117">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H117">
         <v>0.91</v>
@@ -5290,7 +5285,7 @@
         <v>0.88</v>
       </c>
       <c r="J117">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="K117">
         <v>0.73</v>
@@ -5307,37 +5302,37 @@
         <v>44008</v>
       </c>
       <c r="B118">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C118">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D118">
         <v>459</v>
       </c>
       <c r="E118">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F118">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G118">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H118">
         <v>0.92</v>
       </c>
       <c r="I118">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="J118">
         <v>0.96</v>
       </c>
       <c r="K118">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="L118">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="M118">
         <v>0.85</v>
@@ -5351,25 +5346,25 @@
         <v>354</v>
       </c>
       <c r="C119">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D119">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E119">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F119">
         <v>388</v>
       </c>
       <c r="G119">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H119">
         <v>0.95</v>
       </c>
       <c r="I119">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="J119">
         <v>0.99</v>
@@ -5381,7 +5376,7 @@
         <v>0.85</v>
       </c>
       <c r="M119">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5389,22 +5384,22 @@
         <v>44010</v>
       </c>
       <c r="B120">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C120">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D120">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E120">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F120">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G120">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H120">
         <v>0.86</v>
@@ -5430,25 +5425,25 @@
         <v>44011</v>
       </c>
       <c r="B121">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C121">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D121">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="E121">
         <v>380</v>
       </c>
       <c r="F121">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G121">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H121">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="I121">
         <v>0.82</v>
@@ -5460,7 +5455,7 @@
         <v>0.93</v>
       </c>
       <c r="L121">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="M121">
         <v>0.95</v>
@@ -5471,31 +5466,31 @@
         <v>44012</v>
       </c>
       <c r="B122">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C122">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D122">
         <v>460</v>
       </c>
       <c r="E122">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F122">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G122">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H122">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="I122">
         <v>0.84</v>
       </c>
       <c r="J122">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="K122">
         <v>0.94</v>
@@ -5512,22 +5507,22 @@
         <v>44013</v>
       </c>
       <c r="B123">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C123">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D123">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E123">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F123">
         <v>369</v>
       </c>
       <c r="G123">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H123">
         <v>0.95</v>
@@ -5536,13 +5531,13 @@
         <v>0.91</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="K123">
         <v>0.94</v>
       </c>
       <c r="L123">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="M123">
         <v>0.96</v>
@@ -5553,22 +5548,22 @@
         <v>44014</v>
       </c>
       <c r="B124">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C124">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D124">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E124">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F124">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G124">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H124">
         <v>1.06</v>
@@ -5580,10 +5575,10 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="K124">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="L124">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="M124">
         <v>0.95</v>
@@ -5594,19 +5589,19 @@
         <v>44015</v>
       </c>
       <c r="B125">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C125">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D125">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E125">
         <v>381</v>
       </c>
       <c r="F125">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G125">
         <v>406</v>
@@ -5621,13 +5616,13 @@
         <v>1.05</v>
       </c>
       <c r="K125">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="L125">
         <v>0.88</v>
       </c>
       <c r="M125">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -5635,31 +5630,31 @@
         <v>44016</v>
       </c>
       <c r="B126">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C126">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D126">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E126">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F126">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G126">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H126">
         <v>0.91</v>
       </c>
       <c r="I126">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="J126">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="K126">
         <v>0.92</v>
@@ -5676,28 +5671,28 @@
         <v>44017</v>
       </c>
       <c r="B127">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C127">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D127">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E127">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F127">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G127">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H127">
         <v>0.81</v>
       </c>
       <c r="I127">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="J127">
         <v>0.85</v>
@@ -5717,28 +5712,28 @@
         <v>44018</v>
       </c>
       <c r="B128">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C128">
         <v>353</v>
       </c>
       <c r="D128">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="E128">
         <v>328</v>
       </c>
       <c r="F128">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G128">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H128">
         <v>0.82</v>
       </c>
       <c r="I128">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="J128">
         <v>0.86</v>
@@ -5750,7 +5745,7 @@
         <v>0.91</v>
       </c>
       <c r="M128">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -5758,28 +5753,28 @@
         <v>44019</v>
       </c>
       <c r="B129">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C129">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D129">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E129">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F129">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G129">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H129">
         <v>0.88</v>
       </c>
       <c r="I129">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="J129">
         <v>0.92</v>
@@ -5791,7 +5786,7 @@
         <v>0.91</v>
       </c>
       <c r="M129">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -5799,22 +5794,22 @@
         <v>44020</v>
       </c>
       <c r="B130">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C130">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D130">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E130">
         <v>349</v>
       </c>
       <c r="F130">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G130">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H130">
         <v>1.01</v>
@@ -5840,34 +5835,34 @@
         <v>44021</v>
       </c>
       <c r="B131">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C131">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D131">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E131">
         <v>370</v>
       </c>
       <c r="F131">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G131">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H131">
         <v>1.1599999999999999</v>
       </c>
       <c r="I131">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J131">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="K131">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="L131">
         <v>0.98</v>
@@ -5881,16 +5876,16 @@
         <v>44022</v>
       </c>
       <c r="B132">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C132">
         <v>404</v>
       </c>
       <c r="D132">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E132">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F132">
         <v>360</v>
@@ -5905,7 +5900,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="J132">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="K132">
         <v>1.07</v>
@@ -5914,7 +5909,7 @@
         <v>1.04</v>
       </c>
       <c r="M132">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -5925,10 +5920,10 @@
         <v>387</v>
       </c>
       <c r="C133">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D133">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E133">
         <v>387</v>
@@ -5937,7 +5932,7 @@
         <v>363</v>
       </c>
       <c r="G133">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H133">
         <v>1.1599999999999999</v>
@@ -5966,25 +5961,25 @@
         <v>361</v>
       </c>
       <c r="C134">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D134">
         <v>387</v>
       </c>
       <c r="E134">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F134">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G134">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H134">
         <v>1.1100000000000001</v>
       </c>
       <c r="I134">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="J134">
         <v>1.17</v>
@@ -6004,28 +5999,28 @@
         <v>44025</v>
       </c>
       <c r="B135">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C135">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D135">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E135">
         <v>430</v>
       </c>
       <c r="F135">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G135">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H135">
         <v>1.1599999999999999</v>
       </c>
       <c r="I135">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J135">
         <v>1.21</v>
@@ -6048,37 +6043,37 @@
         <v>515</v>
       </c>
       <c r="C136">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D136">
         <v>544</v>
       </c>
       <c r="E136">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F136">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G136">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H136">
         <v>1.18</v>
       </c>
       <c r="I136">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J136">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="K136">
         <v>1.22</v>
       </c>
       <c r="L136">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M136">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6089,28 +6084,28 @@
         <v>555</v>
       </c>
       <c r="C137">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D137">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E137">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F137">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G137">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H137">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="I137">
         <v>1.22</v>
       </c>
       <c r="J137">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="K137">
         <v>1.23</v>
@@ -6130,16 +6125,16 @@
         <v>469</v>
       </c>
       <c r="C138">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D138">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="E138">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F138">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G138">
         <v>550</v>
@@ -6148,10 +6143,10 @@
         <v>1.34</v>
       </c>
       <c r="I138">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="J138">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="K138">
         <v>1.19</v>
@@ -6160,7 +6155,7 @@
         <v>1.17</v>
       </c>
       <c r="M138">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6168,13 +6163,13 @@
         <v>44029</v>
       </c>
       <c r="B139">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C139">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D139">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E139">
         <v>518</v>
@@ -6186,13 +6181,13 @@
         <v>547</v>
       </c>
       <c r="H139">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="I139">
         <v>1.1599999999999999</v>
       </c>
       <c r="J139">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="K139">
         <v>1.17</v>
@@ -6209,31 +6204,31 @@
         <v>44030</v>
       </c>
       <c r="B140">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C140">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D140">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="E140">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F140">
         <v>485</v>
       </c>
       <c r="G140">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H140">
         <v>1.1299999999999999</v>
       </c>
       <c r="I140">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="J140">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K140">
         <v>1.1399999999999999</v>
@@ -6242,7 +6237,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="M140">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6253,19 +6248,19 @@
         <v>515</v>
       </c>
       <c r="C141">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D141">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="E141">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F141">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G141">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H141">
         <v>1.02</v>
@@ -6297,13 +6292,13 @@
         <v>657</v>
       </c>
       <c r="D142">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="E142">
         <v>557</v>
       </c>
       <c r="F142">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G142">
         <v>587</v>
@@ -6318,7 +6313,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="K142">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="L142">
         <v>1.1499999999999999</v>
@@ -6332,40 +6327,40 @@
         <v>44033</v>
       </c>
       <c r="B143">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C143">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="D143">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="E143">
         <v>599</v>
       </c>
       <c r="F143">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G143">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H143">
         <v>1.1599999999999999</v>
       </c>
       <c r="I143">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J143">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="K143">
         <v>1.19</v>
       </c>
       <c r="L143">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="M143">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6376,19 +6371,19 @@
         <v>738</v>
       </c>
       <c r="C144">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D144">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="E144">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F144">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G144">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="H144">
         <v>1.29</v>
@@ -6414,28 +6409,28 @@
         <v>44035</v>
       </c>
       <c r="B145">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C145">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D145">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="E145">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F145">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G145">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="H145">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="I145">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="J145">
         <v>1.45</v>
@@ -6444,7 +6439,7 @@
         <v>1.2</v>
       </c>
       <c r="L145">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M145">
         <v>1.22</v>
@@ -6455,28 +6450,28 @@
         <v>44036</v>
       </c>
       <c r="B146">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C146">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D146">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="E146">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F146">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G146">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="H146">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="I146">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="J146">
         <v>1.31</v>
@@ -6496,31 +6491,31 @@
         <v>44037</v>
       </c>
       <c r="B147">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C147">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D147">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E147">
         <v>682</v>
       </c>
       <c r="F147">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G147">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H147">
         <v>1.1399999999999999</v>
       </c>
       <c r="I147">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J147">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="K147">
         <v>1.1399999999999999</v>
@@ -6540,19 +6535,19 @@
         <v>606</v>
       </c>
       <c r="C148">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D148">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="E148">
         <v>649</v>
       </c>
       <c r="F148">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G148">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="H148">
         <v>0.98</v>
@@ -6567,7 +6562,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="L148">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="M148">
         <v>1.1399999999999999</v>
@@ -6578,22 +6573,22 @@
         <v>44039</v>
       </c>
       <c r="B149">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C149">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="D149">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="E149">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F149">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G149">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="H149">
         <v>0.97</v>
@@ -6619,22 +6614,22 @@
         <v>44040</v>
       </c>
       <c r="B150">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C150">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="D150">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="E150">
         <v>703</v>
       </c>
       <c r="F150">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G150">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -6652,7 +6647,7 @@
         <v>1.05</v>
       </c>
       <c r="M150">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -6660,22 +6655,22 @@
         <v>44041</v>
       </c>
       <c r="B151">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C151">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="D151">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E151">
         <v>735</v>
       </c>
       <c r="F151">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="G151">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="H151">
         <v>1.08</v>
@@ -6684,7 +6679,7 @@
         <v>1.04</v>
       </c>
       <c r="J151">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K151">
         <v>1.06</v>
@@ -6693,7 +6688,7 @@
         <v>1.04</v>
       </c>
       <c r="M151">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -6701,22 +6696,22 @@
         <v>44042</v>
       </c>
       <c r="B152">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C152">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D152">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="E152">
         <v>773</v>
       </c>
       <c r="F152">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="G152">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H152">
         <v>1.19</v>
@@ -6742,37 +6737,37 @@
         <v>44043</v>
       </c>
       <c r="B153">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C153">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="D153">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="E153">
         <v>763</v>
       </c>
       <c r="F153">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="G153">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="H153">
         <v>1.1200000000000001</v>
       </c>
       <c r="I153">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="J153">
-        <v>1.1499999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="K153">
         <v>1.08</v>
       </c>
       <c r="L153">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="M153">
         <v>1.1000000000000001</v>
@@ -6783,22 +6778,22 @@
         <v>44044</v>
       </c>
       <c r="B154">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C154">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="D154">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E154">
         <v>776</v>
       </c>
       <c r="F154">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="G154">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="H154">
         <v>1.1000000000000001</v>
@@ -6807,7 +6802,7 @@
         <v>1.07</v>
       </c>
       <c r="J154">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K154">
         <v>1.1299999999999999</v>
@@ -6816,7 +6811,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="M154">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -6827,28 +6822,28 @@
         <v>900</v>
       </c>
       <c r="C155">
+        <v>854</v>
+      </c>
+      <c r="D155">
+        <v>939</v>
+      </c>
+      <c r="E155">
+        <v>815</v>
+      </c>
+      <c r="F155">
+        <v>775</v>
+      </c>
+      <c r="G155">
         <v>851</v>
-      </c>
-      <c r="D155">
-        <v>941</v>
-      </c>
-      <c r="E155">
-        <v>814</v>
-      </c>
-      <c r="F155">
-        <v>773</v>
-      </c>
-      <c r="G155">
-        <v>855</v>
       </c>
       <c r="H155">
         <v>1.1100000000000001</v>
       </c>
       <c r="I155">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="J155">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K155">
         <v>1.17</v>
@@ -6865,31 +6860,31 @@
         <v>44046</v>
       </c>
       <c r="B156">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="C156">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="D156">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E156">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="F156">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="G156">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="H156">
         <v>1.1599999999999999</v>
       </c>
       <c r="I156">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J156">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="K156">
         <v>1.19</v>
@@ -6909,28 +6904,28 @@
         <v>979</v>
       </c>
       <c r="C157">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="D157">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E157">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="F157">
         <v>900</v>
       </c>
       <c r="G157">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H157">
         <v>1.24</v>
       </c>
       <c r="I157">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="J157">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="K157">
         <v>1.19</v>
@@ -6947,22 +6942,22 @@
         <v>44048</v>
       </c>
       <c r="B158">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="C158">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="D158">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="E158">
         <v>986</v>
       </c>
       <c r="F158">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="G158">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="H158">
         <v>1.27</v>
@@ -6988,22 +6983,22 @@
         <v>44049</v>
       </c>
       <c r="B159">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C159">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D159">
         <v>1046</v>
       </c>
       <c r="E159">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F159">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="G159">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="H159">
         <v>1.24</v>
@@ -7012,13 +7007,13 @@
         <v>1.2</v>
       </c>
       <c r="J159">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="K159">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L159">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="M159">
         <v>1.19</v>
@@ -7032,22 +7027,22 @@
         <v>1053</v>
       </c>
       <c r="C160">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D160">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="E160">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F160">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="G160">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="H160">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I160">
         <v>1.0900000000000001</v>
@@ -7059,7 +7054,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="L160">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="M160">
         <v>1.18</v>
@@ -7070,22 +7065,22 @@
         <v>44051</v>
       </c>
       <c r="B161">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C161">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="D161">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E161">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F161">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="G161">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="H161">
         <v>1.07</v>
@@ -7094,7 +7089,7 @@
         <v>1.04</v>
       </c>
       <c r="J161">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K161">
         <v>1.1299999999999999</v>
@@ -7111,22 +7106,22 @@
         <v>44052</v>
       </c>
       <c r="B162">
-        <v>1036</v>
+        <v>1043</v>
       </c>
       <c r="C162">
-        <v>984</v>
+        <v>1000</v>
       </c>
       <c r="D162">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E162">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="F162">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="G162">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="H162">
         <v>1.04</v>
@@ -7152,31 +7147,31 @@
         <v>44053</v>
       </c>
       <c r="B163">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="C163">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="D163">
-        <v>1448</v>
+        <v>1454</v>
       </c>
       <c r="E163">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="F163">
         <v>1078</v>
       </c>
       <c r="G163">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H163">
         <v>1.1100000000000001</v>
       </c>
       <c r="I163">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="J163">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K163">
         <v>1.1499999999999999</v>
@@ -7196,28 +7191,28 @@
         <v>1325</v>
       </c>
       <c r="C164">
-        <v>1269</v>
+        <v>1275</v>
       </c>
       <c r="D164">
-        <v>1389</v>
+        <v>1379</v>
       </c>
       <c r="E164">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="F164">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="G164">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H164">
         <v>1.19</v>
       </c>
       <c r="I164">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J164">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="K164">
         <v>1.1599999999999999</v>
@@ -7234,28 +7229,28 @@
         <v>44055</v>
       </c>
       <c r="B165">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C165">
-        <v>1277</v>
+        <v>1267</v>
       </c>
       <c r="D165">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="E165">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="F165">
         <v>1222</v>
       </c>
       <c r="G165">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="H165">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="I165">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="J165">
         <v>1.29</v>
@@ -7275,28 +7270,28 @@
         <v>44056</v>
       </c>
       <c r="B166">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="C166">
         <v>1301</v>
       </c>
       <c r="D166">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="E166">
         <v>1349</v>
       </c>
       <c r="F166">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="G166">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="H166">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="I166">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="J166">
         <v>1.35</v>
@@ -7305,7 +7300,7 @@
         <v>1.17</v>
       </c>
       <c r="L166">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M166">
         <v>1.19</v>
@@ -7319,28 +7314,28 @@
         <v>1315</v>
       </c>
       <c r="C167">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D167">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="E167">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="F167">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="G167">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="H167">
         <v>1.18</v>
       </c>
       <c r="I167">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="J167">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="K167">
         <v>1.1499999999999999</v>
@@ -7357,22 +7352,22 @@
         <v>44058</v>
       </c>
       <c r="B168">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C168">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="D168">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="E168">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F168">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="G168">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="H168">
         <v>1.0900000000000001</v>
@@ -7398,28 +7393,28 @@
         <v>44059</v>
       </c>
       <c r="B169">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C169">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="D169">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="E169">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="F169">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="G169">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="I169">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="J169">
         <v>1.02</v>
@@ -7439,31 +7434,31 @@
         <v>44060</v>
       </c>
       <c r="B170">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="C170">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="D170">
-        <v>1467</v>
+        <v>1478</v>
       </c>
       <c r="E170">
         <v>1279</v>
       </c>
       <c r="F170">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="G170">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="H170">
         <v>0.95</v>
       </c>
       <c r="I170">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="J170">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="K170">
         <v>1.06</v>
@@ -7480,37 +7475,37 @@
         <v>44061</v>
       </c>
       <c r="B171">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="C171">
-        <v>1400</v>
+        <v>1406</v>
       </c>
       <c r="D171">
-        <v>1508</v>
+        <v>1512</v>
       </c>
       <c r="E171">
         <v>1315</v>
       </c>
       <c r="F171">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="G171">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H171">
         <v>0.99</v>
       </c>
       <c r="I171">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="J171">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K171">
         <v>1.03</v>
       </c>
       <c r="L171">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="M171">
         <v>1.04</v>
@@ -7521,13 +7516,13 @@
         <v>44062</v>
       </c>
       <c r="B172">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C172">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="D172">
-        <v>1349</v>
+        <v>1355</v>
       </c>
       <c r="E172">
         <v>1336</v>
@@ -7536,7 +7531,7 @@
         <v>1285</v>
       </c>
       <c r="G172">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="H172">
         <v>1.03</v>
@@ -7562,22 +7557,22 @@
         <v>44063</v>
       </c>
       <c r="B173">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="C173">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="D173">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="E173">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F173">
         <v>1277</v>
       </c>
       <c r="G173">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="H173">
         <v>1.05</v>
@@ -7595,7 +7590,7 @@
         <v>0.96</v>
       </c>
       <c r="M173">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -7606,19 +7601,19 @@
         <v>1159</v>
       </c>
       <c r="C174">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D174">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="E174">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F174">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="G174">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="H174">
         <v>0.99</v>
@@ -7644,25 +7639,25 @@
         <v>44065</v>
       </c>
       <c r="B175">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C175">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D175">
         <v>1158</v>
       </c>
       <c r="E175">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F175">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="G175">
         <v>1226</v>
       </c>
       <c r="H175">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="I175">
         <v>0.87</v>
@@ -7674,7 +7669,7 @@
         <v>0.95</v>
       </c>
       <c r="L175">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="M175">
         <v>0.96</v>
@@ -7685,19 +7680,19 @@
         <v>44066</v>
       </c>
       <c r="B176">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C176">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="D176">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="E176">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F176">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G176">
         <v>1192</v>
@@ -7726,22 +7721,22 @@
         <v>44067</v>
       </c>
       <c r="B177">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="C177">
-        <v>1399</v>
+        <v>1391</v>
       </c>
       <c r="D177">
-        <v>1501</v>
+        <v>1493</v>
       </c>
       <c r="E177">
         <v>1219</v>
       </c>
       <c r="F177">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="G177">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="H177">
         <v>0.92</v>
@@ -7767,22 +7762,22 @@
         <v>44068</v>
       </c>
       <c r="B178">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="C178">
-        <v>1292</v>
+        <v>1298</v>
       </c>
       <c r="D178">
-        <v>1384</v>
+        <v>1396</v>
       </c>
       <c r="E178">
         <v>1265</v>
       </c>
       <c r="F178">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="G178">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -7797,7 +7792,7 @@
         <v>0.98</v>
       </c>
       <c r="L178">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="M178">
         <v>0.99</v>
@@ -7811,19 +7806,19 @@
         <v>1213</v>
       </c>
       <c r="C179">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="D179">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="E179">
         <v>1290</v>
       </c>
       <c r="F179">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="G179">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="H179">
         <v>1.1000000000000001</v>
@@ -7838,7 +7833,7 @@
         <v>0.99</v>
       </c>
       <c r="L179">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="M179">
         <v>1.01</v>
@@ -7852,19 +7847,19 @@
         <v>1232</v>
       </c>
       <c r="C180">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="D180">
-        <v>1278</v>
+        <v>1283</v>
       </c>
       <c r="E180">
         <v>1307</v>
       </c>
       <c r="F180">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="G180">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="H180">
         <v>1.1399999999999999</v>
@@ -7873,10 +7868,10 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="J180">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K180">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="L180">
         <v>0.97</v>
@@ -7890,13 +7885,13 @@
         <v>44071</v>
       </c>
       <c r="B181">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C181">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D181">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="E181">
         <v>1230</v>
@@ -7905,7 +7900,7 @@
         <v>1184</v>
       </c>
       <c r="G181">
-        <v>1275</v>
+        <v>1280</v>
       </c>
       <c r="H181">
         <v>1.01</v>
@@ -7923,7 +7918,7 @@
         <v>0.97</v>
       </c>
       <c r="M181">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7931,13 +7926,13 @@
         <v>44072</v>
       </c>
       <c r="B182">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C182">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="D182">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="E182">
         <v>1134</v>
@@ -7975,19 +7970,19 @@
         <v>1029</v>
       </c>
       <c r="C183">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="D183">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="E183">
         <v>1088</v>
       </c>
       <c r="F183">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="G183">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H183">
         <v>0.84</v>
@@ -8013,22 +8008,22 @@
         <v>44074</v>
       </c>
       <c r="B184">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C184">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D184">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="E184">
         <v>1119</v>
       </c>
       <c r="F184">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="G184">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="H184">
         <v>0.86</v>
@@ -8037,7 +8032,7 @@
         <v>0.83</v>
       </c>
       <c r="J184">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="K184">
         <v>0.97</v>
@@ -8060,22 +8055,22 @@
         <v>1431</v>
       </c>
       <c r="D185">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="E185">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F185">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="G185">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="H185">
         <v>0.98</v>
       </c>
       <c r="I185">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="J185">
         <v>1.01</v>
@@ -8095,31 +8090,31 @@
         <v>44076</v>
       </c>
       <c r="B186">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C186">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="D186">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="E186">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F186">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="G186">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="H186">
         <v>1.1399999999999999</v>
       </c>
       <c r="I186">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J186">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K186">
         <v>1.02</v>
@@ -8139,28 +8134,28 @@
         <v>1255</v>
       </c>
       <c r="C187">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D187">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="E187">
         <v>1355</v>
       </c>
       <c r="F187">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G187">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="H187">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="I187">
         <v>1.21</v>
       </c>
       <c r="J187">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="K187">
         <v>1.05</v>
@@ -8169,7 +8164,7 @@
         <v>1.04</v>
       </c>
       <c r="M187">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8177,22 +8172,22 @@
         <v>44078</v>
       </c>
       <c r="B188">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C188">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="D188">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="E188">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="F188">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="G188">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="H188">
         <v>1.19</v>
@@ -8201,7 +8196,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="J188">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="K188">
         <v>1.06</v>
@@ -8218,22 +8213,22 @@
         <v>44079</v>
       </c>
       <c r="B189">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C189">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="D189">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E189">
         <v>1256</v>
       </c>
       <c r="F189">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="G189">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="H189">
         <v>1.04</v>
@@ -8259,19 +8254,19 @@
         <v>44080</v>
       </c>
       <c r="B190">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C190">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="D190">
-        <v>1335</v>
+        <v>1341</v>
       </c>
       <c r="E190">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F190">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G190">
         <v>1292</v>
@@ -8280,10 +8275,10 @@
         <v>0.96</v>
       </c>
       <c r="I190">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="J190">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="K190">
         <v>1.1000000000000001</v>
@@ -8300,22 +8295,22 @@
         <v>44081</v>
       </c>
       <c r="B191">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C191">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="D191">
-        <v>1661</v>
+        <v>1644</v>
       </c>
       <c r="E191">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="F191">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G191">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="H191">
         <v>0.98</v>
@@ -8341,22 +8336,22 @@
         <v>44082</v>
       </c>
       <c r="B192">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="C192">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="D192">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="E192">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="F192">
         <v>1366</v>
       </c>
       <c r="G192">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="H192">
         <v>1.06</v>
@@ -8382,28 +8377,28 @@
         <v>44083</v>
       </c>
       <c r="B193">
-        <v>1612</v>
+        <v>1616</v>
       </c>
       <c r="C193">
-        <v>1564</v>
+        <v>1570</v>
       </c>
       <c r="D193">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="E193">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="F193">
         <v>1478</v>
       </c>
       <c r="G193">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="H193">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="I193">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="J193">
         <v>1.24</v>
@@ -8423,22 +8418,22 @@
         <v>44084</v>
       </c>
       <c r="B194">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="C194">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D194">
-        <v>1690</v>
+        <v>1678</v>
       </c>
       <c r="E194">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="F194">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="G194">
-        <v>1665</v>
+        <v>1657</v>
       </c>
       <c r="H194">
         <v>1.29</v>
@@ -8456,7 +8451,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="M194">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8464,13 +8459,13 @@
         <v>44085</v>
       </c>
       <c r="B195">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="C195">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="D195">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="E195">
         <v>1619</v>
@@ -8479,7 +8474,7 @@
         <v>1570</v>
       </c>
       <c r="G195">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="H195">
         <v>1.21</v>
@@ -8488,7 +8483,7 @@
         <v>1.19</v>
       </c>
       <c r="J195">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="K195">
         <v>1.1499999999999999</v>
@@ -8505,22 +8500,22 @@
         <v>44086</v>
       </c>
       <c r="B196">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C196">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="D196">
-        <v>1585</v>
+        <v>1589</v>
       </c>
       <c r="E196">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="F196">
         <v>1557</v>
       </c>
       <c r="G196">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H196">
         <v>1.1399999999999999</v>
@@ -8549,25 +8544,25 @@
         <v>1588</v>
       </c>
       <c r="C197">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="D197">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="E197">
         <v>1600</v>
       </c>
       <c r="F197">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="G197">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="H197">
         <v>1.05</v>
       </c>
       <c r="I197">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J197">
         <v>1.07</v>
@@ -8579,7 +8574,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="M197">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8587,22 +8582,22 @@
         <v>44088</v>
       </c>
       <c r="B198">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="C198">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="D198">
-        <v>2178</v>
+        <v>2194</v>
       </c>
       <c r="E198">
         <v>1724</v>
       </c>
       <c r="F198">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="G198">
-        <v>1772</v>
+        <v>1777</v>
       </c>
       <c r="H198">
         <v>1.07</v>
@@ -8611,7 +8606,7 @@
         <v>1.05</v>
       </c>
       <c r="J198">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K198">
         <v>1.1499999999999999</v>
@@ -8628,34 +8623,34 @@
         <v>44089</v>
       </c>
       <c r="B199">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="C199">
-        <v>1924</v>
+        <v>1927</v>
       </c>
       <c r="D199">
-        <v>2043</v>
+        <v>2037</v>
       </c>
       <c r="E199">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="F199">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="G199">
-        <v>1860</v>
+        <v>1863</v>
       </c>
       <c r="H199">
         <v>1.1200000000000001</v>
       </c>
       <c r="I199">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J199">
         <v>1.1399999999999999</v>
       </c>
       <c r="K199">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L199">
         <v>1.1200000000000001</v>
@@ -8669,22 +8664,22 @@
         <v>44090</v>
       </c>
       <c r="B200">
-        <v>1867</v>
+        <v>1874</v>
       </c>
       <c r="C200">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="D200">
-        <v>1916</v>
+        <v>1932</v>
       </c>
       <c r="E200">
-        <v>1891</v>
+        <v>1894</v>
       </c>
       <c r="F200">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="G200">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="H200">
         <v>1.18</v>
@@ -8710,25 +8705,25 @@
         <v>44091</v>
       </c>
       <c r="B201">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="C201">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="D201">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="E201">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="F201">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="G201">
-        <v>1980</v>
+        <v>1987</v>
       </c>
       <c r="H201">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="I201">
         <v>1.18</v>
@@ -8751,28 +8746,28 @@
         <v>44092</v>
       </c>
       <c r="B202">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="C202">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="D202">
-        <v>1778</v>
+        <v>1769</v>
       </c>
       <c r="E202">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="F202">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="G202">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="H202">
         <v>1.06</v>
       </c>
       <c r="I202">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J202">
         <v>1.08</v>
@@ -8784,7 +8779,7 @@
         <v>1.02</v>
       </c>
       <c r="M202">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -8792,22 +8787,22 @@
         <v>44093</v>
       </c>
       <c r="B203">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="C203">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="D203">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="E203">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="F203">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="G203">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="H203">
         <v>0.94</v>
@@ -8816,13 +8811,13 @@
         <v>0.92</v>
       </c>
       <c r="J203">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="K203">
         <v>1.02</v>
       </c>
       <c r="L203">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="M203">
         <v>1.03</v>
@@ -8833,28 +8828,28 @@
         <v>44094</v>
       </c>
       <c r="B204">
-        <v>1634</v>
+        <v>1639</v>
       </c>
       <c r="C204">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D204">
-        <v>1683</v>
+        <v>1696</v>
       </c>
       <c r="E204">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="F204">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="G204">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="H204">
         <v>0.87</v>
       </c>
       <c r="I204">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="J204">
         <v>0.89</v>
@@ -8874,28 +8869,28 @@
         <v>44095</v>
       </c>
       <c r="B205">
-        <v>2183</v>
+        <v>2175</v>
       </c>
       <c r="C205">
-        <v>2136</v>
+        <v>2110</v>
       </c>
       <c r="D205">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="E205">
         <v>1760</v>
       </c>
       <c r="F205">
-        <v>1709</v>
+        <v>1702</v>
       </c>
       <c r="G205">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="H205">
         <v>0.91</v>
       </c>
       <c r="I205">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="J205">
         <v>0.93</v>
@@ -8904,7 +8899,7 @@
         <v>1.02</v>
       </c>
       <c r="L205">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="M205">
         <v>1.03</v>
@@ -8918,19 +8913,19 @@
         <v>2127</v>
       </c>
       <c r="C206">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="D206">
-        <v>2184</v>
+        <v>2191</v>
       </c>
       <c r="E206">
         <v>1861</v>
       </c>
       <c r="F206">
-        <v>1809</v>
+        <v>1802</v>
       </c>
       <c r="G206">
-        <v>1912</v>
+        <v>1919</v>
       </c>
       <c r="H206">
         <v>1.02</v>
@@ -8956,25 +8951,25 @@
         <v>44097</v>
       </c>
       <c r="B207">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="C207">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="D207">
-        <v>2156</v>
+        <v>2134</v>
       </c>
       <c r="E207">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="F207">
-        <v>1953</v>
+        <v>1947</v>
       </c>
       <c r="G207">
         <v>2064</v>
       </c>
       <c r="H207">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="I207">
         <v>1.1499999999999999</v>
@@ -8986,7 +8981,7 @@
         <v>1.06</v>
       </c>
       <c r="L207">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="M207">
         <v>1.07</v>
@@ -8997,28 +8992,28 @@
         <v>44098</v>
       </c>
       <c r="B208">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="C208">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="D208">
-        <v>2123</v>
+        <v>2115</v>
       </c>
       <c r="E208">
-        <v>2115</v>
+        <v>2111</v>
       </c>
       <c r="F208">
-        <v>2057</v>
+        <v>2052</v>
       </c>
       <c r="G208">
-        <v>2174</v>
+        <v>2168</v>
       </c>
       <c r="H208">
         <v>1.28</v>
       </c>
       <c r="I208">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="J208">
         <v>1.31</v>
@@ -9038,22 +9033,22 @@
         <v>44099</v>
       </c>
       <c r="B209">
-        <v>2165</v>
+        <v>2160</v>
       </c>
       <c r="C209">
+        <v>2101</v>
+      </c>
+      <c r="D209">
+        <v>2221</v>
+      </c>
+      <c r="E209">
         <v>2107</v>
-      </c>
-      <c r="D209">
-        <v>2223</v>
-      </c>
-      <c r="E209">
-        <v>2111</v>
       </c>
       <c r="F209">
         <v>2050</v>
       </c>
       <c r="G209">
-        <v>2171</v>
+        <v>2165</v>
       </c>
       <c r="H209">
         <v>1.2</v>
@@ -9079,28 +9074,28 @@
         <v>44100</v>
       </c>
       <c r="B210">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="C210">
-        <v>1884</v>
+        <v>1879</v>
       </c>
       <c r="D210">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E210">
-        <v>2062</v>
+        <v>2058</v>
       </c>
       <c r="F210">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G210">
-        <v>2123</v>
+        <v>2115</v>
       </c>
       <c r="H210">
         <v>1.1100000000000001</v>
       </c>
       <c r="I210">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="J210">
         <v>1.1299999999999999</v>
@@ -9112,7 +9107,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M210">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9120,28 +9115,28 @@
         <v>44101</v>
       </c>
       <c r="B211">
-        <v>1904</v>
+        <v>1891</v>
       </c>
       <c r="C211">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="D211">
-        <v>1972</v>
+        <v>1947</v>
       </c>
       <c r="E211">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="F211">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="G211">
-        <v>2077</v>
+        <v>2068</v>
       </c>
       <c r="H211">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="J211">
         <v>1.03</v>
@@ -9161,28 +9156,28 @@
         <v>44102</v>
       </c>
       <c r="B212">
-        <v>2656</v>
+        <v>2649</v>
       </c>
       <c r="C212">
-        <v>2593</v>
+        <v>2583</v>
       </c>
       <c r="D212">
-        <v>2718</v>
+        <v>2714</v>
       </c>
       <c r="E212">
-        <v>2165</v>
+        <v>2158</v>
       </c>
       <c r="F212">
-        <v>2105</v>
+        <v>2099</v>
       </c>
       <c r="G212">
-        <v>2226</v>
+        <v>2218</v>
       </c>
       <c r="H212">
         <v>1.02</v>
       </c>
       <c r="I212">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="J212">
         <v>1.04</v>
@@ -9202,22 +9197,22 @@
         <v>44103</v>
       </c>
       <c r="B213">
-        <v>2754</v>
+        <v>2761</v>
       </c>
       <c r="C213">
-        <v>2689</v>
+        <v>2696</v>
       </c>
       <c r="D213">
-        <v>2830</v>
+        <v>2826</v>
       </c>
       <c r="E213">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="F213">
-        <v>2251</v>
+        <v>2248</v>
       </c>
       <c r="G213">
-        <v>2377</v>
+        <v>2369</v>
       </c>
       <c r="H213">
         <v>1.1000000000000001</v>
@@ -9243,22 +9238,22 @@
         <v>44104</v>
       </c>
       <c r="B214">
-        <v>2800</v>
+        <v>2797</v>
       </c>
       <c r="C214">
-        <v>2736</v>
+        <v>2740</v>
       </c>
       <c r="D214">
-        <v>2873</v>
+        <v>2867</v>
       </c>
       <c r="E214">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="F214">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="G214">
-        <v>2598</v>
+        <v>2588</v>
       </c>
       <c r="H214">
         <v>1.23</v>
@@ -9284,22 +9279,22 @@
         <v>44105</v>
       </c>
       <c r="B215">
-        <v>3012</v>
+        <v>3007</v>
       </c>
       <c r="C215">
-        <v>2929</v>
+        <v>2941</v>
       </c>
       <c r="D215">
-        <v>3101</v>
+        <v>3082</v>
       </c>
       <c r="E215">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="F215">
-        <v>2737</v>
+        <v>2740</v>
       </c>
       <c r="G215">
-        <v>2880</v>
+        <v>2872</v>
       </c>
       <c r="H215">
         <v>1.39</v>
@@ -9325,25 +9320,25 @@
         <v>44106</v>
       </c>
       <c r="B216">
-        <v>3391</v>
+        <v>3397</v>
       </c>
       <c r="C216">
-        <v>3317</v>
+        <v>3323</v>
       </c>
       <c r="D216">
-        <v>3469</v>
+        <v>3471</v>
       </c>
       <c r="E216">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="F216">
-        <v>2918</v>
+        <v>2925</v>
       </c>
       <c r="G216">
-        <v>3068</v>
+        <v>3061</v>
       </c>
       <c r="H216">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="I216">
         <v>1.36</v>
@@ -9366,22 +9361,22 @@
         <v>44107</v>
       </c>
       <c r="B217">
-        <v>3365</v>
+        <v>3383</v>
       </c>
       <c r="C217">
-        <v>3282</v>
+        <v>3305</v>
       </c>
       <c r="D217">
-        <v>3439</v>
+        <v>3452</v>
       </c>
       <c r="E217">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="F217">
-        <v>3066</v>
+        <v>3077</v>
       </c>
       <c r="G217">
-        <v>3220</v>
+        <v>3218</v>
       </c>
       <c r="H217">
         <v>1.36</v>
@@ -9390,13 +9385,13 @@
         <v>1.34</v>
       </c>
       <c r="J217">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="K217">
         <v>1.32</v>
       </c>
       <c r="L217">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M217">
         <v>1.33</v>
@@ -9407,28 +9402,28 @@
         <v>44108</v>
       </c>
       <c r="B218">
-        <v>3453</v>
+        <v>3458</v>
       </c>
       <c r="C218">
-        <v>3350</v>
+        <v>3375</v>
       </c>
       <c r="D218">
-        <v>3561</v>
+        <v>3532</v>
       </c>
       <c r="E218">
-        <v>3305</v>
+        <v>3311</v>
       </c>
       <c r="F218">
-        <v>3219</v>
+        <v>3236</v>
       </c>
       <c r="G218">
-        <v>3393</v>
+        <v>3384</v>
       </c>
       <c r="H218">
         <v>1.31</v>
       </c>
       <c r="I218">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="J218">
         <v>1.33</v>
@@ -9437,7 +9432,7 @@
         <v>1.37</v>
       </c>
       <c r="L218">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M218">
         <v>1.38</v>
@@ -9448,28 +9443,28 @@
         <v>44109</v>
       </c>
       <c r="B219">
-        <v>4744</v>
+        <v>4763</v>
       </c>
       <c r="C219">
-        <v>4625</v>
+        <v>4639</v>
       </c>
       <c r="D219">
-        <v>4850</v>
+        <v>4888</v>
       </c>
       <c r="E219">
-        <v>3738</v>
+        <v>3750</v>
       </c>
       <c r="F219">
-        <v>3643</v>
+        <v>3660</v>
       </c>
       <c r="G219">
-        <v>3830</v>
+        <v>3836</v>
       </c>
       <c r="H219">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="I219">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="J219">
         <v>1.36</v>
@@ -9478,7 +9473,7 @@
         <v>1.39</v>
       </c>
       <c r="L219">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M219">
         <v>1.4</v>
@@ -9489,34 +9484,34 @@
         <v>44110</v>
       </c>
       <c r="B220">
-        <v>4799</v>
+        <v>4822</v>
       </c>
       <c r="C220">
-        <v>4668</v>
+        <v>4707</v>
       </c>
       <c r="D220">
-        <v>4913</v>
+        <v>4937</v>
       </c>
       <c r="E220">
-        <v>4090</v>
+        <v>4107</v>
       </c>
       <c r="F220">
-        <v>3981</v>
+        <v>4006</v>
       </c>
       <c r="G220">
-        <v>4191</v>
+        <v>4202</v>
       </c>
       <c r="H220">
         <v>1.37</v>
       </c>
       <c r="I220">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="J220">
         <v>1.39</v>
       </c>
       <c r="K220">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="L220">
         <v>1.38</v>
@@ -9530,28 +9525,28 @@
         <v>44111</v>
       </c>
       <c r="B221">
-        <v>4940</v>
+        <v>4953</v>
       </c>
       <c r="C221">
-        <v>4818</v>
+        <v>4853</v>
       </c>
       <c r="D221">
-        <v>5054</v>
+        <v>5044</v>
       </c>
       <c r="E221">
-        <v>4484</v>
+        <v>4499</v>
       </c>
       <c r="F221">
-        <v>4365</v>
+        <v>4394</v>
       </c>
       <c r="G221">
-        <v>4595</v>
+        <v>4600</v>
       </c>
       <c r="H221">
         <v>1.43</v>
       </c>
       <c r="I221">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="J221">
         <v>1.45</v>
@@ -9560,7 +9555,7 @@
         <v>1.39</v>
       </c>
       <c r="L221">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M221">
         <v>1.4</v>
@@ -9571,37 +9566,37 @@
         <v>44112</v>
       </c>
       <c r="B222">
-        <v>5021</v>
+        <v>5014</v>
       </c>
       <c r="C222">
-        <v>4900</v>
+        <v>4897</v>
       </c>
       <c r="D222">
-        <v>5142</v>
+        <v>5138</v>
       </c>
       <c r="E222">
-        <v>4876</v>
+        <v>4888</v>
       </c>
       <c r="F222">
-        <v>4753</v>
+        <v>4774</v>
       </c>
       <c r="G222">
-        <v>4990</v>
+        <v>5002</v>
       </c>
       <c r="H222">
         <v>1.48</v>
       </c>
       <c r="I222">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="J222">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="K222">
         <v>1.35</v>
       </c>
       <c r="L222">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M222">
         <v>1.36</v>
@@ -9612,22 +9607,22 @@
         <v>44113</v>
       </c>
       <c r="B223">
-        <v>5404</v>
+        <v>5409</v>
       </c>
       <c r="C223">
-        <v>5246</v>
+        <v>5296</v>
       </c>
       <c r="D223">
-        <v>5556</v>
+        <v>5523</v>
       </c>
       <c r="E223">
-        <v>5041</v>
+        <v>5050</v>
       </c>
       <c r="F223">
-        <v>4908</v>
+        <v>4938</v>
       </c>
       <c r="G223">
-        <v>5166</v>
+        <v>5161</v>
       </c>
       <c r="H223">
         <v>1.35</v>
@@ -9642,7 +9637,7 @@
         <v>1.32</v>
       </c>
       <c r="L223">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M223">
         <v>1.33</v>
@@ -9653,22 +9648,22 @@
         <v>44114</v>
       </c>
       <c r="B224">
-        <v>5319</v>
+        <v>5330</v>
       </c>
       <c r="C224">
-        <v>5132</v>
+        <v>5172</v>
       </c>
       <c r="D224">
-        <v>5531</v>
+        <v>5477</v>
       </c>
       <c r="E224">
-        <v>5171</v>
+        <v>5177</v>
       </c>
       <c r="F224">
-        <v>5024</v>
+        <v>5055</v>
       </c>
       <c r="G224">
-        <v>5321</v>
+        <v>5296</v>
       </c>
       <c r="H224">
         <v>1.26</v>
@@ -9677,7 +9672,7 @@
         <v>1.24</v>
       </c>
       <c r="J224">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="K224">
         <v>1.29</v>
@@ -9686,7 +9681,7 @@
         <v>1.28</v>
       </c>
       <c r="M224">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9694,31 +9689,31 @@
         <v>44115</v>
       </c>
       <c r="B225">
-        <v>5555</v>
+        <v>5537</v>
       </c>
       <c r="C225">
-        <v>5391</v>
+        <v>5425</v>
       </c>
       <c r="D225">
-        <v>5712</v>
+        <v>5665</v>
       </c>
       <c r="E225">
-        <v>5325</v>
+        <v>5323</v>
       </c>
       <c r="F225">
-        <v>5167</v>
+        <v>5198</v>
       </c>
       <c r="G225">
-        <v>5485</v>
+        <v>5451</v>
       </c>
       <c r="H225">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="I225">
         <v>1.1599999999999999</v>
       </c>
       <c r="J225">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="K225">
         <v>1.3</v>
@@ -9735,22 +9730,22 @@
         <v>44116</v>
       </c>
       <c r="B226">
-        <v>7524</v>
+        <v>7518</v>
       </c>
       <c r="C226">
-        <v>7226</v>
+        <v>7342</v>
       </c>
       <c r="D226">
-        <v>7775</v>
+        <v>7724</v>
       </c>
       <c r="E226">
-        <v>5951</v>
+        <v>5949</v>
       </c>
       <c r="F226">
-        <v>5749</v>
+        <v>5809</v>
       </c>
       <c r="G226">
-        <v>6143</v>
+        <v>6097</v>
       </c>
       <c r="H226">
         <v>1.22</v>
@@ -9759,7 +9754,7 @@
         <v>1.2</v>
       </c>
       <c r="J226">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="K226">
         <v>1.31</v>
@@ -9768,7 +9763,7 @@
         <v>1.3</v>
       </c>
       <c r="M226">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -9776,31 +9771,31 @@
         <v>44117</v>
       </c>
       <c r="B227">
-        <v>7950</v>
+        <v>7941</v>
       </c>
       <c r="C227">
-        <v>7637</v>
+        <v>7770</v>
       </c>
       <c r="D227">
-        <v>8258</v>
+        <v>8108</v>
       </c>
       <c r="E227">
-        <v>6587</v>
+        <v>6582</v>
       </c>
       <c r="F227">
-        <v>6347</v>
+        <v>6427</v>
       </c>
       <c r="G227">
-        <v>6819</v>
+        <v>6743</v>
       </c>
       <c r="H227">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="I227">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="J227">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="K227">
         <v>1.34</v>
@@ -9817,31 +9812,31 @@
         <v>44118</v>
       </c>
       <c r="B228">
-        <v>8488</v>
+        <v>8548</v>
       </c>
       <c r="C228">
-        <v>8137</v>
+        <v>8319</v>
       </c>
       <c r="D228">
-        <v>8852</v>
+        <v>8807</v>
       </c>
       <c r="E228">
-        <v>7380</v>
+        <v>7386</v>
       </c>
       <c r="F228">
-        <v>7098</v>
+        <v>7214</v>
       </c>
       <c r="G228">
-        <v>7649</v>
+        <v>7576</v>
       </c>
       <c r="H228">
         <v>1.43</v>
       </c>
       <c r="I228">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J228">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="K228">
         <v>1.37</v>
@@ -9850,7 +9845,7 @@
         <v>1.35</v>
       </c>
       <c r="M228">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -9858,40 +9853,40 @@
         <v>44119</v>
       </c>
       <c r="B229">
-        <v>8627</v>
+        <v>8680</v>
       </c>
       <c r="C229">
-        <v>8315</v>
+        <v>8405</v>
       </c>
       <c r="D229">
-        <v>9016</v>
+        <v>8945</v>
       </c>
       <c r="E229">
-        <v>8148</v>
+        <v>8172</v>
       </c>
       <c r="F229">
-        <v>7829</v>
+        <v>7959</v>
       </c>
       <c r="G229">
-        <v>8475</v>
+        <v>8396</v>
       </c>
       <c r="H229">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="I229">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="J229">
         <v>1.57</v>
       </c>
       <c r="K229">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="L229">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M229">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -9899,37 +9894,37 @@
         <v>44120</v>
       </c>
       <c r="B230">
-        <v>9505</v>
+        <v>9547</v>
       </c>
       <c r="C230">
-        <v>8972</v>
+        <v>9257</v>
       </c>
       <c r="D230">
-        <v>10206</v>
+        <v>9831</v>
       </c>
       <c r="E230">
-        <v>8643</v>
+        <v>8679</v>
       </c>
       <c r="F230">
-        <v>8265</v>
+        <v>8438</v>
       </c>
       <c r="G230">
-        <v>9083</v>
+        <v>8923</v>
       </c>
       <c r="H230">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="I230">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="J230">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="K230">
         <v>1.37</v>
       </c>
       <c r="L230">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M230">
         <v>1.39</v>
@@ -9940,40 +9935,40 @@
         <v>44121</v>
       </c>
       <c r="B231">
-        <v>9389</v>
+        <v>9409</v>
       </c>
       <c r="C231">
-        <v>8792</v>
+        <v>8991</v>
       </c>
       <c r="D231">
-        <v>9914</v>
+        <v>9848</v>
       </c>
       <c r="E231">
-        <v>9002</v>
+        <v>9046</v>
       </c>
       <c r="F231">
-        <v>8554</v>
+        <v>8743</v>
       </c>
       <c r="G231">
-        <v>9497</v>
+        <v>9358</v>
       </c>
       <c r="H231">
         <v>1.37</v>
       </c>
       <c r="I231">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="J231">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="K231">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="L231">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M231">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -9981,28 +9976,28 @@
         <v>44122</v>
       </c>
       <c r="B232">
-        <v>10620</v>
+        <v>10689</v>
       </c>
       <c r="C232">
-        <v>9713</v>
+        <v>10155</v>
       </c>
       <c r="D232">
-        <v>11459</v>
+        <v>11278</v>
       </c>
       <c r="E232">
-        <v>9535</v>
+        <v>9581</v>
       </c>
       <c r="F232">
-        <v>8948</v>
+        <v>9202</v>
       </c>
       <c r="G232">
-        <v>10149</v>
+        <v>9975</v>
       </c>
       <c r="H232">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="I232">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="J232">
         <v>1.33</v>
@@ -10011,10 +10006,10 @@
         <v>1.4</v>
       </c>
       <c r="L232">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M232">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10022,40 +10017,40 @@
         <v>44123</v>
       </c>
       <c r="B233">
-        <v>13784</v>
+        <v>13863</v>
       </c>
       <c r="C233">
-        <v>12509</v>
+        <v>13113</v>
       </c>
       <c r="D233">
-        <v>15121</v>
+        <v>14485</v>
       </c>
       <c r="E233">
-        <v>10825</v>
+        <v>10877</v>
       </c>
       <c r="F233">
-        <v>9997</v>
+        <v>10379</v>
       </c>
       <c r="G233">
-        <v>11675</v>
+        <v>11360</v>
       </c>
       <c r="H233">
         <v>1.33</v>
       </c>
       <c r="I233">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="J233">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="K233">
         <v>1.42</v>
       </c>
       <c r="L233">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M233">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10063,40 +10058,40 @@
         <v>44124</v>
       </c>
       <c r="B234">
-        <v>14881</v>
+        <v>14874</v>
       </c>
       <c r="C234">
-        <v>12822</v>
+        <v>14066</v>
       </c>
       <c r="D234">
-        <v>16535</v>
+        <v>15646</v>
       </c>
       <c r="E234">
-        <v>12169</v>
+        <v>12209</v>
       </c>
       <c r="F234">
-        <v>10959</v>
+        <v>11581</v>
       </c>
       <c r="G234">
-        <v>13257</v>
+        <v>12814</v>
       </c>
       <c r="H234">
         <v>1.41</v>
       </c>
       <c r="I234">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="J234">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="K234">
         <v>1.44</v>
       </c>
       <c r="L234">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M234">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10104,40 +10099,40 @@
         <v>44125</v>
       </c>
       <c r="B235">
-        <v>15397</v>
+        <v>15361</v>
       </c>
       <c r="C235">
-        <v>13233</v>
+        <v>14396</v>
       </c>
       <c r="D235">
-        <v>17448</v>
+        <v>16273</v>
       </c>
       <c r="E235">
-        <v>13671</v>
+        <v>13697</v>
       </c>
       <c r="F235">
-        <v>12069</v>
+        <v>12932</v>
       </c>
       <c r="G235">
-        <v>15141</v>
+        <v>14421</v>
       </c>
       <c r="H235">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="I235">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="J235">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K235">
         <v>1.42</v>
       </c>
       <c r="L235">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M235">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10145,40 +10140,40 @@
         <v>44126</v>
       </c>
       <c r="B236">
-        <v>14634</v>
+        <v>14976</v>
       </c>
       <c r="C236">
-        <v>12375</v>
+        <v>13910</v>
       </c>
       <c r="D236">
-        <v>17521</v>
+        <v>16033</v>
       </c>
       <c r="E236">
-        <v>14674</v>
+        <v>14769</v>
       </c>
       <c r="F236">
-        <v>12735</v>
+        <v>13871</v>
       </c>
       <c r="G236">
-        <v>16656</v>
+        <v>15609</v>
       </c>
       <c r="H236">
         <v>1.54</v>
       </c>
       <c r="I236">
+        <v>1.49</v>
+      </c>
+      <c r="J236">
+        <v>1.59</v>
+      </c>
+      <c r="K236">
+        <v>1.38</v>
+      </c>
+      <c r="L236">
+        <v>1.35</v>
+      </c>
+      <c r="M236">
         <v>1.41</v>
-      </c>
-      <c r="J236">
-        <v>1.67</v>
-      </c>
-      <c r="K236">
-        <v>1.37</v>
-      </c>
-      <c r="L236">
-        <v>1.3</v>
-      </c>
-      <c r="M236">
-        <v>1.45</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10186,40 +10181,40 @@
         <v>44127</v>
       </c>
       <c r="B237">
-        <v>15159</v>
+        <v>15573</v>
       </c>
       <c r="C237">
-        <v>12541</v>
+        <v>13975</v>
       </c>
       <c r="D237">
-        <v>18040</v>
+        <v>16836</v>
       </c>
       <c r="E237">
-        <v>15018</v>
+        <v>15196</v>
       </c>
       <c r="F237">
-        <v>12743</v>
+        <v>14086</v>
       </c>
       <c r="G237">
-        <v>17386</v>
+        <v>16197</v>
       </c>
       <c r="H237">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="I237">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="J237">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="K237">
         <v>1.32</v>
       </c>
       <c r="L237">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="M237">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10227,40 +10222,40 @@
         <v>44128</v>
       </c>
       <c r="B238">
-        <v>14811</v>
+        <v>14804</v>
       </c>
       <c r="C238">
-        <v>10841</v>
+        <v>13265</v>
       </c>
       <c r="D238">
-        <v>18360</v>
+        <v>16546</v>
       </c>
       <c r="E238">
-        <v>15000</v>
+        <v>15178</v>
       </c>
       <c r="F238">
-        <v>12248</v>
+        <v>13886</v>
       </c>
       <c r="G238">
-        <v>17842</v>
+        <v>16422</v>
       </c>
       <c r="H238">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="I238">
-        <v>1.1000000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="J238">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="K238">
         <v>1.27</v>
       </c>
       <c r="L238">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="M238">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10268,40 +10263,40 @@
         <v>44129</v>
       </c>
       <c r="B239">
-        <v>15914</v>
+        <v>15366</v>
       </c>
       <c r="C239">
-        <v>10791</v>
+        <v>12934</v>
       </c>
       <c r="D239">
-        <v>20754</v>
+        <v>17448</v>
       </c>
       <c r="E239">
-        <v>15129</v>
+        <v>15180</v>
       </c>
       <c r="F239">
-        <v>11637</v>
+        <v>13521</v>
       </c>
       <c r="G239">
-        <v>18669</v>
+        <v>16716</v>
       </c>
       <c r="H239">
         <v>1.1100000000000001</v>
       </c>
       <c r="I239">
-        <v>0.97</v>
+        <v>1.05</v>
       </c>
       <c r="J239">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="K239">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="L239">
-        <v>1.1100000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="M239">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10309,76 +10304,239 @@
         <v>44130</v>
       </c>
       <c r="B240">
-        <v>17867</v>
+        <v>17607</v>
       </c>
       <c r="C240">
-        <v>11465</v>
+        <v>14837</v>
       </c>
       <c r="D240">
-        <v>25435</v>
+        <v>20117</v>
       </c>
       <c r="E240">
-        <v>15938</v>
+        <v>15837</v>
       </c>
       <c r="F240">
-        <v>11409</v>
+        <v>13753</v>
       </c>
       <c r="G240">
-        <v>20647</v>
+        <v>17737</v>
       </c>
       <c r="H240">
-        <v>1.0900000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="I240">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="J240">
-        <v>1.33</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K240">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="L240">
-        <v>1.06</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="M240">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13">
       <c r="A241" s="1">
         <v>44131</v>
       </c>
       <c r="B241">
-        <v>18195</v>
+        <v>17038</v>
       </c>
       <c r="C241">
-        <v>10510</v>
+        <v>13891</v>
       </c>
       <c r="D241">
-        <v>25118</v>
+        <v>20978</v>
       </c>
       <c r="E241">
-        <v>16697</v>
+        <v>16204</v>
       </c>
       <c r="F241">
-        <v>10902</v>
+        <v>13732</v>
       </c>
       <c r="G241">
-        <v>22417</v>
+        <v>18772</v>
       </c>
       <c r="H241">
+        <v>1.07</v>
+      </c>
+      <c r="I241">
+        <v>0.97</v>
+      </c>
+      <c r="J241">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K241">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I241">
-        <v>0.89</v>
-      </c>
-      <c r="J241">
-        <v>1.33</v>
+      <c r="L241">
+        <v>1.05</v>
+      </c>
+      <c r="M241">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13">
+      <c r="A242" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B242">
+        <v>15902</v>
+      </c>
+      <c r="C242">
+        <v>12664</v>
+      </c>
+      <c r="D242">
+        <v>19706</v>
+      </c>
+      <c r="E242">
+        <v>16478</v>
+      </c>
+      <c r="F242">
+        <v>13582</v>
+      </c>
+      <c r="G242">
+        <v>19562</v>
+      </c>
+      <c r="H242">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I242">
+        <v>0.97</v>
+      </c>
+      <c r="J242">
+        <v>1.2</v>
+      </c>
+      <c r="K242">
+        <v>1.06</v>
+      </c>
+      <c r="L242">
+        <v>0.99</v>
+      </c>
+      <c r="M242">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13">
+      <c r="A243" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B243">
+        <v>14563</v>
+      </c>
+      <c r="C243">
+        <v>10376</v>
+      </c>
+      <c r="D243">
+        <v>19681</v>
+      </c>
+      <c r="E243">
+        <v>16277</v>
+      </c>
+      <c r="F243">
+        <v>12942</v>
+      </c>
+      <c r="G243">
+        <v>20121</v>
+      </c>
+      <c r="H243">
+        <v>1.07</v>
+      </c>
+      <c r="I243">
+        <v>0.93</v>
+      </c>
+      <c r="J243">
+        <v>1.23</v>
+      </c>
+      <c r="K243">
+        <v>0.99</v>
+      </c>
+      <c r="L243">
+        <v>0.91</v>
+      </c>
+      <c r="M243">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13">
+      <c r="A244" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B244">
+        <v>12178</v>
+      </c>
+      <c r="C244">
+        <v>7759</v>
+      </c>
+      <c r="D244">
+        <v>16904</v>
+      </c>
+      <c r="E244">
+        <v>14920</v>
+      </c>
+      <c r="F244">
+        <v>11173</v>
+      </c>
+      <c r="G244">
+        <v>19317</v>
+      </c>
+      <c r="H244">
+        <v>0.94</v>
+      </c>
+      <c r="I244">
+        <v>0.79</v>
+      </c>
+      <c r="J244">
+        <v>1.07</v>
+      </c>
+      <c r="K244">
+        <v>0.92</v>
+      </c>
+      <c r="L244">
+        <v>0.84</v>
+      </c>
+      <c r="M244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13">
+      <c r="A245" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B245">
+        <v>9475</v>
+      </c>
+      <c r="C245">
+        <v>5927</v>
+      </c>
+      <c r="D245">
+        <v>13941</v>
+      </c>
+      <c r="E245">
+        <v>13030</v>
+      </c>
+      <c r="F245">
+        <v>9181</v>
+      </c>
+      <c r="G245">
+        <v>17558</v>
+      </c>
+      <c r="H245">
+        <v>0.81</v>
+      </c>
+      <c r="I245">
+        <v>0.66</v>
+      </c>
+      <c r="J245">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rki-data/RKI-Nowcasting_Zahlen.xlsx
+++ b/rki-data/RKI-Nowcasting_Zahlen.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61D97A5-4086-4D85-8396-DAC4972E324F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-01-02\Nowcast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87A9A508-C702-48DD-9C53-0F20F7B4F28F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24420" windowHeight="11565" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
@@ -27,7 +32,7 @@
     <t>Ergebnisse des Nowcastings und der Schätzung der Reproduktionszahl R</t>
   </si>
   <si>
-    <t>Datenstand: 31.12.2020, 00:00 Uhr</t>
+    <t>Datenstand: 02.01.2021, 00:00 Uhr</t>
   </si>
   <si>
     <t>Die Ergebnisse des Nowcastings, also die Schätzung der Anzahl von COVID-19 Neuerkrankungen wird dargestellt mit einem gleitenden 4-Tages-Mittelwert.</t>
@@ -36,7 +41,7 @@
     <t>Dabei wird jeder Wert mit den Werten der 3 vorhergehenden Tage gemittelt.</t>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 31.12.2020 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 02.01.2021 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -138,10 +143,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -554,7 +559,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -562,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -578,10 +582,10 @@
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -9319,10 +9323,10 @@
         <v>44106</v>
       </c>
       <c r="B216">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="C216">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="D216">
         <v>3438</v>
@@ -9363,13 +9367,13 @@
         <v>3357</v>
       </c>
       <c r="C217">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="D217">
         <v>3440</v>
       </c>
       <c r="E217">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="F217">
         <v>3057</v>
@@ -9404,7 +9408,7 @@
         <v>3420</v>
       </c>
       <c r="C218">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="D218">
         <v>3472</v>
@@ -9445,19 +9449,19 @@
         <v>4758</v>
       </c>
       <c r="C219">
-        <v>4677</v>
+        <v>4676</v>
       </c>
       <c r="D219">
-        <v>4843</v>
+        <v>4846</v>
       </c>
       <c r="E219">
         <v>3727</v>
       </c>
       <c r="F219">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="G219">
-        <v>3798</v>
+        <v>3799</v>
       </c>
       <c r="H219">
         <v>1.33</v>
@@ -9486,10 +9490,10 @@
         <v>4794</v>
       </c>
       <c r="C220">
-        <v>4701</v>
+        <v>4703</v>
       </c>
       <c r="D220">
-        <v>4888</v>
+        <v>4885</v>
       </c>
       <c r="E220">
         <v>4082</v>
@@ -9524,22 +9528,22 @@
         <v>44111</v>
       </c>
       <c r="B221">
-        <v>4913</v>
+        <v>4912</v>
       </c>
       <c r="C221">
-        <v>4832</v>
+        <v>4824</v>
       </c>
       <c r="D221">
-        <v>5006</v>
+        <v>5002</v>
       </c>
       <c r="E221">
         <v>4471</v>
       </c>
       <c r="F221">
-        <v>4390</v>
+        <v>4389</v>
       </c>
       <c r="G221">
-        <v>4552</v>
+        <v>4551</v>
       </c>
       <c r="H221">
         <v>1.43</v>
@@ -9568,7 +9572,7 @@
         <v>4979</v>
       </c>
       <c r="C222">
-        <v>4885</v>
+        <v>4887</v>
       </c>
       <c r="D222">
         <v>5078</v>
@@ -9577,10 +9581,10 @@
         <v>4861</v>
       </c>
       <c r="F222">
-        <v>4774</v>
+        <v>4772</v>
       </c>
       <c r="G222">
-        <v>4954</v>
+        <v>4953</v>
       </c>
       <c r="H222">
         <v>1.48</v>
@@ -9606,10 +9610,10 @@
         <v>44113</v>
       </c>
       <c r="B223">
-        <v>5380</v>
+        <v>5379</v>
       </c>
       <c r="C223">
-        <v>5301</v>
+        <v>5307</v>
       </c>
       <c r="D223">
         <v>5465</v>
@@ -9621,7 +9625,7 @@
         <v>4930</v>
       </c>
       <c r="G223">
-        <v>5109</v>
+        <v>5107</v>
       </c>
       <c r="H223">
         <v>1.35</v>
@@ -9636,7 +9640,7 @@
         <v>1.32</v>
       </c>
       <c r="L223">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M223">
         <v>1.32</v>
@@ -9647,13 +9651,13 @@
         <v>44114</v>
       </c>
       <c r="B224">
-        <v>5311</v>
+        <v>5310</v>
       </c>
       <c r="C224">
-        <v>5212</v>
+        <v>5211</v>
       </c>
       <c r="D224">
-        <v>5392</v>
+        <v>5386</v>
       </c>
       <c r="E224">
         <v>5145</v>
@@ -9662,7 +9666,7 @@
         <v>5057</v>
       </c>
       <c r="G224">
-        <v>5235</v>
+        <v>5232</v>
       </c>
       <c r="H224">
         <v>1.26</v>
@@ -9688,22 +9692,22 @@
         <v>44115</v>
       </c>
       <c r="B225">
-        <v>5500</v>
+        <v>5499</v>
       </c>
       <c r="C225">
-        <v>5386</v>
+        <v>5382</v>
       </c>
       <c r="D225">
-        <v>5575</v>
+        <v>5573</v>
       </c>
       <c r="E225">
         <v>5292</v>
       </c>
       <c r="F225">
-        <v>5196</v>
+        <v>5197</v>
       </c>
       <c r="G225">
-        <v>5377</v>
+        <v>5375</v>
       </c>
       <c r="H225">
         <v>1.18</v>
@@ -9729,22 +9733,22 @@
         <v>44116</v>
       </c>
       <c r="B226">
-        <v>7499</v>
+        <v>7498</v>
       </c>
       <c r="C226">
-        <v>7400</v>
+        <v>7392</v>
       </c>
       <c r="D226">
-        <v>7610</v>
+        <v>7602</v>
       </c>
       <c r="E226">
         <v>5922</v>
       </c>
       <c r="F226">
-        <v>5824</v>
+        <v>5823</v>
       </c>
       <c r="G226">
-        <v>6010</v>
+        <v>6006</v>
       </c>
       <c r="H226">
         <v>1.22</v>
@@ -9753,7 +9757,7 @@
         <v>1.2</v>
       </c>
       <c r="J226">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="K226">
         <v>1.31</v>
@@ -9770,22 +9774,22 @@
         <v>44117</v>
       </c>
       <c r="B227">
-        <v>7856</v>
+        <v>7855</v>
       </c>
       <c r="C227">
-        <v>7748</v>
+        <v>7749</v>
       </c>
       <c r="D227">
-        <v>7965</v>
+        <v>7961</v>
       </c>
       <c r="E227">
         <v>6541</v>
       </c>
       <c r="F227">
-        <v>6436</v>
+        <v>6433</v>
       </c>
       <c r="G227">
-        <v>6635</v>
+        <v>6630</v>
       </c>
       <c r="H227">
         <v>1.3</v>
@@ -9811,22 +9815,22 @@
         <v>44118</v>
       </c>
       <c r="B228">
-        <v>8438</v>
+        <v>8437</v>
       </c>
       <c r="C228">
-        <v>8301</v>
+        <v>8290</v>
       </c>
       <c r="D228">
-        <v>8579</v>
+        <v>8576</v>
       </c>
       <c r="E228">
-        <v>7323</v>
+        <v>7322</v>
       </c>
       <c r="F228">
-        <v>7208</v>
+        <v>7203</v>
       </c>
       <c r="G228">
-        <v>7432</v>
+        <v>7428</v>
       </c>
       <c r="H228">
         <v>1.42</v>
@@ -9852,22 +9856,22 @@
         <v>44119</v>
       </c>
       <c r="B229">
-        <v>8695</v>
+        <v>8692</v>
       </c>
       <c r="C229">
-        <v>8572</v>
+        <v>8588</v>
       </c>
       <c r="D229">
-        <v>8831</v>
+        <v>8817</v>
       </c>
       <c r="E229">
-        <v>8122</v>
+        <v>8121</v>
       </c>
       <c r="F229">
         <v>8005</v>
       </c>
       <c r="G229">
-        <v>8246</v>
+        <v>8239</v>
       </c>
       <c r="H229">
         <v>1.53</v>
@@ -9893,22 +9897,22 @@
         <v>44120</v>
       </c>
       <c r="B230">
-        <v>9553</v>
+        <v>9559</v>
       </c>
       <c r="C230">
-        <v>9420</v>
+        <v>9404</v>
       </c>
       <c r="D230">
-        <v>9679</v>
+        <v>9674</v>
       </c>
       <c r="E230">
         <v>8636</v>
       </c>
       <c r="F230">
-        <v>8510</v>
+        <v>8508</v>
       </c>
       <c r="G230">
-        <v>8763</v>
+        <v>8757</v>
       </c>
       <c r="H230">
         <v>1.46</v>
@@ -9934,22 +9938,22 @@
         <v>44121</v>
       </c>
       <c r="B231">
-        <v>9361</v>
+        <v>9358</v>
       </c>
       <c r="C231">
-        <v>9238</v>
+        <v>9220</v>
       </c>
       <c r="D231">
-        <v>9490</v>
+        <v>9488</v>
       </c>
       <c r="E231">
-        <v>9012</v>
+        <v>9011</v>
       </c>
       <c r="F231">
-        <v>8883</v>
+        <v>8876</v>
       </c>
       <c r="G231">
-        <v>9144</v>
+        <v>9139</v>
       </c>
       <c r="H231">
         <v>1.38</v>
@@ -9975,22 +9979,22 @@
         <v>44122</v>
       </c>
       <c r="B232">
-        <v>10456</v>
+        <v>10457</v>
       </c>
       <c r="C232">
-        <v>10337</v>
+        <v>10334</v>
       </c>
       <c r="D232">
-        <v>10632</v>
+        <v>10622</v>
       </c>
       <c r="E232">
         <v>9516</v>
       </c>
       <c r="F232">
-        <v>9392</v>
+        <v>9386</v>
       </c>
       <c r="G232">
-        <v>9658</v>
+        <v>9650</v>
       </c>
       <c r="H232">
         <v>1.3</v>
@@ -10016,22 +10020,22 @@
         <v>44123</v>
       </c>
       <c r="B233">
-        <v>13818</v>
+        <v>13826</v>
       </c>
       <c r="C233">
-        <v>13670</v>
+        <v>13664</v>
       </c>
       <c r="D233">
-        <v>13977</v>
+        <v>13978</v>
       </c>
       <c r="E233">
-        <v>10797</v>
+        <v>10800</v>
       </c>
       <c r="F233">
-        <v>10666</v>
+        <v>10655</v>
       </c>
       <c r="G233">
-        <v>10944</v>
+        <v>10941</v>
       </c>
       <c r="H233">
         <v>1.33</v>
@@ -10057,22 +10061,22 @@
         <v>44124</v>
       </c>
       <c r="B234">
-        <v>14824</v>
+        <v>14820</v>
       </c>
       <c r="C234">
-        <v>14648</v>
+        <v>14634</v>
       </c>
       <c r="D234">
-        <v>14977</v>
+        <v>14949</v>
       </c>
       <c r="E234">
         <v>12115</v>
       </c>
       <c r="F234">
-        <v>11973</v>
+        <v>11963</v>
       </c>
       <c r="G234">
-        <v>12269</v>
+        <v>12259</v>
       </c>
       <c r="H234">
         <v>1.4</v>
@@ -10098,22 +10102,22 @@
         <v>44125</v>
       </c>
       <c r="B235">
-        <v>15393</v>
+        <v>15394</v>
       </c>
       <c r="C235">
-        <v>15223</v>
+        <v>15227</v>
       </c>
       <c r="D235">
-        <v>15560</v>
+        <v>15570</v>
       </c>
       <c r="E235">
-        <v>13623</v>
+        <v>13624</v>
       </c>
       <c r="F235">
-        <v>13469</v>
+        <v>13464</v>
       </c>
       <c r="G235">
-        <v>13786</v>
+        <v>13780</v>
       </c>
       <c r="H235">
         <v>1.51</v>
@@ -10139,22 +10143,22 @@
         <v>44126</v>
       </c>
       <c r="B236">
-        <v>15038</v>
+        <v>15032</v>
       </c>
       <c r="C236">
-        <v>14855</v>
+        <v>14858</v>
       </c>
       <c r="D236">
-        <v>15208</v>
+        <v>15188</v>
       </c>
       <c r="E236">
         <v>14768</v>
       </c>
       <c r="F236">
-        <v>14599</v>
+        <v>14596</v>
       </c>
       <c r="G236">
-        <v>14930</v>
+        <v>14921</v>
       </c>
       <c r="H236">
         <v>1.55</v>
@@ -10163,7 +10167,7 @@
         <v>1.54</v>
       </c>
       <c r="J236">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="K236">
         <v>1.39</v>
@@ -10180,22 +10184,22 @@
         <v>44127</v>
       </c>
       <c r="B237">
-        <v>15845</v>
+        <v>15853</v>
       </c>
       <c r="C237">
-        <v>15654</v>
+        <v>15649</v>
       </c>
       <c r="D237">
-        <v>15986</v>
+        <v>16039</v>
       </c>
       <c r="E237">
         <v>15275</v>
       </c>
       <c r="F237">
-        <v>15095</v>
+        <v>15092</v>
       </c>
       <c r="G237">
-        <v>15433</v>
+        <v>15436</v>
       </c>
       <c r="H237">
         <v>1.41</v>
@@ -10221,22 +10225,22 @@
         <v>44128</v>
       </c>
       <c r="B238">
-        <v>15077</v>
+        <v>15088</v>
       </c>
       <c r="C238">
-        <v>14913</v>
+        <v>14916</v>
       </c>
       <c r="D238">
-        <v>15251</v>
+        <v>15236</v>
       </c>
       <c r="E238">
-        <v>15338</v>
+        <v>15342</v>
       </c>
       <c r="F238">
-        <v>15161</v>
+        <v>15162</v>
       </c>
       <c r="G238">
-        <v>15501</v>
+        <v>15508</v>
       </c>
       <c r="H238">
         <v>1.27</v>
@@ -10262,22 +10266,22 @@
         <v>44129</v>
       </c>
       <c r="B239">
-        <v>15647</v>
+        <v>15654</v>
       </c>
       <c r="C239">
-        <v>15491</v>
+        <v>15479</v>
       </c>
       <c r="D239">
-        <v>15776</v>
+        <v>15845</v>
       </c>
       <c r="E239">
-        <v>15402</v>
+        <v>15407</v>
       </c>
       <c r="F239">
-        <v>15228</v>
+        <v>15225</v>
       </c>
       <c r="G239">
-        <v>15555</v>
+        <v>15577</v>
       </c>
       <c r="H239">
         <v>1.1299999999999999</v>
@@ -10303,22 +10307,22 @@
         <v>44130</v>
       </c>
       <c r="B240">
-        <v>19210</v>
+        <v>19202</v>
       </c>
       <c r="C240">
-        <v>19032</v>
+        <v>19047</v>
       </c>
       <c r="D240">
-        <v>19369</v>
+        <v>19379</v>
       </c>
       <c r="E240">
-        <v>16445</v>
+        <v>16449</v>
       </c>
       <c r="F240">
-        <v>16272</v>
+        <v>16273</v>
       </c>
       <c r="G240">
-        <v>16595</v>
+        <v>16625</v>
       </c>
       <c r="H240">
         <v>1.1100000000000001</v>
@@ -10336,7 +10340,7 @@
         <v>1.2</v>
       </c>
       <c r="M240">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10344,22 +10348,22 @@
         <v>44131</v>
       </c>
       <c r="B241">
-        <v>18414</v>
+        <v>18417</v>
       </c>
       <c r="C241">
-        <v>18236</v>
+        <v>18256</v>
       </c>
       <c r="D241">
-        <v>18588</v>
+        <v>18617</v>
       </c>
       <c r="E241">
-        <v>17087</v>
+        <v>17090</v>
       </c>
       <c r="F241">
-        <v>16918</v>
+        <v>16924</v>
       </c>
       <c r="G241">
-        <v>17246</v>
+        <v>17269</v>
       </c>
       <c r="H241">
         <v>1.1200000000000001</v>
@@ -10385,22 +10389,22 @@
         <v>44132</v>
       </c>
       <c r="B242">
-        <v>18099</v>
+        <v>18090</v>
       </c>
       <c r="C242">
-        <v>17915</v>
+        <v>17890</v>
       </c>
       <c r="D242">
-        <v>18268</v>
+        <v>18276</v>
       </c>
       <c r="E242">
-        <v>17843</v>
+        <v>17841</v>
       </c>
       <c r="F242">
         <v>17668</v>
       </c>
       <c r="G242">
-        <v>18000</v>
+        <v>18029</v>
       </c>
       <c r="H242">
         <v>1.1599999999999999</v>
@@ -10426,22 +10430,22 @@
         <v>44133</v>
       </c>
       <c r="B243">
-        <v>16806</v>
+        <v>16811</v>
       </c>
       <c r="C243">
-        <v>16650</v>
+        <v>16595</v>
       </c>
       <c r="D243">
-        <v>17021</v>
+        <v>16994</v>
       </c>
       <c r="E243">
-        <v>18132</v>
+        <v>18130</v>
       </c>
       <c r="F243">
-        <v>17958</v>
+        <v>17947</v>
       </c>
       <c r="G243">
-        <v>18311</v>
+        <v>18316</v>
       </c>
       <c r="H243">
         <v>1.18</v>
@@ -10450,7 +10454,7 @@
         <v>1.17</v>
       </c>
       <c r="J243">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="K243">
         <v>1.0900000000000001</v>
@@ -10467,28 +10471,28 @@
         <v>44134</v>
       </c>
       <c r="B244">
-        <v>17256</v>
+        <v>17247</v>
       </c>
       <c r="C244">
-        <v>17108</v>
+        <v>17091</v>
       </c>
       <c r="D244">
-        <v>17446</v>
+        <v>17386</v>
       </c>
       <c r="E244">
-        <v>17644</v>
+        <v>17641</v>
       </c>
       <c r="F244">
-        <v>17477</v>
+        <v>17458</v>
       </c>
       <c r="G244">
-        <v>17831</v>
+        <v>17818</v>
       </c>
       <c r="H244">
         <v>1.07</v>
       </c>
       <c r="I244">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="J244">
         <v>1.08</v>
@@ -10508,22 +10512,22 @@
         <v>44135</v>
       </c>
       <c r="B245">
-        <v>15597</v>
+        <v>15613</v>
       </c>
       <c r="C245">
-        <v>15457</v>
+        <v>15410</v>
       </c>
       <c r="D245">
-        <v>15749</v>
+        <v>15779</v>
       </c>
       <c r="E245">
         <v>16940</v>
       </c>
       <c r="F245">
-        <v>16782</v>
+        <v>16746</v>
       </c>
       <c r="G245">
-        <v>17121</v>
+        <v>17108</v>
       </c>
       <c r="H245">
         <v>0.99</v>
@@ -10549,22 +10553,22 @@
         <v>44136</v>
       </c>
       <c r="B246">
-        <v>16647</v>
+        <v>16655</v>
       </c>
       <c r="C246">
-        <v>16457</v>
+        <v>16493</v>
       </c>
       <c r="D246">
-        <v>16827</v>
+        <v>16837</v>
       </c>
       <c r="E246">
-        <v>16576</v>
+        <v>16582</v>
       </c>
       <c r="F246">
-        <v>16418</v>
+        <v>16397</v>
       </c>
       <c r="G246">
-        <v>16760</v>
+        <v>16749</v>
       </c>
       <c r="H246">
         <v>0.93</v>
@@ -10579,7 +10583,7 @@
         <v>1.04</v>
       </c>
       <c r="L246">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="M246">
         <v>1.04</v>
@@ -10590,19 +10594,19 @@
         <v>44137</v>
       </c>
       <c r="B247">
-        <v>20975</v>
+        <v>20967</v>
       </c>
       <c r="C247">
-        <v>20796</v>
+        <v>20782</v>
       </c>
       <c r="D247">
-        <v>21147</v>
+        <v>21166</v>
       </c>
       <c r="E247">
-        <v>17619</v>
+        <v>17621</v>
       </c>
       <c r="F247">
-        <v>17454</v>
+        <v>17444</v>
       </c>
       <c r="G247">
         <v>17792</v>
@@ -10631,22 +10635,22 @@
         <v>44138</v>
       </c>
       <c r="B248">
-        <v>19033</v>
+        <v>19018</v>
       </c>
       <c r="C248">
-        <v>18846</v>
+        <v>18842</v>
       </c>
       <c r="D248">
-        <v>19196</v>
+        <v>19200</v>
       </c>
       <c r="E248">
         <v>18063</v>
       </c>
       <c r="F248">
-        <v>17889</v>
+        <v>17882</v>
       </c>
       <c r="G248">
-        <v>18229</v>
+        <v>18245</v>
       </c>
       <c r="H248">
         <v>1.02</v>
@@ -10672,19 +10676,19 @@
         <v>44139</v>
       </c>
       <c r="B249">
-        <v>18014</v>
+        <v>18021</v>
       </c>
       <c r="C249">
-        <v>17816</v>
+        <v>17853</v>
       </c>
       <c r="D249">
-        <v>18207</v>
+        <v>18173</v>
       </c>
       <c r="E249">
-        <v>18667</v>
+        <v>18665</v>
       </c>
       <c r="F249">
-        <v>18479</v>
+        <v>18493</v>
       </c>
       <c r="G249">
         <v>18844</v>
@@ -10713,28 +10717,28 @@
         <v>44140</v>
       </c>
       <c r="B250">
-        <v>16540</v>
+        <v>16539</v>
       </c>
       <c r="C250">
-        <v>16382</v>
+        <v>16371</v>
       </c>
       <c r="D250">
-        <v>16711</v>
+        <v>16729</v>
       </c>
       <c r="E250">
-        <v>18641</v>
+        <v>18636</v>
       </c>
       <c r="F250">
-        <v>18460</v>
+        <v>18462</v>
       </c>
       <c r="G250">
-        <v>18815</v>
+        <v>18817</v>
       </c>
       <c r="H250">
         <v>1.1200000000000001</v>
       </c>
       <c r="I250">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J250">
         <v>1.1299999999999999</v>
@@ -10754,22 +10758,22 @@
         <v>44141</v>
       </c>
       <c r="B251">
-        <v>16109</v>
+        <v>16124</v>
       </c>
       <c r="C251">
-        <v>15944</v>
+        <v>15971</v>
       </c>
       <c r="D251">
-        <v>16271</v>
+        <v>16312</v>
       </c>
       <c r="E251">
-        <v>17424</v>
+        <v>17425</v>
       </c>
       <c r="F251">
-        <v>17247</v>
+        <v>17259</v>
       </c>
       <c r="G251">
-        <v>17596</v>
+        <v>17603</v>
       </c>
       <c r="H251">
         <v>0.99</v>
@@ -10795,19 +10799,19 @@
         <v>44142</v>
       </c>
       <c r="B252">
-        <v>15054</v>
+        <v>15049</v>
       </c>
       <c r="C252">
-        <v>14891</v>
+        <v>14901</v>
       </c>
       <c r="D252">
-        <v>15227</v>
+        <v>15204</v>
       </c>
       <c r="E252">
-        <v>16429</v>
+        <v>16433</v>
       </c>
       <c r="F252">
-        <v>16258</v>
+        <v>16274</v>
       </c>
       <c r="G252">
         <v>16604</v>
@@ -10839,19 +10843,19 @@
         <v>15143</v>
       </c>
       <c r="C253">
-        <v>14970</v>
+        <v>14942</v>
       </c>
       <c r="D253">
-        <v>15317</v>
+        <v>15322</v>
       </c>
       <c r="E253">
-        <v>15712</v>
+        <v>15714</v>
       </c>
       <c r="F253">
-        <v>15547</v>
+        <v>15546</v>
       </c>
       <c r="G253">
-        <v>15881</v>
+        <v>15892</v>
       </c>
       <c r="H253">
         <v>0.84</v>
@@ -10866,7 +10870,7 @@
         <v>0.96</v>
       </c>
       <c r="L253">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="M253">
         <v>0.96</v>
@@ -10877,22 +10881,22 @@
         <v>44144</v>
       </c>
       <c r="B254">
-        <v>19039</v>
+        <v>19037</v>
       </c>
       <c r="C254">
-        <v>18861</v>
+        <v>18852</v>
       </c>
       <c r="D254">
-        <v>19222</v>
+        <v>19282</v>
       </c>
       <c r="E254">
-        <v>16336</v>
+        <v>16338</v>
       </c>
       <c r="F254">
         <v>16166</v>
       </c>
       <c r="G254">
-        <v>16509</v>
+        <v>16530</v>
       </c>
       <c r="H254">
         <v>0.88</v>
@@ -10918,19 +10922,19 @@
         <v>44145</v>
       </c>
       <c r="B255">
-        <v>18438</v>
+        <v>18431</v>
       </c>
       <c r="C255">
-        <v>18223</v>
+        <v>18229</v>
       </c>
       <c r="D255">
-        <v>18646</v>
+        <v>18606</v>
       </c>
       <c r="E255">
-        <v>16919</v>
+        <v>16915</v>
       </c>
       <c r="F255">
-        <v>16736</v>
+        <v>16731</v>
       </c>
       <c r="G255">
         <v>17103</v>
@@ -10959,28 +10963,28 @@
         <v>44146</v>
       </c>
       <c r="B256">
-        <v>17905</v>
+        <v>17922</v>
       </c>
       <c r="C256">
-        <v>17718</v>
+        <v>17725</v>
       </c>
       <c r="D256">
-        <v>18090</v>
+        <v>18099</v>
       </c>
       <c r="E256">
-        <v>17631</v>
+        <v>17633</v>
       </c>
       <c r="F256">
-        <v>17443</v>
+        <v>17437</v>
       </c>
       <c r="G256">
-        <v>17819</v>
+        <v>17827</v>
       </c>
       <c r="H256">
         <v>1.07</v>
       </c>
       <c r="I256">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="J256">
         <v>1.08</v>
@@ -11000,22 +11004,22 @@
         <v>44147</v>
       </c>
       <c r="B257">
-        <v>17647</v>
+        <v>17651</v>
       </c>
       <c r="C257">
-        <v>17469</v>
+        <v>17473</v>
       </c>
       <c r="D257">
-        <v>17815</v>
+        <v>17848</v>
       </c>
       <c r="E257">
-        <v>18257</v>
+        <v>18261</v>
       </c>
       <c r="F257">
-        <v>18067</v>
+        <v>18070</v>
       </c>
       <c r="G257">
-        <v>18443</v>
+        <v>18459</v>
       </c>
       <c r="H257">
         <v>1.1599999999999999</v>
@@ -11041,22 +11045,22 @@
         <v>44148</v>
       </c>
       <c r="B258">
-        <v>18352</v>
+        <v>18350</v>
       </c>
       <c r="C258">
-        <v>18192</v>
+        <v>18178</v>
       </c>
       <c r="D258">
-        <v>18530</v>
+        <v>18539</v>
       </c>
       <c r="E258">
-        <v>18085</v>
+        <v>18089</v>
       </c>
       <c r="F258">
-        <v>17900</v>
+        <v>17901</v>
       </c>
       <c r="G258">
-        <v>18270</v>
+        <v>18273</v>
       </c>
       <c r="H258">
         <v>1.1100000000000001</v>
@@ -11065,7 +11069,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J258">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="K258">
         <v>1.04</v>
@@ -11082,22 +11086,22 @@
         <v>44149</v>
       </c>
       <c r="B259">
-        <v>16320</v>
+        <v>16316</v>
       </c>
       <c r="C259">
-        <v>16107</v>
+        <v>16162</v>
       </c>
       <c r="D259">
-        <v>16497</v>
+        <v>16501</v>
       </c>
       <c r="E259">
-        <v>17556</v>
+        <v>17560</v>
       </c>
       <c r="F259">
-        <v>17371</v>
+        <v>17384</v>
       </c>
       <c r="G259">
-        <v>17733</v>
+        <v>17746</v>
       </c>
       <c r="H259">
         <v>1.04</v>
@@ -11106,7 +11110,7 @@
         <v>1.03</v>
       </c>
       <c r="J259">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K259">
         <v>1.05</v>
@@ -11123,22 +11127,22 @@
         <v>44150</v>
       </c>
       <c r="B260">
-        <v>16481</v>
+        <v>16488</v>
       </c>
       <c r="C260">
-        <v>16315</v>
+        <v>16319</v>
       </c>
       <c r="D260">
-        <v>16684</v>
+        <v>16672</v>
       </c>
       <c r="E260">
-        <v>17200</v>
+        <v>17201</v>
       </c>
       <c r="F260">
-        <v>17020</v>
+        <v>17033</v>
       </c>
       <c r="G260">
-        <v>17381</v>
+        <v>17390</v>
       </c>
       <c r="H260">
         <v>0.98</v>
@@ -11164,22 +11168,22 @@
         <v>44151</v>
       </c>
       <c r="B261">
-        <v>20482</v>
+        <v>20459</v>
       </c>
       <c r="C261">
-        <v>20261</v>
+        <v>20268</v>
       </c>
       <c r="D261">
-        <v>20659</v>
+        <v>20646</v>
       </c>
       <c r="E261">
-        <v>17909</v>
+        <v>17903</v>
       </c>
       <c r="F261">
-        <v>17718</v>
+        <v>17732</v>
       </c>
       <c r="G261">
-        <v>18092</v>
+        <v>18089</v>
       </c>
       <c r="H261">
         <v>0.98</v>
@@ -11205,25 +11209,25 @@
         <v>44152</v>
       </c>
       <c r="B262">
-        <v>19445</v>
+        <v>19440</v>
       </c>
       <c r="C262">
-        <v>19259</v>
+        <v>19214</v>
       </c>
       <c r="D262">
-        <v>19615</v>
+        <v>19603</v>
       </c>
       <c r="E262">
-        <v>18182</v>
+        <v>18176</v>
       </c>
       <c r="F262">
-        <v>17985</v>
+        <v>17991</v>
       </c>
       <c r="G262">
-        <v>18364</v>
+        <v>18355</v>
       </c>
       <c r="H262">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="I262">
         <v>1</v>
@@ -11246,22 +11250,22 @@
         <v>44153</v>
       </c>
       <c r="B263">
-        <v>18608</v>
+        <v>18606</v>
       </c>
       <c r="C263">
-        <v>18441</v>
+        <v>18423</v>
       </c>
       <c r="D263">
-        <v>18813</v>
+        <v>18811</v>
       </c>
       <c r="E263">
-        <v>18754</v>
+        <v>18748</v>
       </c>
       <c r="F263">
-        <v>18569</v>
+        <v>18556</v>
       </c>
       <c r="G263">
-        <v>18943</v>
+        <v>18933</v>
       </c>
       <c r="H263">
         <v>1.07</v>
@@ -11287,22 +11291,22 @@
         <v>44154</v>
       </c>
       <c r="B264">
-        <v>17287</v>
+        <v>17282</v>
       </c>
       <c r="C264">
-        <v>17107</v>
+        <v>17092</v>
       </c>
       <c r="D264">
-        <v>17483</v>
+        <v>17484</v>
       </c>
       <c r="E264">
-        <v>18955</v>
+        <v>18947</v>
       </c>
       <c r="F264">
-        <v>18767</v>
+        <v>18749</v>
       </c>
       <c r="G264">
-        <v>19142</v>
+        <v>19136</v>
       </c>
       <c r="H264">
         <v>1.1000000000000001</v>
@@ -11328,22 +11332,22 @@
         <v>44155</v>
       </c>
       <c r="B265">
-        <v>16799</v>
+        <v>16801</v>
       </c>
       <c r="C265">
-        <v>16614</v>
+        <v>16637</v>
       </c>
       <c r="D265">
-        <v>16988</v>
+        <v>16994</v>
       </c>
       <c r="E265">
-        <v>18035</v>
+        <v>18032</v>
       </c>
       <c r="F265">
-        <v>17855</v>
+        <v>17841</v>
       </c>
       <c r="G265">
-        <v>18225</v>
+        <v>18223</v>
       </c>
       <c r="H265">
         <v>1.01</v>
@@ -11369,22 +11373,22 @@
         <v>44156</v>
       </c>
       <c r="B266">
-        <v>14469</v>
+        <v>14472</v>
       </c>
       <c r="C266">
-        <v>14289</v>
+        <v>14288</v>
       </c>
       <c r="D266">
-        <v>14648</v>
+        <v>14632</v>
       </c>
       <c r="E266">
-        <v>16791</v>
+        <v>16790</v>
       </c>
       <c r="F266">
-        <v>16612</v>
+        <v>16610</v>
       </c>
       <c r="G266">
-        <v>16983</v>
+        <v>16980</v>
       </c>
       <c r="H266">
         <v>0.92</v>
@@ -11410,28 +11414,28 @@
         <v>44157</v>
       </c>
       <c r="B267">
-        <v>14531</v>
+        <v>14526</v>
       </c>
       <c r="C267">
-        <v>14398</v>
+        <v>14334</v>
       </c>
       <c r="D267">
-        <v>14737</v>
+        <v>14724</v>
       </c>
       <c r="E267">
-        <v>15771</v>
+        <v>15770</v>
       </c>
       <c r="F267">
-        <v>15602</v>
+        <v>15588</v>
       </c>
       <c r="G267">
-        <v>15964</v>
+        <v>15958</v>
       </c>
       <c r="H267">
         <v>0.84</v>
       </c>
       <c r="I267">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="J267">
         <v>0.85</v>
@@ -11451,22 +11455,22 @@
         <v>44158</v>
       </c>
       <c r="B268">
-        <v>18507</v>
+        <v>18502</v>
       </c>
       <c r="C268">
-        <v>18320</v>
+        <v>18335</v>
       </c>
       <c r="D268">
-        <v>18684</v>
+        <v>18667</v>
       </c>
       <c r="E268">
-        <v>16077</v>
+        <v>16075</v>
       </c>
       <c r="F268">
-        <v>15905</v>
+        <v>15898</v>
       </c>
       <c r="G268">
-        <v>16264</v>
+        <v>16254</v>
       </c>
       <c r="H268">
         <v>0.85</v>
@@ -11475,13 +11479,13 @@
         <v>0.84</v>
       </c>
       <c r="J268">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="K268">
         <v>0.94</v>
       </c>
       <c r="L268">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="M268">
         <v>0.94</v>
@@ -11492,28 +11496,28 @@
         <v>44159</v>
       </c>
       <c r="B269">
-        <v>17480</v>
+        <v>17487</v>
       </c>
       <c r="C269">
-        <v>17331</v>
+        <v>17319</v>
       </c>
       <c r="D269">
-        <v>17685</v>
+        <v>17646</v>
       </c>
       <c r="E269">
         <v>16247</v>
       </c>
       <c r="F269">
-        <v>16084</v>
+        <v>16069</v>
       </c>
       <c r="G269">
-        <v>16438</v>
+        <v>16417</v>
       </c>
       <c r="H269">
         <v>0.9</v>
       </c>
       <c r="I269">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="J269">
         <v>0.91</v>
@@ -11533,22 +11537,22 @@
         <v>44160</v>
       </c>
       <c r="B270">
-        <v>16979</v>
+        <v>16967</v>
       </c>
       <c r="C270">
-        <v>16788</v>
+        <v>16810</v>
       </c>
       <c r="D270">
-        <v>17179</v>
+        <v>17148</v>
       </c>
       <c r="E270">
-        <v>16874</v>
+        <v>16871</v>
       </c>
       <c r="F270">
-        <v>16709</v>
+        <v>16699</v>
       </c>
       <c r="G270">
-        <v>17071</v>
+        <v>17046</v>
       </c>
       <c r="H270">
         <v>1</v>
@@ -11574,22 +11578,22 @@
         <v>44161</v>
       </c>
       <c r="B271">
-        <v>16100</v>
+        <v>16080</v>
       </c>
       <c r="C271">
-        <v>15905</v>
+        <v>15896</v>
       </c>
       <c r="D271">
-        <v>16309</v>
+        <v>16254</v>
       </c>
       <c r="E271">
-        <v>17266</v>
+        <v>17259</v>
       </c>
       <c r="F271">
-        <v>17086</v>
+        <v>17090</v>
       </c>
       <c r="G271">
-        <v>17464</v>
+        <v>17429</v>
       </c>
       <c r="H271">
         <v>1.0900000000000001</v>
@@ -11615,22 +11619,22 @@
         <v>44162</v>
       </c>
       <c r="B272">
-        <v>16514</v>
+        <v>16515</v>
       </c>
       <c r="C272">
-        <v>16352</v>
+        <v>16332</v>
       </c>
       <c r="D272">
-        <v>16681</v>
+        <v>16680</v>
       </c>
       <c r="E272">
-        <v>16768</v>
+        <v>16762</v>
       </c>
       <c r="F272">
-        <v>16594</v>
+        <v>16589</v>
       </c>
       <c r="G272">
-        <v>16963</v>
+        <v>16932</v>
       </c>
       <c r="H272">
         <v>1.04</v>
@@ -11656,34 +11660,34 @@
         <v>44163</v>
       </c>
       <c r="B273">
-        <v>15602</v>
+        <v>15591</v>
       </c>
       <c r="C273">
-        <v>15414</v>
+        <v>15448</v>
       </c>
       <c r="D273">
-        <v>15786</v>
+        <v>15776</v>
       </c>
       <c r="E273">
-        <v>16299</v>
+        <v>16288</v>
       </c>
       <c r="F273">
-        <v>16115</v>
+        <v>16122</v>
       </c>
       <c r="G273">
-        <v>16489</v>
+        <v>16464</v>
       </c>
       <c r="H273">
         <v>1</v>
       </c>
       <c r="I273">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="J273">
         <v>1.01</v>
       </c>
       <c r="K273">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="L273">
         <v>1</v>
@@ -11697,22 +11701,22 @@
         <v>44164</v>
       </c>
       <c r="B274">
-        <v>15479</v>
+        <v>15471</v>
       </c>
       <c r="C274">
-        <v>15305</v>
+        <v>15281</v>
       </c>
       <c r="D274">
-        <v>15645</v>
+        <v>15649</v>
       </c>
       <c r="E274">
-        <v>15924</v>
+        <v>15914</v>
       </c>
       <c r="F274">
-        <v>15744</v>
+        <v>15739</v>
       </c>
       <c r="G274">
-        <v>16105</v>
+        <v>16090</v>
       </c>
       <c r="H274">
         <v>0.94</v>
@@ -11738,22 +11742,22 @@
         <v>44165</v>
       </c>
       <c r="B275">
-        <v>20888</v>
+        <v>20875</v>
       </c>
       <c r="C275">
-        <v>20661</v>
+        <v>20686</v>
       </c>
       <c r="D275">
-        <v>21090</v>
+        <v>21063</v>
       </c>
       <c r="E275">
-        <v>17121</v>
+        <v>17113</v>
       </c>
       <c r="F275">
-        <v>16933</v>
+        <v>16937</v>
       </c>
       <c r="G275">
-        <v>17301</v>
+        <v>17292</v>
       </c>
       <c r="H275">
         <v>0.99</v>
@@ -11779,22 +11783,22 @@
         <v>44166</v>
       </c>
       <c r="B276">
-        <v>20893</v>
+        <v>20885</v>
       </c>
       <c r="C276">
-        <v>20558</v>
+        <v>20694</v>
       </c>
       <c r="D276">
-        <v>21267</v>
+        <v>21090</v>
       </c>
       <c r="E276">
-        <v>18216</v>
+        <v>18205</v>
       </c>
       <c r="F276">
-        <v>17984</v>
+        <v>18027</v>
       </c>
       <c r="G276">
-        <v>18447</v>
+        <v>18395</v>
       </c>
       <c r="H276">
         <v>1.0900000000000001</v>
@@ -11803,7 +11807,7 @@
         <v>1.08</v>
       </c>
       <c r="J276">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K276">
         <v>1.0900000000000001</v>
@@ -11820,28 +11824,28 @@
         <v>44167</v>
       </c>
       <c r="B277">
-        <v>20741</v>
+        <v>20734</v>
       </c>
       <c r="C277">
-        <v>20351</v>
+        <v>20525</v>
       </c>
       <c r="D277">
-        <v>21088</v>
+        <v>20956</v>
       </c>
       <c r="E277">
-        <v>19500</v>
+        <v>19491</v>
       </c>
       <c r="F277">
-        <v>19219</v>
+        <v>19296</v>
       </c>
       <c r="G277">
-        <v>19773</v>
+        <v>19690</v>
       </c>
       <c r="H277">
         <v>1.2</v>
       </c>
       <c r="I277">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="J277">
         <v>1.21</v>
@@ -11861,22 +11865,22 @@
         <v>44168</v>
       </c>
       <c r="B278">
-        <v>21126</v>
+        <v>21065</v>
       </c>
       <c r="C278">
-        <v>20638</v>
+        <v>20728</v>
       </c>
       <c r="D278">
-        <v>21556</v>
+        <v>21429</v>
       </c>
       <c r="E278">
-        <v>20912</v>
+        <v>20890</v>
       </c>
       <c r="F278">
-        <v>20552</v>
+        <v>20658</v>
       </c>
       <c r="G278">
-        <v>21250</v>
+        <v>21135</v>
       </c>
       <c r="H278">
         <v>1.31</v>
@@ -11885,7 +11889,7 @@
         <v>1.3</v>
       </c>
       <c r="J278">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="K278">
         <v>1.1499999999999999</v>
@@ -11902,22 +11906,22 @@
         <v>44169</v>
       </c>
       <c r="B279">
-        <v>21756</v>
+        <v>21728</v>
       </c>
       <c r="C279">
-        <v>21360</v>
+        <v>21309</v>
       </c>
       <c r="D279">
-        <v>22214</v>
+        <v>22063</v>
       </c>
       <c r="E279">
-        <v>21129</v>
+        <v>21103</v>
       </c>
       <c r="F279">
-        <v>20727</v>
+        <v>20814</v>
       </c>
       <c r="G279">
-        <v>21531</v>
+        <v>21385</v>
       </c>
       <c r="H279">
         <v>1.23</v>
@@ -11926,7 +11930,7 @@
         <v>1.22</v>
       </c>
       <c r="J279">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="K279">
         <v>1.1599999999999999</v>
@@ -11943,22 +11947,22 @@
         <v>44170</v>
       </c>
       <c r="B280">
-        <v>20775</v>
+        <v>20734</v>
       </c>
       <c r="C280">
-        <v>20394</v>
+        <v>20254</v>
       </c>
       <c r="D280">
-        <v>21126</v>
+        <v>21247</v>
       </c>
       <c r="E280">
-        <v>21099</v>
+        <v>21065</v>
       </c>
       <c r="F280">
-        <v>20686</v>
+        <v>20704</v>
       </c>
       <c r="G280">
-        <v>21496</v>
+        <v>21424</v>
       </c>
       <c r="H280">
         <v>1.1599999999999999</v>
@@ -11976,7 +11980,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="M280">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -11984,22 +11988,22 @@
         <v>44171</v>
       </c>
       <c r="B281">
-        <v>21126</v>
+        <v>21085</v>
       </c>
       <c r="C281">
-        <v>20615</v>
+        <v>20684</v>
       </c>
       <c r="D281">
-        <v>21696</v>
+        <v>21423</v>
       </c>
       <c r="E281">
-        <v>21196</v>
+        <v>21153</v>
       </c>
       <c r="F281">
-        <v>20752</v>
+        <v>20744</v>
       </c>
       <c r="G281">
-        <v>21648</v>
+        <v>21541</v>
       </c>
       <c r="H281">
         <v>1.0900000000000001</v>
@@ -12014,7 +12018,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="L281">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M281">
         <v>1.17</v>
@@ -12025,22 +12029,22 @@
         <v>44172</v>
       </c>
       <c r="B282">
-        <v>26221</v>
+        <v>26218</v>
       </c>
       <c r="C282">
-        <v>25420</v>
+        <v>25737</v>
       </c>
       <c r="D282">
-        <v>27034</v>
+        <v>26670</v>
       </c>
       <c r="E282">
-        <v>22469</v>
+        <v>22441</v>
       </c>
       <c r="F282">
-        <v>21947</v>
+        <v>21996</v>
       </c>
       <c r="G282">
-        <v>23017</v>
+        <v>22851</v>
       </c>
       <c r="H282">
         <v>1.07</v>
@@ -12058,7 +12062,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="M282">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -12066,22 +12070,22 @@
         <v>44173</v>
       </c>
       <c r="B283">
-        <v>26102</v>
+        <v>26018</v>
       </c>
       <c r="C283">
-        <v>25321</v>
+        <v>25385</v>
       </c>
       <c r="D283">
-        <v>26905</v>
+        <v>26715</v>
       </c>
       <c r="E283">
-        <v>23556</v>
+        <v>23514</v>
       </c>
       <c r="F283">
-        <v>22938</v>
+        <v>23015</v>
       </c>
       <c r="G283">
-        <v>24190</v>
+        <v>24014</v>
       </c>
       <c r="H283">
         <v>1.1100000000000001</v>
@@ -12093,13 +12097,13 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="K283">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L283">
         <v>1.1399999999999999</v>
       </c>
       <c r="M283">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -12107,22 +12111,22 @@
         <v>44174</v>
       </c>
       <c r="B284">
-        <v>25218</v>
+        <v>25048</v>
       </c>
       <c r="C284">
-        <v>24360</v>
+        <v>24335</v>
       </c>
       <c r="D284">
-        <v>26114</v>
+        <v>25887</v>
       </c>
       <c r="E284">
-        <v>24667</v>
+        <v>24592</v>
       </c>
       <c r="F284">
-        <v>23929</v>
+        <v>24035</v>
       </c>
       <c r="G284">
-        <v>25437</v>
+        <v>25174</v>
       </c>
       <c r="H284">
         <v>1.17</v>
@@ -12131,16 +12135,16 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="J284">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="K284">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L284">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="M284">
         <v>1.1299999999999999</v>
-      </c>
-      <c r="L284">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="M284">
-        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -12148,40 +12152,40 @@
         <v>44175</v>
       </c>
       <c r="B285">
-        <v>24602</v>
+        <v>24630</v>
       </c>
       <c r="C285">
-        <v>23815</v>
+        <v>23765</v>
       </c>
       <c r="D285">
-        <v>25424</v>
+        <v>25338</v>
       </c>
       <c r="E285">
-        <v>25536</v>
+        <v>25478</v>
       </c>
       <c r="F285">
-        <v>24729</v>
+        <v>24805</v>
       </c>
       <c r="G285">
-        <v>26369</v>
+        <v>26152</v>
       </c>
       <c r="H285">
         <v>1.2</v>
       </c>
       <c r="I285">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="J285">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="K285">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L285">
         <v>1.0900000000000001</v>
       </c>
       <c r="M285">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -12189,22 +12193,22 @@
         <v>44176</v>
       </c>
       <c r="B286">
-        <v>24785</v>
+        <v>24618</v>
       </c>
       <c r="C286">
-        <v>24022</v>
+        <v>23859</v>
       </c>
       <c r="D286">
-        <v>25961</v>
+        <v>25316</v>
       </c>
       <c r="E286">
-        <v>25177</v>
+        <v>25078</v>
       </c>
       <c r="F286">
-        <v>24379</v>
+        <v>24336</v>
       </c>
       <c r="G286">
-        <v>26101</v>
+        <v>25814</v>
       </c>
       <c r="H286">
         <v>1.1200000000000001</v>
@@ -12216,13 +12220,13 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="K286">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="L286">
         <v>1.07</v>
       </c>
       <c r="M286">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -12230,28 +12234,28 @@
         <v>44177</v>
       </c>
       <c r="B287">
-        <v>23241</v>
+        <v>23141</v>
       </c>
       <c r="C287">
-        <v>22300</v>
+        <v>22413</v>
       </c>
       <c r="D287">
-        <v>24137</v>
+        <v>24035</v>
       </c>
       <c r="E287">
-        <v>24462</v>
+        <v>24359</v>
       </c>
       <c r="F287">
-        <v>23624</v>
+        <v>23593</v>
       </c>
       <c r="G287">
-        <v>25409</v>
+        <v>25144</v>
       </c>
       <c r="H287">
         <v>1.04</v>
       </c>
       <c r="I287">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="J287">
         <v>1.06</v>
@@ -12263,7 +12267,7 @@
         <v>1.05</v>
       </c>
       <c r="M287">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -12271,25 +12275,25 @@
         <v>44178</v>
       </c>
       <c r="B288">
-        <v>22635</v>
+        <v>22507</v>
       </c>
       <c r="C288">
-        <v>21634</v>
+        <v>21851</v>
       </c>
       <c r="D288">
-        <v>23635</v>
+        <v>23140</v>
       </c>
       <c r="E288">
-        <v>23816</v>
+        <v>23724</v>
       </c>
       <c r="F288">
-        <v>22943</v>
+        <v>22972</v>
       </c>
       <c r="G288">
-        <v>24789</v>
+        <v>24457</v>
       </c>
       <c r="H288">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="I288">
         <v>0.94</v>
@@ -12312,25 +12316,25 @@
         <v>44179</v>
       </c>
       <c r="B289">
-        <v>28270</v>
+        <v>28057</v>
       </c>
       <c r="C289">
-        <v>26764</v>
+        <v>26750</v>
       </c>
       <c r="D289">
-        <v>29660</v>
+        <v>29207</v>
       </c>
       <c r="E289">
-        <v>24733</v>
+        <v>24581</v>
       </c>
       <c r="F289">
-        <v>23680</v>
+        <v>23718</v>
       </c>
       <c r="G289">
-        <v>25848</v>
+        <v>25424</v>
       </c>
       <c r="H289">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="I289">
         <v>0.94</v>
@@ -12342,10 +12346,10 @@
         <v>1.04</v>
       </c>
       <c r="L289">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="M289">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -12353,28 +12357,28 @@
         <v>44180</v>
       </c>
       <c r="B290">
-        <v>26939</v>
+        <v>26794</v>
       </c>
       <c r="C290">
-        <v>25795</v>
+        <v>25707</v>
       </c>
       <c r="D290">
-        <v>28250</v>
+        <v>27651</v>
       </c>
       <c r="E290">
-        <v>25271</v>
+        <v>25125</v>
       </c>
       <c r="F290">
-        <v>24123</v>
+        <v>24180</v>
       </c>
       <c r="G290">
-        <v>26421</v>
+        <v>26008</v>
       </c>
       <c r="H290">
         <v>1</v>
       </c>
       <c r="I290">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="J290">
         <v>1.03</v>
@@ -12386,7 +12390,7 @@
         <v>1.01</v>
       </c>
       <c r="M290">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -12394,22 +12398,22 @@
         <v>44181</v>
       </c>
       <c r="B291">
-        <v>25644</v>
+        <v>25541</v>
       </c>
       <c r="C291">
-        <v>24219</v>
+        <v>24355</v>
       </c>
       <c r="D291">
-        <v>27158</v>
+        <v>26651</v>
       </c>
       <c r="E291">
-        <v>25872</v>
+        <v>25725</v>
       </c>
       <c r="F291">
-        <v>24603</v>
+        <v>24666</v>
       </c>
       <c r="G291">
-        <v>27176</v>
+        <v>26662</v>
       </c>
       <c r="H291">
         <v>1.06</v>
@@ -12418,16 +12422,16 @@
         <v>1.03</v>
       </c>
       <c r="J291">
-        <v>1.1000000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="K291">
         <v>1.01</v>
       </c>
       <c r="L291">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="M291">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -12435,37 +12439,37 @@
         <v>44182</v>
       </c>
       <c r="B292">
-        <v>23562</v>
+        <v>23572</v>
       </c>
       <c r="C292">
-        <v>21987</v>
+        <v>22304</v>
       </c>
       <c r="D292">
-        <v>24939</v>
+        <v>24820</v>
       </c>
       <c r="E292">
-        <v>26104</v>
+        <v>25991</v>
       </c>
       <c r="F292">
-        <v>24691</v>
+        <v>24779</v>
       </c>
       <c r="G292">
-        <v>27502</v>
+        <v>27082</v>
       </c>
       <c r="H292">
         <v>1.1000000000000001</v>
       </c>
       <c r="I292">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="J292">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K292">
         <v>0.99</v>
       </c>
       <c r="L292">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="M292">
         <v>1.01</v>
@@ -12476,22 +12480,22 @@
         <v>44183</v>
       </c>
       <c r="B293">
-        <v>23045</v>
+        <v>22765</v>
       </c>
       <c r="C293">
-        <v>21667</v>
+        <v>21035</v>
       </c>
       <c r="D293">
-        <v>24706</v>
+        <v>23949</v>
       </c>
       <c r="E293">
-        <v>24797</v>
+        <v>24668</v>
       </c>
       <c r="F293">
-        <v>23417</v>
+        <v>23350</v>
       </c>
       <c r="G293">
-        <v>26263</v>
+        <v>25768</v>
       </c>
       <c r="H293">
         <v>1</v>
@@ -12500,7 +12504,7 @@
         <v>0.97</v>
       </c>
       <c r="J293">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K293">
         <v>0.97</v>
@@ -12509,7 +12513,7 @@
         <v>0.96</v>
       </c>
       <c r="M293">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -12517,37 +12521,37 @@
         <v>44184</v>
       </c>
       <c r="B294">
-        <v>21009</v>
+        <v>20877</v>
       </c>
       <c r="C294">
-        <v>19654</v>
+        <v>19679</v>
       </c>
       <c r="D294">
-        <v>22412</v>
+        <v>22315</v>
       </c>
       <c r="E294">
-        <v>23315</v>
+        <v>23189</v>
       </c>
       <c r="F294">
-        <v>21881</v>
+        <v>21843</v>
       </c>
       <c r="G294">
-        <v>24804</v>
+        <v>24434</v>
       </c>
       <c r="H294">
         <v>0.92</v>
       </c>
       <c r="I294">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="J294">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="K294">
         <v>0.96</v>
       </c>
       <c r="L294">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="M294">
         <v>0.98</v>
@@ -12558,40 +12562,40 @@
         <v>44185</v>
       </c>
       <c r="B295">
-        <v>19807</v>
+        <v>20070</v>
       </c>
       <c r="C295">
-        <v>17941</v>
+        <v>18729</v>
       </c>
       <c r="D295">
-        <v>21653</v>
+        <v>21497</v>
       </c>
       <c r="E295">
-        <v>21856</v>
+        <v>21821</v>
       </c>
       <c r="F295">
-        <v>20312</v>
+        <v>20437</v>
       </c>
       <c r="G295">
-        <v>23428</v>
+        <v>23145</v>
       </c>
       <c r="H295">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="I295">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="J295">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="K295">
         <v>0.93</v>
       </c>
       <c r="L295">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="M295">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -12599,22 +12603,22 @@
         <v>44186</v>
       </c>
       <c r="B296">
-        <v>22734</v>
+        <v>22585</v>
       </c>
       <c r="C296">
-        <v>20564</v>
+        <v>20777</v>
       </c>
       <c r="D296">
-        <v>25004</v>
+        <v>24003</v>
       </c>
       <c r="E296">
-        <v>21649</v>
+        <v>21574</v>
       </c>
       <c r="F296">
-        <v>19956</v>
+        <v>20055</v>
       </c>
       <c r="G296">
-        <v>23444</v>
+        <v>22941</v>
       </c>
       <c r="H296">
         <v>0.83</v>
@@ -12623,13 +12627,13 @@
         <v>0.79</v>
       </c>
       <c r="J296">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="K296">
         <v>0.9</v>
       </c>
       <c r="L296">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="M296">
         <v>0.93</v>
@@ -12640,37 +12644,37 @@
         <v>44187</v>
       </c>
       <c r="B297">
-        <v>19827</v>
+        <v>20185</v>
       </c>
       <c r="C297">
-        <v>17743</v>
+        <v>18269</v>
       </c>
       <c r="D297">
-        <v>22542</v>
+        <v>22118</v>
       </c>
       <c r="E297">
-        <v>20844</v>
+        <v>20929</v>
       </c>
       <c r="F297">
-        <v>18975</v>
+        <v>19363</v>
       </c>
       <c r="G297">
-        <v>22903</v>
+        <v>22483</v>
       </c>
       <c r="H297">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="I297">
-        <v>0.79</v>
+        <v>0.81</v>
       </c>
       <c r="J297">
         <v>0.88</v>
       </c>
       <c r="K297">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="L297">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="M297">
         <v>0.89</v>
@@ -12681,40 +12685,40 @@
         <v>44188</v>
       </c>
       <c r="B298">
-        <v>16555</v>
+        <v>17570</v>
       </c>
       <c r="C298">
-        <v>14113</v>
+        <v>15663</v>
       </c>
       <c r="D298">
-        <v>19609</v>
+        <v>19498</v>
       </c>
       <c r="E298">
-        <v>19731</v>
+        <v>20102</v>
       </c>
       <c r="F298">
-        <v>17590</v>
+        <v>18360</v>
       </c>
       <c r="G298">
-        <v>22202</v>
+        <v>21779</v>
       </c>
       <c r="H298">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="I298">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="J298">
         <v>0.91</v>
       </c>
       <c r="K298">
+        <v>0.83</v>
+      </c>
+      <c r="L298">
         <v>0.81</v>
       </c>
-      <c r="L298">
-        <v>0.78</v>
-      </c>
       <c r="M298">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -12722,40 +12726,40 @@
         <v>44189</v>
       </c>
       <c r="B299">
-        <v>13682</v>
+        <v>15150</v>
       </c>
       <c r="C299">
-        <v>10673</v>
+        <v>13521</v>
       </c>
       <c r="D299">
-        <v>17235</v>
+        <v>16911</v>
       </c>
       <c r="E299">
-        <v>18199</v>
+        <v>18872</v>
       </c>
       <c r="F299">
-        <v>15773</v>
+        <v>17058</v>
       </c>
       <c r="G299">
-        <v>21097</v>
+        <v>20632</v>
       </c>
       <c r="H299">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="I299">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="J299">
         <v>0.91</v>
       </c>
       <c r="K299">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="L299">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="M299">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="300" spans="1:13">
@@ -12763,234 +12767,309 @@
         <v>44190</v>
       </c>
       <c r="B300">
-        <v>12026</v>
+        <v>13879</v>
       </c>
       <c r="C300">
-        <v>8604</v>
+        <v>11028</v>
       </c>
       <c r="D300">
-        <v>14874</v>
+        <v>16152</v>
       </c>
       <c r="E300">
-        <v>15522</v>
+        <v>16696</v>
       </c>
       <c r="F300">
-        <v>12783</v>
+        <v>14620</v>
       </c>
       <c r="G300">
-        <v>18565</v>
+        <v>18670</v>
       </c>
       <c r="H300">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="I300">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="J300">
+        <v>0.84</v>
+      </c>
+      <c r="K300">
         <v>0.8</v>
       </c>
-      <c r="K300">
-        <v>0.76</v>
-      </c>
       <c r="L300">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="M300">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13">
+      <c r="A301" s="4">
+        <v>44191</v>
+      </c>
+      <c r="B301">
+        <v>15495</v>
+      </c>
+      <c r="C301">
+        <v>12043</v>
+      </c>
+      <c r="D301">
+        <v>18643</v>
+      </c>
+      <c r="E301">
+        <v>15523</v>
+      </c>
+      <c r="F301">
+        <v>13064</v>
+      </c>
+      <c r="G301">
+        <v>17801</v>
+      </c>
+      <c r="H301">
+        <v>0.74</v>
+      </c>
+      <c r="I301">
+        <v>0.66</v>
+      </c>
+      <c r="J301">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="301" spans="1:13">
-      <c r="A301" s="3">
-        <v>44191</v>
-      </c>
-      <c r="B301">
-        <v>14402</v>
-      </c>
-      <c r="C301">
-        <v>9566</v>
-      </c>
-      <c r="D301">
-        <v>18805</v>
-      </c>
-      <c r="E301">
-        <v>14166</v>
-      </c>
-      <c r="F301">
-        <v>10739</v>
-      </c>
-      <c r="G301">
-        <v>17631</v>
-      </c>
-      <c r="H301">
+      <c r="K301">
+        <v>0.83</v>
+      </c>
+      <c r="L301">
+        <v>0.79</v>
+      </c>
+      <c r="M301">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13">
+      <c r="A302" s="4">
+        <v>44192</v>
+      </c>
+      <c r="B302">
+        <v>18095</v>
+      </c>
+      <c r="C302">
+        <v>13111</v>
+      </c>
+      <c r="D302">
+        <v>22209</v>
+      </c>
+      <c r="E302">
+        <v>15655</v>
+      </c>
+      <c r="F302">
+        <v>12426</v>
+      </c>
+      <c r="G302">
+        <v>18479</v>
+      </c>
+      <c r="H302">
+        <v>0.78</v>
+      </c>
+      <c r="I302">
         <v>0.68</v>
       </c>
-      <c r="I301">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J301">
-        <v>0.77</v>
-      </c>
-      <c r="K301">
+      <c r="J302">
+        <v>0.87</v>
+      </c>
+      <c r="K302">
+        <v>0.89</v>
+      </c>
+      <c r="L302">
+        <v>0.81</v>
+      </c>
+      <c r="M302">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13">
+      <c r="A303" s="4">
+        <v>44193</v>
+      </c>
+      <c r="B303">
+        <v>23531</v>
+      </c>
+      <c r="C303">
+        <v>18459</v>
+      </c>
+      <c r="D303">
+        <v>29811</v>
+      </c>
+      <c r="E303">
+        <v>17750</v>
+      </c>
+      <c r="F303">
+        <v>13660</v>
+      </c>
+      <c r="G303">
+        <v>21703</v>
+      </c>
+      <c r="H303">
+        <v>0.94</v>
+      </c>
+      <c r="I303">
         <v>0.8</v>
       </c>
-      <c r="L301">
-        <v>0.73</v>
-      </c>
-      <c r="M301">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13">
-      <c r="A302" s="3">
-        <v>44192</v>
-      </c>
-      <c r="B302">
-        <v>17840</v>
-      </c>
-      <c r="C302">
-        <v>11509</v>
-      </c>
-      <c r="D302">
-        <v>23598</v>
-      </c>
-      <c r="E302">
-        <v>14487</v>
-      </c>
-      <c r="F302">
-        <v>10088</v>
-      </c>
-      <c r="G302">
-        <v>18628</v>
-      </c>
-      <c r="H302">
-        <v>0.74</v>
-      </c>
-      <c r="I302">
-        <v>0.61</v>
-      </c>
-      <c r="J302">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13">
-      <c r="A303" s="3"/>
+      <c r="J303">
+        <v>1.05</v>
+      </c>
+      <c r="K303">
+        <v>0.95</v>
+      </c>
+      <c r="L303">
+        <v>0.84</v>
+      </c>
+      <c r="M303">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="304" spans="1:13">
-      <c r="A304" s="3"/>
+      <c r="A304" s="4">
+        <v>44194</v>
+      </c>
+      <c r="B304">
+        <v>19890</v>
+      </c>
+      <c r="C304">
+        <v>13210</v>
+      </c>
+      <c r="D304">
+        <v>27730</v>
+      </c>
+      <c r="E304">
+        <v>19253</v>
+      </c>
+      <c r="F304">
+        <v>14206</v>
+      </c>
+      <c r="G304">
+        <v>24598</v>
+      </c>
+      <c r="H304">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I304">
+        <v>0.96</v>
+      </c>
+      <c r="J304">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="3"/>
+      <c r="A305" s="4"/>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="3"/>
+      <c r="A306" s="4"/>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="3"/>
+      <c r="A307" s="4"/>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="3"/>
+      <c r="A308" s="4"/>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="3"/>
+      <c r="A309" s="4"/>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="3"/>
+      <c r="A310" s="4"/>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="3"/>
+      <c r="A311" s="4"/>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="3"/>
+      <c r="A312" s="4"/>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="3"/>
+      <c r="A313" s="4"/>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="3"/>
+      <c r="A314" s="4"/>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="3"/>
+      <c r="A315" s="4"/>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="3"/>
+      <c r="A316" s="4"/>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="3"/>
+      <c r="A317" s="4"/>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="3"/>
+      <c r="A318" s="4"/>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="3"/>
+      <c r="A319" s="4"/>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="3"/>
+      <c r="A320" s="4"/>
     </row>
     <row r="321" spans="1:1">
-      <c r="A321" s="3"/>
+      <c r="A321" s="4"/>
     </row>
     <row r="322" spans="1:1">
-      <c r="A322" s="3"/>
+      <c r="A322" s="4"/>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="3"/>
+      <c r="A323" s="4"/>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" s="3"/>
+      <c r="A324" s="4"/>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="3"/>
+      <c r="A325" s="4"/>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="3"/>
+      <c r="A326" s="4"/>
     </row>
     <row r="327" spans="1:1">
-      <c r="A327" s="3"/>
+      <c r="A327" s="4"/>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="3"/>
+      <c r="A328" s="4"/>
     </row>
     <row r="329" spans="1:1">
-      <c r="A329" s="3"/>
+      <c r="A329" s="4"/>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="3"/>
+      <c r="A330" s="4"/>
     </row>
     <row r="331" spans="1:1">
-      <c r="A331" s="3"/>
+      <c r="A331" s="4"/>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" s="3"/>
+      <c r="A332" s="4"/>
     </row>
     <row r="333" spans="1:1">
-      <c r="A333" s="3"/>
+      <c r="A333" s="4"/>
     </row>
     <row r="334" spans="1:1">
-      <c r="A334" s="3"/>
+      <c r="A334" s="4"/>
     </row>
     <row r="335" spans="1:1">
-      <c r="A335" s="3"/>
+      <c r="A335" s="4"/>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" s="3"/>
+      <c r="A336" s="4"/>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="3"/>
+      <c r="A337" s="4"/>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="3"/>
+      <c r="A338" s="4"/>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" s="3"/>
+      <c r="A339" s="4"/>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="3"/>
+      <c r="A340" s="4"/>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" s="3"/>
+      <c r="A341" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rki-data/RKI-Nowcasting_Zahlen.xlsx
+++ b/rki-data/RKI-Nowcasting_Zahlen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-01-02\Nowcast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-01-03\Nowcast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87A9A508-C702-48DD-9C53-0F20F7B4F28F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D76137-24E4-4D67-A551-F9449F96E6CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24420" windowHeight="11565" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="11565" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <t>Ergebnisse des Nowcastings und der Schätzung der Reproduktionszahl R</t>
   </si>
   <si>
-    <t>Datenstand: 02.01.2021, 00:00 Uhr</t>
+    <t>Datenstand: 03.01.2021, 00:00 Uhr</t>
   </si>
   <si>
     <t>Die Ergebnisse des Nowcastings, also die Schätzung der Anzahl von COVID-19 Neuerkrankungen wird dargestellt mit einem gleitenden 4-Tages-Mittelwert.</t>
@@ -41,7 +41,7 @@
     <t>Dabei wird jeder Wert mit den Werten der 3 vorhergehenden Tage gemittelt.</t>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 02.01.2021 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 03.01.2021 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -566,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -10433,10 +10433,10 @@
         <v>16811</v>
       </c>
       <c r="C243">
-        <v>16595</v>
+        <v>16594</v>
       </c>
       <c r="D243">
-        <v>16994</v>
+        <v>16992</v>
       </c>
       <c r="E243">
         <v>18130</v>
@@ -10474,10 +10474,10 @@
         <v>17247</v>
       </c>
       <c r="C244">
-        <v>17091</v>
+        <v>17094</v>
       </c>
       <c r="D244">
-        <v>17386</v>
+        <v>17387</v>
       </c>
       <c r="E244">
         <v>17641</v>
@@ -10512,22 +10512,22 @@
         <v>44135</v>
       </c>
       <c r="B245">
-        <v>15613</v>
+        <v>15614</v>
       </c>
       <c r="C245">
-        <v>15410</v>
+        <v>15413</v>
       </c>
       <c r="D245">
-        <v>15779</v>
+        <v>15776</v>
       </c>
       <c r="E245">
         <v>16940</v>
       </c>
       <c r="F245">
-        <v>16746</v>
+        <v>16747</v>
       </c>
       <c r="G245">
-        <v>17108</v>
+        <v>17107</v>
       </c>
       <c r="H245">
         <v>0.99</v>
@@ -10556,19 +10556,19 @@
         <v>16655</v>
       </c>
       <c r="C246">
-        <v>16493</v>
+        <v>16491</v>
       </c>
       <c r="D246">
-        <v>16837</v>
+        <v>16830</v>
       </c>
       <c r="E246">
         <v>16582</v>
       </c>
       <c r="F246">
-        <v>16397</v>
+        <v>16398</v>
       </c>
       <c r="G246">
-        <v>16749</v>
+        <v>16746</v>
       </c>
       <c r="H246">
         <v>0.93</v>
@@ -10594,22 +10594,22 @@
         <v>44137</v>
       </c>
       <c r="B247">
-        <v>20967</v>
+        <v>20970</v>
       </c>
       <c r="C247">
-        <v>20782</v>
+        <v>20787</v>
       </c>
       <c r="D247">
-        <v>21166</v>
+        <v>21168</v>
       </c>
       <c r="E247">
         <v>17621</v>
       </c>
       <c r="F247">
-        <v>17444</v>
+        <v>17446</v>
       </c>
       <c r="G247">
-        <v>17792</v>
+        <v>17790</v>
       </c>
       <c r="H247">
         <v>0.97</v>
@@ -10635,22 +10635,22 @@
         <v>44138</v>
       </c>
       <c r="B248">
-        <v>19018</v>
+        <v>19020</v>
       </c>
       <c r="C248">
-        <v>18842</v>
+        <v>18835</v>
       </c>
       <c r="D248">
-        <v>19200</v>
+        <v>19202</v>
       </c>
       <c r="E248">
-        <v>18063</v>
+        <v>18065</v>
       </c>
       <c r="F248">
-        <v>17882</v>
+        <v>17881</v>
       </c>
       <c r="G248">
-        <v>18245</v>
+        <v>18244</v>
       </c>
       <c r="H248">
         <v>1.02</v>
@@ -10676,22 +10676,22 @@
         <v>44139</v>
       </c>
       <c r="B249">
-        <v>18021</v>
+        <v>18020</v>
       </c>
       <c r="C249">
-        <v>17853</v>
+        <v>17857</v>
       </c>
       <c r="D249">
-        <v>18173</v>
+        <v>18172</v>
       </c>
       <c r="E249">
-        <v>18665</v>
+        <v>18666</v>
       </c>
       <c r="F249">
-        <v>18493</v>
+        <v>18492</v>
       </c>
       <c r="G249">
-        <v>18844</v>
+        <v>18843</v>
       </c>
       <c r="H249">
         <v>1.1000000000000001</v>
@@ -10720,16 +10720,16 @@
         <v>16539</v>
       </c>
       <c r="C250">
-        <v>16371</v>
+        <v>16364</v>
       </c>
       <c r="D250">
-        <v>16729</v>
+        <v>16727</v>
       </c>
       <c r="E250">
-        <v>18636</v>
+        <v>18637</v>
       </c>
       <c r="F250">
-        <v>18462</v>
+        <v>18461</v>
       </c>
       <c r="G250">
         <v>18817</v>
@@ -10758,13 +10758,13 @@
         <v>44141</v>
       </c>
       <c r="B251">
-        <v>16124</v>
+        <v>16123</v>
       </c>
       <c r="C251">
-        <v>15971</v>
+        <v>15979</v>
       </c>
       <c r="D251">
-        <v>16312</v>
+        <v>16309</v>
       </c>
       <c r="E251">
         <v>17425</v>
@@ -10773,7 +10773,7 @@
         <v>17259</v>
       </c>
       <c r="G251">
-        <v>17603</v>
+        <v>17602</v>
       </c>
       <c r="H251">
         <v>0.99</v>
@@ -10799,19 +10799,19 @@
         <v>44142</v>
       </c>
       <c r="B252">
-        <v>15049</v>
+        <v>15048</v>
       </c>
       <c r="C252">
-        <v>14901</v>
+        <v>14905</v>
       </c>
       <c r="D252">
-        <v>15204</v>
+        <v>15208</v>
       </c>
       <c r="E252">
         <v>16433</v>
       </c>
       <c r="F252">
-        <v>16274</v>
+        <v>16276</v>
       </c>
       <c r="G252">
         <v>16604</v>
@@ -10840,22 +10840,22 @@
         <v>44143</v>
       </c>
       <c r="B253">
-        <v>15143</v>
+        <v>15142</v>
       </c>
       <c r="C253">
-        <v>14942</v>
+        <v>14954</v>
       </c>
       <c r="D253">
-        <v>15322</v>
+        <v>15312</v>
       </c>
       <c r="E253">
-        <v>15714</v>
+        <v>15713</v>
       </c>
       <c r="F253">
-        <v>15546</v>
+        <v>15550</v>
       </c>
       <c r="G253">
-        <v>15892</v>
+        <v>15889</v>
       </c>
       <c r="H253">
         <v>0.84</v>
@@ -10881,22 +10881,22 @@
         <v>44144</v>
       </c>
       <c r="B254">
-        <v>19037</v>
+        <v>19036</v>
       </c>
       <c r="C254">
-        <v>18852</v>
+        <v>18842</v>
       </c>
       <c r="D254">
-        <v>19282</v>
+        <v>19272</v>
       </c>
       <c r="E254">
-        <v>16338</v>
+        <v>16337</v>
       </c>
       <c r="F254">
-        <v>16166</v>
+        <v>16170</v>
       </c>
       <c r="G254">
-        <v>16530</v>
+        <v>16525</v>
       </c>
       <c r="H254">
         <v>0.88</v>
@@ -10925,19 +10925,19 @@
         <v>18431</v>
       </c>
       <c r="C255">
-        <v>18229</v>
+        <v>18221</v>
       </c>
       <c r="D255">
-        <v>18606</v>
+        <v>18609</v>
       </c>
       <c r="E255">
-        <v>16915</v>
+        <v>16914</v>
       </c>
       <c r="F255">
-        <v>16731</v>
+        <v>16730</v>
       </c>
       <c r="G255">
-        <v>17103</v>
+        <v>17100</v>
       </c>
       <c r="H255">
         <v>0.97</v>
@@ -10963,22 +10963,22 @@
         <v>44146</v>
       </c>
       <c r="B256">
-        <v>17922</v>
+        <v>17924</v>
       </c>
       <c r="C256">
-        <v>17725</v>
+        <v>17723</v>
       </c>
       <c r="D256">
-        <v>18099</v>
+        <v>18093</v>
       </c>
       <c r="E256">
         <v>17633</v>
       </c>
       <c r="F256">
-        <v>17437</v>
+        <v>17435</v>
       </c>
       <c r="G256">
-        <v>17827</v>
+        <v>17821</v>
       </c>
       <c r="H256">
         <v>1.07</v>
@@ -11004,22 +11004,22 @@
         <v>44147</v>
       </c>
       <c r="B257">
-        <v>17651</v>
+        <v>17649</v>
       </c>
       <c r="C257">
-        <v>17473</v>
+        <v>17475</v>
       </c>
       <c r="D257">
-        <v>17848</v>
+        <v>17835</v>
       </c>
       <c r="E257">
-        <v>18261</v>
+        <v>18260</v>
       </c>
       <c r="F257">
-        <v>18070</v>
+        <v>18065</v>
       </c>
       <c r="G257">
-        <v>18459</v>
+        <v>18452</v>
       </c>
       <c r="H257">
         <v>1.1599999999999999</v>
@@ -11045,13 +11045,13 @@
         <v>44148</v>
       </c>
       <c r="B258">
-        <v>18350</v>
+        <v>18352</v>
       </c>
       <c r="C258">
-        <v>18178</v>
+        <v>18184</v>
       </c>
       <c r="D258">
-        <v>18539</v>
+        <v>18546</v>
       </c>
       <c r="E258">
         <v>18089</v>
@@ -11060,7 +11060,7 @@
         <v>17901</v>
       </c>
       <c r="G258">
-        <v>18273</v>
+        <v>18271</v>
       </c>
       <c r="H258">
         <v>1.1100000000000001</v>
@@ -11069,7 +11069,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J258">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K258">
         <v>1.04</v>
@@ -11086,19 +11086,19 @@
         <v>44149</v>
       </c>
       <c r="B259">
-        <v>16316</v>
+        <v>16314</v>
       </c>
       <c r="C259">
-        <v>16162</v>
+        <v>16151</v>
       </c>
       <c r="D259">
-        <v>16501</v>
+        <v>16511</v>
       </c>
       <c r="E259">
         <v>17560</v>
       </c>
       <c r="F259">
-        <v>17384</v>
+        <v>17383</v>
       </c>
       <c r="G259">
         <v>17746</v>
@@ -11127,22 +11127,22 @@
         <v>44150</v>
       </c>
       <c r="B260">
-        <v>16488</v>
+        <v>16493</v>
       </c>
       <c r="C260">
-        <v>16319</v>
+        <v>16317</v>
       </c>
       <c r="D260">
-        <v>16672</v>
+        <v>16704</v>
       </c>
       <c r="E260">
-        <v>17201</v>
+        <v>17202</v>
       </c>
       <c r="F260">
-        <v>17033</v>
+        <v>17032</v>
       </c>
       <c r="G260">
-        <v>17390</v>
+        <v>17399</v>
       </c>
       <c r="H260">
         <v>0.98</v>
@@ -11168,22 +11168,22 @@
         <v>44151</v>
       </c>
       <c r="B261">
-        <v>20459</v>
+        <v>20449</v>
       </c>
       <c r="C261">
-        <v>20268</v>
+        <v>20246</v>
       </c>
       <c r="D261">
-        <v>20646</v>
+        <v>20645</v>
       </c>
       <c r="E261">
-        <v>17903</v>
+        <v>17902</v>
       </c>
       <c r="F261">
-        <v>17732</v>
+        <v>17724</v>
       </c>
       <c r="G261">
-        <v>18089</v>
+        <v>18101</v>
       </c>
       <c r="H261">
         <v>0.98</v>
@@ -11209,22 +11209,22 @@
         <v>44152</v>
       </c>
       <c r="B262">
-        <v>19440</v>
+        <v>19436</v>
       </c>
       <c r="C262">
-        <v>19214</v>
+        <v>19250</v>
       </c>
       <c r="D262">
-        <v>19603</v>
+        <v>19595</v>
       </c>
       <c r="E262">
-        <v>18176</v>
+        <v>18173</v>
       </c>
       <c r="F262">
         <v>17991</v>
       </c>
       <c r="G262">
-        <v>18355</v>
+        <v>18364</v>
       </c>
       <c r="H262">
         <v>1</v>
@@ -11250,22 +11250,22 @@
         <v>44153</v>
       </c>
       <c r="B263">
-        <v>18606</v>
+        <v>18599</v>
       </c>
       <c r="C263">
-        <v>18423</v>
+        <v>18390</v>
       </c>
       <c r="D263">
-        <v>18811</v>
+        <v>18797</v>
       </c>
       <c r="E263">
-        <v>18748</v>
+        <v>18744</v>
       </c>
       <c r="F263">
-        <v>18556</v>
+        <v>18551</v>
       </c>
       <c r="G263">
-        <v>18933</v>
+        <v>18935</v>
       </c>
       <c r="H263">
         <v>1.07</v>
@@ -11291,22 +11291,22 @@
         <v>44154</v>
       </c>
       <c r="B264">
-        <v>17282</v>
+        <v>17276</v>
       </c>
       <c r="C264">
-        <v>17092</v>
+        <v>17100</v>
       </c>
       <c r="D264">
-        <v>17484</v>
+        <v>17495</v>
       </c>
       <c r="E264">
-        <v>18947</v>
+        <v>18940</v>
       </c>
       <c r="F264">
-        <v>18749</v>
+        <v>18746</v>
       </c>
       <c r="G264">
-        <v>19136</v>
+        <v>19133</v>
       </c>
       <c r="H264">
         <v>1.1000000000000001</v>
@@ -11332,22 +11332,22 @@
         <v>44155</v>
       </c>
       <c r="B265">
-        <v>16801</v>
+        <v>16798</v>
       </c>
       <c r="C265">
-        <v>16637</v>
+        <v>16594</v>
       </c>
       <c r="D265">
-        <v>16994</v>
+        <v>16988</v>
       </c>
       <c r="E265">
-        <v>18032</v>
+        <v>18027</v>
       </c>
       <c r="F265">
-        <v>17841</v>
+        <v>17833</v>
       </c>
       <c r="G265">
-        <v>18223</v>
+        <v>18219</v>
       </c>
       <c r="H265">
         <v>1.01</v>
@@ -11373,22 +11373,22 @@
         <v>44156</v>
       </c>
       <c r="B266">
-        <v>14472</v>
+        <v>14473</v>
       </c>
       <c r="C266">
-        <v>14288</v>
+        <v>14299</v>
       </c>
       <c r="D266">
-        <v>14632</v>
+        <v>14616</v>
       </c>
       <c r="E266">
-        <v>16790</v>
+        <v>16787</v>
       </c>
       <c r="F266">
-        <v>16610</v>
+        <v>16595</v>
       </c>
       <c r="G266">
-        <v>16980</v>
+        <v>16974</v>
       </c>
       <c r="H266">
         <v>0.92</v>
@@ -11400,7 +11400,7 @@
         <v>0.93</v>
       </c>
       <c r="K266">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="L266">
         <v>0.95</v>
@@ -11414,22 +11414,22 @@
         <v>44157</v>
       </c>
       <c r="B267">
-        <v>14526</v>
+        <v>14525</v>
       </c>
       <c r="C267">
-        <v>14334</v>
+        <v>14365</v>
       </c>
       <c r="D267">
-        <v>14724</v>
+        <v>14676</v>
       </c>
       <c r="E267">
-        <v>15770</v>
+        <v>15768</v>
       </c>
       <c r="F267">
-        <v>15588</v>
+        <v>15589</v>
       </c>
       <c r="G267">
-        <v>15958</v>
+        <v>15944</v>
       </c>
       <c r="H267">
         <v>0.84</v>
@@ -11455,22 +11455,22 @@
         <v>44158</v>
       </c>
       <c r="B268">
-        <v>18502</v>
+        <v>18509</v>
       </c>
       <c r="C268">
-        <v>18335</v>
+        <v>18350</v>
       </c>
       <c r="D268">
         <v>18667</v>
       </c>
       <c r="E268">
-        <v>16075</v>
+        <v>16076</v>
       </c>
       <c r="F268">
-        <v>15898</v>
+        <v>15902</v>
       </c>
       <c r="G268">
-        <v>16254</v>
+        <v>16237</v>
       </c>
       <c r="H268">
         <v>0.85</v>
@@ -11479,13 +11479,13 @@
         <v>0.84</v>
       </c>
       <c r="J268">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="K268">
         <v>0.94</v>
       </c>
       <c r="L268">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="M268">
         <v>0.94</v>
@@ -11496,22 +11496,22 @@
         <v>44159</v>
       </c>
       <c r="B269">
-        <v>17487</v>
+        <v>17480</v>
       </c>
       <c r="C269">
-        <v>17319</v>
+        <v>17314</v>
       </c>
       <c r="D269">
-        <v>17646</v>
+        <v>17624</v>
       </c>
       <c r="E269">
         <v>16247</v>
       </c>
       <c r="F269">
-        <v>16069</v>
+        <v>16082</v>
       </c>
       <c r="G269">
-        <v>16417</v>
+        <v>16396</v>
       </c>
       <c r="H269">
         <v>0.9</v>
@@ -11537,22 +11537,22 @@
         <v>44160</v>
       </c>
       <c r="B270">
-        <v>16967</v>
+        <v>16937</v>
       </c>
       <c r="C270">
-        <v>16810</v>
+        <v>16739</v>
       </c>
       <c r="D270">
-        <v>17148</v>
+        <v>17168</v>
       </c>
       <c r="E270">
-        <v>16871</v>
+        <v>16863</v>
       </c>
       <c r="F270">
-        <v>16699</v>
+        <v>16692</v>
       </c>
       <c r="G270">
-        <v>17046</v>
+        <v>17033</v>
       </c>
       <c r="H270">
         <v>1</v>
@@ -11578,22 +11578,22 @@
         <v>44161</v>
       </c>
       <c r="B271">
-        <v>16080</v>
+        <v>16092</v>
       </c>
       <c r="C271">
-        <v>15896</v>
+        <v>15910</v>
       </c>
       <c r="D271">
-        <v>16254</v>
+        <v>16289</v>
       </c>
       <c r="E271">
-        <v>17259</v>
+        <v>17254</v>
       </c>
       <c r="F271">
-        <v>17090</v>
+        <v>17078</v>
       </c>
       <c r="G271">
-        <v>17429</v>
+        <v>17437</v>
       </c>
       <c r="H271">
         <v>1.0900000000000001</v>
@@ -11619,28 +11619,28 @@
         <v>44162</v>
       </c>
       <c r="B272">
-        <v>16515</v>
+        <v>16527</v>
       </c>
       <c r="C272">
-        <v>16332</v>
+        <v>16370</v>
       </c>
       <c r="D272">
-        <v>16680</v>
+        <v>16719</v>
       </c>
       <c r="E272">
-        <v>16762</v>
+        <v>16759</v>
       </c>
       <c r="F272">
-        <v>16589</v>
+        <v>16583</v>
       </c>
       <c r="G272">
-        <v>16932</v>
+        <v>16950</v>
       </c>
       <c r="H272">
         <v>1.04</v>
       </c>
       <c r="I272">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J272">
         <v>1.05</v>
@@ -11660,34 +11660,34 @@
         <v>44163</v>
       </c>
       <c r="B273">
-        <v>15591</v>
+        <v>15595</v>
       </c>
       <c r="C273">
-        <v>15448</v>
+        <v>15359</v>
       </c>
       <c r="D273">
-        <v>15776</v>
+        <v>15771</v>
       </c>
       <c r="E273">
         <v>16288</v>
       </c>
       <c r="F273">
-        <v>16122</v>
+        <v>16094</v>
       </c>
       <c r="G273">
-        <v>16464</v>
+        <v>16486</v>
       </c>
       <c r="H273">
         <v>1</v>
       </c>
       <c r="I273">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="J273">
         <v>1.01</v>
       </c>
       <c r="K273">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="L273">
         <v>1</v>
@@ -11701,22 +11701,22 @@
         <v>44164</v>
       </c>
       <c r="B274">
-        <v>15471</v>
+        <v>15490</v>
       </c>
       <c r="C274">
-        <v>15281</v>
+        <v>15324</v>
       </c>
       <c r="D274">
-        <v>15649</v>
+        <v>15679</v>
       </c>
       <c r="E274">
-        <v>15914</v>
+        <v>15926</v>
       </c>
       <c r="F274">
-        <v>15739</v>
+        <v>15741</v>
       </c>
       <c r="G274">
-        <v>16090</v>
+        <v>16114</v>
       </c>
       <c r="H274">
         <v>0.94</v>
@@ -11742,28 +11742,28 @@
         <v>44165</v>
       </c>
       <c r="B275">
-        <v>20875</v>
+        <v>20879</v>
       </c>
       <c r="C275">
-        <v>20686</v>
+        <v>20669</v>
       </c>
       <c r="D275">
-        <v>21063</v>
+        <v>21085</v>
       </c>
       <c r="E275">
-        <v>17113</v>
+        <v>17123</v>
       </c>
       <c r="F275">
-        <v>16937</v>
+        <v>16930</v>
       </c>
       <c r="G275">
-        <v>17292</v>
+        <v>17313</v>
       </c>
       <c r="H275">
         <v>0.99</v>
       </c>
       <c r="I275">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="J275">
         <v>1</v>
@@ -11783,22 +11783,22 @@
         <v>44166</v>
       </c>
       <c r="B276">
-        <v>20885</v>
+        <v>20869</v>
       </c>
       <c r="C276">
-        <v>20694</v>
+        <v>20663</v>
       </c>
       <c r="D276">
-        <v>21090</v>
+        <v>21067</v>
       </c>
       <c r="E276">
-        <v>18205</v>
+        <v>18208</v>
       </c>
       <c r="F276">
-        <v>18027</v>
+        <v>18004</v>
       </c>
       <c r="G276">
-        <v>18395</v>
+        <v>18400</v>
       </c>
       <c r="H276">
         <v>1.0900000000000001</v>
@@ -11824,22 +11824,22 @@
         <v>44167</v>
       </c>
       <c r="B277">
-        <v>20734</v>
+        <v>20721</v>
       </c>
       <c r="C277">
-        <v>20525</v>
+        <v>20519</v>
       </c>
       <c r="D277">
-        <v>20956</v>
+        <v>20940</v>
       </c>
       <c r="E277">
-        <v>19491</v>
+        <v>19490</v>
       </c>
       <c r="F277">
-        <v>19296</v>
+        <v>19294</v>
       </c>
       <c r="G277">
-        <v>19690</v>
+        <v>19693</v>
       </c>
       <c r="H277">
         <v>1.2</v>
@@ -11865,22 +11865,22 @@
         <v>44168</v>
       </c>
       <c r="B278">
-        <v>21065</v>
+        <v>21062</v>
       </c>
       <c r="C278">
-        <v>20728</v>
+        <v>20881</v>
       </c>
       <c r="D278">
-        <v>21429</v>
+        <v>21265</v>
       </c>
       <c r="E278">
-        <v>20890</v>
+        <v>20883</v>
       </c>
       <c r="F278">
-        <v>20658</v>
+        <v>20683</v>
       </c>
       <c r="G278">
-        <v>21135</v>
+        <v>21089</v>
       </c>
       <c r="H278">
         <v>1.31</v>
@@ -11906,22 +11906,22 @@
         <v>44169</v>
       </c>
       <c r="B279">
-        <v>21728</v>
+        <v>21741</v>
       </c>
       <c r="C279">
-        <v>21309</v>
+        <v>21372</v>
       </c>
       <c r="D279">
-        <v>22063</v>
+        <v>22111</v>
       </c>
       <c r="E279">
-        <v>21103</v>
+        <v>21098</v>
       </c>
       <c r="F279">
-        <v>20814</v>
+        <v>20859</v>
       </c>
       <c r="G279">
-        <v>21385</v>
+        <v>21346</v>
       </c>
       <c r="H279">
         <v>1.23</v>
@@ -11947,22 +11947,22 @@
         <v>44170</v>
       </c>
       <c r="B280">
-        <v>20734</v>
+        <v>20708</v>
       </c>
       <c r="C280">
-        <v>20254</v>
+        <v>20277</v>
       </c>
       <c r="D280">
-        <v>21247</v>
+        <v>21088</v>
       </c>
       <c r="E280">
-        <v>21065</v>
+        <v>21058</v>
       </c>
       <c r="F280">
-        <v>20704</v>
+        <v>20762</v>
       </c>
       <c r="G280">
-        <v>21424</v>
+        <v>21351</v>
       </c>
       <c r="H280">
         <v>1.1599999999999999</v>
@@ -11988,37 +11988,37 @@
         <v>44171</v>
       </c>
       <c r="B281">
-        <v>21085</v>
+        <v>21044</v>
       </c>
       <c r="C281">
-        <v>20684</v>
+        <v>20718</v>
       </c>
       <c r="D281">
-        <v>21423</v>
+        <v>21433</v>
       </c>
       <c r="E281">
-        <v>21153</v>
+        <v>21139</v>
       </c>
       <c r="F281">
-        <v>20744</v>
+        <v>20812</v>
       </c>
       <c r="G281">
-        <v>21541</v>
+        <v>21474</v>
       </c>
       <c r="H281">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="I281">
         <v>1.07</v>
       </c>
       <c r="J281">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K281">
         <v>1.1599999999999999</v>
       </c>
       <c r="L281">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="M281">
         <v>1.17</v>
@@ -12029,22 +12029,22 @@
         <v>44172</v>
       </c>
       <c r="B282">
-        <v>26218</v>
+        <v>26222</v>
       </c>
       <c r="C282">
-        <v>25737</v>
+        <v>25598</v>
       </c>
       <c r="D282">
-        <v>26670</v>
+        <v>26678</v>
       </c>
       <c r="E282">
-        <v>22441</v>
+        <v>22429</v>
       </c>
       <c r="F282">
-        <v>21996</v>
+        <v>21991</v>
       </c>
       <c r="G282">
-        <v>22851</v>
+        <v>22827</v>
       </c>
       <c r="H282">
         <v>1.07</v>
@@ -12056,7 +12056,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="K282">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L282">
         <v>1.1499999999999999</v>
@@ -12070,22 +12070,22 @@
         <v>44173</v>
       </c>
       <c r="B283">
-        <v>26018</v>
+        <v>25960</v>
       </c>
       <c r="C283">
-        <v>25385</v>
+        <v>25411</v>
       </c>
       <c r="D283">
-        <v>26715</v>
+        <v>26560</v>
       </c>
       <c r="E283">
-        <v>23514</v>
+        <v>23483</v>
       </c>
       <c r="F283">
-        <v>23015</v>
+        <v>23001</v>
       </c>
       <c r="G283">
-        <v>24014</v>
+        <v>23940</v>
       </c>
       <c r="H283">
         <v>1.1100000000000001</v>
@@ -12111,22 +12111,22 @@
         <v>44174</v>
       </c>
       <c r="B284">
-        <v>25048</v>
+        <v>25000</v>
       </c>
       <c r="C284">
-        <v>24335</v>
+        <v>24385</v>
       </c>
       <c r="D284">
-        <v>25887</v>
+        <v>25581</v>
       </c>
       <c r="E284">
-        <v>24592</v>
+        <v>24557</v>
       </c>
       <c r="F284">
-        <v>24035</v>
+        <v>24028</v>
       </c>
       <c r="G284">
-        <v>25174</v>
+        <v>25063</v>
       </c>
       <c r="H284">
         <v>1.17</v>
@@ -12141,7 +12141,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="L284">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="M284">
         <v>1.1299999999999999</v>
@@ -12152,22 +12152,22 @@
         <v>44175</v>
       </c>
       <c r="B285">
-        <v>24630</v>
+        <v>24576</v>
       </c>
       <c r="C285">
-        <v>23765</v>
+        <v>23866</v>
       </c>
       <c r="D285">
-        <v>25338</v>
+        <v>25285</v>
       </c>
       <c r="E285">
-        <v>25478</v>
+        <v>25439</v>
       </c>
       <c r="F285">
-        <v>24805</v>
+        <v>24815</v>
       </c>
       <c r="G285">
-        <v>26152</v>
+        <v>26026</v>
       </c>
       <c r="H285">
         <v>1.2</v>
@@ -12193,31 +12193,31 @@
         <v>44176</v>
       </c>
       <c r="B286">
-        <v>24618</v>
+        <v>24621</v>
       </c>
       <c r="C286">
-        <v>23859</v>
+        <v>23727</v>
       </c>
       <c r="D286">
-        <v>25316</v>
+        <v>25498</v>
       </c>
       <c r="E286">
-        <v>25078</v>
+        <v>25039</v>
       </c>
       <c r="F286">
-        <v>24336</v>
+        <v>24347</v>
       </c>
       <c r="G286">
-        <v>25814</v>
+        <v>25731</v>
       </c>
       <c r="H286">
         <v>1.1200000000000001</v>
       </c>
       <c r="I286">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J286">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K286">
         <v>1.08</v>
@@ -12234,22 +12234,22 @@
         <v>44177</v>
       </c>
       <c r="B287">
-        <v>23141</v>
+        <v>23082</v>
       </c>
       <c r="C287">
-        <v>22413</v>
+        <v>22416</v>
       </c>
       <c r="D287">
-        <v>24035</v>
+        <v>23830</v>
       </c>
       <c r="E287">
-        <v>24359</v>
+        <v>24320</v>
       </c>
       <c r="F287">
-        <v>23593</v>
+        <v>23598</v>
       </c>
       <c r="G287">
-        <v>25144</v>
+        <v>25049</v>
       </c>
       <c r="H287">
         <v>1.04</v>
@@ -12258,7 +12258,7 @@
         <v>1.02</v>
       </c>
       <c r="J287">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K287">
         <v>1.06</v>
@@ -12275,28 +12275,28 @@
         <v>44178</v>
       </c>
       <c r="B288">
-        <v>22507</v>
+        <v>22439</v>
       </c>
       <c r="C288">
-        <v>21851</v>
+        <v>21608</v>
       </c>
       <c r="D288">
-        <v>23140</v>
+        <v>23064</v>
       </c>
       <c r="E288">
-        <v>23724</v>
+        <v>23679</v>
       </c>
       <c r="F288">
-        <v>22972</v>
+        <v>22904</v>
       </c>
       <c r="G288">
-        <v>24457</v>
+        <v>24419</v>
       </c>
       <c r="H288">
         <v>0.96</v>
       </c>
       <c r="I288">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="J288">
         <v>0.98</v>
@@ -12308,7 +12308,7 @@
         <v>1.04</v>
       </c>
       <c r="M288">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -12316,37 +12316,37 @@
         <v>44179</v>
       </c>
       <c r="B289">
-        <v>28057</v>
+        <v>28027</v>
       </c>
       <c r="C289">
-        <v>26750</v>
+        <v>27238</v>
       </c>
       <c r="D289">
-        <v>29207</v>
+        <v>28967</v>
       </c>
       <c r="E289">
-        <v>24581</v>
+        <v>24542</v>
       </c>
       <c r="F289">
-        <v>23718</v>
+        <v>23747</v>
       </c>
       <c r="G289">
-        <v>25424</v>
+        <v>25340</v>
       </c>
       <c r="H289">
         <v>0.96</v>
       </c>
       <c r="I289">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="J289">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="K289">
         <v>1.04</v>
       </c>
       <c r="L289">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="M289">
         <v>1.05</v>
@@ -12357,22 +12357,22 @@
         <v>44180</v>
       </c>
       <c r="B290">
-        <v>26794</v>
+        <v>26700</v>
       </c>
       <c r="C290">
-        <v>25707</v>
+        <v>25446</v>
       </c>
       <c r="D290">
-        <v>27651</v>
+        <v>27793</v>
       </c>
       <c r="E290">
-        <v>25125</v>
+        <v>25062</v>
       </c>
       <c r="F290">
-        <v>24180</v>
+        <v>24177</v>
       </c>
       <c r="G290">
-        <v>26008</v>
+        <v>25914</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -12381,7 +12381,7 @@
         <v>0.98</v>
       </c>
       <c r="J290">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K290">
         <v>1.03</v>
@@ -12398,22 +12398,22 @@
         <v>44181</v>
       </c>
       <c r="B291">
-        <v>25541</v>
+        <v>25467</v>
       </c>
       <c r="C291">
-        <v>24355</v>
+        <v>24372</v>
       </c>
       <c r="D291">
-        <v>26651</v>
+        <v>26526</v>
       </c>
       <c r="E291">
-        <v>25725</v>
+        <v>25658</v>
       </c>
       <c r="F291">
         <v>24666</v>
       </c>
       <c r="G291">
-        <v>26662</v>
+        <v>26587</v>
       </c>
       <c r="H291">
         <v>1.06</v>
@@ -12439,31 +12439,31 @@
         <v>44182</v>
       </c>
       <c r="B292">
-        <v>23572</v>
+        <v>23438</v>
       </c>
       <c r="C292">
-        <v>22304</v>
+        <v>22259</v>
       </c>
       <c r="D292">
-        <v>24820</v>
+        <v>24410</v>
       </c>
       <c r="E292">
-        <v>25991</v>
+        <v>25908</v>
       </c>
       <c r="F292">
-        <v>24779</v>
+        <v>24829</v>
       </c>
       <c r="G292">
-        <v>27082</v>
+        <v>26924</v>
       </c>
       <c r="H292">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I292">
         <v>1.07</v>
       </c>
       <c r="J292">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K292">
         <v>0.99</v>
@@ -12472,7 +12472,7 @@
         <v>0.98</v>
       </c>
       <c r="M292">
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -12480,28 +12480,28 @@
         <v>44183</v>
       </c>
       <c r="B293">
-        <v>22765</v>
+        <v>22716</v>
       </c>
       <c r="C293">
-        <v>21035</v>
+        <v>21366</v>
       </c>
       <c r="D293">
-        <v>23949</v>
+        <v>23716</v>
       </c>
       <c r="E293">
-        <v>24668</v>
+        <v>24580</v>
       </c>
       <c r="F293">
-        <v>23350</v>
+        <v>23361</v>
       </c>
       <c r="G293">
-        <v>25768</v>
+        <v>25611</v>
       </c>
       <c r="H293">
         <v>1</v>
       </c>
       <c r="I293">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="J293">
         <v>1.03</v>
@@ -12510,7 +12510,7 @@
         <v>0.97</v>
       </c>
       <c r="L293">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="M293">
         <v>0.99</v>
@@ -12521,31 +12521,31 @@
         <v>44184</v>
       </c>
       <c r="B294">
-        <v>20877</v>
+        <v>20909</v>
       </c>
       <c r="C294">
-        <v>19679</v>
+        <v>19814</v>
       </c>
       <c r="D294">
-        <v>22315</v>
+        <v>21957</v>
       </c>
       <c r="E294">
-        <v>23189</v>
+        <v>23133</v>
       </c>
       <c r="F294">
-        <v>21843</v>
+        <v>21953</v>
       </c>
       <c r="G294">
-        <v>24434</v>
+        <v>24152</v>
       </c>
       <c r="H294">
         <v>0.92</v>
       </c>
       <c r="I294">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="J294">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="K294">
         <v>0.96</v>
@@ -12554,7 +12554,7 @@
         <v>0.94</v>
       </c>
       <c r="M294">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -12562,22 +12562,22 @@
         <v>44185</v>
       </c>
       <c r="B295">
-        <v>20070</v>
+        <v>20009</v>
       </c>
       <c r="C295">
-        <v>18729</v>
+        <v>18835</v>
       </c>
       <c r="D295">
-        <v>21497</v>
+        <v>21364</v>
       </c>
       <c r="E295">
-        <v>21821</v>
+        <v>21768</v>
       </c>
       <c r="F295">
-        <v>20437</v>
+        <v>20569</v>
       </c>
       <c r="G295">
-        <v>23145</v>
+        <v>22862</v>
       </c>
       <c r="H295">
         <v>0.85</v>
@@ -12592,7 +12592,7 @@
         <v>0.93</v>
       </c>
       <c r="L295">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="M295">
         <v>0.95</v>
@@ -12603,28 +12603,28 @@
         <v>44186</v>
       </c>
       <c r="B296">
-        <v>22585</v>
+        <v>22621</v>
       </c>
       <c r="C296">
-        <v>20777</v>
+        <v>21157</v>
       </c>
       <c r="D296">
-        <v>24003</v>
+        <v>24076</v>
       </c>
       <c r="E296">
-        <v>21574</v>
+        <v>21564</v>
       </c>
       <c r="F296">
-        <v>20055</v>
+        <v>20293</v>
       </c>
       <c r="G296">
-        <v>22941</v>
+        <v>22778</v>
       </c>
       <c r="H296">
         <v>0.83</v>
       </c>
       <c r="I296">
-        <v>0.79</v>
+        <v>0.81</v>
       </c>
       <c r="J296">
         <v>0.86</v>
@@ -12636,7 +12636,7 @@
         <v>0.88</v>
       </c>
       <c r="M296">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -12644,28 +12644,28 @@
         <v>44187</v>
       </c>
       <c r="B297">
-        <v>20185</v>
+        <v>20179</v>
       </c>
       <c r="C297">
-        <v>18269</v>
+        <v>18371</v>
       </c>
       <c r="D297">
-        <v>22118</v>
+        <v>21737</v>
       </c>
       <c r="E297">
         <v>20929</v>
       </c>
       <c r="F297">
-        <v>19363</v>
+        <v>19544</v>
       </c>
       <c r="G297">
-        <v>22483</v>
+        <v>22283</v>
       </c>
       <c r="H297">
         <v>0.85</v>
       </c>
       <c r="I297">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="J297">
         <v>0.88</v>
@@ -12674,7 +12674,7 @@
         <v>0.87</v>
       </c>
       <c r="L297">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="M297">
         <v>0.89</v>
@@ -12685,22 +12685,22 @@
         <v>44188</v>
       </c>
       <c r="B298">
-        <v>17570</v>
+        <v>17542</v>
       </c>
       <c r="C298">
-        <v>15663</v>
+        <v>15986</v>
       </c>
       <c r="D298">
-        <v>19498</v>
+        <v>19496</v>
       </c>
       <c r="E298">
-        <v>20102</v>
+        <v>20088</v>
       </c>
       <c r="F298">
-        <v>18360</v>
+        <v>18587</v>
       </c>
       <c r="G298">
-        <v>21779</v>
+        <v>21668</v>
       </c>
       <c r="H298">
         <v>0.87</v>
@@ -12718,7 +12718,7 @@
         <v>0.81</v>
       </c>
       <c r="M298">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -12726,34 +12726,34 @@
         <v>44189</v>
       </c>
       <c r="B299">
-        <v>15150</v>
+        <v>15287</v>
       </c>
       <c r="C299">
-        <v>13521</v>
+        <v>13540</v>
       </c>
       <c r="D299">
-        <v>16911</v>
+        <v>16913</v>
       </c>
       <c r="E299">
-        <v>18872</v>
+        <v>18907</v>
       </c>
       <c r="F299">
-        <v>17058</v>
+        <v>17263</v>
       </c>
       <c r="G299">
-        <v>20632</v>
+        <v>20555</v>
       </c>
       <c r="H299">
         <v>0.87</v>
       </c>
       <c r="I299">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="J299">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="K299">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="L299">
         <v>0.78</v>
@@ -12767,31 +12767,31 @@
         <v>44190</v>
       </c>
       <c r="B300">
-        <v>13879</v>
+        <v>13840</v>
       </c>
       <c r="C300">
-        <v>11028</v>
+        <v>11803</v>
       </c>
       <c r="D300">
-        <v>16152</v>
+        <v>15822</v>
       </c>
       <c r="E300">
-        <v>16696</v>
+        <v>16712</v>
       </c>
       <c r="F300">
-        <v>14620</v>
+        <v>14925</v>
       </c>
       <c r="G300">
-        <v>18670</v>
+        <v>18492</v>
       </c>
       <c r="H300">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="I300">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="J300">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="K300">
         <v>0.8</v>
@@ -12808,40 +12808,40 @@
         <v>44191</v>
       </c>
       <c r="B301">
-        <v>15495</v>
+        <v>15037</v>
       </c>
       <c r="C301">
-        <v>12043</v>
+        <v>12614</v>
       </c>
       <c r="D301">
-        <v>18643</v>
+        <v>17881</v>
       </c>
       <c r="E301">
-        <v>15523</v>
+        <v>15427</v>
       </c>
       <c r="F301">
-        <v>13064</v>
+        <v>13486</v>
       </c>
       <c r="G301">
-        <v>17801</v>
+        <v>17528</v>
       </c>
       <c r="H301">
         <v>0.74</v>
       </c>
       <c r="I301">
-        <v>0.66</v>
+        <v>0.69</v>
       </c>
       <c r="J301">
-        <v>0.81</v>
+        <v>0.79</v>
       </c>
       <c r="K301">
         <v>0.83</v>
       </c>
       <c r="L301">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="M301">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="302" spans="1:13">
@@ -12849,40 +12849,40 @@
         <v>44192</v>
       </c>
       <c r="B302">
-        <v>18095</v>
+        <v>17324</v>
       </c>
       <c r="C302">
-        <v>13111</v>
+        <v>12856</v>
       </c>
       <c r="D302">
-        <v>22209</v>
+        <v>21003</v>
       </c>
       <c r="E302">
-        <v>15655</v>
+        <v>15372</v>
       </c>
       <c r="F302">
-        <v>12426</v>
+        <v>12703</v>
       </c>
       <c r="G302">
-        <v>18479</v>
+        <v>17905</v>
       </c>
       <c r="H302">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="I302">
         <v>0.68</v>
       </c>
       <c r="J302">
+        <v>0.83</v>
+      </c>
+      <c r="K302">
         <v>0.87</v>
-      </c>
-      <c r="K302">
-        <v>0.89</v>
       </c>
       <c r="L302">
         <v>0.81</v>
       </c>
       <c r="M302">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="303" spans="1:13">
@@ -12890,40 +12890,40 @@
         <v>44193</v>
       </c>
       <c r="B303">
-        <v>23531</v>
+        <v>21419</v>
       </c>
       <c r="C303">
-        <v>18459</v>
+        <v>15246</v>
       </c>
       <c r="D303">
-        <v>29811</v>
+        <v>27147</v>
       </c>
       <c r="E303">
-        <v>17750</v>
+        <v>16905</v>
       </c>
       <c r="F303">
-        <v>13660</v>
+        <v>13130</v>
       </c>
       <c r="G303">
-        <v>21703</v>
+        <v>20463</v>
       </c>
       <c r="H303">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="I303">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J303">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="K303">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="L303">
         <v>0.84</v>
       </c>
       <c r="M303">
-        <v>1.05</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="304" spans="1:13">
@@ -12931,79 +12931,117 @@
         <v>44194</v>
       </c>
       <c r="B304">
-        <v>19890</v>
+        <v>17483</v>
       </c>
       <c r="C304">
-        <v>13210</v>
+        <v>11104</v>
       </c>
       <c r="D304">
-        <v>27730</v>
+        <v>23567</v>
       </c>
       <c r="E304">
-        <v>19253</v>
+        <v>17816</v>
       </c>
       <c r="F304">
-        <v>14206</v>
+        <v>12955</v>
       </c>
       <c r="G304">
-        <v>24598</v>
+        <v>22399</v>
       </c>
       <c r="H304">
-        <v>1.1499999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="I304">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="J304">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1">
-      <c r="A305" s="4"/>
-    </row>
-    <row r="306" spans="1:1">
+        <v>1.21</v>
+      </c>
+      <c r="K304">
+        <v>0.91</v>
+      </c>
+      <c r="L304">
+        <v>0.82</v>
+      </c>
+      <c r="M304">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10">
+      <c r="A305" s="4">
+        <v>44195</v>
+      </c>
+      <c r="B305">
+        <v>12399</v>
+      </c>
+      <c r="C305">
+        <v>7142</v>
+      </c>
+      <c r="D305">
+        <v>16576</v>
+      </c>
+      <c r="E305">
+        <v>17156</v>
+      </c>
+      <c r="F305">
+        <v>11587</v>
+      </c>
+      <c r="G305">
+        <v>22073</v>
+      </c>
+      <c r="H305">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I305">
+        <v>0.93</v>
+      </c>
+      <c r="J305">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10">
       <c r="A306" s="4"/>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:10">
       <c r="A307" s="4"/>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:10">
       <c r="A308" s="4"/>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:10">
       <c r="A309" s="4"/>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:10">
       <c r="A310" s="4"/>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:10">
       <c r="A311" s="4"/>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:10">
       <c r="A312" s="4"/>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:10">
       <c r="A313" s="4"/>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:10">
       <c r="A314" s="4"/>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:10">
       <c r="A315" s="4"/>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:10">
       <c r="A316" s="4"/>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:10">
       <c r="A317" s="4"/>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:10">
       <c r="A318" s="4"/>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:10">
       <c r="A319" s="4"/>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:10">
       <c r="A320" s="4"/>
     </row>
     <row r="321" spans="1:1">

--- a/rki-data/RKI-Nowcasting_Zahlen.xlsx
+++ b/rki-data/RKI-Nowcasting_Zahlen.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-01-03\Nowcast\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D76137-24E4-4D67-A551-F9449F96E6CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C81D7F-27A2-40CB-9666-970852D79359}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="11565" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
@@ -32,7 +27,7 @@
     <t>Ergebnisse des Nowcastings und der Schätzung der Reproduktionszahl R</t>
   </si>
   <si>
-    <t>Datenstand: 03.01.2021, 00:00 Uhr</t>
+    <t>Datenstand: 10.01.2021, 00:00 Uhr</t>
   </si>
   <si>
     <t>Die Ergebnisse des Nowcastings, also die Schätzung der Anzahl von COVID-19 Neuerkrankungen wird dargestellt mit einem gleitenden 4-Tages-Mittelwert.</t>
@@ -41,7 +36,7 @@
     <t>Dabei wird jeder Wert mit den Werten der 3 vorhergehenden Tage gemittelt.</t>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 03.01.2021 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 10.01.2021 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -146,7 +141,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -559,15 +556,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M341"/>
+  <dimension ref="A1:M312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="A311" sqref="A311:A312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -597,22 +595,22 @@
       <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10474,10 +10472,10 @@
         <v>17247</v>
       </c>
       <c r="C244">
-        <v>17094</v>
+        <v>17093</v>
       </c>
       <c r="D244">
-        <v>17387</v>
+        <v>17385</v>
       </c>
       <c r="E244">
         <v>17641</v>
@@ -10486,7 +10484,7 @@
         <v>17458</v>
       </c>
       <c r="G244">
-        <v>17818</v>
+        <v>17817</v>
       </c>
       <c r="H244">
         <v>1.07</v>
@@ -10556,7 +10554,7 @@
         <v>16655</v>
       </c>
       <c r="C246">
-        <v>16491</v>
+        <v>16494</v>
       </c>
       <c r="D246">
         <v>16830</v>
@@ -10568,7 +10566,7 @@
         <v>16398</v>
       </c>
       <c r="G246">
-        <v>16746</v>
+        <v>16745</v>
       </c>
       <c r="H246">
         <v>0.93</v>
@@ -10597,10 +10595,10 @@
         <v>20970</v>
       </c>
       <c r="C247">
-        <v>20787</v>
+        <v>20786</v>
       </c>
       <c r="D247">
-        <v>21168</v>
+        <v>21166</v>
       </c>
       <c r="E247">
         <v>17621</v>
@@ -10609,7 +10607,7 @@
         <v>17446</v>
       </c>
       <c r="G247">
-        <v>17790</v>
+        <v>17789</v>
       </c>
       <c r="H247">
         <v>0.97</v>
@@ -10635,10 +10633,10 @@
         <v>44138</v>
       </c>
       <c r="B248">
-        <v>19020</v>
+        <v>19021</v>
       </c>
       <c r="C248">
-        <v>18835</v>
+        <v>18843</v>
       </c>
       <c r="D248">
         <v>19202</v>
@@ -10647,10 +10645,10 @@
         <v>18065</v>
       </c>
       <c r="F248">
-        <v>17881</v>
+        <v>17884</v>
       </c>
       <c r="G248">
-        <v>18244</v>
+        <v>18243</v>
       </c>
       <c r="H248">
         <v>1.02</v>
@@ -10679,19 +10677,19 @@
         <v>18020</v>
       </c>
       <c r="C249">
-        <v>17857</v>
+        <v>17858</v>
       </c>
       <c r="D249">
         <v>18172</v>
       </c>
       <c r="E249">
-        <v>18666</v>
+        <v>18667</v>
       </c>
       <c r="F249">
-        <v>18492</v>
+        <v>18495</v>
       </c>
       <c r="G249">
-        <v>18843</v>
+        <v>18842</v>
       </c>
       <c r="H249">
         <v>1.1000000000000001</v>
@@ -10717,22 +10715,22 @@
         <v>44140</v>
       </c>
       <c r="B250">
-        <v>16539</v>
+        <v>16540</v>
       </c>
       <c r="C250">
-        <v>16364</v>
+        <v>16366</v>
       </c>
       <c r="D250">
-        <v>16727</v>
+        <v>16720</v>
       </c>
       <c r="E250">
-        <v>18637</v>
+        <v>18638</v>
       </c>
       <c r="F250">
-        <v>18461</v>
+        <v>18463</v>
       </c>
       <c r="G250">
-        <v>18817</v>
+        <v>18815</v>
       </c>
       <c r="H250">
         <v>1.1200000000000001</v>
@@ -10758,16 +10756,16 @@
         <v>44141</v>
       </c>
       <c r="B251">
-        <v>16123</v>
+        <v>16122</v>
       </c>
       <c r="C251">
-        <v>15979</v>
+        <v>15969</v>
       </c>
       <c r="D251">
-        <v>16309</v>
+        <v>16314</v>
       </c>
       <c r="E251">
-        <v>17425</v>
+        <v>17426</v>
       </c>
       <c r="F251">
         <v>17259</v>
@@ -10799,22 +10797,22 @@
         <v>44142</v>
       </c>
       <c r="B252">
-        <v>15048</v>
+        <v>15047</v>
       </c>
       <c r="C252">
-        <v>14905</v>
+        <v>14903</v>
       </c>
       <c r="D252">
-        <v>15208</v>
+        <v>15213</v>
       </c>
       <c r="E252">
         <v>16433</v>
       </c>
       <c r="F252">
-        <v>16276</v>
+        <v>16274</v>
       </c>
       <c r="G252">
-        <v>16604</v>
+        <v>16605</v>
       </c>
       <c r="H252">
         <v>0.91</v>
@@ -10840,22 +10838,22 @@
         <v>44143</v>
       </c>
       <c r="B253">
-        <v>15142</v>
+        <v>15141</v>
       </c>
       <c r="C253">
-        <v>14954</v>
+        <v>14941</v>
       </c>
       <c r="D253">
-        <v>15312</v>
+        <v>15317</v>
       </c>
       <c r="E253">
         <v>15713</v>
       </c>
       <c r="F253">
-        <v>15550</v>
+        <v>15544</v>
       </c>
       <c r="G253">
-        <v>15889</v>
+        <v>15891</v>
       </c>
       <c r="H253">
         <v>0.84</v>
@@ -10881,22 +10879,22 @@
         <v>44144</v>
       </c>
       <c r="B254">
-        <v>19036</v>
+        <v>19034</v>
       </c>
       <c r="C254">
-        <v>18842</v>
+        <v>18856</v>
       </c>
       <c r="D254">
-        <v>19272</v>
+        <v>19269</v>
       </c>
       <c r="E254">
-        <v>16337</v>
+        <v>16336</v>
       </c>
       <c r="F254">
-        <v>16170</v>
+        <v>16167</v>
       </c>
       <c r="G254">
-        <v>16525</v>
+        <v>16528</v>
       </c>
       <c r="H254">
         <v>0.88</v>
@@ -10922,22 +10920,22 @@
         <v>44145</v>
       </c>
       <c r="B255">
-        <v>18431</v>
+        <v>18429</v>
       </c>
       <c r="C255">
-        <v>18221</v>
+        <v>18228</v>
       </c>
       <c r="D255">
-        <v>18609</v>
+        <v>18608</v>
       </c>
       <c r="E255">
-        <v>16914</v>
+        <v>16913</v>
       </c>
       <c r="F255">
-        <v>16730</v>
+        <v>16732</v>
       </c>
       <c r="G255">
-        <v>17100</v>
+        <v>17102</v>
       </c>
       <c r="H255">
         <v>0.97</v>
@@ -10963,22 +10961,22 @@
         <v>44146</v>
       </c>
       <c r="B256">
-        <v>17924</v>
+        <v>17922</v>
       </c>
       <c r="C256">
-        <v>17723</v>
+        <v>17726</v>
       </c>
       <c r="D256">
-        <v>18093</v>
+        <v>18110</v>
       </c>
       <c r="E256">
-        <v>17633</v>
+        <v>17632</v>
       </c>
       <c r="F256">
-        <v>17435</v>
+        <v>17437</v>
       </c>
       <c r="G256">
-        <v>17821</v>
+        <v>17826</v>
       </c>
       <c r="H256">
         <v>1.07</v>
@@ -11004,22 +11002,22 @@
         <v>44147</v>
       </c>
       <c r="B257">
-        <v>17649</v>
+        <v>17647</v>
       </c>
       <c r="C257">
-        <v>17475</v>
+        <v>17460</v>
       </c>
       <c r="D257">
-        <v>17835</v>
+        <v>17859</v>
       </c>
       <c r="E257">
-        <v>18260</v>
+        <v>18258</v>
       </c>
       <c r="F257">
-        <v>18065</v>
+        <v>18067</v>
       </c>
       <c r="G257">
-        <v>18452</v>
+        <v>18461</v>
       </c>
       <c r="H257">
         <v>1.1599999999999999</v>
@@ -11045,22 +11043,22 @@
         <v>44148</v>
       </c>
       <c r="B258">
-        <v>18352</v>
+        <v>18348</v>
       </c>
       <c r="C258">
-        <v>18184</v>
+        <v>18182</v>
       </c>
       <c r="D258">
-        <v>18546</v>
+        <v>18549</v>
       </c>
       <c r="E258">
-        <v>18089</v>
+        <v>18087</v>
       </c>
       <c r="F258">
-        <v>17901</v>
+        <v>17899</v>
       </c>
       <c r="G258">
-        <v>18271</v>
+        <v>18281</v>
       </c>
       <c r="H258">
         <v>1.1100000000000001</v>
@@ -11086,22 +11084,22 @@
         <v>44149</v>
       </c>
       <c r="B259">
-        <v>16314</v>
+        <v>16312</v>
       </c>
       <c r="C259">
-        <v>16151</v>
+        <v>16150</v>
       </c>
       <c r="D259">
-        <v>16511</v>
+        <v>16493</v>
       </c>
       <c r="E259">
-        <v>17560</v>
+        <v>17557</v>
       </c>
       <c r="F259">
-        <v>17383</v>
+        <v>17379</v>
       </c>
       <c r="G259">
-        <v>17746</v>
+        <v>17753</v>
       </c>
       <c r="H259">
         <v>1.04</v>
@@ -11127,22 +11125,22 @@
         <v>44150</v>
       </c>
       <c r="B260">
-        <v>16493</v>
+        <v>16484</v>
       </c>
       <c r="C260">
-        <v>16317</v>
+        <v>16318</v>
       </c>
       <c r="D260">
-        <v>16704</v>
+        <v>16672</v>
       </c>
       <c r="E260">
-        <v>17202</v>
+        <v>17198</v>
       </c>
       <c r="F260">
-        <v>17032</v>
+        <v>17027</v>
       </c>
       <c r="G260">
-        <v>17399</v>
+        <v>17393</v>
       </c>
       <c r="H260">
         <v>0.98</v>
@@ -11168,22 +11166,22 @@
         <v>44151</v>
       </c>
       <c r="B261">
-        <v>20449</v>
+        <v>20448</v>
       </c>
       <c r="C261">
-        <v>20246</v>
+        <v>20237</v>
       </c>
       <c r="D261">
-        <v>20645</v>
+        <v>20646</v>
       </c>
       <c r="E261">
-        <v>17902</v>
+        <v>17898</v>
       </c>
       <c r="F261">
-        <v>17724</v>
+        <v>17721</v>
       </c>
       <c r="G261">
-        <v>18101</v>
+        <v>18090</v>
       </c>
       <c r="H261">
         <v>0.98</v>
@@ -11209,22 +11207,22 @@
         <v>44152</v>
       </c>
       <c r="B262">
-        <v>19436</v>
+        <v>19433</v>
       </c>
       <c r="C262">
-        <v>19250</v>
+        <v>19230</v>
       </c>
       <c r="D262">
-        <v>19595</v>
+        <v>19612</v>
       </c>
       <c r="E262">
-        <v>18173</v>
+        <v>18169</v>
       </c>
       <c r="F262">
-        <v>17991</v>
+        <v>17983</v>
       </c>
       <c r="G262">
-        <v>18364</v>
+        <v>18356</v>
       </c>
       <c r="H262">
         <v>1</v>
@@ -11250,22 +11248,22 @@
         <v>44153</v>
       </c>
       <c r="B263">
-        <v>18599</v>
+        <v>18592</v>
       </c>
       <c r="C263">
-        <v>18390</v>
+        <v>18417</v>
       </c>
       <c r="D263">
-        <v>18797</v>
+        <v>18769</v>
       </c>
       <c r="E263">
-        <v>18744</v>
+        <v>18739</v>
       </c>
       <c r="F263">
-        <v>18551</v>
+        <v>18550</v>
       </c>
       <c r="G263">
-        <v>18935</v>
+        <v>18924</v>
       </c>
       <c r="H263">
         <v>1.07</v>
@@ -11274,7 +11272,7 @@
         <v>1.06</v>
       </c>
       <c r="J263">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K263">
         <v>1.02</v>
@@ -11291,22 +11289,22 @@
         <v>44154</v>
       </c>
       <c r="B264">
-        <v>17276</v>
+        <v>17266</v>
       </c>
       <c r="C264">
-        <v>17100</v>
+        <v>17101</v>
       </c>
       <c r="D264">
-        <v>17495</v>
+        <v>17496</v>
       </c>
       <c r="E264">
-        <v>18940</v>
+        <v>18935</v>
       </c>
       <c r="F264">
         <v>18746</v>
       </c>
       <c r="G264">
-        <v>19133</v>
+        <v>19130</v>
       </c>
       <c r="H264">
         <v>1.1000000000000001</v>
@@ -11332,22 +11330,22 @@
         <v>44155</v>
       </c>
       <c r="B265">
-        <v>16798</v>
+        <v>16789</v>
       </c>
       <c r="C265">
-        <v>16594</v>
+        <v>16590</v>
       </c>
       <c r="D265">
-        <v>16988</v>
+        <v>16966</v>
       </c>
       <c r="E265">
-        <v>18027</v>
+        <v>18020</v>
       </c>
       <c r="F265">
-        <v>17833</v>
+        <v>17834</v>
       </c>
       <c r="G265">
-        <v>18219</v>
+        <v>18210</v>
       </c>
       <c r="H265">
         <v>1.01</v>
@@ -11373,22 +11371,22 @@
         <v>44156</v>
       </c>
       <c r="B266">
-        <v>14473</v>
+        <v>14449</v>
       </c>
       <c r="C266">
-        <v>14299</v>
+        <v>14285</v>
       </c>
       <c r="D266">
-        <v>14616</v>
+        <v>14602</v>
       </c>
       <c r="E266">
-        <v>16787</v>
+        <v>16774</v>
       </c>
       <c r="F266">
-        <v>16595</v>
+        <v>16598</v>
       </c>
       <c r="G266">
-        <v>16974</v>
+        <v>16958</v>
       </c>
       <c r="H266">
         <v>0.92</v>
@@ -11414,28 +11412,28 @@
         <v>44157</v>
       </c>
       <c r="B267">
-        <v>14525</v>
+        <v>14510</v>
       </c>
       <c r="C267">
-        <v>14365</v>
+        <v>14328</v>
       </c>
       <c r="D267">
-        <v>14676</v>
+        <v>14687</v>
       </c>
       <c r="E267">
-        <v>15768</v>
+        <v>15754</v>
       </c>
       <c r="F267">
-        <v>15589</v>
+        <v>15576</v>
       </c>
       <c r="G267">
-        <v>15944</v>
+        <v>15937</v>
       </c>
       <c r="H267">
         <v>0.84</v>
       </c>
       <c r="I267">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="J267">
         <v>0.85</v>
@@ -11447,7 +11445,7 @@
         <v>0.94</v>
       </c>
       <c r="M267">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11455,22 +11453,22 @@
         <v>44158</v>
       </c>
       <c r="B268">
-        <v>18509</v>
+        <v>18477</v>
       </c>
       <c r="C268">
-        <v>18350</v>
+        <v>18282</v>
       </c>
       <c r="D268">
-        <v>18667</v>
+        <v>18654</v>
       </c>
       <c r="E268">
-        <v>16076</v>
+        <v>16056</v>
       </c>
       <c r="F268">
-        <v>15902</v>
+        <v>15871</v>
       </c>
       <c r="G268">
-        <v>16237</v>
+        <v>16227</v>
       </c>
       <c r="H268">
         <v>0.85</v>
@@ -11496,28 +11494,28 @@
         <v>44159</v>
       </c>
       <c r="B269">
-        <v>17480</v>
+        <v>17430</v>
       </c>
       <c r="C269">
-        <v>17314</v>
+        <v>17251</v>
       </c>
       <c r="D269">
-        <v>17624</v>
+        <v>17601</v>
       </c>
       <c r="E269">
-        <v>16247</v>
+        <v>16217</v>
       </c>
       <c r="F269">
-        <v>16082</v>
+        <v>16036</v>
       </c>
       <c r="G269">
-        <v>16396</v>
+        <v>16386</v>
       </c>
       <c r="H269">
         <v>0.9</v>
       </c>
       <c r="I269">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="J269">
         <v>0.91</v>
@@ -11526,7 +11524,7 @@
         <v>0.94</v>
       </c>
       <c r="L269">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="M269">
         <v>0.94</v>
@@ -11537,22 +11535,22 @@
         <v>44160</v>
       </c>
       <c r="B270">
-        <v>16937</v>
+        <v>16907</v>
       </c>
       <c r="C270">
-        <v>16739</v>
+        <v>16720</v>
       </c>
       <c r="D270">
-        <v>17168</v>
+        <v>17081</v>
       </c>
       <c r="E270">
-        <v>16863</v>
+        <v>16831</v>
       </c>
       <c r="F270">
-        <v>16692</v>
+        <v>16645</v>
       </c>
       <c r="G270">
-        <v>17033</v>
+        <v>17006</v>
       </c>
       <c r="H270">
         <v>1</v>
@@ -11578,28 +11576,28 @@
         <v>44161</v>
       </c>
       <c r="B271">
-        <v>16092</v>
+        <v>16032</v>
       </c>
       <c r="C271">
-        <v>15910</v>
+        <v>15838</v>
       </c>
       <c r="D271">
-        <v>16289</v>
+        <v>16197</v>
       </c>
       <c r="E271">
-        <v>17254</v>
+        <v>17212</v>
       </c>
       <c r="F271">
-        <v>17078</v>
+        <v>17023</v>
       </c>
       <c r="G271">
-        <v>17437</v>
+        <v>17383</v>
       </c>
       <c r="H271">
         <v>1.0900000000000001</v>
       </c>
       <c r="I271">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="J271">
         <v>1.1000000000000001</v>
@@ -11619,28 +11617,28 @@
         <v>44162</v>
       </c>
       <c r="B272">
-        <v>16527</v>
+        <v>16438</v>
       </c>
       <c r="C272">
-        <v>16370</v>
+        <v>16265</v>
       </c>
       <c r="D272">
-        <v>16719</v>
+        <v>16608</v>
       </c>
       <c r="E272">
-        <v>16759</v>
+        <v>16702</v>
       </c>
       <c r="F272">
-        <v>16583</v>
+        <v>16518</v>
       </c>
       <c r="G272">
-        <v>16950</v>
+        <v>16872</v>
       </c>
       <c r="H272">
         <v>1.04</v>
       </c>
       <c r="I272">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J272">
         <v>1.05</v>
@@ -11652,7 +11650,7 @@
         <v>0.98</v>
       </c>
       <c r="M272">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -11660,34 +11658,34 @@
         <v>44163</v>
       </c>
       <c r="B273">
-        <v>15595</v>
+        <v>15510</v>
       </c>
       <c r="C273">
-        <v>15359</v>
+        <v>15355</v>
       </c>
       <c r="D273">
-        <v>15771</v>
+        <v>15679</v>
       </c>
       <c r="E273">
-        <v>16288</v>
+        <v>16222</v>
       </c>
       <c r="F273">
-        <v>16094</v>
+        <v>16044</v>
       </c>
       <c r="G273">
-        <v>16486</v>
+        <v>16391</v>
       </c>
       <c r="H273">
         <v>1</v>
       </c>
       <c r="I273">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="J273">
         <v>1.01</v>
       </c>
       <c r="K273">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="L273">
         <v>1</v>
@@ -11701,34 +11699,34 @@
         <v>44164</v>
       </c>
       <c r="B274">
-        <v>15490</v>
+        <v>15385</v>
       </c>
       <c r="C274">
-        <v>15324</v>
+        <v>15179</v>
       </c>
       <c r="D274">
-        <v>15679</v>
+        <v>15576</v>
       </c>
       <c r="E274">
-        <v>15926</v>
+        <v>15841</v>
       </c>
       <c r="F274">
-        <v>15741</v>
+        <v>15659</v>
       </c>
       <c r="G274">
-        <v>16114</v>
+        <v>16015</v>
       </c>
       <c r="H274">
         <v>0.94</v>
       </c>
       <c r="I274">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="J274">
         <v>0.95</v>
       </c>
       <c r="K274">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="L274">
         <v>1.03</v>
@@ -11742,28 +11740,28 @@
         <v>44165</v>
       </c>
       <c r="B275">
-        <v>20879</v>
+        <v>20781</v>
       </c>
       <c r="C275">
-        <v>20669</v>
+        <v>20602</v>
       </c>
       <c r="D275">
-        <v>21085</v>
+        <v>20967</v>
       </c>
       <c r="E275">
-        <v>17123</v>
+        <v>17029</v>
       </c>
       <c r="F275">
-        <v>16930</v>
+        <v>16850</v>
       </c>
       <c r="G275">
-        <v>17313</v>
+        <v>17207</v>
       </c>
       <c r="H275">
         <v>0.99</v>
       </c>
       <c r="I275">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="J275">
         <v>1</v>
@@ -11783,22 +11781,22 @@
         <v>44166</v>
       </c>
       <c r="B276">
-        <v>20869</v>
+        <v>20828</v>
       </c>
       <c r="C276">
-        <v>20663</v>
+        <v>20630</v>
       </c>
       <c r="D276">
-        <v>21067</v>
+        <v>21056</v>
       </c>
       <c r="E276">
-        <v>18208</v>
+        <v>18126</v>
       </c>
       <c r="F276">
-        <v>18004</v>
+        <v>17941</v>
       </c>
       <c r="G276">
-        <v>18400</v>
+        <v>18319</v>
       </c>
       <c r="H276">
         <v>1.0900000000000001</v>
@@ -11816,7 +11814,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="M276">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -11824,22 +11822,22 @@
         <v>44167</v>
       </c>
       <c r="B277">
-        <v>20721</v>
+        <v>20679</v>
       </c>
       <c r="C277">
-        <v>20519</v>
+        <v>20490</v>
       </c>
       <c r="D277">
-        <v>20940</v>
+        <v>20857</v>
       </c>
       <c r="E277">
-        <v>19490</v>
+        <v>19418</v>
       </c>
       <c r="F277">
-        <v>19294</v>
+        <v>19225</v>
       </c>
       <c r="G277">
-        <v>19693</v>
+        <v>19614</v>
       </c>
       <c r="H277">
         <v>1.2</v>
@@ -11865,28 +11863,28 @@
         <v>44168</v>
       </c>
       <c r="B278">
-        <v>21062</v>
+        <v>20978</v>
       </c>
       <c r="C278">
-        <v>20881</v>
+        <v>20788</v>
       </c>
       <c r="D278">
-        <v>21265</v>
+        <v>21195</v>
       </c>
       <c r="E278">
-        <v>20883</v>
+        <v>20817</v>
       </c>
       <c r="F278">
-        <v>20683</v>
+        <v>20627</v>
       </c>
       <c r="G278">
-        <v>21089</v>
+        <v>21019</v>
       </c>
       <c r="H278">
         <v>1.31</v>
       </c>
       <c r="I278">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="J278">
         <v>1.32</v>
@@ -11906,28 +11904,28 @@
         <v>44169</v>
       </c>
       <c r="B279">
-        <v>21741</v>
+        <v>21657</v>
       </c>
       <c r="C279">
-        <v>21372</v>
+        <v>21424</v>
       </c>
       <c r="D279">
-        <v>22111</v>
+        <v>21877</v>
       </c>
       <c r="E279">
-        <v>21098</v>
+        <v>21036</v>
       </c>
       <c r="F279">
-        <v>20859</v>
+        <v>20833</v>
       </c>
       <c r="G279">
-        <v>21346</v>
+        <v>21246</v>
       </c>
       <c r="H279">
+        <v>1.24</v>
+      </c>
+      <c r="I279">
         <v>1.23</v>
-      </c>
-      <c r="I279">
-        <v>1.22</v>
       </c>
       <c r="J279">
         <v>1.24</v>
@@ -11947,22 +11945,22 @@
         <v>44170</v>
       </c>
       <c r="B280">
-        <v>20708</v>
+        <v>20597</v>
       </c>
       <c r="C280">
-        <v>20277</v>
+        <v>20380</v>
       </c>
       <c r="D280">
-        <v>21088</v>
+        <v>20789</v>
       </c>
       <c r="E280">
-        <v>21058</v>
+        <v>20978</v>
       </c>
       <c r="F280">
-        <v>20762</v>
+        <v>20770</v>
       </c>
       <c r="G280">
-        <v>21351</v>
+        <v>21179</v>
       </c>
       <c r="H280">
         <v>1.1599999999999999</v>
@@ -11988,28 +11986,28 @@
         <v>44171</v>
       </c>
       <c r="B281">
-        <v>21044</v>
+        <v>20949</v>
       </c>
       <c r="C281">
-        <v>20718</v>
+        <v>20758</v>
       </c>
       <c r="D281">
-        <v>21433</v>
+        <v>21216</v>
       </c>
       <c r="E281">
-        <v>21139</v>
+        <v>21045</v>
       </c>
       <c r="F281">
-        <v>20812</v>
+        <v>20837</v>
       </c>
       <c r="G281">
-        <v>21474</v>
+        <v>21269</v>
       </c>
       <c r="H281">
         <v>1.08</v>
       </c>
       <c r="I281">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="J281">
         <v>1.0900000000000001</v>
@@ -12029,34 +12027,34 @@
         <v>44172</v>
       </c>
       <c r="B282">
-        <v>26222</v>
+        <v>26126</v>
       </c>
       <c r="C282">
-        <v>25598</v>
+        <v>25896</v>
       </c>
       <c r="D282">
-        <v>26678</v>
+        <v>26379</v>
       </c>
       <c r="E282">
-        <v>22429</v>
+        <v>22332</v>
       </c>
       <c r="F282">
-        <v>21991</v>
+        <v>22114</v>
       </c>
       <c r="G282">
-        <v>22827</v>
+        <v>22565</v>
       </c>
       <c r="H282">
         <v>1.07</v>
       </c>
       <c r="I282">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="J282">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="K282">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L282">
         <v>1.1499999999999999</v>
@@ -12070,34 +12068,34 @@
         <v>44173</v>
       </c>
       <c r="B283">
-        <v>25960</v>
+        <v>26010</v>
       </c>
       <c r="C283">
-        <v>25411</v>
+        <v>25773</v>
       </c>
       <c r="D283">
-        <v>26560</v>
+        <v>26263</v>
       </c>
       <c r="E283">
-        <v>23483</v>
+        <v>23420</v>
       </c>
       <c r="F283">
-        <v>23001</v>
+        <v>23202</v>
       </c>
       <c r="G283">
-        <v>23940</v>
+        <v>23662</v>
       </c>
       <c r="H283">
         <v>1.1100000000000001</v>
       </c>
       <c r="I283">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J283">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K283">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L283">
         <v>1.1399999999999999</v>
@@ -12111,37 +12109,37 @@
         <v>44174</v>
       </c>
       <c r="B284">
-        <v>25000</v>
+        <v>25237</v>
       </c>
       <c r="C284">
-        <v>24385</v>
+        <v>25023</v>
       </c>
       <c r="D284">
-        <v>25581</v>
+        <v>25462</v>
       </c>
       <c r="E284">
-        <v>24557</v>
+        <v>24580</v>
       </c>
       <c r="F284">
-        <v>24028</v>
+        <v>24362</v>
       </c>
       <c r="G284">
-        <v>25063</v>
+        <v>24830</v>
       </c>
       <c r="H284">
         <v>1.17</v>
       </c>
       <c r="I284">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J284">
         <v>1.18</v>
       </c>
       <c r="K284">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L284">
         <v>1.1200000000000001</v>
-      </c>
-      <c r="L284">
-        <v>1.1100000000000001</v>
       </c>
       <c r="M284">
         <v>1.1299999999999999</v>
@@ -12152,37 +12150,37 @@
         <v>44175</v>
       </c>
       <c r="B285">
-        <v>24576</v>
+        <v>24617</v>
       </c>
       <c r="C285">
-        <v>23866</v>
+        <v>24373</v>
       </c>
       <c r="D285">
-        <v>25285</v>
+        <v>24799</v>
       </c>
       <c r="E285">
-        <v>25439</v>
+        <v>25497</v>
       </c>
       <c r="F285">
-        <v>24815</v>
+        <v>25266</v>
       </c>
       <c r="G285">
-        <v>26026</v>
+        <v>25726</v>
       </c>
       <c r="H285">
+        <v>1.21</v>
+      </c>
+      <c r="I285">
         <v>1.2</v>
-      </c>
-      <c r="I285">
-        <v>1.19</v>
       </c>
       <c r="J285">
         <v>1.22</v>
       </c>
       <c r="K285">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="L285">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="L285">
-        <v>1.0900000000000001</v>
       </c>
       <c r="M285">
         <v>1.1100000000000001</v>
@@ -12193,37 +12191,37 @@
         <v>44176</v>
       </c>
       <c r="B286">
-        <v>24621</v>
+        <v>24573</v>
       </c>
       <c r="C286">
-        <v>23727</v>
+        <v>24037</v>
       </c>
       <c r="D286">
-        <v>25498</v>
+        <v>25005</v>
       </c>
       <c r="E286">
-        <v>25039</v>
+        <v>25109</v>
       </c>
       <c r="F286">
-        <v>24347</v>
+        <v>24801</v>
       </c>
       <c r="G286">
-        <v>25731</v>
+        <v>25382</v>
       </c>
       <c r="H286">
         <v>1.1200000000000001</v>
       </c>
       <c r="I286">
-        <v>1.0900000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J286">
         <v>1.1299999999999999</v>
       </c>
       <c r="K286">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="L286">
         <v>1.08</v>
-      </c>
-      <c r="L286">
-        <v>1.07</v>
       </c>
       <c r="M286">
         <v>1.0900000000000001</v>
@@ -12234,37 +12232,37 @@
         <v>44177</v>
       </c>
       <c r="B287">
-        <v>23082</v>
+        <v>23117</v>
       </c>
       <c r="C287">
-        <v>22416</v>
+        <v>22577</v>
       </c>
       <c r="D287">
-        <v>23830</v>
+        <v>23657</v>
       </c>
       <c r="E287">
-        <v>24320</v>
+        <v>24386</v>
       </c>
       <c r="F287">
-        <v>23598</v>
+        <v>24003</v>
       </c>
       <c r="G287">
-        <v>25049</v>
+        <v>24731</v>
       </c>
       <c r="H287">
         <v>1.04</v>
       </c>
       <c r="I287">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J287">
         <v>1.05</v>
       </c>
       <c r="K287">
+        <v>1.07</v>
+      </c>
+      <c r="L287">
         <v>1.06</v>
-      </c>
-      <c r="L287">
-        <v>1.05</v>
       </c>
       <c r="M287">
         <v>1.07</v>
@@ -12275,22 +12273,22 @@
         <v>44178</v>
       </c>
       <c r="B288">
-        <v>22439</v>
+        <v>22477</v>
       </c>
       <c r="C288">
-        <v>21608</v>
+        <v>21980</v>
       </c>
       <c r="D288">
-        <v>23064</v>
+        <v>23072</v>
       </c>
       <c r="E288">
-        <v>23679</v>
+        <v>23696</v>
       </c>
       <c r="F288">
-        <v>22904</v>
+        <v>23242</v>
       </c>
       <c r="G288">
-        <v>24419</v>
+        <v>24133</v>
       </c>
       <c r="H288">
         <v>0.96</v>
@@ -12299,13 +12297,13 @@
         <v>0.95</v>
       </c>
       <c r="J288">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="K288">
         <v>1.05</v>
       </c>
       <c r="L288">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="M288">
         <v>1.06</v>
@@ -12316,28 +12314,28 @@
         <v>44179</v>
       </c>
       <c r="B289">
-        <v>28027</v>
+        <v>28137</v>
       </c>
       <c r="C289">
-        <v>27238</v>
+        <v>27380</v>
       </c>
       <c r="D289">
-        <v>28967</v>
+        <v>28930</v>
       </c>
       <c r="E289">
-        <v>24542</v>
+        <v>24576</v>
       </c>
       <c r="F289">
-        <v>23747</v>
+        <v>23994</v>
       </c>
       <c r="G289">
-        <v>25340</v>
+        <v>25166</v>
       </c>
       <c r="H289">
         <v>0.96</v>
       </c>
       <c r="I289">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="J289">
         <v>0.98</v>
@@ -12346,7 +12344,7 @@
         <v>1.04</v>
       </c>
       <c r="L289">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="M289">
         <v>1.05</v>
@@ -12357,37 +12355,37 @@
         <v>44180</v>
       </c>
       <c r="B290">
-        <v>26700</v>
+        <v>26653</v>
       </c>
       <c r="C290">
-        <v>25446</v>
+        <v>26032</v>
       </c>
       <c r="D290">
-        <v>27793</v>
+        <v>27316</v>
       </c>
       <c r="E290">
-        <v>25062</v>
+        <v>25096</v>
       </c>
       <c r="F290">
-        <v>24177</v>
+        <v>24492</v>
       </c>
       <c r="G290">
-        <v>25914</v>
+        <v>25744</v>
       </c>
       <c r="H290">
         <v>1</v>
       </c>
       <c r="I290">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="J290">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K290">
         <v>1.03</v>
       </c>
       <c r="L290">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="M290">
         <v>1.04</v>
@@ -12398,40 +12396,40 @@
         <v>44181</v>
       </c>
       <c r="B291">
-        <v>25467</v>
+        <v>25709</v>
       </c>
       <c r="C291">
-        <v>24372</v>
+        <v>24982</v>
       </c>
       <c r="D291">
-        <v>26526</v>
+        <v>26391</v>
       </c>
       <c r="E291">
-        <v>25658</v>
+        <v>25744</v>
       </c>
       <c r="F291">
-        <v>24666</v>
+        <v>25093</v>
       </c>
       <c r="G291">
-        <v>26587</v>
+        <v>26427</v>
       </c>
       <c r="H291">
         <v>1.06</v>
       </c>
       <c r="I291">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J291">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K291">
         <v>1.01</v>
       </c>
       <c r="L291">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="M291">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -12439,40 +12437,40 @@
         <v>44182</v>
       </c>
       <c r="B292">
-        <v>23438</v>
+        <v>23966</v>
       </c>
       <c r="C292">
-        <v>22259</v>
+        <v>23312</v>
       </c>
       <c r="D292">
-        <v>24410</v>
+        <v>24636</v>
       </c>
       <c r="E292">
-        <v>25908</v>
+        <v>26116</v>
       </c>
       <c r="F292">
-        <v>24829</v>
+        <v>25427</v>
       </c>
       <c r="G292">
-        <v>26924</v>
+        <v>26818</v>
       </c>
       <c r="H292">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I292">
         <v>1.0900000000000001</v>
-      </c>
-      <c r="I292">
-        <v>1.07</v>
       </c>
       <c r="J292">
         <v>1.1200000000000001</v>
       </c>
       <c r="K292">
+        <v>1</v>
+      </c>
+      <c r="L292">
         <v>0.99</v>
       </c>
-      <c r="L292">
-        <v>0.98</v>
-      </c>
       <c r="M292">
-        <v>1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -12480,37 +12478,37 @@
         <v>44183</v>
       </c>
       <c r="B293">
-        <v>22716</v>
+        <v>23256</v>
       </c>
       <c r="C293">
-        <v>21366</v>
+        <v>22469</v>
       </c>
       <c r="D293">
-        <v>23716</v>
+        <v>24022</v>
       </c>
       <c r="E293">
-        <v>24580</v>
+        <v>24896</v>
       </c>
       <c r="F293">
-        <v>23361</v>
+        <v>24199</v>
       </c>
       <c r="G293">
-        <v>25611</v>
+        <v>25591</v>
       </c>
       <c r="H293">
+        <v>1.01</v>
+      </c>
+      <c r="I293">
         <v>1</v>
-      </c>
-      <c r="I293">
-        <v>0.98</v>
       </c>
       <c r="J293">
         <v>1.03</v>
       </c>
       <c r="K293">
+        <v>0.98</v>
+      </c>
+      <c r="L293">
         <v>0.97</v>
-      </c>
-      <c r="L293">
-        <v>0.95</v>
       </c>
       <c r="M293">
         <v>0.99</v>
@@ -12521,37 +12519,37 @@
         <v>44184</v>
       </c>
       <c r="B294">
-        <v>20909</v>
+        <v>20777</v>
       </c>
       <c r="C294">
-        <v>19814</v>
+        <v>20053</v>
       </c>
       <c r="D294">
-        <v>21957</v>
+        <v>21577</v>
       </c>
       <c r="E294">
-        <v>23133</v>
+        <v>23427</v>
       </c>
       <c r="F294">
-        <v>21953</v>
+        <v>22704</v>
       </c>
       <c r="G294">
-        <v>24152</v>
+        <v>24157</v>
       </c>
       <c r="H294">
+        <v>0.93</v>
+      </c>
+      <c r="I294">
         <v>0.92</v>
       </c>
-      <c r="I294">
-        <v>0.89</v>
-      </c>
       <c r="J294">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="K294">
         <v>0.96</v>
       </c>
       <c r="L294">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="M294">
         <v>0.97</v>
@@ -12562,37 +12560,37 @@
         <v>44185</v>
       </c>
       <c r="B295">
-        <v>20009</v>
+        <v>20314</v>
       </c>
       <c r="C295">
-        <v>18835</v>
+        <v>19514</v>
       </c>
       <c r="D295">
-        <v>21364</v>
+        <v>21047</v>
       </c>
       <c r="E295">
-        <v>21768</v>
+        <v>22078</v>
       </c>
       <c r="F295">
-        <v>20569</v>
+        <v>21337</v>
       </c>
       <c r="G295">
-        <v>22862</v>
+        <v>22820</v>
       </c>
       <c r="H295">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="I295">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="J295">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="K295">
+        <v>0.94</v>
+      </c>
+      <c r="L295">
         <v>0.93</v>
-      </c>
-      <c r="L295">
-        <v>0.92</v>
       </c>
       <c r="M295">
         <v>0.95</v>
@@ -12603,37 +12601,37 @@
         <v>44186</v>
       </c>
       <c r="B296">
-        <v>22621</v>
+        <v>23180</v>
       </c>
       <c r="C296">
-        <v>21157</v>
+        <v>22133</v>
       </c>
       <c r="D296">
-        <v>24076</v>
+        <v>23991</v>
       </c>
       <c r="E296">
-        <v>21564</v>
+        <v>21882</v>
       </c>
       <c r="F296">
-        <v>20293</v>
+        <v>21042</v>
       </c>
       <c r="G296">
-        <v>22778</v>
+        <v>22659</v>
       </c>
       <c r="H296">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="I296">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="J296">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="K296">
+        <v>0.91</v>
+      </c>
+      <c r="L296">
         <v>0.9</v>
-      </c>
-      <c r="L296">
-        <v>0.88</v>
       </c>
       <c r="M296">
         <v>0.92</v>
@@ -12644,37 +12642,37 @@
         <v>44187</v>
       </c>
       <c r="B297">
-        <v>20179</v>
+        <v>20813</v>
       </c>
       <c r="C297">
-        <v>18371</v>
+        <v>19861</v>
       </c>
       <c r="D297">
-        <v>21737</v>
+        <v>21858</v>
       </c>
       <c r="E297">
-        <v>20929</v>
+        <v>21271</v>
       </c>
       <c r="F297">
-        <v>19544</v>
+        <v>20390</v>
       </c>
       <c r="G297">
-        <v>22283</v>
+        <v>22118</v>
       </c>
       <c r="H297">
         <v>0.85</v>
       </c>
       <c r="I297">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="J297">
+        <v>0.87</v>
+      </c>
+      <c r="K297">
         <v>0.88</v>
       </c>
-      <c r="K297">
+      <c r="L297">
         <v>0.87</v>
-      </c>
-      <c r="L297">
-        <v>0.85</v>
       </c>
       <c r="M297">
         <v>0.89</v>
@@ -12685,40 +12683,40 @@
         <v>44188</v>
       </c>
       <c r="B298">
-        <v>17542</v>
+        <v>18541</v>
       </c>
       <c r="C298">
-        <v>15986</v>
+        <v>17758</v>
       </c>
       <c r="D298">
-        <v>19496</v>
+        <v>19362</v>
       </c>
       <c r="E298">
-        <v>20088</v>
+        <v>20712</v>
       </c>
       <c r="F298">
-        <v>18587</v>
+        <v>19817</v>
       </c>
       <c r="G298">
-        <v>21668</v>
+        <v>21565</v>
       </c>
       <c r="H298">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="I298">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="J298">
         <v>0.91</v>
       </c>
       <c r="K298">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="L298">
-        <v>0.81</v>
+        <v>0.84</v>
       </c>
       <c r="M298">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -12726,40 +12724,40 @@
         <v>44189</v>
       </c>
       <c r="B299">
-        <v>15287</v>
+        <v>16453</v>
       </c>
       <c r="C299">
-        <v>13540</v>
+        <v>15704</v>
       </c>
       <c r="D299">
-        <v>16913</v>
+        <v>17375</v>
       </c>
       <c r="E299">
-        <v>18907</v>
+        <v>19747</v>
       </c>
       <c r="F299">
-        <v>17263</v>
+        <v>18864</v>
       </c>
       <c r="G299">
-        <v>20555</v>
+        <v>20647</v>
       </c>
       <c r="H299">
+        <v>0.89</v>
+      </c>
+      <c r="I299">
         <v>0.87</v>
-      </c>
-      <c r="I299">
-        <v>0.81</v>
       </c>
       <c r="J299">
         <v>0.92</v>
       </c>
       <c r="K299">
+        <v>0.82</v>
+      </c>
+      <c r="L299">
         <v>0.81</v>
       </c>
-      <c r="L299">
-        <v>0.78</v>
-      </c>
       <c r="M299">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="300" spans="1:13">
@@ -12767,347 +12765,527 @@
         <v>44190</v>
       </c>
       <c r="B300">
-        <v>13840</v>
+        <v>14991</v>
       </c>
       <c r="C300">
-        <v>11803</v>
+        <v>14031</v>
       </c>
       <c r="D300">
-        <v>15822</v>
+        <v>15807</v>
       </c>
       <c r="E300">
-        <v>16712</v>
+        <v>17700</v>
       </c>
       <c r="F300">
-        <v>14925</v>
+        <v>16838</v>
       </c>
       <c r="G300">
-        <v>18492</v>
+        <v>18601</v>
       </c>
       <c r="H300">
-        <v>0.78</v>
+        <v>0.81</v>
       </c>
       <c r="I300">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="J300">
         <v>0.83</v>
       </c>
       <c r="K300">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="L300">
-        <v>0.77</v>
+        <v>0.81</v>
       </c>
       <c r="M300">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="301" spans="1:13">
-      <c r="A301" s="4">
+      <c r="A301" s="1">
         <v>44191</v>
       </c>
       <c r="B301">
-        <v>15037</v>
+        <v>16339</v>
       </c>
       <c r="C301">
-        <v>12614</v>
+        <v>15245</v>
       </c>
       <c r="D301">
-        <v>17881</v>
+        <v>17480</v>
       </c>
       <c r="E301">
-        <v>15427</v>
+        <v>16581</v>
       </c>
       <c r="F301">
-        <v>13486</v>
+        <v>15684</v>
       </c>
       <c r="G301">
-        <v>17528</v>
+        <v>17506</v>
       </c>
       <c r="H301">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="I301">
-        <v>0.69</v>
+        <v>0.76</v>
       </c>
       <c r="J301">
-        <v>0.79</v>
+        <v>0.81</v>
       </c>
       <c r="K301">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="L301">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="M301">
         <v>0.87</v>
       </c>
     </row>
     <row r="302" spans="1:13">
-      <c r="A302" s="4">
+      <c r="A302" s="1">
         <v>44192</v>
       </c>
       <c r="B302">
-        <v>17324</v>
+        <v>18371</v>
       </c>
       <c r="C302">
-        <v>12856</v>
+        <v>16837</v>
       </c>
       <c r="D302">
-        <v>21003</v>
+        <v>19761</v>
       </c>
       <c r="E302">
-        <v>15372</v>
+        <v>16538</v>
       </c>
       <c r="F302">
-        <v>12703</v>
+        <v>15454</v>
       </c>
       <c r="G302">
-        <v>17905</v>
+        <v>17606</v>
       </c>
       <c r="H302">
+        <v>0.8</v>
+      </c>
+      <c r="I302">
         <v>0.77</v>
-      </c>
-      <c r="I302">
-        <v>0.68</v>
       </c>
       <c r="J302">
         <v>0.83</v>
       </c>
       <c r="K302">
+        <v>0.89</v>
+      </c>
+      <c r="L302">
         <v>0.87</v>
       </c>
-      <c r="L302">
-        <v>0.81</v>
-      </c>
       <c r="M302">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="303" spans="1:13">
-      <c r="A303" s="4">
+      <c r="A303" s="1">
         <v>44193</v>
       </c>
       <c r="B303">
-        <v>21419</v>
+        <v>22616</v>
       </c>
       <c r="C303">
-        <v>15246</v>
+        <v>20495</v>
       </c>
       <c r="D303">
-        <v>27147</v>
+        <v>24502</v>
       </c>
       <c r="E303">
-        <v>16905</v>
+        <v>18079</v>
       </c>
       <c r="F303">
-        <v>13130</v>
+        <v>16652</v>
       </c>
       <c r="G303">
-        <v>20463</v>
+        <v>19387</v>
       </c>
       <c r="H303">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="I303">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="J303">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="K303">
-        <v>0.9</v>
+        <v>0.94</v>
       </c>
       <c r="L303">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="M303">
         <v>0.97</v>
       </c>
     </row>
     <row r="304" spans="1:13">
-      <c r="A304" s="4">
+      <c r="A304" s="1">
         <v>44194</v>
       </c>
       <c r="B304">
-        <v>17483</v>
+        <v>19196</v>
       </c>
       <c r="C304">
-        <v>11104</v>
+        <v>17252</v>
       </c>
       <c r="D304">
-        <v>23567</v>
+        <v>21046</v>
       </c>
       <c r="E304">
-        <v>17816</v>
+        <v>19130</v>
       </c>
       <c r="F304">
-        <v>12955</v>
+        <v>17457</v>
       </c>
       <c r="G304">
-        <v>22399</v>
+        <v>20697</v>
       </c>
       <c r="H304">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="I304">
+        <v>1.02</v>
+      </c>
+      <c r="J304">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="K304">
+        <v>0.95</v>
+      </c>
+      <c r="L304">
+        <v>0.92</v>
+      </c>
+      <c r="M304">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13">
+      <c r="A305" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B305">
+        <v>16467</v>
+      </c>
+      <c r="C305">
+        <v>14871</v>
+      </c>
+      <c r="D305">
+        <v>18483</v>
+      </c>
+      <c r="E305">
+        <v>19162</v>
+      </c>
+      <c r="F305">
+        <v>17364</v>
+      </c>
+      <c r="G305">
+        <v>20948</v>
+      </c>
+      <c r="H305">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="I305">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J305">
+        <v>1.21</v>
+      </c>
+      <c r="K305">
+        <v>0.96</v>
+      </c>
+      <c r="L305">
+        <v>0.92</v>
+      </c>
+      <c r="M305">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13">
+      <c r="A306" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B306">
+        <v>15278</v>
+      </c>
+      <c r="C306">
+        <v>13389</v>
+      </c>
+      <c r="D306">
+        <v>17437</v>
+      </c>
+      <c r="E306">
+        <v>18389</v>
+      </c>
+      <c r="F306">
+        <v>16502</v>
+      </c>
+      <c r="G306">
+        <v>20367</v>
+      </c>
+      <c r="H306">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I306">
+        <v>1.05</v>
+      </c>
+      <c r="J306">
+        <v>1.18</v>
+      </c>
+      <c r="K306">
+        <v>0.97</v>
+      </c>
+      <c r="L306">
         <v>0.93</v>
       </c>
-      <c r="J304">
-        <v>1.21</v>
-      </c>
-      <c r="K304">
-        <v>0.91</v>
-      </c>
-      <c r="L304">
-        <v>0.82</v>
-      </c>
-      <c r="M304">
+      <c r="M306">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13">
+      <c r="A307" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B307">
+        <v>15757</v>
+      </c>
+      <c r="C307">
+        <v>13457</v>
+      </c>
+      <c r="D307">
+        <v>17957</v>
+      </c>
+      <c r="E307">
+        <v>16674</v>
+      </c>
+      <c r="F307">
+        <v>14742</v>
+      </c>
+      <c r="G307">
+        <v>18731</v>
+      </c>
+      <c r="H307">
+        <v>0.92</v>
+      </c>
+      <c r="I307">
+        <v>0.86</v>
+      </c>
+      <c r="J307">
+        <v>1</v>
+      </c>
+      <c r="K307">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="305" spans="1:10">
-      <c r="A305" s="4">
-        <v>44195</v>
-      </c>
-      <c r="B305">
-        <v>12399</v>
-      </c>
-      <c r="C305">
-        <v>7142</v>
-      </c>
-      <c r="D305">
-        <v>16576</v>
-      </c>
-      <c r="E305">
-        <v>17156</v>
-      </c>
-      <c r="F305">
-        <v>11587</v>
-      </c>
-      <c r="G305">
-        <v>22073</v>
-      </c>
-      <c r="H305">
+      <c r="L307">
+        <v>0.95</v>
+      </c>
+      <c r="M307">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13">
+      <c r="A308" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B308">
+        <v>18024</v>
+      </c>
+      <c r="C308">
+        <v>14505</v>
+      </c>
+      <c r="D308">
+        <v>21187</v>
+      </c>
+      <c r="E308">
+        <v>16381</v>
+      </c>
+      <c r="F308">
+        <v>14055</v>
+      </c>
+      <c r="G308">
+        <v>18766</v>
+      </c>
+      <c r="H308">
+        <v>0.86</v>
+      </c>
+      <c r="I308">
+        <v>0.78</v>
+      </c>
+      <c r="J308">
+        <v>0.92</v>
+      </c>
+      <c r="K308">
+        <v>1.03</v>
+      </c>
+      <c r="L308">
+        <v>0.98</v>
+      </c>
+      <c r="M308">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13">
+      <c r="A309" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B309">
+        <v>21152</v>
+      </c>
+      <c r="C309">
+        <v>15717</v>
+      </c>
+      <c r="D309">
+        <v>25852</v>
+      </c>
+      <c r="E309">
+        <v>17553</v>
+      </c>
+      <c r="F309">
+        <v>14267</v>
+      </c>
+      <c r="G309">
+        <v>20608</v>
+      </c>
+      <c r="H309">
+        <v>0.92</v>
+      </c>
+      <c r="I309">
+        <v>0.81</v>
+      </c>
+      <c r="J309">
+        <v>1.03</v>
+      </c>
+      <c r="K309">
+        <v>1.08</v>
+      </c>
+      <c r="L309">
+        <v>0.99</v>
+      </c>
+      <c r="M309">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13">
+      <c r="A310" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B310">
+        <v>26698</v>
+      </c>
+      <c r="C310">
+        <v>16820</v>
+      </c>
+      <c r="D310">
+        <v>33740</v>
+      </c>
+      <c r="E310">
+        <v>20408</v>
+      </c>
+      <c r="F310">
+        <v>15125</v>
+      </c>
+      <c r="G310">
+        <v>24684</v>
+      </c>
+      <c r="H310">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I305">
-        <v>0.93</v>
-      </c>
-      <c r="J305">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10">
-      <c r="A306" s="4"/>
-    </row>
-    <row r="307" spans="1:10">
-      <c r="A307" s="4"/>
-    </row>
-    <row r="308" spans="1:10">
-      <c r="A308" s="4"/>
-    </row>
-    <row r="309" spans="1:10">
-      <c r="A309" s="4"/>
-    </row>
-    <row r="310" spans="1:10">
-      <c r="A310" s="4"/>
-    </row>
-    <row r="311" spans="1:10">
-      <c r="A311" s="4"/>
-    </row>
-    <row r="312" spans="1:10">
-      <c r="A312" s="4"/>
-    </row>
-    <row r="313" spans="1:10">
-      <c r="A313" s="4"/>
-    </row>
-    <row r="314" spans="1:10">
-      <c r="A314" s="4"/>
-    </row>
-    <row r="315" spans="1:10">
-      <c r="A315" s="4"/>
-    </row>
-    <row r="316" spans="1:10">
-      <c r="A316" s="4"/>
-    </row>
-    <row r="317" spans="1:10">
-      <c r="A317" s="4"/>
-    </row>
-    <row r="318" spans="1:10">
-      <c r="A318" s="4"/>
-    </row>
-    <row r="319" spans="1:10">
-      <c r="A319" s="4"/>
-    </row>
-    <row r="320" spans="1:10">
-      <c r="A320" s="4"/>
-    </row>
-    <row r="321" spans="1:1">
-      <c r="A321" s="4"/>
-    </row>
-    <row r="322" spans="1:1">
-      <c r="A322" s="4"/>
-    </row>
-    <row r="323" spans="1:1">
-      <c r="A323" s="4"/>
-    </row>
-    <row r="324" spans="1:1">
-      <c r="A324" s="4"/>
-    </row>
-    <row r="325" spans="1:1">
-      <c r="A325" s="4"/>
-    </row>
-    <row r="326" spans="1:1">
-      <c r="A326" s="4"/>
-    </row>
-    <row r="327" spans="1:1">
-      <c r="A327" s="4"/>
-    </row>
-    <row r="328" spans="1:1">
-      <c r="A328" s="4"/>
-    </row>
-    <row r="329" spans="1:1">
-      <c r="A329" s="4"/>
-    </row>
-    <row r="330" spans="1:1">
-      <c r="A330" s="4"/>
-    </row>
-    <row r="331" spans="1:1">
-      <c r="A331" s="4"/>
-    </row>
-    <row r="332" spans="1:1">
-      <c r="A332" s="4"/>
-    </row>
-    <row r="333" spans="1:1">
-      <c r="A333" s="4"/>
-    </row>
-    <row r="334" spans="1:1">
-      <c r="A334" s="4"/>
-    </row>
-    <row r="335" spans="1:1">
-      <c r="A335" s="4"/>
-    </row>
-    <row r="336" spans="1:1">
-      <c r="A336" s="4"/>
-    </row>
-    <row r="337" spans="1:1">
-      <c r="A337" s="4"/>
-    </row>
-    <row r="338" spans="1:1">
-      <c r="A338" s="4"/>
-    </row>
-    <row r="339" spans="1:1">
-      <c r="A339" s="4"/>
-    </row>
-    <row r="340" spans="1:1">
-      <c r="A340" s="4"/>
-    </row>
-    <row r="341" spans="1:1">
-      <c r="A341" s="4"/>
+      <c r="I310">
+        <v>0.96</v>
+      </c>
+      <c r="J310">
+        <v>1.27</v>
+      </c>
+      <c r="K310">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L310">
+        <v>1.01</v>
+      </c>
+      <c r="M310">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13">
+      <c r="A311" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B311">
+        <v>25964</v>
+      </c>
+      <c r="C311">
+        <v>18211</v>
+      </c>
+      <c r="D311">
+        <v>35918</v>
+      </c>
+      <c r="E311">
+        <v>22960</v>
+      </c>
+      <c r="F311">
+        <v>16313</v>
+      </c>
+      <c r="G311">
+        <v>29174</v>
+      </c>
+      <c r="H311">
+        <v>1.38</v>
+      </c>
+      <c r="I311">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J311">
+        <v>1.59</v>
+      </c>
+      <c r="K311">
+        <v>1.18</v>
+      </c>
+      <c r="L311">
+        <v>1.05</v>
+      </c>
+      <c r="M311">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13">
+      <c r="A312" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B312">
+        <v>25350</v>
+      </c>
+      <c r="C312">
+        <v>15008</v>
+      </c>
+      <c r="D312">
+        <v>34768</v>
+      </c>
+      <c r="E312">
+        <v>24791</v>
+      </c>
+      <c r="F312">
+        <v>16439</v>
+      </c>
+      <c r="G312">
+        <v>32570</v>
+      </c>
+      <c r="H312">
+        <v>1.52</v>
+      </c>
+      <c r="I312">
+        <v>1.27</v>
+      </c>
+      <c r="J312">
+        <v>1.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rki-data/RKI-Nowcasting_Zahlen.xlsx
+++ b/rki-data/RKI-Nowcasting_Zahlen.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-01-20\Nowcast\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD815F78-6D21-42B5-8AE6-F30F770C16BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7124447C-A9CD-416E-8E48-78AD46BC7109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
@@ -32,7 +27,7 @@
     <t>Ergebnisse des Nowcastings und der Schätzung der Reproduktionszahl R</t>
   </si>
   <si>
-    <t>Datenstand: 20.01.2021, 00:00 Uhr</t>
+    <t>Datenstand: 2021-01-27, 00:00 Uhr</t>
   </si>
   <si>
     <t>Die Ergebnisse des Nowcastings, also die Schätzung der Anzahl von COVID-19 Neuerkrankungen wird dargestellt mit einem gleitenden 4-Tages-Mittelwert.</t>
@@ -41,7 +36,7 @@
     <t>Dabei wird jeder Wert mit den Werten der 3 vorhergehenden Tage gemittelt.</t>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 20.01.2021 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-01-27 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -137,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -146,6 +141,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -462,9 +458,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -558,23 +554,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M322"/>
+  <dimension ref="A1:M329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="A329" sqref="A329"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="13" width="19.77734375" customWidth="1"/>
+    <col min="1" max="13" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78.599999999999994" customHeight="1">
+    <row r="1" spans="1:13" ht="90">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -11170,10 +11167,10 @@
         <v>20446</v>
       </c>
       <c r="C261">
-        <v>20236</v>
+        <v>20237</v>
       </c>
       <c r="D261">
-        <v>20637</v>
+        <v>20634</v>
       </c>
       <c r="E261">
         <v>17897</v>
@@ -11182,7 +11179,7 @@
         <v>17718</v>
       </c>
       <c r="G261">
-        <v>18089</v>
+        <v>18088</v>
       </c>
       <c r="H261">
         <v>0.98</v>
@@ -11211,19 +11208,19 @@
         <v>19429</v>
       </c>
       <c r="C262">
-        <v>19239</v>
+        <v>19241</v>
       </c>
       <c r="D262">
-        <v>19603</v>
+        <v>19608</v>
       </c>
       <c r="E262">
         <v>18168</v>
       </c>
       <c r="F262">
-        <v>17982</v>
+        <v>17983</v>
       </c>
       <c r="G262">
-        <v>18352</v>
+        <v>18353</v>
       </c>
       <c r="H262">
         <v>1</v>
@@ -11255,13 +11252,13 @@
         <v>18412</v>
       </c>
       <c r="D263">
-        <v>18761</v>
+        <v>18759</v>
       </c>
       <c r="E263">
         <v>18737</v>
       </c>
       <c r="F263">
-        <v>18547</v>
+        <v>18548</v>
       </c>
       <c r="G263">
         <v>18918</v>
@@ -11273,7 +11270,7 @@
         <v>1.06</v>
       </c>
       <c r="J263">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K263">
         <v>1.02</v>
@@ -11293,16 +11290,16 @@
         <v>17260</v>
       </c>
       <c r="C264">
-        <v>17084</v>
+        <v>17085</v>
       </c>
       <c r="D264">
-        <v>17502</v>
+        <v>17500</v>
       </c>
       <c r="E264">
         <v>18932</v>
       </c>
       <c r="F264">
-        <v>18743</v>
+        <v>18744</v>
       </c>
       <c r="G264">
         <v>19125</v>
@@ -11337,13 +11334,13 @@
         <v>16576</v>
       </c>
       <c r="D265">
-        <v>16975</v>
+        <v>16973</v>
       </c>
       <c r="E265">
         <v>18016</v>
       </c>
       <c r="F265">
-        <v>17827</v>
+        <v>17828</v>
       </c>
       <c r="G265">
         <v>18210</v>
@@ -11375,19 +11372,19 @@
         <v>14448</v>
       </c>
       <c r="C266">
-        <v>14286</v>
+        <v>14288</v>
       </c>
       <c r="D266">
-        <v>14597</v>
+        <v>14596</v>
       </c>
       <c r="E266">
         <v>16771</v>
       </c>
       <c r="F266">
-        <v>16589</v>
+        <v>16590</v>
       </c>
       <c r="G266">
-        <v>16959</v>
+        <v>16957</v>
       </c>
       <c r="H266">
         <v>0.92</v>
@@ -11416,19 +11413,19 @@
         <v>14505</v>
       </c>
       <c r="C267">
-        <v>14319</v>
+        <v>14318</v>
       </c>
       <c r="D267">
-        <v>14691</v>
+        <v>14694</v>
       </c>
       <c r="E267">
-        <v>15750</v>
+        <v>15749</v>
       </c>
       <c r="F267">
-        <v>15566</v>
+        <v>15567</v>
       </c>
       <c r="G267">
-        <v>15941</v>
+        <v>15940</v>
       </c>
       <c r="H267">
         <v>0.84</v>
@@ -11460,7 +11457,7 @@
         <v>18287</v>
       </c>
       <c r="D268">
-        <v>18646</v>
+        <v>18642</v>
       </c>
       <c r="E268">
         <v>16052</v>
@@ -11469,7 +11466,7 @@
         <v>15867</v>
       </c>
       <c r="G268">
-        <v>16227</v>
+        <v>16226</v>
       </c>
       <c r="H268">
         <v>0.85</v>
@@ -11495,22 +11492,22 @@
         <v>44159</v>
       </c>
       <c r="B269">
-        <v>17426</v>
+        <v>17425</v>
       </c>
       <c r="C269">
-        <v>17257</v>
+        <v>17251</v>
       </c>
       <c r="D269">
-        <v>17594</v>
+        <v>17600</v>
       </c>
       <c r="E269">
-        <v>16213</v>
+        <v>16212</v>
       </c>
       <c r="F269">
-        <v>16037</v>
+        <v>16036</v>
       </c>
       <c r="G269">
-        <v>16382</v>
+        <v>16383</v>
       </c>
       <c r="H269">
         <v>0.9</v>
@@ -11536,19 +11533,19 @@
         <v>44160</v>
       </c>
       <c r="B270">
-        <v>16898</v>
+        <v>16896</v>
       </c>
       <c r="C270">
-        <v>16668</v>
+        <v>16666</v>
       </c>
       <c r="D270">
-        <v>17080</v>
+        <v>17076</v>
       </c>
       <c r="E270">
-        <v>16825</v>
+        <v>16824</v>
       </c>
       <c r="F270">
-        <v>16632</v>
+        <v>16630</v>
       </c>
       <c r="G270">
         <v>17003</v>
@@ -11577,22 +11574,22 @@
         <v>44161</v>
       </c>
       <c r="B271">
-        <v>16012</v>
+        <v>16013</v>
       </c>
       <c r="C271">
-        <v>15833</v>
+        <v>15836</v>
       </c>
       <c r="D271">
         <v>16183</v>
       </c>
       <c r="E271">
-        <v>17202</v>
+        <v>17201</v>
       </c>
       <c r="F271">
-        <v>17011</v>
+        <v>17010</v>
       </c>
       <c r="G271">
-        <v>17376</v>
+        <v>17375</v>
       </c>
       <c r="H271">
         <v>1.0900000000000001</v>
@@ -11618,22 +11615,22 @@
         <v>44162</v>
       </c>
       <c r="B272">
-        <v>16417</v>
+        <v>16413</v>
       </c>
       <c r="C272">
-        <v>16247</v>
+        <v>16243</v>
       </c>
       <c r="D272">
-        <v>16599</v>
+        <v>16585</v>
       </c>
       <c r="E272">
-        <v>16688</v>
+        <v>16687</v>
       </c>
       <c r="F272">
-        <v>16501</v>
+        <v>16499</v>
       </c>
       <c r="G272">
-        <v>16864</v>
+        <v>16861</v>
       </c>
       <c r="H272">
         <v>1.04</v>
@@ -11659,22 +11656,22 @@
         <v>44163</v>
       </c>
       <c r="B273">
-        <v>15494</v>
+        <v>15493</v>
       </c>
       <c r="C273">
-        <v>15312</v>
+        <v>15321</v>
       </c>
       <c r="D273">
-        <v>15681</v>
+        <v>15676</v>
       </c>
       <c r="E273">
-        <v>16205</v>
+        <v>16204</v>
       </c>
       <c r="F273">
-        <v>16015</v>
+        <v>16016</v>
       </c>
       <c r="G273">
-        <v>16386</v>
+        <v>16380</v>
       </c>
       <c r="H273">
         <v>1</v>
@@ -11700,22 +11697,22 @@
         <v>44164</v>
       </c>
       <c r="B274">
-        <v>15349</v>
+        <v>15344</v>
       </c>
       <c r="C274">
-        <v>15146</v>
+        <v>15161</v>
       </c>
       <c r="D274">
-        <v>15519</v>
+        <v>15493</v>
       </c>
       <c r="E274">
-        <v>15818</v>
+        <v>15816</v>
       </c>
       <c r="F274">
-        <v>15634</v>
+        <v>15640</v>
       </c>
       <c r="G274">
-        <v>15995</v>
+        <v>15984</v>
       </c>
       <c r="H274">
         <v>0.94</v>
@@ -11741,22 +11738,22 @@
         <v>44165</v>
       </c>
       <c r="B275">
-        <v>20718</v>
+        <v>20712</v>
       </c>
       <c r="C275">
-        <v>20486</v>
+        <v>20460</v>
       </c>
       <c r="D275">
-        <v>20895</v>
+        <v>20897</v>
       </c>
       <c r="E275">
-        <v>16994</v>
+        <v>16990</v>
       </c>
       <c r="F275">
-        <v>16798</v>
+        <v>16796</v>
       </c>
       <c r="G275">
-        <v>17173</v>
+        <v>17163</v>
       </c>
       <c r="H275">
         <v>0.99</v>
@@ -11782,22 +11779,22 @@
         <v>44166</v>
       </c>
       <c r="B276">
-        <v>20747</v>
+        <v>20738</v>
       </c>
       <c r="C276">
-        <v>20549</v>
+        <v>20523</v>
       </c>
       <c r="D276">
-        <v>20966</v>
+        <v>20950</v>
       </c>
       <c r="E276">
-        <v>18077</v>
+        <v>18072</v>
       </c>
       <c r="F276">
-        <v>17873</v>
+        <v>17866</v>
       </c>
       <c r="G276">
-        <v>18265</v>
+        <v>18254</v>
       </c>
       <c r="H276">
         <v>1.08</v>
@@ -11823,22 +11820,22 @@
         <v>44167</v>
       </c>
       <c r="B277">
-        <v>20610</v>
+        <v>20603</v>
       </c>
       <c r="C277">
-        <v>20409</v>
+        <v>20393</v>
       </c>
       <c r="D277">
-        <v>20828</v>
+        <v>20824</v>
       </c>
       <c r="E277">
-        <v>19356</v>
+        <v>19349</v>
       </c>
       <c r="F277">
-        <v>19148</v>
+        <v>19134</v>
       </c>
       <c r="G277">
-        <v>19552</v>
+        <v>19541</v>
       </c>
       <c r="H277">
         <v>1.19</v>
@@ -11864,22 +11861,22 @@
         <v>44168</v>
       </c>
       <c r="B278">
-        <v>20881</v>
+        <v>20872</v>
       </c>
       <c r="C278">
-        <v>20663</v>
+        <v>20664</v>
       </c>
       <c r="D278">
-        <v>21065</v>
+        <v>21058</v>
       </c>
       <c r="E278">
-        <v>20739</v>
+        <v>20731</v>
       </c>
       <c r="F278">
-        <v>20527</v>
+        <v>20510</v>
       </c>
       <c r="G278">
-        <v>20938</v>
+        <v>20932</v>
       </c>
       <c r="H278">
         <v>1.31</v>
@@ -11905,22 +11902,22 @@
         <v>44169</v>
       </c>
       <c r="B279">
-        <v>21560</v>
+        <v>21547</v>
       </c>
       <c r="C279">
-        <v>21342</v>
+        <v>21339</v>
       </c>
       <c r="D279">
-        <v>21782</v>
+        <v>21739</v>
       </c>
       <c r="E279">
-        <v>20950</v>
+        <v>20940</v>
       </c>
       <c r="F279">
-        <v>20741</v>
+        <v>20730</v>
       </c>
       <c r="G279">
-        <v>21160</v>
+        <v>21143</v>
       </c>
       <c r="H279">
         <v>1.23</v>
@@ -11946,25 +11943,25 @@
         <v>44170</v>
       </c>
       <c r="B280">
-        <v>20464</v>
+        <v>20439</v>
       </c>
       <c r="C280">
-        <v>20275</v>
+        <v>20255</v>
       </c>
       <c r="D280">
-        <v>20698</v>
+        <v>20664</v>
       </c>
       <c r="E280">
-        <v>20879</v>
+        <v>20865</v>
       </c>
       <c r="F280">
-        <v>20672</v>
+        <v>20663</v>
       </c>
       <c r="G280">
-        <v>21093</v>
+        <v>21071</v>
       </c>
       <c r="H280">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I280">
         <v>1.1499999999999999</v>
@@ -11987,22 +11984,22 @@
         <v>44171</v>
       </c>
       <c r="B281">
-        <v>20814</v>
+        <v>20804</v>
       </c>
       <c r="C281">
-        <v>20633</v>
+        <v>20624</v>
       </c>
       <c r="D281">
-        <v>21002</v>
+        <v>20990</v>
       </c>
       <c r="E281">
-        <v>20930</v>
+        <v>20915</v>
       </c>
       <c r="F281">
-        <v>20728</v>
+        <v>20720</v>
       </c>
       <c r="G281">
-        <v>21137</v>
+        <v>21113</v>
       </c>
       <c r="H281">
         <v>1.08</v>
@@ -12020,7 +12017,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="M281">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -12028,22 +12025,22 @@
         <v>44172</v>
       </c>
       <c r="B282">
-        <v>26097</v>
+        <v>26086</v>
       </c>
       <c r="C282">
-        <v>25841</v>
+        <v>25877</v>
       </c>
       <c r="D282">
-        <v>26331</v>
+        <v>26296</v>
       </c>
       <c r="E282">
-        <v>22234</v>
+        <v>22219</v>
       </c>
       <c r="F282">
-        <v>22023</v>
+        <v>22024</v>
       </c>
       <c r="G282">
-        <v>22453</v>
+        <v>22422</v>
       </c>
       <c r="H282">
         <v>1.07</v>
@@ -12069,22 +12066,22 @@
         <v>44173</v>
       </c>
       <c r="B283">
-        <v>25905</v>
+        <v>25870</v>
       </c>
       <c r="C283">
-        <v>25670</v>
+        <v>25637</v>
       </c>
       <c r="D283">
-        <v>26130</v>
+        <v>26085</v>
       </c>
       <c r="E283">
-        <v>23320</v>
+        <v>23300</v>
       </c>
       <c r="F283">
-        <v>23105</v>
+        <v>23098</v>
       </c>
       <c r="G283">
-        <v>23540</v>
+        <v>23509</v>
       </c>
       <c r="H283">
         <v>1.1100000000000001</v>
@@ -12110,22 +12107,22 @@
         <v>44174</v>
       </c>
       <c r="B284">
-        <v>25228</v>
+        <v>25184</v>
       </c>
       <c r="C284">
-        <v>25023</v>
+        <v>24989</v>
       </c>
       <c r="D284">
-        <v>25441</v>
+        <v>25394</v>
       </c>
       <c r="E284">
-        <v>24511</v>
+        <v>24486</v>
       </c>
       <c r="F284">
-        <v>24292</v>
+        <v>24282</v>
       </c>
       <c r="G284">
-        <v>24726</v>
+        <v>24691</v>
       </c>
       <c r="H284">
         <v>1.17</v>
@@ -12151,22 +12148,22 @@
         <v>44175</v>
       </c>
       <c r="B285">
-        <v>24707</v>
+        <v>24667</v>
       </c>
       <c r="C285">
-        <v>24524</v>
+        <v>24448</v>
       </c>
       <c r="D285">
-        <v>24933</v>
+        <v>24887</v>
       </c>
       <c r="E285">
-        <v>25484</v>
+        <v>25452</v>
       </c>
       <c r="F285">
-        <v>25264</v>
+        <v>25238</v>
       </c>
       <c r="G285">
-        <v>25708</v>
+        <v>25665</v>
       </c>
       <c r="H285">
         <v>1.22</v>
@@ -12192,22 +12189,22 @@
         <v>44176</v>
       </c>
       <c r="B286">
-        <v>24501</v>
+        <v>24487</v>
       </c>
       <c r="C286">
-        <v>24288</v>
+        <v>24275</v>
       </c>
       <c r="D286">
-        <v>24719</v>
+        <v>24686</v>
       </c>
       <c r="E286">
-        <v>25085</v>
+        <v>25052</v>
       </c>
       <c r="F286">
-        <v>24876</v>
+        <v>24837</v>
       </c>
       <c r="G286">
-        <v>25306</v>
+        <v>25263</v>
       </c>
       <c r="H286">
         <v>1.1299999999999999</v>
@@ -12216,13 +12213,13 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J286">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K286">
         <v>1.0900000000000001</v>
       </c>
       <c r="L286">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="M286">
         <v>1.0900000000000001</v>
@@ -12233,22 +12230,22 @@
         <v>44177</v>
       </c>
       <c r="B287">
-        <v>23027</v>
+        <v>23024</v>
       </c>
       <c r="C287">
-        <v>22839</v>
+        <v>22847</v>
       </c>
       <c r="D287">
-        <v>23229</v>
+        <v>23252</v>
       </c>
       <c r="E287">
-        <v>24365</v>
+        <v>24340</v>
       </c>
       <c r="F287">
-        <v>24168</v>
+        <v>24140</v>
       </c>
       <c r="G287">
-        <v>24580</v>
+        <v>24555</v>
       </c>
       <c r="H287">
         <v>1.04</v>
@@ -12274,22 +12271,22 @@
         <v>44178</v>
       </c>
       <c r="B288">
-        <v>22362</v>
+        <v>22284</v>
       </c>
       <c r="C288">
-        <v>22135</v>
+        <v>22022</v>
       </c>
       <c r="D288">
-        <v>22582</v>
+        <v>22501</v>
       </c>
       <c r="E288">
-        <v>23649</v>
+        <v>23615</v>
       </c>
       <c r="F288">
-        <v>23446</v>
+        <v>23398</v>
       </c>
       <c r="G288">
-        <v>23865</v>
+        <v>23831</v>
       </c>
       <c r="H288">
         <v>0.96</v>
@@ -12301,7 +12298,7 @@
         <v>0.97</v>
       </c>
       <c r="K288">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="L288">
         <v>1.05</v>
@@ -12315,22 +12312,22 @@
         <v>44179</v>
       </c>
       <c r="B289">
-        <v>28166</v>
+        <v>28056</v>
       </c>
       <c r="C289">
-        <v>27870</v>
+        <v>27781</v>
       </c>
       <c r="D289">
-        <v>28399</v>
+        <v>28274</v>
       </c>
       <c r="E289">
-        <v>24514</v>
+        <v>24463</v>
       </c>
       <c r="F289">
-        <v>24283</v>
+        <v>24231</v>
       </c>
       <c r="G289">
-        <v>24732</v>
+        <v>24678</v>
       </c>
       <c r="H289">
         <v>0.96</v>
@@ -12356,22 +12353,22 @@
         <v>44180</v>
       </c>
       <c r="B290">
-        <v>26694</v>
+        <v>26574</v>
       </c>
       <c r="C290">
-        <v>26453</v>
+        <v>26345</v>
       </c>
       <c r="D290">
-        <v>26933</v>
+        <v>26835</v>
       </c>
       <c r="E290">
-        <v>25062</v>
+        <v>24985</v>
       </c>
       <c r="F290">
-        <v>24824</v>
+        <v>24749</v>
       </c>
       <c r="G290">
-        <v>25285</v>
+        <v>25215</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -12397,22 +12394,22 @@
         <v>44181</v>
       </c>
       <c r="B291">
-        <v>25578</v>
+        <v>25498</v>
       </c>
       <c r="C291">
-        <v>25373</v>
+        <v>25244</v>
       </c>
       <c r="D291">
-        <v>25790</v>
+        <v>25711</v>
       </c>
       <c r="E291">
-        <v>25700</v>
+        <v>25603</v>
       </c>
       <c r="F291">
-        <v>25458</v>
+        <v>25348</v>
       </c>
       <c r="G291">
-        <v>25926</v>
+        <v>25830</v>
       </c>
       <c r="H291">
         <v>1.05</v>
@@ -12438,28 +12435,28 @@
         <v>44182</v>
       </c>
       <c r="B292">
-        <v>23874</v>
+        <v>23803</v>
       </c>
       <c r="C292">
-        <v>23632</v>
+        <v>23598</v>
       </c>
       <c r="D292">
-        <v>24107</v>
+        <v>23980</v>
       </c>
       <c r="E292">
-        <v>26078</v>
+        <v>25983</v>
       </c>
       <c r="F292">
-        <v>25832</v>
+        <v>25742</v>
       </c>
       <c r="G292">
-        <v>26307</v>
+        <v>26200</v>
       </c>
       <c r="H292">
         <v>1.1000000000000001</v>
       </c>
       <c r="I292">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J292">
         <v>1.1100000000000001</v>
@@ -12479,22 +12476,22 @@
         <v>44183</v>
       </c>
       <c r="B293">
-        <v>23228</v>
+        <v>23186</v>
       </c>
       <c r="C293">
-        <v>23022</v>
+        <v>22975</v>
       </c>
       <c r="D293">
-        <v>23470</v>
+        <v>23403</v>
       </c>
       <c r="E293">
-        <v>24843</v>
+        <v>24766</v>
       </c>
       <c r="F293">
-        <v>24620</v>
+        <v>24540</v>
       </c>
       <c r="G293">
-        <v>25075</v>
+        <v>24982</v>
       </c>
       <c r="H293">
         <v>1.01</v>
@@ -12520,22 +12517,22 @@
         <v>44184</v>
       </c>
       <c r="B294">
-        <v>20751</v>
+        <v>20684</v>
       </c>
       <c r="C294">
-        <v>20554</v>
+        <v>20494</v>
       </c>
       <c r="D294">
-        <v>20945</v>
+        <v>20889</v>
       </c>
       <c r="E294">
-        <v>23357</v>
+        <v>23293</v>
       </c>
       <c r="F294">
-        <v>23145</v>
+        <v>23078</v>
       </c>
       <c r="G294">
-        <v>23578</v>
+        <v>23495</v>
       </c>
       <c r="H294">
         <v>0.93</v>
@@ -12561,22 +12558,22 @@
         <v>44185</v>
       </c>
       <c r="B295">
-        <v>20075</v>
+        <v>20044</v>
       </c>
       <c r="C295">
-        <v>19857</v>
+        <v>19841</v>
       </c>
       <c r="D295">
-        <v>20314</v>
+        <v>20277</v>
       </c>
       <c r="E295">
-        <v>21982</v>
+        <v>21929</v>
       </c>
       <c r="F295">
-        <v>21766</v>
+        <v>21727</v>
       </c>
       <c r="G295">
-        <v>22209</v>
+        <v>22137</v>
       </c>
       <c r="H295">
         <v>0.86</v>
@@ -12602,22 +12599,22 @@
         <v>44186</v>
       </c>
       <c r="B296">
-        <v>23115</v>
+        <v>23136</v>
       </c>
       <c r="C296">
-        <v>22650</v>
+        <v>22928</v>
       </c>
       <c r="D296">
-        <v>23660</v>
+        <v>23344</v>
       </c>
       <c r="E296">
-        <v>21792</v>
+        <v>21763</v>
       </c>
       <c r="F296">
-        <v>21520</v>
+        <v>21559</v>
       </c>
       <c r="G296">
-        <v>22097</v>
+        <v>21978</v>
       </c>
       <c r="H296">
         <v>0.84</v>
@@ -12632,7 +12629,7 @@
         <v>0.91</v>
       </c>
       <c r="L296">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="M296">
         <v>0.91</v>
@@ -12643,28 +12640,28 @@
         <v>44187</v>
       </c>
       <c r="B297">
-        <v>20676</v>
+        <v>20601</v>
       </c>
       <c r="C297">
-        <v>20181</v>
+        <v>20344</v>
       </c>
       <c r="D297">
-        <v>21159</v>
+        <v>20789</v>
       </c>
       <c r="E297">
-        <v>21154</v>
+        <v>21116</v>
       </c>
       <c r="F297">
-        <v>20810</v>
+        <v>20901</v>
       </c>
       <c r="G297">
-        <v>21519</v>
+        <v>21325</v>
       </c>
       <c r="H297">
         <v>0.85</v>
       </c>
       <c r="I297">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J297">
         <v>0.86</v>
@@ -12676,7 +12673,7 @@
         <v>0.88</v>
       </c>
       <c r="M297">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -12684,28 +12681,28 @@
         <v>44188</v>
       </c>
       <c r="B298">
-        <v>18589</v>
+        <v>18569</v>
       </c>
       <c r="C298">
-        <v>18185</v>
+        <v>18404</v>
       </c>
       <c r="D298">
-        <v>19020</v>
+        <v>18732</v>
       </c>
       <c r="E298">
-        <v>20614</v>
+        <v>20587</v>
       </c>
       <c r="F298">
-        <v>20218</v>
+        <v>20379</v>
       </c>
       <c r="G298">
-        <v>21038</v>
+        <v>20785</v>
       </c>
       <c r="H298">
         <v>0.88</v>
       </c>
       <c r="I298">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J298">
         <v>0.89</v>
@@ -12714,10 +12711,10 @@
         <v>0.85</v>
       </c>
       <c r="L298">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="M298">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -12725,22 +12722,22 @@
         <v>44189</v>
       </c>
       <c r="B299">
-        <v>16558</v>
+        <v>16535</v>
       </c>
       <c r="C299">
-        <v>16068</v>
+        <v>16346</v>
       </c>
       <c r="D299">
-        <v>17030</v>
+        <v>16718</v>
       </c>
       <c r="E299">
-        <v>19734</v>
+        <v>19710</v>
       </c>
       <c r="F299">
-        <v>19271</v>
+        <v>19505</v>
       </c>
       <c r="G299">
-        <v>20217</v>
+        <v>19896</v>
       </c>
       <c r="H299">
         <v>0.9</v>
@@ -12749,10 +12746,10 @@
         <v>0.89</v>
       </c>
       <c r="J299">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="K299">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="L299">
         <v>0.82</v>
@@ -12766,28 +12763,28 @@
         <v>44190</v>
       </c>
       <c r="B300">
-        <v>14957</v>
+        <v>15007</v>
       </c>
       <c r="C300">
-        <v>14559</v>
+        <v>14844</v>
       </c>
       <c r="D300">
-        <v>15239</v>
+        <v>15173</v>
       </c>
       <c r="E300">
-        <v>17695</v>
+        <v>17678</v>
       </c>
       <c r="F300">
-        <v>17248</v>
+        <v>17484</v>
       </c>
       <c r="G300">
-        <v>18112</v>
+        <v>17853</v>
       </c>
       <c r="H300">
         <v>0.81</v>
       </c>
       <c r="I300">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="J300">
         <v>0.82</v>
@@ -12796,7 +12793,7 @@
         <v>0.83</v>
       </c>
       <c r="L300">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="M300">
         <v>0.83</v>
@@ -12807,31 +12804,31 @@
         <v>44191</v>
       </c>
       <c r="B301">
-        <v>16370</v>
+        <v>16379</v>
       </c>
       <c r="C301">
-        <v>16056</v>
+        <v>16211</v>
       </c>
       <c r="D301">
-        <v>16802</v>
+        <v>16543</v>
       </c>
       <c r="E301">
-        <v>16619</v>
+        <v>16622</v>
       </c>
       <c r="F301">
-        <v>16217</v>
+        <v>16451</v>
       </c>
       <c r="G301">
-        <v>17023</v>
+        <v>16791</v>
       </c>
       <c r="H301">
         <v>0.79</v>
       </c>
       <c r="I301">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="J301">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="K301">
         <v>0.86</v>
@@ -12848,28 +12845,28 @@
         <v>44192</v>
       </c>
       <c r="B302">
-        <v>18308</v>
+        <v>18241</v>
       </c>
       <c r="C302">
-        <v>17713</v>
+        <v>18036</v>
       </c>
       <c r="D302">
-        <v>18763</v>
+        <v>18442</v>
       </c>
       <c r="E302">
-        <v>16548</v>
+        <v>16540</v>
       </c>
       <c r="F302">
-        <v>16099</v>
+        <v>16359</v>
       </c>
       <c r="G302">
-        <v>16958</v>
+        <v>16719</v>
       </c>
       <c r="H302">
         <v>0.8</v>
       </c>
       <c r="I302">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="J302">
         <v>0.81</v>
@@ -12889,37 +12886,37 @@
         <v>44193</v>
       </c>
       <c r="B303">
-        <v>22425</v>
+        <v>22370</v>
       </c>
       <c r="C303">
-        <v>21696</v>
+        <v>21976</v>
       </c>
       <c r="D303">
-        <v>23136</v>
+        <v>22851</v>
       </c>
       <c r="E303">
-        <v>18015</v>
+        <v>17999</v>
       </c>
       <c r="F303">
-        <v>17506</v>
+        <v>17766</v>
       </c>
       <c r="G303">
-        <v>18485</v>
+        <v>18252</v>
       </c>
       <c r="H303">
         <v>0.91</v>
       </c>
       <c r="I303">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="J303">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="K303">
         <v>0.93</v>
       </c>
       <c r="L303">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="M303">
         <v>0.94</v>
@@ -12930,31 +12927,31 @@
         <v>44194</v>
       </c>
       <c r="B304">
-        <v>18617</v>
+        <v>18580</v>
       </c>
       <c r="C304">
-        <v>17934</v>
+        <v>18239</v>
       </c>
       <c r="D304">
-        <v>19290</v>
+        <v>18926</v>
       </c>
       <c r="E304">
-        <v>18930</v>
+        <v>18893</v>
       </c>
       <c r="F304">
-        <v>18350</v>
+        <v>18615</v>
       </c>
       <c r="G304">
-        <v>19498</v>
+        <v>19190</v>
       </c>
       <c r="H304">
         <v>1.07</v>
       </c>
       <c r="I304">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="J304">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="K304">
         <v>0.95</v>
@@ -12963,7 +12960,7 @@
         <v>0.94</v>
       </c>
       <c r="M304">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -12971,22 +12968,22 @@
         <v>44195</v>
       </c>
       <c r="B305">
-        <v>16364</v>
+        <v>16289</v>
       </c>
       <c r="C305">
-        <v>15700</v>
+        <v>15887</v>
       </c>
       <c r="D305">
-        <v>16991</v>
+        <v>16612</v>
       </c>
       <c r="E305">
-        <v>18929</v>
+        <v>18870</v>
       </c>
       <c r="F305">
-        <v>18261</v>
+        <v>18534</v>
       </c>
       <c r="G305">
-        <v>19545</v>
+        <v>19208</v>
       </c>
       <c r="H305">
         <v>1.1399999999999999</v>
@@ -12995,7 +12992,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J305">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K305">
         <v>0.95</v>
@@ -13004,7 +13001,7 @@
         <v>0.94</v>
       </c>
       <c r="M305">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="306" spans="1:13">
@@ -13012,37 +13009,37 @@
         <v>44196</v>
       </c>
       <c r="B306">
-        <v>14713</v>
+        <v>14682</v>
       </c>
       <c r="C306">
-        <v>14107</v>
+        <v>14299</v>
       </c>
       <c r="D306">
-        <v>15218</v>
+        <v>15044</v>
       </c>
       <c r="E306">
-        <v>18030</v>
+        <v>17980</v>
       </c>
       <c r="F306">
-        <v>17359</v>
+        <v>17600</v>
       </c>
       <c r="G306">
-        <v>18659</v>
+        <v>18358</v>
       </c>
       <c r="H306">
         <v>1.0900000000000001</v>
       </c>
       <c r="I306">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="J306">
-        <v>1.1200000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K306">
         <v>0.95</v>
       </c>
       <c r="L306">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="M306">
         <v>0.96</v>
@@ -13053,31 +13050,31 @@
         <v>44197</v>
       </c>
       <c r="B307">
-        <v>15280</v>
+        <v>15142</v>
       </c>
       <c r="C307">
-        <v>14631</v>
+        <v>14783</v>
       </c>
       <c r="D307">
-        <v>15984</v>
+        <v>15526</v>
       </c>
       <c r="E307">
-        <v>16244</v>
+        <v>16173</v>
       </c>
       <c r="F307">
-        <v>15593</v>
+        <v>15802</v>
       </c>
       <c r="G307">
-        <v>16871</v>
+        <v>16527</v>
       </c>
       <c r="H307">
         <v>0.9</v>
       </c>
       <c r="I307">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="J307">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="K307">
         <v>0.97</v>
@@ -13086,7 +13083,7 @@
         <v>0.96</v>
       </c>
       <c r="M307">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="308" spans="1:13">
@@ -13094,40 +13091,40 @@
         <v>44198</v>
       </c>
       <c r="B308">
-        <v>16425</v>
+        <v>16215</v>
       </c>
       <c r="C308">
-        <v>15583</v>
+        <v>15855</v>
       </c>
       <c r="D308">
-        <v>17077</v>
+        <v>16606</v>
       </c>
       <c r="E308">
-        <v>15695</v>
+        <v>15582</v>
       </c>
       <c r="F308">
-        <v>15005</v>
+        <v>15206</v>
       </c>
       <c r="G308">
-        <v>16317</v>
+        <v>15947</v>
       </c>
       <c r="H308">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="I308">
         <v>0.81</v>
       </c>
       <c r="J308">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="K308">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="L308">
         <v>0.97</v>
       </c>
       <c r="M308">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="309" spans="1:13">
@@ -13135,22 +13132,22 @@
         <v>44199</v>
       </c>
       <c r="B309">
-        <v>17991</v>
+        <v>17783</v>
       </c>
       <c r="C309">
-        <v>17287</v>
+        <v>17366</v>
       </c>
       <c r="D309">
-        <v>18795</v>
+        <v>18150</v>
       </c>
       <c r="E309">
-        <v>16102</v>
+        <v>15956</v>
       </c>
       <c r="F309">
-        <v>15402</v>
+        <v>15576</v>
       </c>
       <c r="G309">
-        <v>16768</v>
+        <v>16331</v>
       </c>
       <c r="H309">
         <v>0.85</v>
@@ -13159,16 +13156,16 @@
         <v>0.83</v>
       </c>
       <c r="J309">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="K309">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="L309">
         <v>0.98</v>
       </c>
       <c r="M309">
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:13">
@@ -13176,40 +13173,40 @@
         <v>44200</v>
       </c>
       <c r="B310">
-        <v>21868</v>
+        <v>21456</v>
       </c>
       <c r="C310">
-        <v>20616</v>
+        <v>20905</v>
       </c>
       <c r="D310">
-        <v>23000</v>
+        <v>21938</v>
       </c>
       <c r="E310">
-        <v>17891</v>
+        <v>17649</v>
       </c>
       <c r="F310">
-        <v>17029</v>
+        <v>17228</v>
       </c>
       <c r="G310">
-        <v>18714</v>
+        <v>18055</v>
       </c>
       <c r="H310">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="I310">
         <v>0.97</v>
       </c>
       <c r="J310">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="K310">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="L310">
         <v>0.99</v>
       </c>
       <c r="M310">
-        <v>1.02</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:13">
@@ -13217,40 +13214,40 @@
         <v>44201</v>
       </c>
       <c r="B311">
-        <v>19804</v>
+        <v>19307</v>
       </c>
       <c r="C311">
-        <v>18792</v>
+        <v>18920</v>
       </c>
       <c r="D311">
-        <v>20849</v>
+        <v>19728</v>
       </c>
       <c r="E311">
-        <v>19022</v>
+        <v>18690</v>
       </c>
       <c r="F311">
-        <v>18069</v>
+        <v>18262</v>
       </c>
       <c r="G311">
-        <v>19930</v>
+        <v>19105</v>
       </c>
       <c r="H311">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I311">
         <v>1.1399999999999999</v>
       </c>
       <c r="J311">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="K311">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="L311">
         <v>0.99</v>
       </c>
       <c r="M311">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="312" spans="1:13">
@@ -13258,40 +13255,40 @@
         <v>44202</v>
       </c>
       <c r="B312">
-        <v>17593</v>
+        <v>17151</v>
       </c>
       <c r="C312">
-        <v>16460</v>
+        <v>16557</v>
       </c>
       <c r="D312">
-        <v>18644</v>
+        <v>17711</v>
       </c>
       <c r="E312">
-        <v>19314</v>
+        <v>18924</v>
       </c>
       <c r="F312">
-        <v>18289</v>
+        <v>18437</v>
       </c>
       <c r="G312">
-        <v>20322</v>
+        <v>19382</v>
       </c>
       <c r="H312">
+        <v>1.21</v>
+      </c>
+      <c r="I312">
+        <v>1.2</v>
+      </c>
+      <c r="J312">
         <v>1.23</v>
       </c>
-      <c r="I312">
-        <v>1.19</v>
-      </c>
-      <c r="J312">
-        <v>1.27</v>
-      </c>
       <c r="K312">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="L312">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="M312">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="313" spans="1:13">
@@ -13299,40 +13296,40 @@
         <v>44203</v>
       </c>
       <c r="B313">
-        <v>16270</v>
+        <v>15729</v>
       </c>
       <c r="C313">
-        <v>15219</v>
+        <v>15291</v>
       </c>
       <c r="D313">
-        <v>17307</v>
+        <v>16204</v>
       </c>
       <c r="E313">
-        <v>18884</v>
+        <v>18411</v>
       </c>
       <c r="F313">
-        <v>17772</v>
+        <v>17918</v>
       </c>
       <c r="G313">
-        <v>19950</v>
+        <v>18895</v>
       </c>
       <c r="H313">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I313">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J313">
         <v>1.17</v>
       </c>
-      <c r="I313">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="J313">
-        <v>1.22</v>
-      </c>
       <c r="K313">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="L313">
         <v>1.02</v>
       </c>
       <c r="M313">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="314" spans="1:13">
@@ -13340,40 +13337,40 @@
         <v>44204</v>
       </c>
       <c r="B314">
-        <v>16129</v>
+        <v>15591</v>
       </c>
       <c r="C314">
-        <v>14760</v>
+        <v>15182</v>
       </c>
       <c r="D314">
-        <v>17278</v>
+        <v>16084</v>
       </c>
       <c r="E314">
-        <v>17449</v>
+        <v>16945</v>
       </c>
       <c r="F314">
-        <v>16308</v>
+        <v>16488</v>
       </c>
       <c r="G314">
-        <v>18520</v>
+        <v>17432</v>
       </c>
       <c r="H314">
+        <v>0.96</v>
+      </c>
+      <c r="I314">
+        <v>0.95</v>
+      </c>
+      <c r="J314">
         <v>0.98</v>
       </c>
-      <c r="I314">
-        <v>0.94</v>
-      </c>
-      <c r="J314">
-        <v>1.01</v>
-      </c>
       <c r="K314">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="L314">
         <v>0.99</v>
       </c>
       <c r="M314">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="315" spans="1:13">
@@ -13381,40 +13378,40 @@
         <v>44205</v>
       </c>
       <c r="B315">
-        <v>14116</v>
+        <v>13735</v>
       </c>
       <c r="C315">
-        <v>12977</v>
+        <v>13245</v>
       </c>
       <c r="D315">
-        <v>15303</v>
+        <v>14173</v>
       </c>
       <c r="E315">
-        <v>16027</v>
+        <v>15552</v>
       </c>
       <c r="F315">
-        <v>14854</v>
+        <v>15069</v>
       </c>
       <c r="G315">
-        <v>17133</v>
+        <v>16043</v>
       </c>
       <c r="H315">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="I315">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="J315">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="K315">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="L315">
         <v>0.95</v>
       </c>
       <c r="M315">
-        <v>1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="316" spans="1:13">
@@ -13422,40 +13419,40 @@
         <v>44206</v>
       </c>
       <c r="B316">
-        <v>14912</v>
+        <v>14231</v>
       </c>
       <c r="C316">
-        <v>13503</v>
+        <v>13734</v>
       </c>
       <c r="D316">
-        <v>16489</v>
+        <v>14724</v>
       </c>
       <c r="E316">
-        <v>15357</v>
+        <v>14821</v>
       </c>
       <c r="F316">
-        <v>14115</v>
+        <v>14363</v>
       </c>
       <c r="G316">
-        <v>16594</v>
+        <v>15296</v>
       </c>
       <c r="H316">
+        <v>0.78</v>
+      </c>
+      <c r="I316">
+        <v>0.77</v>
+      </c>
+      <c r="J316">
         <v>0.8</v>
       </c>
-      <c r="I316">
-        <v>0.76</v>
-      </c>
-      <c r="J316">
-        <v>0.84</v>
-      </c>
       <c r="K316">
+        <v>0.92</v>
+      </c>
+      <c r="L316">
+        <v>0.91</v>
+      </c>
+      <c r="M316">
         <v>0.93</v>
-      </c>
-      <c r="L316">
-        <v>0.9</v>
-      </c>
-      <c r="M316">
-        <v>0.95</v>
       </c>
     </row>
     <row r="317" spans="1:13">
@@ -13463,40 +13460,40 @@
         <v>44207</v>
       </c>
       <c r="B317">
-        <v>17227</v>
+        <v>16704</v>
       </c>
       <c r="C317">
-        <v>15699</v>
+        <v>16117</v>
       </c>
       <c r="D317">
-        <v>18917</v>
+        <v>17178</v>
       </c>
       <c r="E317">
-        <v>15596</v>
+        <v>15065</v>
       </c>
       <c r="F317">
-        <v>14235</v>
+        <v>14570</v>
       </c>
       <c r="G317">
-        <v>16997</v>
+        <v>15540</v>
       </c>
       <c r="H317">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="I317">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="J317">
+        <v>0.84</v>
+      </c>
+      <c r="K317">
         <v>0.88</v>
       </c>
-      <c r="K317">
+      <c r="L317">
+        <v>0.87</v>
+      </c>
+      <c r="M317">
         <v>0.89</v>
-      </c>
-      <c r="L317">
-        <v>0.86</v>
-      </c>
-      <c r="M317">
-        <v>0.92</v>
       </c>
     </row>
     <row r="318" spans="1:13">
@@ -13504,40 +13501,40 @@
         <v>44208</v>
       </c>
       <c r="B318">
-        <v>16159</v>
+        <v>15333</v>
       </c>
       <c r="C318">
-        <v>14089</v>
+        <v>14714</v>
       </c>
       <c r="D318">
-        <v>17963</v>
+        <v>16056</v>
       </c>
       <c r="E318">
-        <v>15604</v>
+        <v>15001</v>
       </c>
       <c r="F318">
-        <v>14067</v>
+        <v>14453</v>
       </c>
       <c r="G318">
-        <v>17168</v>
+        <v>15533</v>
       </c>
       <c r="H318">
         <v>0.89</v>
       </c>
       <c r="I318">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="J318">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="K318">
         <v>0.88</v>
       </c>
       <c r="L318">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="M318">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="319" spans="1:13">
@@ -13545,40 +13542,40 @@
         <v>44209</v>
       </c>
       <c r="B319">
-        <v>14598</v>
+        <v>14564</v>
       </c>
       <c r="C319">
-        <v>12165</v>
+        <v>13767</v>
       </c>
       <c r="D319">
-        <v>16892</v>
+        <v>15148</v>
       </c>
       <c r="E319">
-        <v>15724</v>
+        <v>15208</v>
       </c>
       <c r="F319">
-        <v>13864</v>
+        <v>14583</v>
       </c>
       <c r="G319">
-        <v>17565</v>
+        <v>15777</v>
       </c>
       <c r="H319">
         <v>0.98</v>
       </c>
       <c r="I319">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="J319">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="K319">
         <v>0.88</v>
       </c>
       <c r="L319">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="M319">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="320" spans="1:13">
@@ -13586,40 +13583,40 @@
         <v>44210</v>
       </c>
       <c r="B320">
-        <v>13259</v>
+        <v>13542</v>
       </c>
       <c r="C320">
-        <v>9546</v>
+        <v>12814</v>
       </c>
       <c r="D320">
-        <v>15979</v>
+        <v>14396</v>
       </c>
       <c r="E320">
-        <v>15311</v>
+        <v>15036</v>
       </c>
       <c r="F320">
-        <v>12875</v>
+        <v>14353</v>
       </c>
       <c r="G320">
-        <v>17438</v>
+        <v>15695</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="I320">
+        <v>0.99</v>
+      </c>
+      <c r="J320">
+        <v>1.05</v>
+      </c>
+      <c r="K320">
         <v>0.9</v>
       </c>
-      <c r="J320">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="K320">
-        <v>0.88</v>
-      </c>
       <c r="L320">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="M320">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="321" spans="1:13">
@@ -13627,40 +13624,40 @@
         <v>44211</v>
       </c>
       <c r="B321">
-        <v>12057</v>
+        <v>13626</v>
       </c>
       <c r="C321">
-        <v>8934</v>
+        <v>12788</v>
       </c>
       <c r="D321">
-        <v>15868</v>
+        <v>14514</v>
       </c>
       <c r="E321">
-        <v>14018</v>
+        <v>14266</v>
       </c>
       <c r="F321">
-        <v>11183</v>
+        <v>13521</v>
       </c>
       <c r="G321">
-        <v>16675</v>
+        <v>15028</v>
       </c>
       <c r="H321">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="I321">
-        <v>0.79</v>
+        <v>0.92</v>
       </c>
       <c r="J321">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="K321">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="L321">
-        <v>0.81</v>
+        <v>0.91</v>
       </c>
       <c r="M321">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="322" spans="1:13">
@@ -13668,34 +13665,322 @@
         <v>44212</v>
       </c>
       <c r="B322">
-        <v>9478</v>
+        <v>12170</v>
       </c>
       <c r="C322">
-        <v>5768</v>
+        <v>11192</v>
       </c>
       <c r="D322">
-        <v>12835</v>
+        <v>13063</v>
       </c>
       <c r="E322">
-        <v>12348</v>
+        <v>13476</v>
       </c>
       <c r="F322">
-        <v>9103</v>
+        <v>12640</v>
       </c>
       <c r="G322">
-        <v>15393</v>
+        <v>14280</v>
       </c>
       <c r="H322">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="I322">
-        <v>0.69</v>
+        <v>0.87</v>
       </c>
       <c r="J322">
+        <v>0.93</v>
+      </c>
+      <c r="K322">
+        <v>0.93</v>
+      </c>
+      <c r="L322">
+        <v>0.91</v>
+      </c>
+      <c r="M322">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13">
+      <c r="A323" s="1">
+        <v>44213</v>
+      </c>
+      <c r="B323">
+        <v>12451</v>
+      </c>
+      <c r="C323">
+        <v>11432</v>
+      </c>
+      <c r="D323">
+        <v>13515</v>
+      </c>
+      <c r="E323">
+        <v>12947</v>
+      </c>
+      <c r="F323">
+        <v>12056</v>
+      </c>
+      <c r="G323">
+        <v>13872</v>
+      </c>
+      <c r="H323">
+        <v>0.85</v>
+      </c>
+      <c r="I323">
+        <v>0.82</v>
+      </c>
+      <c r="J323">
+        <v>0.89</v>
+      </c>
+      <c r="K323">
+        <v>0.94</v>
+      </c>
+      <c r="L323">
+        <v>0.91</v>
+      </c>
+      <c r="M323">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13">
+      <c r="A324" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B324">
+        <v>15639</v>
+      </c>
+      <c r="C324">
+        <v>14050</v>
+      </c>
+      <c r="D324">
+        <v>17200</v>
+      </c>
+      <c r="E324">
+        <v>13472</v>
+      </c>
+      <c r="F324">
+        <v>12365</v>
+      </c>
+      <c r="G324">
+        <v>14573</v>
+      </c>
+      <c r="H324">
         <v>0.9</v>
+      </c>
+      <c r="I324">
+        <v>0.85</v>
+      </c>
+      <c r="J324">
+        <v>0.93</v>
+      </c>
+      <c r="K324">
+        <v>0.95</v>
+      </c>
+      <c r="L324">
+        <v>0.91</v>
+      </c>
+      <c r="M324">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13">
+      <c r="A325" s="1">
+        <v>44215</v>
+      </c>
+      <c r="B325">
+        <v>14239</v>
+      </c>
+      <c r="C325">
+        <v>12525</v>
+      </c>
+      <c r="D325">
+        <v>15817</v>
+      </c>
+      <c r="E325">
+        <v>13625</v>
+      </c>
+      <c r="F325">
+        <v>12300</v>
+      </c>
+      <c r="G325">
+        <v>14899</v>
+      </c>
+      <c r="H325">
+        <v>0.96</v>
+      </c>
+      <c r="I325">
+        <v>0.9</v>
+      </c>
+      <c r="J325">
+        <v>1.01</v>
+      </c>
+      <c r="K325">
+        <v>0.95</v>
+      </c>
+      <c r="L325">
+        <v>0.91</v>
+      </c>
+      <c r="M325">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13">
+      <c r="A326" s="1">
+        <v>44216</v>
+      </c>
+      <c r="B326">
+        <v>13039</v>
+      </c>
+      <c r="C326">
+        <v>11074</v>
+      </c>
+      <c r="D326">
+        <v>14710</v>
+      </c>
+      <c r="E326">
+        <v>13842</v>
+      </c>
+      <c r="F326">
+        <v>12270</v>
+      </c>
+      <c r="G326">
+        <v>15310</v>
+      </c>
+      <c r="H326">
+        <v>1.03</v>
+      </c>
+      <c r="I326">
+        <v>0.95</v>
+      </c>
+      <c r="J326">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K326">
+        <v>0.94</v>
+      </c>
+      <c r="L326">
+        <v>0.9</v>
+      </c>
+      <c r="M326">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13">
+      <c r="A327" s="1">
+        <v>44217</v>
+      </c>
+      <c r="B327">
+        <v>11039</v>
+      </c>
+      <c r="C327">
+        <v>8948</v>
+      </c>
+      <c r="D327">
+        <v>13286</v>
+      </c>
+      <c r="E327">
+        <v>13489</v>
+      </c>
+      <c r="F327">
+        <v>11649</v>
+      </c>
+      <c r="G327">
+        <v>15253</v>
+      </c>
+      <c r="H327">
+        <v>1.04</v>
+      </c>
+      <c r="I327">
+        <v>0.96</v>
+      </c>
+      <c r="J327">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K327">
+        <v>0.91</v>
+      </c>
+      <c r="L327">
+        <v>0.86</v>
+      </c>
+      <c r="M327">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13">
+      <c r="A328" s="1">
+        <v>44218</v>
+      </c>
+      <c r="B328">
+        <v>9564</v>
+      </c>
+      <c r="C328">
+        <v>6856</v>
+      </c>
+      <c r="D328">
+        <v>12370</v>
+      </c>
+      <c r="E328">
+        <v>11970</v>
+      </c>
+      <c r="F328">
+        <v>9851</v>
+      </c>
+      <c r="G328">
+        <v>14045</v>
+      </c>
+      <c r="H328">
+        <v>0.89</v>
+      </c>
+      <c r="I328">
+        <v>0.81</v>
+      </c>
+      <c r="J328">
+        <v>0.98</v>
+      </c>
+      <c r="K328">
+        <v>0.87</v>
+      </c>
+      <c r="L328">
+        <v>0.82</v>
+      </c>
+      <c r="M328">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13">
+      <c r="A329" s="4">
+        <v>44219</v>
+      </c>
+      <c r="B329">
+        <v>7679</v>
+      </c>
+      <c r="C329">
+        <v>4350</v>
+      </c>
+      <c r="D329">
+        <v>10590</v>
+      </c>
+      <c r="E329">
+        <v>10330</v>
+      </c>
+      <c r="F329">
+        <v>7807</v>
+      </c>
+      <c r="G329">
+        <v>12739</v>
+      </c>
+      <c r="H329">
+        <v>0.76</v>
+      </c>
+      <c r="I329">
+        <v>0.67</v>
+      </c>
+      <c r="J329">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rki-data/RKI-Nowcasting_Zahlen.xlsx
+++ b/rki-data/RKI-Nowcasting_Zahlen.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7124447C-A9CD-416E-8E48-78AD46BC7109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5523C0-C789-4CCF-A19F-56CE9F515543}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <t>Ergebnisse des Nowcastings und der Schätzung der Reproduktionszahl R</t>
   </si>
   <si>
-    <t>Datenstand: 2021-01-27, 00:00 Uhr</t>
+    <t>Datenstand: 2021-01-29, 00:00 Uhr</t>
   </si>
   <si>
     <t>Die Ergebnisse des Nowcastings, also die Schätzung der Anzahl von COVID-19 Neuerkrankungen wird dargestellt mit einem gleitenden 4-Tages-Mittelwert.</t>
@@ -36,7 +36,7 @@
     <t>Dabei wird jeder Wert mit den Werten der 3 vorhergehenden Tage gemittelt.</t>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-01-27 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-01-29 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Punktschätzer der Anzahl Neuerkrankungen (ohne Glättung)</t>
+  </si>
+  <si>
+    <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glä</t>
+  </si>
+  <si>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glät</t>
   </si>
   <si>
     <t>Punktschätzer der Anzahl Neuerkrankungen</t>
@@ -83,26 +89,15 @@
   <si>
     <t>Obere Grenze des 95%-Prädiktionsintervalls des 7-Tage-R Wertes</t>
   </si>
-  <si>
-    <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
-  </si>
-  <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,16 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -560,56 +548,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M329"/>
+  <dimension ref="A1:M331"/>
   <sheetViews>
-    <sheetView topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="A329" sqref="A329"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="13" width="19.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="90">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="M1" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -11454,16 +11437,16 @@
         <v>18471</v>
       </c>
       <c r="C268">
-        <v>18287</v>
+        <v>18284</v>
       </c>
       <c r="D268">
-        <v>18642</v>
+        <v>18641</v>
       </c>
       <c r="E268">
         <v>16052</v>
       </c>
       <c r="F268">
-        <v>15867</v>
+        <v>15866</v>
       </c>
       <c r="G268">
         <v>16226</v>
@@ -11498,16 +11481,16 @@
         <v>17251</v>
       </c>
       <c r="D269">
-        <v>17600</v>
+        <v>17592</v>
       </c>
       <c r="E269">
         <v>16212</v>
       </c>
       <c r="F269">
-        <v>16036</v>
+        <v>16035</v>
       </c>
       <c r="G269">
-        <v>16383</v>
+        <v>16381</v>
       </c>
       <c r="H269">
         <v>0.9</v>
@@ -11533,22 +11516,22 @@
         <v>44160</v>
       </c>
       <c r="B270">
-        <v>16896</v>
+        <v>16895</v>
       </c>
       <c r="C270">
-        <v>16666</v>
+        <v>16661</v>
       </c>
       <c r="D270">
-        <v>17076</v>
+        <v>17077</v>
       </c>
       <c r="E270">
         <v>16824</v>
       </c>
       <c r="F270">
-        <v>16630</v>
+        <v>16628</v>
       </c>
       <c r="G270">
-        <v>17003</v>
+        <v>17001</v>
       </c>
       <c r="H270">
         <v>1</v>
@@ -11574,22 +11557,22 @@
         <v>44161</v>
       </c>
       <c r="B271">
-        <v>16013</v>
+        <v>16012</v>
       </c>
       <c r="C271">
-        <v>15836</v>
+        <v>15835</v>
       </c>
       <c r="D271">
-        <v>16183</v>
+        <v>16185</v>
       </c>
       <c r="E271">
         <v>17201</v>
       </c>
       <c r="F271">
-        <v>17010</v>
+        <v>17008</v>
       </c>
       <c r="G271">
-        <v>17375</v>
+        <v>17374</v>
       </c>
       <c r="H271">
         <v>1.0900000000000001</v>
@@ -11615,22 +11598,22 @@
         <v>44162</v>
       </c>
       <c r="B272">
-        <v>16413</v>
+        <v>16412</v>
       </c>
       <c r="C272">
-        <v>16243</v>
+        <v>16242</v>
       </c>
       <c r="D272">
-        <v>16585</v>
+        <v>16582</v>
       </c>
       <c r="E272">
-        <v>16687</v>
+        <v>16686</v>
       </c>
       <c r="F272">
-        <v>16499</v>
+        <v>16497</v>
       </c>
       <c r="G272">
-        <v>16861</v>
+        <v>16859</v>
       </c>
       <c r="H272">
         <v>1.04</v>
@@ -11656,19 +11639,19 @@
         <v>44163</v>
       </c>
       <c r="B273">
-        <v>15493</v>
+        <v>15492</v>
       </c>
       <c r="C273">
-        <v>15321</v>
+        <v>15325</v>
       </c>
       <c r="D273">
         <v>15676</v>
       </c>
       <c r="E273">
-        <v>16204</v>
+        <v>16203</v>
       </c>
       <c r="F273">
-        <v>16016</v>
+        <v>16015</v>
       </c>
       <c r="G273">
         <v>16380</v>
@@ -11700,19 +11683,19 @@
         <v>15344</v>
       </c>
       <c r="C274">
-        <v>15161</v>
+        <v>15154</v>
       </c>
       <c r="D274">
-        <v>15493</v>
+        <v>15486</v>
       </c>
       <c r="E274">
-        <v>15816</v>
+        <v>15815</v>
       </c>
       <c r="F274">
-        <v>15640</v>
+        <v>15639</v>
       </c>
       <c r="G274">
-        <v>15984</v>
+        <v>15982</v>
       </c>
       <c r="H274">
         <v>0.94</v>
@@ -11738,22 +11721,22 @@
         <v>44165</v>
       </c>
       <c r="B275">
-        <v>20712</v>
+        <v>20713</v>
       </c>
       <c r="C275">
-        <v>20460</v>
+        <v>20471</v>
       </c>
       <c r="D275">
-        <v>20897</v>
+        <v>20895</v>
       </c>
       <c r="E275">
         <v>16990</v>
       </c>
       <c r="F275">
-        <v>16796</v>
+        <v>16798</v>
       </c>
       <c r="G275">
-        <v>17163</v>
+        <v>17160</v>
       </c>
       <c r="H275">
         <v>0.99</v>
@@ -11779,22 +11762,22 @@
         <v>44166</v>
       </c>
       <c r="B276">
-        <v>20738</v>
+        <v>20741</v>
       </c>
       <c r="C276">
-        <v>20523</v>
+        <v>20532</v>
       </c>
       <c r="D276">
-        <v>20950</v>
+        <v>20947</v>
       </c>
       <c r="E276">
         <v>18072</v>
       </c>
       <c r="F276">
-        <v>17866</v>
+        <v>17870</v>
       </c>
       <c r="G276">
-        <v>18254</v>
+        <v>18251</v>
       </c>
       <c r="H276">
         <v>1.08</v>
@@ -11820,22 +11803,22 @@
         <v>44167</v>
       </c>
       <c r="B277">
-        <v>20603</v>
+        <v>20605</v>
       </c>
       <c r="C277">
-        <v>20393</v>
+        <v>20390</v>
       </c>
       <c r="D277">
-        <v>20824</v>
+        <v>20834</v>
       </c>
       <c r="E277">
-        <v>19349</v>
+        <v>19351</v>
       </c>
       <c r="F277">
-        <v>19134</v>
+        <v>19136</v>
       </c>
       <c r="G277">
-        <v>19541</v>
+        <v>19540</v>
       </c>
       <c r="H277">
         <v>1.19</v>
@@ -11861,22 +11844,22 @@
         <v>44168</v>
       </c>
       <c r="B278">
-        <v>20872</v>
+        <v>20868</v>
       </c>
       <c r="C278">
-        <v>20664</v>
+        <v>20652</v>
       </c>
       <c r="D278">
-        <v>21058</v>
+        <v>21040</v>
       </c>
       <c r="E278">
-        <v>20731</v>
+        <v>20732</v>
       </c>
       <c r="F278">
-        <v>20510</v>
+        <v>20511</v>
       </c>
       <c r="G278">
-        <v>20932</v>
+        <v>20929</v>
       </c>
       <c r="H278">
         <v>1.31</v>
@@ -11902,22 +11885,22 @@
         <v>44169</v>
       </c>
       <c r="B279">
-        <v>21547</v>
+        <v>21543</v>
       </c>
       <c r="C279">
-        <v>21339</v>
+        <v>21350</v>
       </c>
       <c r="D279">
-        <v>21739</v>
+        <v>21744</v>
       </c>
       <c r="E279">
-        <v>20940</v>
+        <v>20939</v>
       </c>
       <c r="F279">
-        <v>20730</v>
+        <v>20731</v>
       </c>
       <c r="G279">
-        <v>21143</v>
+        <v>21141</v>
       </c>
       <c r="H279">
         <v>1.23</v>
@@ -11943,22 +11926,22 @@
         <v>44170</v>
       </c>
       <c r="B280">
-        <v>20439</v>
+        <v>20434</v>
       </c>
       <c r="C280">
-        <v>20255</v>
+        <v>20266</v>
       </c>
       <c r="D280">
+        <v>20658</v>
+      </c>
+      <c r="E280">
+        <v>20863</v>
+      </c>
+      <c r="F280">
         <v>20664</v>
       </c>
-      <c r="E280">
-        <v>20865</v>
-      </c>
-      <c r="F280">
-        <v>20663</v>
-      </c>
       <c r="G280">
-        <v>21071</v>
+        <v>21069</v>
       </c>
       <c r="H280">
         <v>1.1499999999999999</v>
@@ -11984,22 +11967,22 @@
         <v>44171</v>
       </c>
       <c r="B281">
-        <v>20804</v>
+        <v>20796</v>
       </c>
       <c r="C281">
-        <v>20624</v>
+        <v>20627</v>
       </c>
       <c r="D281">
-        <v>20990</v>
+        <v>20973</v>
       </c>
       <c r="E281">
-        <v>20915</v>
+        <v>20910</v>
       </c>
       <c r="F281">
-        <v>20720</v>
+        <v>20724</v>
       </c>
       <c r="G281">
-        <v>21113</v>
+        <v>21104</v>
       </c>
       <c r="H281">
         <v>1.08</v>
@@ -12025,22 +12008,22 @@
         <v>44172</v>
       </c>
       <c r="B282">
-        <v>26086</v>
+        <v>26080</v>
       </c>
       <c r="C282">
-        <v>25877</v>
+        <v>25854</v>
       </c>
       <c r="D282">
-        <v>26296</v>
+        <v>26295</v>
       </c>
       <c r="E282">
-        <v>22219</v>
+        <v>22213</v>
       </c>
       <c r="F282">
         <v>22024</v>
       </c>
       <c r="G282">
-        <v>22422</v>
+        <v>22418</v>
       </c>
       <c r="H282">
         <v>1.07</v>
@@ -12066,22 +12049,22 @@
         <v>44173</v>
       </c>
       <c r="B283">
-        <v>25870</v>
+        <v>25869</v>
       </c>
       <c r="C283">
-        <v>25637</v>
+        <v>25649</v>
       </c>
       <c r="D283">
-        <v>26085</v>
+        <v>26086</v>
       </c>
       <c r="E283">
-        <v>23300</v>
+        <v>23295</v>
       </c>
       <c r="F283">
-        <v>23098</v>
+        <v>23099</v>
       </c>
       <c r="G283">
-        <v>23509</v>
+        <v>23503</v>
       </c>
       <c r="H283">
         <v>1.1100000000000001</v>
@@ -12107,22 +12090,22 @@
         <v>44174</v>
       </c>
       <c r="B284">
-        <v>25184</v>
+        <v>25177</v>
       </c>
       <c r="C284">
-        <v>24989</v>
+        <v>24974</v>
       </c>
       <c r="D284">
-        <v>25394</v>
+        <v>25373</v>
       </c>
       <c r="E284">
-        <v>24486</v>
+        <v>24481</v>
       </c>
       <c r="F284">
-        <v>24282</v>
+        <v>24276</v>
       </c>
       <c r="G284">
-        <v>24691</v>
+        <v>24682</v>
       </c>
       <c r="H284">
         <v>1.17</v>
@@ -12148,22 +12131,22 @@
         <v>44175</v>
       </c>
       <c r="B285">
-        <v>24667</v>
+        <v>24663</v>
       </c>
       <c r="C285">
-        <v>24448</v>
+        <v>24428</v>
       </c>
       <c r="D285">
-        <v>24887</v>
+        <v>24879</v>
       </c>
       <c r="E285">
-        <v>25452</v>
+        <v>25447</v>
       </c>
       <c r="F285">
-        <v>25238</v>
+        <v>25226</v>
       </c>
       <c r="G285">
-        <v>25665</v>
+        <v>25658</v>
       </c>
       <c r="H285">
         <v>1.22</v>
@@ -12178,7 +12161,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="L285">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M285">
         <v>1.1100000000000001</v>
@@ -12189,22 +12172,22 @@
         <v>44176</v>
       </c>
       <c r="B286">
-        <v>24487</v>
+        <v>24479</v>
       </c>
       <c r="C286">
-        <v>24275</v>
+        <v>24284</v>
       </c>
       <c r="D286">
-        <v>24686</v>
+        <v>24705</v>
       </c>
       <c r="E286">
-        <v>25052</v>
+        <v>25047</v>
       </c>
       <c r="F286">
-        <v>24837</v>
+        <v>24834</v>
       </c>
       <c r="G286">
-        <v>25263</v>
+        <v>25260</v>
       </c>
       <c r="H286">
         <v>1.1299999999999999</v>
@@ -12213,13 +12196,13 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J286">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K286">
         <v>1.0900000000000001</v>
       </c>
       <c r="L286">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="M286">
         <v>1.0900000000000001</v>
@@ -12230,22 +12213,22 @@
         <v>44177</v>
       </c>
       <c r="B287">
-        <v>23024</v>
+        <v>23013</v>
       </c>
       <c r="C287">
-        <v>22847</v>
+        <v>22844</v>
       </c>
       <c r="D287">
-        <v>23252</v>
+        <v>23233</v>
       </c>
       <c r="E287">
-        <v>24340</v>
+        <v>24333</v>
       </c>
       <c r="F287">
-        <v>24140</v>
+        <v>24132</v>
       </c>
       <c r="G287">
-        <v>24555</v>
+        <v>24547</v>
       </c>
       <c r="H287">
         <v>1.04</v>
@@ -12271,22 +12254,22 @@
         <v>44178</v>
       </c>
       <c r="B288">
-        <v>22284</v>
+        <v>22273</v>
       </c>
       <c r="C288">
-        <v>22022</v>
+        <v>22026</v>
       </c>
       <c r="D288">
         <v>22501</v>
       </c>
       <c r="E288">
-        <v>23615</v>
+        <v>23607</v>
       </c>
       <c r="F288">
-        <v>23398</v>
+        <v>23395</v>
       </c>
       <c r="G288">
-        <v>23831</v>
+        <v>23829</v>
       </c>
       <c r="H288">
         <v>0.96</v>
@@ -12312,22 +12295,22 @@
         <v>44179</v>
       </c>
       <c r="B289">
-        <v>28056</v>
+        <v>28045</v>
       </c>
       <c r="C289">
-        <v>27781</v>
+        <v>27793</v>
       </c>
       <c r="D289">
-        <v>28274</v>
+        <v>28268</v>
       </c>
       <c r="E289">
-        <v>24463</v>
+        <v>24453</v>
       </c>
       <c r="F289">
-        <v>24231</v>
+        <v>24237</v>
       </c>
       <c r="G289">
-        <v>24678</v>
+        <v>24677</v>
       </c>
       <c r="H289">
         <v>0.96</v>
@@ -12353,22 +12336,22 @@
         <v>44180</v>
       </c>
       <c r="B290">
-        <v>26574</v>
+        <v>26559</v>
       </c>
       <c r="C290">
-        <v>26345</v>
+        <v>26351</v>
       </c>
       <c r="D290">
-        <v>26835</v>
+        <v>26816</v>
       </c>
       <c r="E290">
-        <v>24985</v>
+        <v>24973</v>
       </c>
       <c r="F290">
-        <v>24749</v>
+        <v>24753</v>
       </c>
       <c r="G290">
-        <v>25215</v>
+        <v>25204</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -12394,28 +12377,28 @@
         <v>44181</v>
       </c>
       <c r="B291">
-        <v>25498</v>
+        <v>25477</v>
       </c>
       <c r="C291">
-        <v>25244</v>
+        <v>25218</v>
       </c>
       <c r="D291">
-        <v>25711</v>
+        <v>25662</v>
       </c>
       <c r="E291">
-        <v>25603</v>
+        <v>25588</v>
       </c>
       <c r="F291">
-        <v>25348</v>
+        <v>25347</v>
       </c>
       <c r="G291">
-        <v>25830</v>
+        <v>25812</v>
       </c>
       <c r="H291">
         <v>1.05</v>
       </c>
       <c r="I291">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="J291">
         <v>1.06</v>
@@ -12435,22 +12418,22 @@
         <v>44182</v>
       </c>
       <c r="B292">
-        <v>23803</v>
+        <v>23780</v>
       </c>
       <c r="C292">
-        <v>23598</v>
+        <v>23568</v>
       </c>
       <c r="D292">
-        <v>23980</v>
+        <v>23955</v>
       </c>
       <c r="E292">
-        <v>25983</v>
+        <v>25965</v>
       </c>
       <c r="F292">
-        <v>25742</v>
+        <v>25732</v>
       </c>
       <c r="G292">
-        <v>26200</v>
+        <v>26175</v>
       </c>
       <c r="H292">
         <v>1.1000000000000001</v>
@@ -12476,22 +12459,22 @@
         <v>44183</v>
       </c>
       <c r="B293">
-        <v>23186</v>
+        <v>23164</v>
       </c>
       <c r="C293">
-        <v>22975</v>
+        <v>22956</v>
       </c>
       <c r="D293">
-        <v>23403</v>
+        <v>23368</v>
       </c>
       <c r="E293">
-        <v>24766</v>
+        <v>24745</v>
       </c>
       <c r="F293">
-        <v>24540</v>
+        <v>24523</v>
       </c>
       <c r="G293">
-        <v>24982</v>
+        <v>24950</v>
       </c>
       <c r="H293">
         <v>1.01</v>
@@ -12517,22 +12500,22 @@
         <v>44184</v>
       </c>
       <c r="B294">
-        <v>20684</v>
+        <v>20660</v>
       </c>
       <c r="C294">
-        <v>20494</v>
+        <v>20464</v>
       </c>
       <c r="D294">
-        <v>20889</v>
+        <v>20879</v>
       </c>
       <c r="E294">
-        <v>23293</v>
+        <v>23270</v>
       </c>
       <c r="F294">
-        <v>23078</v>
+        <v>23051</v>
       </c>
       <c r="G294">
-        <v>23495</v>
+        <v>23466</v>
       </c>
       <c r="H294">
         <v>0.93</v>
@@ -12550,7 +12533,7 @@
         <v>0.96</v>
       </c>
       <c r="M294">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -12558,22 +12541,22 @@
         <v>44185</v>
       </c>
       <c r="B295">
-        <v>20044</v>
+        <v>20038</v>
       </c>
       <c r="C295">
-        <v>19841</v>
+        <v>19858</v>
       </c>
       <c r="D295">
-        <v>20277</v>
+        <v>20239</v>
       </c>
       <c r="E295">
-        <v>21929</v>
+        <v>21911</v>
       </c>
       <c r="F295">
-        <v>21727</v>
+        <v>21711</v>
       </c>
       <c r="G295">
-        <v>22137</v>
+        <v>22110</v>
       </c>
       <c r="H295">
         <v>0.86</v>
@@ -12599,22 +12582,22 @@
         <v>44186</v>
       </c>
       <c r="B296">
-        <v>23136</v>
+        <v>23078</v>
       </c>
       <c r="C296">
-        <v>22928</v>
+        <v>22884</v>
       </c>
       <c r="D296">
-        <v>23344</v>
+        <v>23267</v>
       </c>
       <c r="E296">
-        <v>21763</v>
+        <v>21735</v>
       </c>
       <c r="F296">
-        <v>21559</v>
+        <v>21540</v>
       </c>
       <c r="G296">
-        <v>21978</v>
+        <v>21938</v>
       </c>
       <c r="H296">
         <v>0.84</v>
@@ -12640,22 +12623,22 @@
         <v>44187</v>
       </c>
       <c r="B297">
-        <v>20601</v>
+        <v>20596</v>
       </c>
       <c r="C297">
-        <v>20344</v>
+        <v>20392</v>
       </c>
       <c r="D297">
-        <v>20789</v>
+        <v>20809</v>
       </c>
       <c r="E297">
-        <v>21116</v>
+        <v>21093</v>
       </c>
       <c r="F297">
-        <v>20901</v>
+        <v>20900</v>
       </c>
       <c r="G297">
-        <v>21325</v>
+        <v>21298</v>
       </c>
       <c r="H297">
         <v>0.85</v>
@@ -12681,22 +12664,22 @@
         <v>44188</v>
       </c>
       <c r="B298">
-        <v>18569</v>
+        <v>18592</v>
       </c>
       <c r="C298">
-        <v>18404</v>
+        <v>18399</v>
       </c>
       <c r="D298">
-        <v>18732</v>
+        <v>18783</v>
       </c>
       <c r="E298">
-        <v>20587</v>
+        <v>20576</v>
       </c>
       <c r="F298">
-        <v>20379</v>
+        <v>20383</v>
       </c>
       <c r="G298">
-        <v>20785</v>
+        <v>20774</v>
       </c>
       <c r="H298">
         <v>0.88</v>
@@ -12722,22 +12705,22 @@
         <v>44189</v>
       </c>
       <c r="B299">
-        <v>16535</v>
+        <v>16540</v>
       </c>
       <c r="C299">
-        <v>16346</v>
+        <v>16395</v>
       </c>
       <c r="D299">
-        <v>16718</v>
+        <v>16680</v>
       </c>
       <c r="E299">
-        <v>19710</v>
+        <v>19701</v>
       </c>
       <c r="F299">
-        <v>19505</v>
+        <v>19517</v>
       </c>
       <c r="G299">
-        <v>19896</v>
+        <v>19884</v>
       </c>
       <c r="H299">
         <v>0.9</v>
@@ -12746,7 +12729,7 @@
         <v>0.89</v>
       </c>
       <c r="J299">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="K299">
         <v>0.83</v>
@@ -12763,22 +12746,22 @@
         <v>44190</v>
       </c>
       <c r="B300">
-        <v>15007</v>
+        <v>14984</v>
       </c>
       <c r="C300">
-        <v>14844</v>
+        <v>14780</v>
       </c>
       <c r="D300">
-        <v>15173</v>
+        <v>15159</v>
       </c>
       <c r="E300">
         <v>17678</v>
       </c>
       <c r="F300">
-        <v>17484</v>
+        <v>17491</v>
       </c>
       <c r="G300">
-        <v>17853</v>
+        <v>17857</v>
       </c>
       <c r="H300">
         <v>0.81</v>
@@ -12804,22 +12787,22 @@
         <v>44191</v>
       </c>
       <c r="B301">
-        <v>16379</v>
+        <v>16328</v>
       </c>
       <c r="C301">
-        <v>16211</v>
+        <v>16148</v>
       </c>
       <c r="D301">
-        <v>16543</v>
+        <v>16493</v>
       </c>
       <c r="E301">
-        <v>16622</v>
+        <v>16611</v>
       </c>
       <c r="F301">
-        <v>16451</v>
+        <v>16430</v>
       </c>
       <c r="G301">
-        <v>16791</v>
+        <v>16778</v>
       </c>
       <c r="H301">
         <v>0.79</v>
@@ -12845,22 +12828,22 @@
         <v>44192</v>
       </c>
       <c r="B302">
-        <v>18241</v>
+        <v>18186</v>
       </c>
       <c r="C302">
-        <v>18036</v>
+        <v>17982</v>
       </c>
       <c r="D302">
-        <v>18442</v>
+        <v>18381</v>
       </c>
       <c r="E302">
-        <v>16540</v>
+        <v>16509</v>
       </c>
       <c r="F302">
-        <v>16359</v>
+        <v>16326</v>
       </c>
       <c r="G302">
-        <v>16719</v>
+        <v>16678</v>
       </c>
       <c r="H302">
         <v>0.8</v>
@@ -12886,22 +12869,22 @@
         <v>44193</v>
       </c>
       <c r="B303">
-        <v>22370</v>
+        <v>22342</v>
       </c>
       <c r="C303">
-        <v>21976</v>
+        <v>22145</v>
       </c>
       <c r="D303">
-        <v>22851</v>
+        <v>22517</v>
       </c>
       <c r="E303">
-        <v>17999</v>
+        <v>17960</v>
       </c>
       <c r="F303">
-        <v>17766</v>
+        <v>17764</v>
       </c>
       <c r="G303">
-        <v>18252</v>
+        <v>18137</v>
       </c>
       <c r="H303">
         <v>0.91</v>
@@ -12927,22 +12910,22 @@
         <v>44194</v>
       </c>
       <c r="B304">
-        <v>18580</v>
+        <v>18634</v>
       </c>
       <c r="C304">
-        <v>18239</v>
+        <v>18472</v>
       </c>
       <c r="D304">
-        <v>18926</v>
+        <v>18803</v>
       </c>
       <c r="E304">
-        <v>18893</v>
+        <v>18872</v>
       </c>
       <c r="F304">
-        <v>18615</v>
+        <v>18687</v>
       </c>
       <c r="G304">
-        <v>19190</v>
+        <v>19048</v>
       </c>
       <c r="H304">
         <v>1.07</v>
@@ -12968,31 +12951,31 @@
         <v>44195</v>
       </c>
       <c r="B305">
-        <v>16289</v>
+        <v>16261</v>
       </c>
       <c r="C305">
-        <v>15887</v>
+        <v>15935</v>
       </c>
       <c r="D305">
-        <v>16612</v>
+        <v>16577</v>
       </c>
       <c r="E305">
-        <v>18870</v>
+        <v>18856</v>
       </c>
       <c r="F305">
-        <v>18534</v>
+        <v>18633</v>
       </c>
       <c r="G305">
-        <v>19208</v>
+        <v>19069</v>
       </c>
       <c r="H305">
         <v>1.1399999999999999</v>
       </c>
       <c r="I305">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="J305">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K305">
         <v>0.95</v>
@@ -13009,22 +12992,22 @@
         <v>44196</v>
       </c>
       <c r="B306">
-        <v>14682</v>
+        <v>14647</v>
       </c>
       <c r="C306">
-        <v>14299</v>
+        <v>14359</v>
       </c>
       <c r="D306">
-        <v>15044</v>
+        <v>14859</v>
       </c>
       <c r="E306">
-        <v>17980</v>
+        <v>17971</v>
       </c>
       <c r="F306">
-        <v>17600</v>
+        <v>17727</v>
       </c>
       <c r="G306">
-        <v>18358</v>
+        <v>18189</v>
       </c>
       <c r="H306">
         <v>1.0900000000000001</v>
@@ -13050,22 +13033,22 @@
         <v>44197</v>
       </c>
       <c r="B307">
-        <v>15142</v>
+        <v>15124</v>
       </c>
       <c r="C307">
-        <v>14783</v>
+        <v>14773</v>
       </c>
       <c r="D307">
-        <v>15526</v>
+        <v>15462</v>
       </c>
       <c r="E307">
-        <v>16173</v>
+        <v>16166</v>
       </c>
       <c r="F307">
-        <v>15802</v>
+        <v>15885</v>
       </c>
       <c r="G307">
-        <v>16527</v>
+        <v>16425</v>
       </c>
       <c r="H307">
         <v>0.9</v>
@@ -13091,31 +13074,31 @@
         <v>44198</v>
       </c>
       <c r="B308">
-        <v>16215</v>
+        <v>16260</v>
       </c>
       <c r="C308">
-        <v>15855</v>
+        <v>15848</v>
       </c>
       <c r="D308">
-        <v>16606</v>
+        <v>16602</v>
       </c>
       <c r="E308">
-        <v>15582</v>
+        <v>15573</v>
       </c>
       <c r="F308">
-        <v>15206</v>
+        <v>15229</v>
       </c>
       <c r="G308">
-        <v>15947</v>
+        <v>15875</v>
       </c>
       <c r="H308">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="I308">
         <v>0.81</v>
       </c>
       <c r="J308">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="K308">
         <v>0.98</v>
@@ -13132,22 +13115,22 @@
         <v>44199</v>
       </c>
       <c r="B309">
-        <v>17783</v>
+        <v>17761</v>
       </c>
       <c r="C309">
-        <v>17366</v>
+        <v>17352</v>
       </c>
       <c r="D309">
-        <v>18150</v>
+        <v>18153</v>
       </c>
       <c r="E309">
-        <v>15956</v>
+        <v>15948</v>
       </c>
       <c r="F309">
-        <v>15576</v>
+        <v>15583</v>
       </c>
       <c r="G309">
-        <v>16331</v>
+        <v>16269</v>
       </c>
       <c r="H309">
         <v>0.85</v>
@@ -13173,22 +13156,22 @@
         <v>44200</v>
       </c>
       <c r="B310">
-        <v>21456</v>
+        <v>21331</v>
       </c>
       <c r="C310">
-        <v>20905</v>
+        <v>20886</v>
       </c>
       <c r="D310">
-        <v>21938</v>
+        <v>21757</v>
       </c>
       <c r="E310">
-        <v>17649</v>
+        <v>17619</v>
       </c>
       <c r="F310">
-        <v>17228</v>
+        <v>17215</v>
       </c>
       <c r="G310">
-        <v>18055</v>
+        <v>17993</v>
       </c>
       <c r="H310">
         <v>0.98</v>
@@ -13197,7 +13180,7 @@
         <v>0.97</v>
       </c>
       <c r="J310">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="K310">
         <v>0.99</v>
@@ -13214,31 +13197,31 @@
         <v>44201</v>
       </c>
       <c r="B311">
-        <v>19307</v>
+        <v>19280</v>
       </c>
       <c r="C311">
-        <v>18920</v>
+        <v>18765</v>
       </c>
       <c r="D311">
-        <v>19728</v>
+        <v>19744</v>
       </c>
       <c r="E311">
-        <v>18690</v>
+        <v>18658</v>
       </c>
       <c r="F311">
-        <v>18262</v>
+        <v>18212</v>
       </c>
       <c r="G311">
-        <v>19105</v>
+        <v>19064</v>
       </c>
       <c r="H311">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I311">
         <v>1.1399999999999999</v>
       </c>
       <c r="J311">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="K311">
         <v>1</v>
@@ -13255,28 +13238,28 @@
         <v>44202</v>
       </c>
       <c r="B312">
-        <v>17151</v>
+        <v>17124</v>
       </c>
       <c r="C312">
-        <v>16557</v>
+        <v>16736</v>
       </c>
       <c r="D312">
-        <v>17711</v>
+        <v>17442</v>
       </c>
       <c r="E312">
-        <v>18924</v>
+        <v>18874</v>
       </c>
       <c r="F312">
-        <v>18437</v>
+        <v>18435</v>
       </c>
       <c r="G312">
-        <v>19382</v>
+        <v>19274</v>
       </c>
       <c r="H312">
         <v>1.21</v>
       </c>
       <c r="I312">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="J312">
         <v>1.23</v>
@@ -13296,22 +13279,22 @@
         <v>44203</v>
       </c>
       <c r="B313">
-        <v>15729</v>
+        <v>15715</v>
       </c>
       <c r="C313">
-        <v>15291</v>
+        <v>15388</v>
       </c>
       <c r="D313">
-        <v>16204</v>
+        <v>16144</v>
       </c>
       <c r="E313">
-        <v>18411</v>
+        <v>18362</v>
       </c>
       <c r="F313">
-        <v>17918</v>
+        <v>17944</v>
       </c>
       <c r="G313">
-        <v>18895</v>
+        <v>18772</v>
       </c>
       <c r="H313">
         <v>1.1499999999999999</v>
@@ -13323,13 +13306,13 @@
         <v>1.17</v>
       </c>
       <c r="K313">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="L313">
         <v>1.02</v>
       </c>
       <c r="M313">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="314" spans="1:13">
@@ -13337,22 +13320,22 @@
         <v>44204</v>
       </c>
       <c r="B314">
-        <v>15591</v>
+        <v>15522</v>
       </c>
       <c r="C314">
-        <v>15182</v>
+        <v>15014</v>
       </c>
       <c r="D314">
-        <v>16084</v>
+        <v>16074</v>
       </c>
       <c r="E314">
-        <v>16945</v>
+        <v>16910</v>
       </c>
       <c r="F314">
-        <v>16488</v>
+        <v>16476</v>
       </c>
       <c r="G314">
-        <v>17432</v>
+        <v>17351</v>
       </c>
       <c r="H314">
         <v>0.96</v>
@@ -13378,22 +13361,22 @@
         <v>44205</v>
       </c>
       <c r="B315">
-        <v>13735</v>
+        <v>13623</v>
       </c>
       <c r="C315">
-        <v>13245</v>
+        <v>13238</v>
       </c>
       <c r="D315">
-        <v>14173</v>
+        <v>14010</v>
       </c>
       <c r="E315">
-        <v>15552</v>
+        <v>15496</v>
       </c>
       <c r="F315">
-        <v>15069</v>
+        <v>15094</v>
       </c>
       <c r="G315">
-        <v>16043</v>
+        <v>15918</v>
       </c>
       <c r="H315">
         <v>0.83</v>
@@ -13402,7 +13385,7 @@
         <v>0.82</v>
       </c>
       <c r="J315">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="K315">
         <v>0.96</v>
@@ -13411,7 +13394,7 @@
         <v>0.95</v>
       </c>
       <c r="M315">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="316" spans="1:13">
@@ -13419,22 +13402,22 @@
         <v>44206</v>
       </c>
       <c r="B316">
-        <v>14231</v>
+        <v>14199</v>
       </c>
       <c r="C316">
-        <v>13734</v>
+        <v>13758</v>
       </c>
       <c r="D316">
-        <v>14724</v>
+        <v>14598</v>
       </c>
       <c r="E316">
-        <v>14821</v>
+        <v>14765</v>
       </c>
       <c r="F316">
-        <v>14363</v>
+        <v>14350</v>
       </c>
       <c r="G316">
-        <v>15296</v>
+        <v>15206</v>
       </c>
       <c r="H316">
         <v>0.78</v>
@@ -13449,10 +13432,10 @@
         <v>0.92</v>
       </c>
       <c r="L316">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="M316">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="317" spans="1:13">
@@ -13460,22 +13443,22 @@
         <v>44207</v>
       </c>
       <c r="B317">
-        <v>16704</v>
+        <v>16758</v>
       </c>
       <c r="C317">
-        <v>16117</v>
+        <v>16203</v>
       </c>
       <c r="D317">
-        <v>17178</v>
+        <v>17316</v>
       </c>
       <c r="E317">
-        <v>15065</v>
+        <v>15025</v>
       </c>
       <c r="F317">
-        <v>14570</v>
+        <v>14553</v>
       </c>
       <c r="G317">
-        <v>15540</v>
+        <v>15499</v>
       </c>
       <c r="H317">
         <v>0.82</v>
@@ -13484,7 +13467,7 @@
         <v>0.8</v>
       </c>
       <c r="J317">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="K317">
         <v>0.88</v>
@@ -13501,28 +13484,28 @@
         <v>44208</v>
       </c>
       <c r="B318">
-        <v>15333</v>
+        <v>15311</v>
       </c>
       <c r="C318">
-        <v>14714</v>
+        <v>14775</v>
       </c>
       <c r="D318">
-        <v>16056</v>
+        <v>15794</v>
       </c>
       <c r="E318">
-        <v>15001</v>
+        <v>14973</v>
       </c>
       <c r="F318">
-        <v>14453</v>
+        <v>14494</v>
       </c>
       <c r="G318">
-        <v>15533</v>
+        <v>15429</v>
       </c>
       <c r="H318">
         <v>0.89</v>
       </c>
       <c r="I318">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="J318">
         <v>0.91</v>
@@ -13542,37 +13525,37 @@
         <v>44209</v>
       </c>
       <c r="B319">
-        <v>14564</v>
+        <v>14608</v>
       </c>
       <c r="C319">
-        <v>13767</v>
+        <v>14121</v>
       </c>
       <c r="D319">
-        <v>15148</v>
+        <v>15147</v>
       </c>
       <c r="E319">
-        <v>15208</v>
+        <v>15219</v>
       </c>
       <c r="F319">
-        <v>14583</v>
+        <v>14714</v>
       </c>
       <c r="G319">
-        <v>15777</v>
+        <v>15714</v>
       </c>
       <c r="H319">
         <v>0.98</v>
       </c>
       <c r="I319">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="J319">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="K319">
+        <v>0.89</v>
+      </c>
+      <c r="L319">
         <v>0.88</v>
-      </c>
-      <c r="L319">
-        <v>0.87</v>
       </c>
       <c r="M319">
         <v>0.9</v>
@@ -13583,25 +13566,25 @@
         <v>44210</v>
       </c>
       <c r="B320">
-        <v>13542</v>
+        <v>13568</v>
       </c>
       <c r="C320">
-        <v>12814</v>
+        <v>13000</v>
       </c>
       <c r="D320">
-        <v>14396</v>
+        <v>14161</v>
       </c>
       <c r="E320">
-        <v>15036</v>
+        <v>15061</v>
       </c>
       <c r="F320">
-        <v>14353</v>
+        <v>14525</v>
       </c>
       <c r="G320">
-        <v>15695</v>
+        <v>15604</v>
       </c>
       <c r="H320">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I320">
         <v>0.99</v>
@@ -13610,7 +13593,7 @@
         <v>1.05</v>
       </c>
       <c r="K320">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="L320">
         <v>0.89</v>
@@ -13624,34 +13607,34 @@
         <v>44211</v>
       </c>
       <c r="B321">
-        <v>13626</v>
+        <v>13514</v>
       </c>
       <c r="C321">
-        <v>12788</v>
+        <v>12887</v>
       </c>
       <c r="D321">
-        <v>14514</v>
+        <v>14085</v>
       </c>
       <c r="E321">
-        <v>14266</v>
+        <v>14250</v>
       </c>
       <c r="F321">
-        <v>13521</v>
+        <v>13696</v>
       </c>
       <c r="G321">
-        <v>15028</v>
+        <v>14797</v>
       </c>
       <c r="H321">
         <v>0.95</v>
       </c>
       <c r="I321">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="J321">
         <v>0.97</v>
       </c>
       <c r="K321">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="L321">
         <v>0.91</v>
@@ -13665,40 +13648,40 @@
         <v>44212</v>
       </c>
       <c r="B322">
-        <v>12170</v>
+        <v>12200</v>
       </c>
       <c r="C322">
-        <v>11192</v>
+        <v>11601</v>
       </c>
       <c r="D322">
-        <v>13063</v>
+        <v>12870</v>
       </c>
       <c r="E322">
-        <v>13476</v>
+        <v>13472</v>
       </c>
       <c r="F322">
-        <v>12640</v>
+        <v>12902</v>
       </c>
       <c r="G322">
-        <v>14280</v>
+        <v>14066</v>
       </c>
       <c r="H322">
         <v>0.9</v>
       </c>
       <c r="I322">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J322">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="K322">
         <v>0.93</v>
       </c>
       <c r="L322">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="M322">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="323" spans="1:13">
@@ -13706,22 +13689,22 @@
         <v>44213</v>
       </c>
       <c r="B323">
-        <v>12451</v>
+        <v>12522</v>
       </c>
       <c r="C323">
-        <v>11432</v>
+        <v>11865</v>
       </c>
       <c r="D323">
-        <v>13515</v>
+        <v>13197</v>
       </c>
       <c r="E323">
-        <v>12947</v>
+        <v>12951</v>
       </c>
       <c r="F323">
-        <v>12056</v>
+        <v>12338</v>
       </c>
       <c r="G323">
-        <v>13872</v>
+        <v>13578</v>
       </c>
       <c r="H323">
         <v>0.85</v>
@@ -13730,16 +13713,16 @@
         <v>0.82</v>
       </c>
       <c r="J323">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="K323">
         <v>0.94</v>
       </c>
       <c r="L323">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="M323">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="324" spans="1:13">
@@ -13747,40 +13730,40 @@
         <v>44214</v>
       </c>
       <c r="B324">
-        <v>15639</v>
+        <v>15457</v>
       </c>
       <c r="C324">
-        <v>14050</v>
+        <v>14314</v>
       </c>
       <c r="D324">
-        <v>17200</v>
+        <v>16561</v>
       </c>
       <c r="E324">
-        <v>13472</v>
+        <v>13423</v>
       </c>
       <c r="F324">
-        <v>12365</v>
+        <v>12667</v>
       </c>
       <c r="G324">
-        <v>14573</v>
+        <v>14178</v>
       </c>
       <c r="H324">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="I324">
         <v>0.85</v>
       </c>
       <c r="J324">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="K324">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="L324">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="M324">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="325" spans="1:13">
@@ -13788,40 +13771,40 @@
         <v>44215</v>
       </c>
       <c r="B325">
-        <v>14239</v>
+        <v>14082</v>
       </c>
       <c r="C325">
-        <v>12525</v>
+        <v>13000</v>
       </c>
       <c r="D325">
-        <v>15817</v>
+        <v>15339</v>
       </c>
       <c r="E325">
-        <v>13625</v>
+        <v>13565</v>
       </c>
       <c r="F325">
-        <v>12300</v>
+        <v>12695</v>
       </c>
       <c r="G325">
-        <v>14899</v>
+        <v>14492</v>
       </c>
       <c r="H325">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="I325">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="J325">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="K325">
         <v>0.95</v>
       </c>
       <c r="L325">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="M325">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="326" spans="1:13">
@@ -13829,40 +13812,40 @@
         <v>44216</v>
       </c>
       <c r="B326">
-        <v>13039</v>
+        <v>13423</v>
       </c>
       <c r="C326">
-        <v>11074</v>
+        <v>12130</v>
       </c>
       <c r="D326">
-        <v>14710</v>
+        <v>14701</v>
       </c>
       <c r="E326">
-        <v>13842</v>
+        <v>13871</v>
       </c>
       <c r="F326">
-        <v>12270</v>
+        <v>12827</v>
       </c>
       <c r="G326">
-        <v>15310</v>
+        <v>14950</v>
       </c>
       <c r="H326">
         <v>1.03</v>
       </c>
       <c r="I326">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="J326">
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="K326">
         <v>0.94</v>
       </c>
       <c r="L326">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="M326">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="327" spans="1:13">
@@ -13870,40 +13853,40 @@
         <v>44217</v>
       </c>
       <c r="B327">
-        <v>11039</v>
+        <v>11692</v>
       </c>
       <c r="C327">
-        <v>8948</v>
+        <v>10252</v>
       </c>
       <c r="D327">
-        <v>13286</v>
+        <v>12890</v>
       </c>
       <c r="E327">
-        <v>13489</v>
+        <v>13663</v>
       </c>
       <c r="F327">
-        <v>11649</v>
+        <v>12424</v>
       </c>
       <c r="G327">
-        <v>15253</v>
+        <v>14873</v>
       </c>
       <c r="H327">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="I327">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="J327">
-        <v>1.1299999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K327">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="L327">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="M327">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="328" spans="1:13">
@@ -13911,72 +13894,154 @@
         <v>44218</v>
       </c>
       <c r="B328">
-        <v>9564</v>
+        <v>11651</v>
       </c>
       <c r="C328">
-        <v>6856</v>
+        <v>9798</v>
       </c>
       <c r="D328">
-        <v>12370</v>
+        <v>13200</v>
       </c>
       <c r="E328">
-        <v>11970</v>
+        <v>12712</v>
       </c>
       <c r="F328">
-        <v>9851</v>
+        <v>11295</v>
       </c>
       <c r="G328">
-        <v>14045</v>
+        <v>14033</v>
       </c>
       <c r="H328">
+        <v>0.95</v>
+      </c>
+      <c r="I328">
+        <v>0.88</v>
+      </c>
+      <c r="J328">
+        <v>1.02</v>
+      </c>
+      <c r="K328">
+        <v>0.93</v>
+      </c>
+      <c r="L328">
+        <v>0.9</v>
+      </c>
+      <c r="M328">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13">
+      <c r="A329" s="1">
+        <v>44219</v>
+      </c>
+      <c r="B329">
+        <v>10555</v>
+      </c>
+      <c r="C329">
+        <v>8652</v>
+      </c>
+      <c r="D329">
+        <v>12708</v>
+      </c>
+      <c r="E329">
+        <v>11830</v>
+      </c>
+      <c r="F329">
+        <v>10208</v>
+      </c>
+      <c r="G329">
+        <v>13375</v>
+      </c>
+      <c r="H329">
+        <v>0.87</v>
+      </c>
+      <c r="I329">
+        <v>0.81</v>
+      </c>
+      <c r="J329">
+        <v>0.94</v>
+      </c>
+      <c r="K329">
+        <v>0.93</v>
+      </c>
+      <c r="L329">
+        <v>0.88</v>
+      </c>
+      <c r="M329">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13">
+      <c r="A330" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B330">
+        <v>10801</v>
+      </c>
+      <c r="C330">
+        <v>7754</v>
+      </c>
+      <c r="D330">
+        <v>13975</v>
+      </c>
+      <c r="E330">
+        <v>11175</v>
+      </c>
+      <c r="F330">
+        <v>9114</v>
+      </c>
+      <c r="G330">
+        <v>13193</v>
+      </c>
+      <c r="H330">
+        <v>0.81</v>
+      </c>
+      <c r="I330">
+        <v>0.73</v>
+      </c>
+      <c r="J330">
         <v>0.89</v>
       </c>
-      <c r="I328">
-        <v>0.81</v>
-      </c>
-      <c r="J328">
-        <v>0.98</v>
-      </c>
-      <c r="K328">
-        <v>0.87</v>
-      </c>
-      <c r="L328">
-        <v>0.82</v>
-      </c>
-      <c r="M328">
+      <c r="K330">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="329" spans="1:13">
-      <c r="A329" s="4">
-        <v>44219</v>
-      </c>
-      <c r="B329">
-        <v>7679</v>
-      </c>
-      <c r="C329">
-        <v>4350</v>
-      </c>
-      <c r="D329">
-        <v>10590</v>
-      </c>
-      <c r="E329">
-        <v>10330</v>
-      </c>
-      <c r="F329">
-        <v>7807</v>
-      </c>
-      <c r="G329">
-        <v>12739</v>
-      </c>
-      <c r="H329">
-        <v>0.76</v>
-      </c>
-      <c r="I329">
-        <v>0.67</v>
-      </c>
-      <c r="J329">
+      <c r="L330">
         <v>0.84</v>
+      </c>
+      <c r="M330">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13">
+      <c r="A331" s="1">
+        <v>44221</v>
+      </c>
+      <c r="B331">
+        <v>13547</v>
+      </c>
+      <c r="C331">
+        <v>7803</v>
+      </c>
+      <c r="D331">
+        <v>18671</v>
+      </c>
+      <c r="E331">
+        <v>11638</v>
+      </c>
+      <c r="F331">
+        <v>8502</v>
+      </c>
+      <c r="G331">
+        <v>14638</v>
+      </c>
+      <c r="H331">
+        <v>0.85</v>
+      </c>
+      <c r="I331">
+        <v>0.72</v>
+      </c>
+      <c r="J331">
+        <v>0.96</v>
       </c>
     </row>
   </sheetData>

--- a/rki-data/RKI-Nowcasting_Zahlen.xlsx
+++ b/rki-data/RKI-Nowcasting_Zahlen.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF3AC80-1C44-4EED-BBCE-9A737E478E5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-02-14\Nowcast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D12EC84-D28D-4C70-A2EB-0C4B2F551668}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
@@ -27,7 +32,7 @@
     <t>Ergebnisse des Nowcastings und der Schätzung der Reproduktionszahl R</t>
   </si>
   <si>
-    <t>Datenstand: 2021-02-08, 00:00 Uhr</t>
+    <t>Datenstand: 2021-02-14, 00:00 Uhr</t>
   </si>
   <si>
     <t>Die Ergebnisse des Nowcastings, also die Schätzung der Anzahl von COVID-19 Neuerkrankungen wird dargestellt mit einem gleitenden 4-Tages-Mittelwert.</t>
@@ -36,7 +41,7 @@
     <t>Dabei wird jeder Wert mit den Werten der 3 vorhergehenden Tage gemittelt.</t>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-02-08 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-02-14 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -127,13 +132,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -452,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
@@ -548,16 +550,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N341"/>
+  <dimension ref="A1:M347"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="A340" sqref="A340"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -565,7 +566,7 @@
     <col min="1" max="13" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="91.5" customHeight="1">
+    <row r="1" spans="1:13" ht="180">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -605,9 +606,8 @@
       <c r="M1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>43892</v>
       </c>
@@ -630,7 +630,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>43893</v>
       </c>
@@ -653,7 +653,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>43894</v>
       </c>
@@ -676,7 +676,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>43895</v>
       </c>
@@ -699,7 +699,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>43896</v>
       </c>
@@ -740,7 +740,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>43897</v>
       </c>
@@ -781,7 +781,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>43898</v>
       </c>
@@ -822,7 +822,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>43899</v>
       </c>
@@ -863,7 +863,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>43900</v>
       </c>
@@ -904,7 +904,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>43901</v>
       </c>
@@ -945,7 +945,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>43902</v>
       </c>
@@ -986,7 +986,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>43903</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>43904</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>43905</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>43906</v>
       </c>
@@ -11938,19 +11938,19 @@
         <v>44170</v>
       </c>
       <c r="B280">
-        <v>20434</v>
+        <v>20433</v>
       </c>
       <c r="C280">
-        <v>20245</v>
+        <v>20248</v>
       </c>
       <c r="D280">
-        <v>20664</v>
+        <v>20666</v>
       </c>
       <c r="E280">
         <v>20861</v>
       </c>
       <c r="F280">
-        <v>20656</v>
+        <v>20657</v>
       </c>
       <c r="G280">
         <v>21070</v>
@@ -11982,19 +11982,19 @@
         <v>20792</v>
       </c>
       <c r="C281">
-        <v>20618</v>
+        <v>20621</v>
       </c>
       <c r="D281">
-        <v>20960</v>
+        <v>20971</v>
       </c>
       <c r="E281">
         <v>20908</v>
       </c>
       <c r="F281">
-        <v>20714</v>
+        <v>20716</v>
       </c>
       <c r="G281">
-        <v>21100</v>
+        <v>21103</v>
       </c>
       <c r="H281">
         <v>1.08</v>
@@ -12020,22 +12020,22 @@
         <v>44172</v>
       </c>
       <c r="B282">
-        <v>26077</v>
+        <v>26076</v>
       </c>
       <c r="C282">
-        <v>25839</v>
+        <v>25841</v>
       </c>
       <c r="D282">
-        <v>26294</v>
+        <v>26289</v>
       </c>
       <c r="E282">
-        <v>22211</v>
+        <v>22210</v>
       </c>
       <c r="F282">
-        <v>22013</v>
+        <v>22015</v>
       </c>
       <c r="G282">
-        <v>22414</v>
+        <v>22416</v>
       </c>
       <c r="H282">
         <v>1.07</v>
@@ -12061,22 +12061,22 @@
         <v>44173</v>
       </c>
       <c r="B283">
-        <v>25861</v>
+        <v>25860</v>
       </c>
       <c r="C283">
-        <v>25626</v>
+        <v>25621</v>
       </c>
       <c r="D283">
-        <v>26058</v>
+        <v>26059</v>
       </c>
       <c r="E283">
-        <v>23291</v>
+        <v>23290</v>
       </c>
       <c r="F283">
-        <v>23082</v>
+        <v>23083</v>
       </c>
       <c r="G283">
-        <v>23494</v>
+        <v>23496</v>
       </c>
       <c r="H283">
         <v>1.1100000000000001</v>
@@ -12102,13 +12102,13 @@
         <v>44174</v>
       </c>
       <c r="B284">
-        <v>25169</v>
+        <v>25170</v>
       </c>
       <c r="C284">
-        <v>24970</v>
+        <v>24968</v>
       </c>
       <c r="D284">
-        <v>25369</v>
+        <v>25379</v>
       </c>
       <c r="E284">
         <v>24475</v>
@@ -12117,7 +12117,7 @@
         <v>24263</v>
       </c>
       <c r="G284">
-        <v>24670</v>
+        <v>24674</v>
       </c>
       <c r="H284">
         <v>1.17</v>
@@ -12143,22 +12143,22 @@
         <v>44175</v>
       </c>
       <c r="B285">
-        <v>24657</v>
+        <v>24654</v>
       </c>
       <c r="C285">
-        <v>24418</v>
+        <v>24423</v>
       </c>
       <c r="D285">
-        <v>24883</v>
+        <v>24874</v>
       </c>
       <c r="E285">
-        <v>25441</v>
+        <v>25440</v>
       </c>
       <c r="F285">
         <v>25213</v>
       </c>
       <c r="G285">
-        <v>25651</v>
+        <v>25650</v>
       </c>
       <c r="H285">
         <v>1.22</v>
@@ -12184,22 +12184,22 @@
         <v>44176</v>
       </c>
       <c r="B286">
-        <v>24454</v>
+        <v>24453</v>
       </c>
       <c r="C286">
-        <v>24267</v>
+        <v>24253</v>
       </c>
       <c r="D286">
-        <v>24663</v>
+        <v>24673</v>
       </c>
       <c r="E286">
-        <v>25035</v>
+        <v>25034</v>
       </c>
       <c r="F286">
-        <v>24820</v>
+        <v>24816</v>
       </c>
       <c r="G286">
-        <v>25243</v>
+        <v>25246</v>
       </c>
       <c r="H286">
         <v>1.1299999999999999</v>
@@ -12225,22 +12225,22 @@
         <v>44177</v>
       </c>
       <c r="B287">
-        <v>23006</v>
+        <v>23003</v>
       </c>
       <c r="C287">
-        <v>22830</v>
+        <v>22809</v>
       </c>
       <c r="D287">
         <v>23214</v>
       </c>
       <c r="E287">
-        <v>24321</v>
+        <v>24320</v>
       </c>
       <c r="F287">
-        <v>24121</v>
+        <v>24113</v>
       </c>
       <c r="G287">
-        <v>24532</v>
+        <v>24535</v>
       </c>
       <c r="H287">
         <v>1.04</v>
@@ -12266,22 +12266,22 @@
         <v>44178</v>
       </c>
       <c r="B288">
-        <v>22265</v>
+        <v>22263</v>
       </c>
       <c r="C288">
         <v>22012</v>
       </c>
       <c r="D288">
-        <v>22478</v>
+        <v>22482</v>
       </c>
       <c r="E288">
-        <v>23595</v>
+        <v>23594</v>
       </c>
       <c r="F288">
-        <v>23382</v>
+        <v>23374</v>
       </c>
       <c r="G288">
-        <v>23809</v>
+        <v>23811</v>
       </c>
       <c r="H288">
         <v>0.96</v>
@@ -12307,22 +12307,22 @@
         <v>44179</v>
       </c>
       <c r="B289">
-        <v>28023</v>
+        <v>28019</v>
       </c>
       <c r="C289">
-        <v>27749</v>
+        <v>27759</v>
       </c>
       <c r="D289">
-        <v>28237</v>
+        <v>28232</v>
       </c>
       <c r="E289">
-        <v>24437</v>
+        <v>24435</v>
       </c>
       <c r="F289">
-        <v>24214</v>
+        <v>24208</v>
       </c>
       <c r="G289">
-        <v>24648</v>
+        <v>24650</v>
       </c>
       <c r="H289">
         <v>0.96</v>
@@ -12348,22 +12348,22 @@
         <v>44180</v>
       </c>
       <c r="B290">
-        <v>26543</v>
+        <v>26533</v>
       </c>
       <c r="C290">
-        <v>26292</v>
+        <v>26309</v>
       </c>
       <c r="D290">
-        <v>26787</v>
+        <v>26777</v>
       </c>
       <c r="E290">
-        <v>24959</v>
+        <v>24955</v>
       </c>
       <c r="F290">
-        <v>24721</v>
+        <v>24722</v>
       </c>
       <c r="G290">
-        <v>25179</v>
+        <v>25176</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -12389,22 +12389,22 @@
         <v>44181</v>
       </c>
       <c r="B291">
-        <v>25425</v>
+        <v>25422</v>
       </c>
       <c r="C291">
-        <v>25173</v>
+        <v>25186</v>
       </c>
       <c r="D291">
-        <v>25633</v>
+        <v>25637</v>
       </c>
       <c r="E291">
-        <v>25564</v>
+        <v>25560</v>
       </c>
       <c r="F291">
-        <v>25306</v>
+        <v>25316</v>
       </c>
       <c r="G291">
-        <v>25783</v>
+        <v>25782</v>
       </c>
       <c r="H291">
         <v>1.05</v>
@@ -12430,22 +12430,22 @@
         <v>44182</v>
       </c>
       <c r="B292">
-        <v>23740</v>
+        <v>23729</v>
       </c>
       <c r="C292">
-        <v>23510</v>
+        <v>23513</v>
       </c>
       <c r="D292">
-        <v>23946</v>
+        <v>23905</v>
       </c>
       <c r="E292">
-        <v>25933</v>
+        <v>25926</v>
       </c>
       <c r="F292">
-        <v>25681</v>
+        <v>25691</v>
       </c>
       <c r="G292">
-        <v>26151</v>
+        <v>26138</v>
       </c>
       <c r="H292">
         <v>1.1000000000000001</v>
@@ -12471,22 +12471,22 @@
         <v>44183</v>
       </c>
       <c r="B293">
-        <v>23119</v>
+        <v>23108</v>
       </c>
       <c r="C293">
-        <v>22904</v>
+        <v>22919</v>
       </c>
       <c r="D293">
-        <v>23359</v>
+        <v>23333</v>
       </c>
       <c r="E293">
-        <v>24707</v>
+        <v>24698</v>
       </c>
       <c r="F293">
-        <v>24470</v>
+        <v>24481</v>
       </c>
       <c r="G293">
-        <v>24931</v>
+        <v>24913</v>
       </c>
       <c r="H293">
         <v>1.01</v>
@@ -12512,22 +12512,22 @@
         <v>44184</v>
       </c>
       <c r="B294">
-        <v>20621</v>
+        <v>20619</v>
       </c>
       <c r="C294">
-        <v>20401</v>
+        <v>20402</v>
       </c>
       <c r="D294">
-        <v>20793</v>
+        <v>20804</v>
       </c>
       <c r="E294">
-        <v>23226</v>
+        <v>23220</v>
       </c>
       <c r="F294">
-        <v>22997</v>
+        <v>23005</v>
       </c>
       <c r="G294">
-        <v>23432</v>
+        <v>23420</v>
       </c>
       <c r="H294">
         <v>0.93</v>
@@ -12553,22 +12553,22 @@
         <v>44185</v>
       </c>
       <c r="B295">
-        <v>19984</v>
+        <v>19975</v>
       </c>
       <c r="C295">
-        <v>19803</v>
+        <v>19766</v>
       </c>
       <c r="D295">
-        <v>20172</v>
+        <v>20170</v>
       </c>
       <c r="E295">
-        <v>21866</v>
+        <v>21858</v>
       </c>
       <c r="F295">
-        <v>21655</v>
+        <v>21650</v>
       </c>
       <c r="G295">
-        <v>22067</v>
+        <v>22053</v>
       </c>
       <c r="H295">
         <v>0.86</v>
@@ -12594,22 +12594,22 @@
         <v>44186</v>
       </c>
       <c r="B296">
-        <v>23027</v>
+        <v>23030</v>
       </c>
       <c r="C296">
-        <v>22812</v>
+        <v>22807</v>
       </c>
       <c r="D296">
-        <v>23228</v>
+        <v>23236</v>
       </c>
       <c r="E296">
-        <v>21688</v>
+        <v>21683</v>
       </c>
       <c r="F296">
-        <v>21480</v>
+        <v>21473</v>
       </c>
       <c r="G296">
-        <v>21888</v>
+        <v>21886</v>
       </c>
       <c r="H296">
         <v>0.84</v>
@@ -12635,22 +12635,22 @@
         <v>44187</v>
       </c>
       <c r="B297">
-        <v>20563</v>
+        <v>20560</v>
       </c>
       <c r="C297">
-        <v>20332</v>
+        <v>20327</v>
       </c>
       <c r="D297">
-        <v>20764</v>
+        <v>20732</v>
       </c>
       <c r="E297">
-        <v>21049</v>
+        <v>21046</v>
       </c>
       <c r="F297">
-        <v>20837</v>
+        <v>20825</v>
       </c>
       <c r="G297">
-        <v>21239</v>
+        <v>21235</v>
       </c>
       <c r="H297">
         <v>0.85</v>
@@ -12679,19 +12679,19 @@
         <v>18525</v>
       </c>
       <c r="C298">
-        <v>18279</v>
+        <v>18323</v>
       </c>
       <c r="D298">
-        <v>18693</v>
+        <v>18715</v>
       </c>
       <c r="E298">
-        <v>20525</v>
+        <v>20523</v>
       </c>
       <c r="F298">
         <v>20306</v>
       </c>
       <c r="G298">
-        <v>20714</v>
+        <v>20713</v>
       </c>
       <c r="H298">
         <v>0.88</v>
@@ -12717,22 +12717,22 @@
         <v>44189</v>
       </c>
       <c r="B299">
-        <v>16504</v>
+        <v>16486</v>
       </c>
       <c r="C299">
-        <v>16347</v>
+        <v>16286</v>
       </c>
       <c r="D299">
-        <v>16667</v>
+        <v>16680</v>
       </c>
       <c r="E299">
-        <v>19655</v>
+        <v>19650</v>
       </c>
       <c r="F299">
-        <v>19442</v>
+        <v>19436</v>
       </c>
       <c r="G299">
-        <v>19838</v>
+        <v>19840</v>
       </c>
       <c r="H299">
         <v>0.9</v>
@@ -12758,22 +12758,22 @@
         <v>44190</v>
       </c>
       <c r="B300">
-        <v>14931</v>
+        <v>14926</v>
       </c>
       <c r="C300">
-        <v>14746</v>
+        <v>14758</v>
       </c>
       <c r="D300">
-        <v>15094</v>
+        <v>15109</v>
       </c>
       <c r="E300">
-        <v>17631</v>
+        <v>17624</v>
       </c>
       <c r="F300">
-        <v>17426</v>
+        <v>17423</v>
       </c>
       <c r="G300">
-        <v>17804</v>
+        <v>17809</v>
       </c>
       <c r="H300">
         <v>0.81</v>
@@ -12799,22 +12799,22 @@
         <v>44191</v>
       </c>
       <c r="B301">
-        <v>16314</v>
+        <v>16304</v>
       </c>
       <c r="C301">
-        <v>16144</v>
+        <v>16132</v>
       </c>
       <c r="D301">
-        <v>16522</v>
+        <v>16491</v>
       </c>
       <c r="E301">
-        <v>16569</v>
+        <v>16560</v>
       </c>
       <c r="F301">
-        <v>16379</v>
+        <v>16375</v>
       </c>
       <c r="G301">
-        <v>16744</v>
+        <v>16748</v>
       </c>
       <c r="H301">
         <v>0.79</v>
@@ -12840,19 +12840,19 @@
         <v>44192</v>
       </c>
       <c r="B302">
-        <v>18104</v>
+        <v>18090</v>
       </c>
       <c r="C302">
-        <v>17893</v>
+        <v>17912</v>
       </c>
       <c r="D302">
-        <v>18294</v>
+        <v>18299</v>
       </c>
       <c r="E302">
-        <v>16463</v>
+        <v>16452</v>
       </c>
       <c r="F302">
-        <v>16282</v>
+        <v>16272</v>
       </c>
       <c r="G302">
         <v>16644</v>
@@ -12881,22 +12881,22 @@
         <v>44193</v>
       </c>
       <c r="B303">
-        <v>22330</v>
+        <v>22351</v>
       </c>
       <c r="C303">
-        <v>22128</v>
+        <v>22155</v>
       </c>
       <c r="D303">
-        <v>22513</v>
+        <v>22559</v>
       </c>
       <c r="E303">
-        <v>17920</v>
+        <v>17918</v>
       </c>
       <c r="F303">
-        <v>17728</v>
+        <v>17739</v>
       </c>
       <c r="G303">
-        <v>18106</v>
+        <v>18114</v>
       </c>
       <c r="H303">
         <v>0.91</v>
@@ -12922,22 +12922,22 @@
         <v>44194</v>
       </c>
       <c r="B304">
-        <v>18604</v>
+        <v>18583</v>
       </c>
       <c r="C304">
-        <v>18406</v>
+        <v>18405</v>
       </c>
       <c r="D304">
-        <v>18792</v>
+        <v>18791</v>
       </c>
       <c r="E304">
-        <v>18838</v>
+        <v>18832</v>
       </c>
       <c r="F304">
-        <v>18643</v>
+        <v>18651</v>
       </c>
       <c r="G304">
-        <v>19030</v>
+        <v>19035</v>
       </c>
       <c r="H304">
         <v>1.07</v>
@@ -12963,22 +12963,22 @@
         <v>44195</v>
       </c>
       <c r="B305">
-        <v>16287</v>
+        <v>16291</v>
       </c>
       <c r="C305">
-        <v>16101</v>
+        <v>16106</v>
       </c>
       <c r="D305">
-        <v>16477</v>
+        <v>16464</v>
       </c>
       <c r="E305">
-        <v>18831</v>
+        <v>18829</v>
       </c>
       <c r="F305">
-        <v>18632</v>
+        <v>18644</v>
       </c>
       <c r="G305">
-        <v>19019</v>
+        <v>19028</v>
       </c>
       <c r="H305">
         <v>1.1399999999999999</v>
@@ -13007,19 +13007,19 @@
         <v>14588</v>
       </c>
       <c r="C306">
-        <v>14392</v>
+        <v>14428</v>
       </c>
       <c r="D306">
-        <v>14777</v>
+        <v>14740</v>
       </c>
       <c r="E306">
         <v>17953</v>
       </c>
       <c r="F306">
-        <v>17757</v>
+        <v>17773</v>
       </c>
       <c r="G306">
-        <v>18140</v>
+        <v>18138</v>
       </c>
       <c r="H306">
         <v>1.0900000000000001</v>
@@ -13045,22 +13045,22 @@
         <v>44197</v>
       </c>
       <c r="B307">
-        <v>15092</v>
+        <v>15029</v>
       </c>
       <c r="C307">
-        <v>14929</v>
+        <v>14880</v>
       </c>
       <c r="D307">
-        <v>15268</v>
+        <v>15194</v>
       </c>
       <c r="E307">
-        <v>16143</v>
+        <v>16123</v>
       </c>
       <c r="F307">
-        <v>15957</v>
+        <v>15954</v>
       </c>
       <c r="G307">
-        <v>16328</v>
+        <v>16297</v>
       </c>
       <c r="H307">
         <v>0.9</v>
@@ -13086,22 +13086,22 @@
         <v>44198</v>
       </c>
       <c r="B308">
-        <v>16177</v>
+        <v>16141</v>
       </c>
       <c r="C308">
-        <v>15998</v>
+        <v>15980</v>
       </c>
       <c r="D308">
-        <v>16364</v>
+        <v>16326</v>
       </c>
       <c r="E308">
-        <v>15536</v>
+        <v>15512</v>
       </c>
       <c r="F308">
-        <v>15355</v>
+        <v>15348</v>
       </c>
       <c r="G308">
-        <v>15721</v>
+        <v>15681</v>
       </c>
       <c r="H308">
         <v>0.82</v>
@@ -13127,22 +13127,22 @@
         <v>44199</v>
       </c>
       <c r="B309">
-        <v>17637</v>
+        <v>17583</v>
       </c>
       <c r="C309">
-        <v>17410</v>
+        <v>17407</v>
       </c>
       <c r="D309">
-        <v>17822</v>
+        <v>17729</v>
       </c>
       <c r="E309">
-        <v>15874</v>
+        <v>15835</v>
       </c>
       <c r="F309">
-        <v>15682</v>
+        <v>15673</v>
       </c>
       <c r="G309">
-        <v>16058</v>
+        <v>15997</v>
       </c>
       <c r="H309">
         <v>0.84</v>
@@ -13168,22 +13168,22 @@
         <v>44200</v>
       </c>
       <c r="B310">
-        <v>21408</v>
+        <v>21379</v>
       </c>
       <c r="C310">
-        <v>21208</v>
+        <v>21191</v>
       </c>
       <c r="D310">
-        <v>21590</v>
+        <v>21595</v>
       </c>
       <c r="E310">
-        <v>17579</v>
+        <v>17533</v>
       </c>
       <c r="F310">
-        <v>17386</v>
+        <v>17364</v>
       </c>
       <c r="G310">
-        <v>17761</v>
+        <v>17711</v>
       </c>
       <c r="H310">
         <v>0.98</v>
@@ -13192,7 +13192,7 @@
         <v>0.97</v>
       </c>
       <c r="J310">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="K310">
         <v>0.99</v>
@@ -13209,22 +13209,22 @@
         <v>44201</v>
       </c>
       <c r="B311">
-        <v>19201</v>
+        <v>19196</v>
       </c>
       <c r="C311">
-        <v>19024</v>
+        <v>19030</v>
       </c>
       <c r="D311">
-        <v>19378</v>
+        <v>19389</v>
       </c>
       <c r="E311">
-        <v>18606</v>
+        <v>18575</v>
       </c>
       <c r="F311">
-        <v>18410</v>
+        <v>18402</v>
       </c>
       <c r="G311">
-        <v>18788</v>
+        <v>18760</v>
       </c>
       <c r="H311">
         <v>1.1499999999999999</v>
@@ -13239,7 +13239,7 @@
         <v>1</v>
       </c>
       <c r="L311">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="M311">
         <v>1</v>
@@ -13250,22 +13250,22 @@
         <v>44202</v>
       </c>
       <c r="B312">
-        <v>17012</v>
+        <v>17011</v>
       </c>
       <c r="C312">
-        <v>16834</v>
+        <v>16839</v>
       </c>
       <c r="D312">
-        <v>17193</v>
+        <v>17214</v>
       </c>
       <c r="E312">
-        <v>18815</v>
+        <v>18792</v>
       </c>
       <c r="F312">
-        <v>18619</v>
+        <v>18616</v>
       </c>
       <c r="G312">
-        <v>18996</v>
+        <v>18982</v>
       </c>
       <c r="H312">
         <v>1.21</v>
@@ -13291,25 +13291,25 @@
         <v>44203</v>
       </c>
       <c r="B313">
-        <v>15664</v>
+        <v>15628</v>
       </c>
       <c r="C313">
-        <v>15491</v>
+        <v>15425</v>
       </c>
       <c r="D313">
-        <v>15826</v>
+        <v>15791</v>
       </c>
       <c r="E313">
-        <v>18321</v>
+        <v>18303</v>
       </c>
       <c r="F313">
-        <v>18139</v>
+        <v>18121</v>
       </c>
       <c r="G313">
         <v>18497</v>
       </c>
       <c r="H313">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I313">
         <v>1.1499999999999999</v>
@@ -13332,22 +13332,22 @@
         <v>44204</v>
       </c>
       <c r="B314">
-        <v>15465</v>
+        <v>15434</v>
       </c>
       <c r="C314">
-        <v>15316</v>
+        <v>15270</v>
       </c>
       <c r="D314">
-        <v>15653</v>
+        <v>15599</v>
       </c>
       <c r="E314">
-        <v>16836</v>
+        <v>16817</v>
       </c>
       <c r="F314">
-        <v>16666</v>
+        <v>16641</v>
       </c>
       <c r="G314">
-        <v>17013</v>
+        <v>16998</v>
       </c>
       <c r="H314">
         <v>0.96</v>
@@ -13356,7 +13356,7 @@
         <v>0.95</v>
       </c>
       <c r="J314">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="K314">
         <v>1</v>
@@ -13373,22 +13373,22 @@
         <v>44205</v>
       </c>
       <c r="B315">
-        <v>13458</v>
+        <v>13397</v>
       </c>
       <c r="C315">
-        <v>13248</v>
+        <v>13238</v>
       </c>
       <c r="D315">
-        <v>13690</v>
+        <v>13559</v>
       </c>
       <c r="E315">
-        <v>15400</v>
+        <v>15367</v>
       </c>
       <c r="F315">
-        <v>15222</v>
+        <v>15193</v>
       </c>
       <c r="G315">
-        <v>15591</v>
+        <v>15541</v>
       </c>
       <c r="H315">
         <v>0.83</v>
@@ -13414,22 +13414,22 @@
         <v>44206</v>
       </c>
       <c r="B316">
-        <v>14014</v>
+        <v>13987</v>
       </c>
       <c r="C316">
-        <v>13802</v>
+        <v>13835</v>
       </c>
       <c r="D316">
-        <v>14267</v>
+        <v>14148</v>
       </c>
       <c r="E316">
-        <v>14650</v>
+        <v>14611</v>
       </c>
       <c r="F316">
-        <v>14464</v>
+        <v>14442</v>
       </c>
       <c r="G316">
-        <v>14859</v>
+        <v>14774</v>
       </c>
       <c r="H316">
         <v>0.78</v>
@@ -13438,7 +13438,7 @@
         <v>0.77</v>
       </c>
       <c r="J316">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="K316">
         <v>0.91</v>
@@ -13455,22 +13455,22 @@
         <v>44207</v>
       </c>
       <c r="B317">
-        <v>16652</v>
+        <v>16660</v>
       </c>
       <c r="C317">
-        <v>16414</v>
+        <v>16486</v>
       </c>
       <c r="D317">
-        <v>16882</v>
+        <v>16831</v>
       </c>
       <c r="E317">
-        <v>14897</v>
+        <v>14869</v>
       </c>
       <c r="F317">
-        <v>14695</v>
+        <v>14707</v>
       </c>
       <c r="G317">
-        <v>15123</v>
+        <v>15034</v>
       </c>
       <c r="H317">
         <v>0.81</v>
@@ -13496,22 +13496,22 @@
         <v>44208</v>
       </c>
       <c r="B318">
-        <v>15166</v>
+        <v>15203</v>
       </c>
       <c r="C318">
-        <v>14940</v>
+        <v>15050</v>
       </c>
       <c r="D318">
-        <v>15340</v>
+        <v>15386</v>
       </c>
       <c r="E318">
-        <v>14822</v>
+        <v>14812</v>
       </c>
       <c r="F318">
-        <v>14601</v>
+        <v>14652</v>
       </c>
       <c r="G318">
-        <v>15045</v>
+        <v>14981</v>
       </c>
       <c r="H318">
         <v>0.88</v>
@@ -13537,22 +13537,22 @@
         <v>44209</v>
       </c>
       <c r="B319">
-        <v>14463</v>
+        <v>14536</v>
       </c>
       <c r="C319">
-        <v>14220</v>
+        <v>14368</v>
       </c>
       <c r="D319">
-        <v>14717</v>
+        <v>14688</v>
       </c>
       <c r="E319">
-        <v>15074</v>
+        <v>15097</v>
       </c>
       <c r="F319">
-        <v>14844</v>
+        <v>14935</v>
       </c>
       <c r="G319">
-        <v>15302</v>
+        <v>15263</v>
       </c>
       <c r="H319">
         <v>0.98</v>
@@ -13578,28 +13578,28 @@
         <v>44210</v>
       </c>
       <c r="B320">
-        <v>13427</v>
+        <v>13435</v>
       </c>
       <c r="C320">
-        <v>13237</v>
+        <v>13255</v>
       </c>
       <c r="D320">
-        <v>13646</v>
+        <v>13596</v>
       </c>
       <c r="E320">
-        <v>14927</v>
+        <v>14958</v>
       </c>
       <c r="F320">
-        <v>14703</v>
+        <v>14790</v>
       </c>
       <c r="G320">
-        <v>15146</v>
+        <v>15125</v>
       </c>
       <c r="H320">
         <v>1.02</v>
       </c>
       <c r="I320">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="J320">
         <v>1.03</v>
@@ -13619,22 +13619,22 @@
         <v>44211</v>
       </c>
       <c r="B321">
-        <v>13352</v>
+        <v>13379</v>
       </c>
       <c r="C321">
-        <v>13145</v>
+        <v>13114</v>
       </c>
       <c r="D321">
-        <v>13652</v>
+        <v>13611</v>
       </c>
       <c r="E321">
-        <v>14102</v>
+        <v>14138</v>
       </c>
       <c r="F321">
-        <v>13886</v>
+        <v>13947</v>
       </c>
       <c r="G321">
-        <v>14339</v>
+        <v>14320</v>
       </c>
       <c r="H321">
         <v>0.95</v>
@@ -13660,22 +13660,22 @@
         <v>44212</v>
       </c>
       <c r="B322">
-        <v>12040</v>
+        <v>12056</v>
       </c>
       <c r="C322">
-        <v>11860</v>
+        <v>11776</v>
       </c>
       <c r="D322">
-        <v>12218</v>
+        <v>12270</v>
       </c>
       <c r="E322">
-        <v>13320</v>
+        <v>13352</v>
       </c>
       <c r="F322">
-        <v>13115</v>
+        <v>13128</v>
       </c>
       <c r="G322">
-        <v>13558</v>
+        <v>13541</v>
       </c>
       <c r="H322">
         <v>0.9</v>
@@ -13701,31 +13701,31 @@
         <v>44213</v>
       </c>
       <c r="B323">
-        <v>12165</v>
+        <v>12148</v>
       </c>
       <c r="C323">
-        <v>11970</v>
+        <v>11925</v>
       </c>
       <c r="D323">
-        <v>12382</v>
+        <v>12352</v>
       </c>
       <c r="E323">
-        <v>12746</v>
+        <v>12754</v>
       </c>
       <c r="F323">
-        <v>12553</v>
+        <v>12517</v>
       </c>
       <c r="G323">
-        <v>12975</v>
+        <v>12957</v>
       </c>
       <c r="H323">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="I323">
         <v>0.84</v>
       </c>
       <c r="J323">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="K323">
         <v>0.94</v>
@@ -13742,22 +13742,22 @@
         <v>44214</v>
       </c>
       <c r="B324">
-        <v>15391</v>
+        <v>15397</v>
       </c>
       <c r="C324">
-        <v>15011</v>
+        <v>15097</v>
       </c>
       <c r="D324">
-        <v>15728</v>
+        <v>15704</v>
       </c>
       <c r="E324">
-        <v>13237</v>
+        <v>13245</v>
       </c>
       <c r="F324">
-        <v>12996</v>
+        <v>12978</v>
       </c>
       <c r="G324">
-        <v>13495</v>
+        <v>13484</v>
       </c>
       <c r="H324">
         <v>0.89</v>
@@ -13766,7 +13766,7 @@
         <v>0.88</v>
       </c>
       <c r="J324">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="K324">
         <v>0.94</v>
@@ -13783,22 +13783,22 @@
         <v>44215</v>
       </c>
       <c r="B325">
-        <v>14018</v>
+        <v>13990</v>
       </c>
       <c r="C325">
-        <v>13633</v>
+        <v>13744</v>
       </c>
       <c r="D325">
-        <v>14394</v>
+        <v>14232</v>
       </c>
       <c r="E325">
-        <v>13403</v>
+        <v>13398</v>
       </c>
       <c r="F325">
-        <v>13118</v>
+        <v>13135</v>
       </c>
       <c r="G325">
-        <v>13681</v>
+        <v>13639</v>
       </c>
       <c r="H325">
         <v>0.95</v>
@@ -13810,7 +13810,7 @@
         <v>0.96</v>
       </c>
       <c r="K325">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="L325">
         <v>0.94</v>
@@ -13824,34 +13824,34 @@
         <v>44216</v>
       </c>
       <c r="B326">
-        <v>13320</v>
+        <v>13265</v>
       </c>
       <c r="C326">
-        <v>13060</v>
+        <v>13026</v>
       </c>
       <c r="D326">
-        <v>13648</v>
+        <v>13534</v>
       </c>
       <c r="E326">
-        <v>13724</v>
+        <v>13700</v>
       </c>
       <c r="F326">
-        <v>13419</v>
+        <v>13448</v>
       </c>
       <c r="G326">
-        <v>14038</v>
+        <v>13955</v>
       </c>
       <c r="H326">
         <v>1.03</v>
       </c>
       <c r="I326">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="J326">
         <v>1.04</v>
       </c>
       <c r="K326">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="L326">
         <v>0.94</v>
@@ -13865,25 +13865,25 @@
         <v>44217</v>
       </c>
       <c r="B327">
-        <v>11666</v>
+        <v>11637</v>
       </c>
       <c r="C327">
-        <v>11412</v>
+        <v>11438</v>
       </c>
       <c r="D327">
-        <v>11924</v>
+        <v>11832</v>
       </c>
       <c r="E327">
-        <v>13599</v>
+        <v>13572</v>
       </c>
       <c r="F327">
-        <v>13279</v>
+        <v>13326</v>
       </c>
       <c r="G327">
-        <v>13924</v>
+        <v>13825</v>
       </c>
       <c r="H327">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="I327">
         <v>1.05</v>
@@ -13898,7 +13898,7 @@
         <v>0.93</v>
       </c>
       <c r="M327">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="328" spans="1:13">
@@ -13906,22 +13906,22 @@
         <v>44218</v>
       </c>
       <c r="B328">
-        <v>11499</v>
+        <v>11470</v>
       </c>
       <c r="C328">
-        <v>11187</v>
+        <v>11299</v>
       </c>
       <c r="D328">
-        <v>11779</v>
+        <v>11684</v>
       </c>
       <c r="E328">
-        <v>12626</v>
+        <v>12591</v>
       </c>
       <c r="F328">
-        <v>12323</v>
+        <v>12377</v>
       </c>
       <c r="G328">
-        <v>12936</v>
+        <v>12820</v>
       </c>
       <c r="H328">
         <v>0.95</v>
@@ -13930,16 +13930,16 @@
         <v>0.94</v>
       </c>
       <c r="J328">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="K328">
         <v>0.93</v>
       </c>
       <c r="L328">
+        <v>0.92</v>
+      </c>
+      <c r="M328">
         <v>0.93</v>
-      </c>
-      <c r="M328">
-        <v>0.94</v>
       </c>
     </row>
     <row r="329" spans="1:13">
@@ -13947,22 +13947,22 @@
         <v>44219</v>
       </c>
       <c r="B329">
-        <v>10347</v>
+        <v>10283</v>
       </c>
       <c r="C329">
-        <v>10012</v>
+        <v>10087</v>
       </c>
       <c r="D329">
-        <v>10631</v>
+        <v>10465</v>
       </c>
       <c r="E329">
-        <v>11708</v>
+        <v>11664</v>
       </c>
       <c r="F329">
-        <v>11418</v>
+        <v>11463</v>
       </c>
       <c r="G329">
-        <v>11996</v>
+        <v>11879</v>
       </c>
       <c r="H329">
         <v>0.87</v>
@@ -13971,7 +13971,7 @@
         <v>0.86</v>
       </c>
       <c r="J329">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="K329">
         <v>0.92</v>
@@ -13980,7 +13980,7 @@
         <v>0.91</v>
       </c>
       <c r="M329">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="330" spans="1:13">
@@ -13988,22 +13988,22 @@
         <v>44220</v>
       </c>
       <c r="B330">
-        <v>10119</v>
+        <v>10017</v>
       </c>
       <c r="C330">
-        <v>9861</v>
+        <v>9811</v>
       </c>
       <c r="D330">
-        <v>10380</v>
+        <v>10222</v>
       </c>
       <c r="E330">
-        <v>10908</v>
+        <v>10852</v>
       </c>
       <c r="F330">
-        <v>10618</v>
+        <v>10659</v>
       </c>
       <c r="G330">
-        <v>11179</v>
+        <v>11051</v>
       </c>
       <c r="H330">
         <v>0.79</v>
@@ -14012,16 +14012,16 @@
         <v>0.78</v>
       </c>
       <c r="J330">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="K330">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="L330">
         <v>0.9</v>
       </c>
       <c r="M330">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="331" spans="1:13">
@@ -14029,22 +14029,22 @@
         <v>44221</v>
       </c>
       <c r="B331">
-        <v>12445</v>
+        <v>12477</v>
       </c>
       <c r="C331">
-        <v>11980</v>
+        <v>12247</v>
       </c>
       <c r="D331">
-        <v>12904</v>
+        <v>12673</v>
       </c>
       <c r="E331">
-        <v>11102</v>
+        <v>11062</v>
       </c>
       <c r="F331">
-        <v>10760</v>
+        <v>10861</v>
       </c>
       <c r="G331">
-        <v>11424</v>
+        <v>11261</v>
       </c>
       <c r="H331">
         <v>0.82</v>
@@ -14062,7 +14062,7 @@
         <v>0.89</v>
       </c>
       <c r="M331">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="332" spans="1:13">
@@ -14070,31 +14070,31 @@
         <v>44222</v>
       </c>
       <c r="B332">
-        <v>11497</v>
+        <v>11450</v>
       </c>
       <c r="C332">
-        <v>10963</v>
+        <v>11223</v>
       </c>
       <c r="D332">
-        <v>12078</v>
+        <v>11685</v>
       </c>
       <c r="E332">
-        <v>11102</v>
+        <v>11057</v>
       </c>
       <c r="F332">
-        <v>10704</v>
+        <v>10842</v>
       </c>
       <c r="G332">
-        <v>11498</v>
+        <v>11261</v>
       </c>
       <c r="H332">
         <v>0.88</v>
       </c>
       <c r="I332">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="J332">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="K332">
         <v>0.88</v>
@@ -14103,7 +14103,7 @@
         <v>0.87</v>
       </c>
       <c r="M332">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="333" spans="1:13">
@@ -14111,31 +14111,31 @@
         <v>44223</v>
       </c>
       <c r="B333">
-        <v>10479</v>
+        <v>10396</v>
       </c>
       <c r="C333">
-        <v>9909</v>
+        <v>10152</v>
       </c>
       <c r="D333">
-        <v>10991</v>
+        <v>10607</v>
       </c>
       <c r="E333">
-        <v>11135</v>
+        <v>11085</v>
       </c>
       <c r="F333">
-        <v>10678</v>
+        <v>10858</v>
       </c>
       <c r="G333">
-        <v>11588</v>
+        <v>11297</v>
       </c>
       <c r="H333">
         <v>0.95</v>
       </c>
       <c r="I333">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="J333">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="K333">
         <v>0.88</v>
@@ -14144,7 +14144,7 @@
         <v>0.87</v>
       </c>
       <c r="M333">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="334" spans="1:13">
@@ -14152,31 +14152,31 @@
         <v>44224</v>
       </c>
       <c r="B334">
-        <v>9898</v>
+        <v>9831</v>
       </c>
       <c r="C334">
-        <v>9284</v>
+        <v>9596</v>
       </c>
       <c r="D334">
-        <v>10510</v>
+        <v>10117</v>
       </c>
       <c r="E334">
-        <v>11080</v>
+        <v>11038</v>
       </c>
       <c r="F334">
-        <v>10534</v>
+        <v>10804</v>
       </c>
       <c r="G334">
-        <v>11621</v>
+        <v>11271</v>
       </c>
       <c r="H334">
         <v>1.02</v>
       </c>
       <c r="I334">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="J334">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K334">
         <v>0.89</v>
@@ -14185,7 +14185,7 @@
         <v>0.88</v>
       </c>
       <c r="M334">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="335" spans="1:13">
@@ -14193,40 +14193,40 @@
         <v>44225</v>
       </c>
       <c r="B335">
-        <v>9507</v>
+        <v>9359</v>
       </c>
       <c r="C335">
-        <v>8918</v>
+        <v>9089</v>
       </c>
       <c r="D335">
-        <v>10242</v>
+        <v>9584</v>
       </c>
       <c r="E335">
-        <v>10345</v>
+        <v>10259</v>
       </c>
       <c r="F335">
-        <v>9768</v>
+        <v>10015</v>
       </c>
       <c r="G335">
-        <v>10955</v>
+        <v>10498</v>
       </c>
       <c r="H335">
         <v>0.93</v>
       </c>
       <c r="I335">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="J335">
-        <v>0.96</v>
+        <v>0.94</v>
       </c>
       <c r="K335">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="L335">
         <v>0.88</v>
       </c>
       <c r="M335">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="336" spans="1:13">
@@ -14234,40 +14234,40 @@
         <v>44226</v>
       </c>
       <c r="B336">
-        <v>8563</v>
+        <v>8292</v>
       </c>
       <c r="C336">
-        <v>7733</v>
+        <v>8003</v>
       </c>
       <c r="D336">
-        <v>9293</v>
+        <v>8526</v>
       </c>
       <c r="E336">
-        <v>9612</v>
+        <v>9470</v>
       </c>
       <c r="F336">
-        <v>8961</v>
+        <v>9210</v>
       </c>
       <c r="G336">
-        <v>10259</v>
+        <v>9709</v>
       </c>
       <c r="H336">
+        <v>0.86</v>
+      </c>
+      <c r="I336">
+        <v>0.84</v>
+      </c>
+      <c r="J336">
         <v>0.87</v>
       </c>
-      <c r="I336">
-        <v>0.83</v>
-      </c>
-      <c r="J336">
+      <c r="K336">
         <v>0.9</v>
-      </c>
-      <c r="K336">
-        <v>0.91</v>
       </c>
       <c r="L336">
         <v>0.89</v>
       </c>
       <c r="M336">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="337" spans="1:13">
@@ -14275,40 +14275,40 @@
         <v>44227</v>
       </c>
       <c r="B337">
-        <v>8552</v>
+        <v>8230</v>
       </c>
       <c r="C337">
-        <v>7584</v>
+        <v>7913</v>
       </c>
       <c r="D337">
-        <v>9592</v>
+        <v>8538</v>
       </c>
       <c r="E337">
-        <v>9130</v>
+        <v>8928</v>
       </c>
       <c r="F337">
-        <v>8380</v>
+        <v>8650</v>
       </c>
       <c r="G337">
-        <v>9909</v>
+        <v>9191</v>
       </c>
       <c r="H337">
+        <v>0.81</v>
+      </c>
+      <c r="I337">
+        <v>0.79</v>
+      </c>
+      <c r="J337">
         <v>0.82</v>
       </c>
-      <c r="I337">
-        <v>0.78</v>
-      </c>
-      <c r="J337">
-        <v>0.86</v>
-      </c>
       <c r="K337">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="L337">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="M337">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="338" spans="1:13">
@@ -14316,40 +14316,40 @@
         <v>44228</v>
       </c>
       <c r="B338">
-        <v>10553</v>
+        <v>10437</v>
       </c>
       <c r="C338">
-        <v>9041</v>
+        <v>10030</v>
       </c>
       <c r="D338">
-        <v>11993</v>
+        <v>10864</v>
       </c>
       <c r="E338">
-        <v>9294</v>
+        <v>9080</v>
       </c>
       <c r="F338">
-        <v>8319</v>
+        <v>8759</v>
       </c>
       <c r="G338">
-        <v>10280</v>
+        <v>9378</v>
       </c>
       <c r="H338">
+        <v>0.82</v>
+      </c>
+      <c r="I338">
+        <v>0.8</v>
+      </c>
+      <c r="J338">
         <v>0.84</v>
       </c>
-      <c r="I338">
-        <v>0.79</v>
-      </c>
-      <c r="J338">
+      <c r="K338">
+        <v>0.9</v>
+      </c>
+      <c r="L338">
         <v>0.89</v>
       </c>
-      <c r="K338">
+      <c r="M338">
         <v>0.91</v>
-      </c>
-      <c r="L338">
-        <v>0.87</v>
-      </c>
-      <c r="M338">
-        <v>0.95</v>
       </c>
     </row>
     <row r="339" spans="1:13">
@@ -14357,40 +14357,40 @@
         <v>44229</v>
       </c>
       <c r="B339">
-        <v>10152</v>
+        <v>9600</v>
       </c>
       <c r="C339">
-        <v>7674</v>
+        <v>9178</v>
       </c>
       <c r="D339">
-        <v>12218</v>
+        <v>10033</v>
       </c>
       <c r="E339">
-        <v>9455</v>
+        <v>9140</v>
       </c>
       <c r="F339">
-        <v>8008</v>
+        <v>8781</v>
       </c>
       <c r="G339">
-        <v>10774</v>
+        <v>9490</v>
       </c>
       <c r="H339">
+        <v>0.89</v>
+      </c>
+      <c r="I339">
+        <v>0.87</v>
+      </c>
+      <c r="J339">
         <v>0.91</v>
       </c>
-      <c r="I339">
-        <v>0.84</v>
-      </c>
-      <c r="J339">
-        <v>1</v>
-      </c>
       <c r="K339">
+        <v>0.9</v>
+      </c>
+      <c r="L339">
+        <v>0.88</v>
+      </c>
+      <c r="M339">
         <v>0.91</v>
-      </c>
-      <c r="L339">
-        <v>0.85</v>
-      </c>
-      <c r="M339">
-        <v>0.97</v>
       </c>
     </row>
     <row r="340" spans="1:13">
@@ -14398,40 +14398,40 @@
         <v>44230</v>
       </c>
       <c r="B340">
-        <v>8525</v>
+        <v>8611</v>
       </c>
       <c r="C340">
-        <v>6185</v>
+        <v>8130</v>
       </c>
       <c r="D340">
-        <v>11118</v>
+        <v>9137</v>
       </c>
       <c r="E340">
-        <v>9446</v>
+        <v>9220</v>
       </c>
       <c r="F340">
-        <v>7621</v>
+        <v>8813</v>
       </c>
       <c r="G340">
-        <v>11230</v>
+        <v>9643</v>
       </c>
       <c r="H340">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="I340">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="J340">
-        <v>1.1100000000000001</v>
+        <v>1</v>
       </c>
       <c r="K340">
         <v>0.89</v>
       </c>
       <c r="L340">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="M340">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="341" spans="1:13">
@@ -14439,35 +14439,280 @@
         <v>44231</v>
       </c>
       <c r="B341">
-        <v>7242</v>
+        <v>7761</v>
       </c>
       <c r="C341">
-        <v>4059</v>
+        <v>7197</v>
       </c>
       <c r="D341">
-        <v>10077</v>
+        <v>8267</v>
       </c>
       <c r="E341">
-        <v>9118</v>
+        <v>9102</v>
       </c>
       <c r="F341">
-        <v>6740</v>
+        <v>8634</v>
       </c>
       <c r="G341">
-        <v>11352</v>
+        <v>9575</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="I341">
+        <v>0.99</v>
+      </c>
+      <c r="J341">
+        <v>1.05</v>
+      </c>
+      <c r="K341">
+        <v>0.89</v>
+      </c>
+      <c r="L341">
+        <v>0.87</v>
+      </c>
+      <c r="M341">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13">
+      <c r="A342" s="1">
+        <v>44232</v>
+      </c>
+      <c r="B342">
+        <v>7494</v>
+      </c>
+      <c r="C342">
+        <v>6834</v>
+      </c>
+      <c r="D342">
+        <v>8358</v>
+      </c>
+      <c r="E342">
+        <v>8367</v>
+      </c>
+      <c r="F342">
+        <v>7835</v>
+      </c>
+      <c r="G342">
+        <v>8949</v>
+      </c>
+      <c r="H342">
+        <v>0.92</v>
+      </c>
+      <c r="I342">
+        <v>0.88</v>
+      </c>
+      <c r="J342">
+        <v>0.96</v>
+      </c>
+      <c r="K342">
+        <v>0.89</v>
+      </c>
+      <c r="L342">
+        <v>0.87</v>
+      </c>
+      <c r="M342">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13">
+      <c r="A343" s="1">
+        <v>44233</v>
+      </c>
+      <c r="B343">
+        <v>6748</v>
+      </c>
+      <c r="C343">
+        <v>5883</v>
+      </c>
+      <c r="D343">
+        <v>7616</v>
+      </c>
+      <c r="E343">
+        <v>7653</v>
+      </c>
+      <c r="F343">
+        <v>7011</v>
+      </c>
+      <c r="G343">
+        <v>8344</v>
+      </c>
+      <c r="H343">
+        <v>0.84</v>
+      </c>
+      <c r="I343">
+        <v>0.8</v>
+      </c>
+      <c r="J343">
+        <v>0.88</v>
+      </c>
+      <c r="K343">
+        <v>0.89</v>
+      </c>
+      <c r="L343">
+        <v>0.86</v>
+      </c>
+      <c r="M343">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13">
+      <c r="A344" s="1">
+        <v>44234</v>
+      </c>
+      <c r="B344">
+        <v>6537</v>
+      </c>
+      <c r="C344">
+        <v>5616</v>
+      </c>
+      <c r="D344">
+        <v>7472</v>
+      </c>
+      <c r="E344">
+        <v>7135</v>
+      </c>
+      <c r="F344">
+        <v>6383</v>
+      </c>
+      <c r="G344">
+        <v>7928</v>
+      </c>
+      <c r="H344">
+        <v>0.77</v>
+      </c>
+      <c r="I344">
+        <v>0.73</v>
+      </c>
+      <c r="J344">
+        <v>0.82</v>
+      </c>
+      <c r="K344">
+        <v>0.88</v>
+      </c>
+      <c r="L344">
+        <v>0.84</v>
+      </c>
+      <c r="M344">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13">
+      <c r="A345" s="1">
+        <v>44235</v>
+      </c>
+      <c r="B345">
+        <v>7910</v>
+      </c>
+      <c r="C345">
+        <v>6348</v>
+      </c>
+      <c r="D345">
+        <v>9581</v>
+      </c>
+      <c r="E345">
+        <v>7172</v>
+      </c>
+      <c r="F345">
+        <v>6170</v>
+      </c>
+      <c r="G345">
+        <v>8257</v>
+      </c>
+      <c r="H345">
+        <v>0.79</v>
+      </c>
+      <c r="I345">
+        <v>0.72</v>
+      </c>
+      <c r="J345">
         <v>0.85</v>
       </c>
-      <c r="J341">
-        <v>1.19</v>
+      <c r="K345">
+        <v>0.88</v>
+      </c>
+      <c r="L345">
+        <v>0.83</v>
+      </c>
+      <c r="M345">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13">
+      <c r="A346" s="1">
+        <v>44236</v>
+      </c>
+      <c r="B346">
+        <v>7941</v>
+      </c>
+      <c r="C346">
+        <v>6182</v>
+      </c>
+      <c r="D346">
+        <v>9718</v>
+      </c>
+      <c r="E346">
+        <v>7284</v>
+      </c>
+      <c r="F346">
+        <v>6007</v>
+      </c>
+      <c r="G346">
+        <v>8597</v>
+      </c>
+      <c r="H346">
+        <v>0.87</v>
+      </c>
+      <c r="I346">
+        <v>0.78</v>
+      </c>
+      <c r="J346">
+        <v>0.96</v>
+      </c>
+      <c r="K346">
+        <v>0.88</v>
+      </c>
+      <c r="L346">
+        <v>0.81</v>
+      </c>
+      <c r="M346">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13">
+      <c r="A347" s="1">
+        <v>44237</v>
+      </c>
+      <c r="B347">
+        <v>7694</v>
+      </c>
+      <c r="C347">
+        <v>4538</v>
+      </c>
+      <c r="D347">
+        <v>10221</v>
+      </c>
+      <c r="E347">
+        <v>7521</v>
+      </c>
+      <c r="F347">
+        <v>5671</v>
+      </c>
+      <c r="G347">
+        <v>9248</v>
+      </c>
+      <c r="H347">
+        <v>0.98</v>
+      </c>
+      <c r="I347">
+        <v>0.85</v>
+      </c>
+      <c r="J347">
+        <v>1.1200000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rki-data/RKI-Nowcasting_Zahlen.xlsx
+++ b/rki-data/RKI-Nowcasting_Zahlen.xlsx
@@ -2,8 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50683E9-D756-4E37-B6E3-9A7285B4256A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Presse_Internet\_Ablage-Corona-Dokumente-zum-Hochladen\lagebericht\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04F69A7-8CE9-4295-90E0-7F5EBFFDB12B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="399">
   <si>
     <t>Erläuterung</t>
   </si>
@@ -27,7 +32,7 @@
     <t>Ergebnisse des Nowcastings und der Schätzung der Reproduktionszahl R</t>
   </si>
   <si>
-    <t>Datenstand: 2021-03-09, 00:00 Uhr</t>
+    <t>Datenstand: 2021-03-14, 00:00 Uhr</t>
   </si>
   <si>
     <t>Die Ergebnisse des Nowcastings, also die Schätzung der Anzahl von COVID-19 Neuerkrankungen wird dargestellt mit einem gleitenden 4-Tages-Mittelwert.</t>
@@ -36,7 +41,7 @@
     <t>Dabei wird jeder Wert mit den Werten der 3 vorhergehenden Tage gemittelt.</t>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-03-09 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-03-14 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -1159,6 +1164,21 @@
   </si>
   <si>
     <t>05.03.2021</t>
+  </si>
+  <si>
+    <t>06.03.2021</t>
+  </si>
+  <si>
+    <t>07.03.2021</t>
+  </si>
+  <si>
+    <t>08.03.2021</t>
+  </si>
+  <si>
+    <t>09.03.2021</t>
+  </si>
+  <si>
+    <t>10.03.2021</t>
   </si>
   <si>
     <t>Punktschätzer der Anzahl Neuerkrankungen (ohne Glättung)</t>
@@ -1646,16 +1666,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M370"/>
+  <dimension ref="A1:M375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:M375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1665,40 +1684,40 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C1" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D1" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F1" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="G1" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="I1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="J1" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="K1" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="L1" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="M1" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1724,22 +1743,22 @@
         <v>238</v>
       </c>
       <c r="H2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="I2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="J2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="L2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="M2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1765,22 +1784,22 @@
         <v>276</v>
       </c>
       <c r="H3" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="I3" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="J3" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K3" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="L3" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="M3" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1806,22 +1825,22 @@
         <v>342</v>
       </c>
       <c r="H4" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="I4" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="J4" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K4" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="L4" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="M4" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1847,22 +1866,22 @@
         <v>412</v>
       </c>
       <c r="H5" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="I5" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="J5" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K5" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="L5" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="M5" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -14296,7 +14315,7 @@
         <v>17560</v>
       </c>
       <c r="C309" s="1">
-        <v>17378</v>
+        <v>17380</v>
       </c>
       <c r="D309" s="1">
         <v>17758</v>
@@ -14334,22 +14353,22 @@
         <v>320</v>
       </c>
       <c r="B310" s="1">
-        <v>21341</v>
+        <v>21342</v>
       </c>
       <c r="C310" s="1">
-        <v>21167</v>
+        <v>21166</v>
       </c>
       <c r="D310" s="1">
-        <v>21533</v>
+        <v>21536</v>
       </c>
       <c r="E310" s="1">
-        <v>17505</v>
+        <v>17506</v>
       </c>
       <c r="F310" s="1">
         <v>17334</v>
       </c>
       <c r="G310" s="1">
-        <v>17688</v>
+        <v>17689</v>
       </c>
       <c r="H310" s="2">
         <v>0.98</v>
@@ -14381,16 +14400,16 @@
         <v>18976</v>
       </c>
       <c r="D311" s="1">
-        <v>19338</v>
+        <v>19340</v>
       </c>
       <c r="E311" s="1">
-        <v>18543</v>
+        <v>18544</v>
       </c>
       <c r="F311" s="1">
         <v>18368</v>
       </c>
       <c r="G311" s="1">
-        <v>18725</v>
+        <v>18726</v>
       </c>
       <c r="H311" s="2">
         <v>1.1499999999999999</v>
@@ -14416,22 +14435,22 @@
         <v>322</v>
       </c>
       <c r="B312" s="1">
-        <v>17010</v>
+        <v>17011</v>
       </c>
       <c r="C312" s="1">
-        <v>16824</v>
+        <v>16822</v>
       </c>
       <c r="D312" s="1">
         <v>17193</v>
       </c>
       <c r="E312" s="1">
-        <v>18768</v>
+        <v>18769</v>
       </c>
       <c r="F312" s="1">
         <v>18586</v>
       </c>
       <c r="G312" s="1">
-        <v>18955</v>
+        <v>18957</v>
       </c>
       <c r="H312" s="2">
         <v>1.21</v>
@@ -14457,22 +14476,22 @@
         <v>323</v>
       </c>
       <c r="B313" s="1">
-        <v>15613</v>
+        <v>15612</v>
       </c>
       <c r="C313" s="1">
-        <v>15423</v>
+        <v>15422</v>
       </c>
       <c r="D313" s="1">
-        <v>15769</v>
+        <v>15770</v>
       </c>
       <c r="E313" s="1">
-        <v>18281</v>
+        <v>18282</v>
       </c>
       <c r="F313" s="1">
-        <v>18097</v>
+        <v>18096</v>
       </c>
       <c r="G313" s="1">
-        <v>18458</v>
+        <v>18460</v>
       </c>
       <c r="H313" s="2">
         <v>1.1599999999999999</v>
@@ -14501,16 +14520,16 @@
         <v>15393</v>
       </c>
       <c r="C314" s="1">
-        <v>15217</v>
+        <v>15218</v>
       </c>
       <c r="D314" s="1">
-        <v>15584</v>
+        <v>15581</v>
       </c>
       <c r="E314" s="1">
         <v>16795</v>
       </c>
       <c r="F314" s="1">
-        <v>16610</v>
+        <v>16609</v>
       </c>
       <c r="G314" s="1">
         <v>16971</v>
@@ -14542,16 +14561,16 @@
         <v>13360</v>
       </c>
       <c r="C315" s="1">
-        <v>13153</v>
+        <v>13159</v>
       </c>
       <c r="D315" s="1">
-        <v>13518</v>
+        <v>13520</v>
       </c>
       <c r="E315" s="1">
         <v>15344</v>
       </c>
       <c r="F315" s="1">
-        <v>15154</v>
+        <v>15155</v>
       </c>
       <c r="G315" s="1">
         <v>15516</v>
@@ -14580,19 +14599,19 @@
         <v>326</v>
       </c>
       <c r="B316" s="1">
-        <v>13925</v>
+        <v>13924</v>
       </c>
       <c r="C316" s="1">
-        <v>13782</v>
+        <v>13787</v>
       </c>
       <c r="D316" s="1">
-        <v>14073</v>
+        <v>14075</v>
       </c>
       <c r="E316" s="1">
-        <v>14573</v>
+        <v>14572</v>
       </c>
       <c r="F316" s="1">
-        <v>14394</v>
+        <v>14396</v>
       </c>
       <c r="G316" s="1">
         <v>14736</v>
@@ -14621,19 +14640,19 @@
         <v>327</v>
       </c>
       <c r="B317" s="1">
-        <v>16615</v>
+        <v>16613</v>
       </c>
       <c r="C317" s="1">
-        <v>16415</v>
+        <v>16416</v>
       </c>
       <c r="D317" s="1">
-        <v>16809</v>
+        <v>16808</v>
       </c>
       <c r="E317" s="1">
-        <v>14823</v>
+        <v>14822</v>
       </c>
       <c r="F317" s="1">
-        <v>14642</v>
+        <v>14645</v>
       </c>
       <c r="G317" s="1">
         <v>14996</v>
@@ -14662,19 +14681,19 @@
         <v>328</v>
       </c>
       <c r="B318" s="1">
-        <v>15205</v>
+        <v>15204</v>
       </c>
       <c r="C318" s="1">
-        <v>15018</v>
+        <v>15017</v>
       </c>
       <c r="D318" s="1">
-        <v>15395</v>
+        <v>15392</v>
       </c>
       <c r="E318" s="1">
-        <v>14776</v>
+        <v>14775</v>
       </c>
       <c r="F318" s="1">
-        <v>14592</v>
+        <v>14594</v>
       </c>
       <c r="G318" s="1">
         <v>14949</v>
@@ -14706,19 +14725,19 @@
         <v>14499</v>
       </c>
       <c r="C319" s="1">
-        <v>14326</v>
+        <v>14333</v>
       </c>
       <c r="D319" s="1">
-        <v>14665</v>
+        <v>14662</v>
       </c>
       <c r="E319" s="1">
-        <v>15061</v>
+        <v>15060</v>
       </c>
       <c r="F319" s="1">
-        <v>14885</v>
+        <v>14888</v>
       </c>
       <c r="G319" s="1">
-        <v>15235</v>
+        <v>15234</v>
       </c>
       <c r="H319" s="2">
         <v>0.98</v>
@@ -14747,19 +14766,19 @@
         <v>13418</v>
       </c>
       <c r="C320" s="1">
-        <v>13276</v>
+        <v>13270</v>
       </c>
       <c r="D320" s="1">
-        <v>13534</v>
+        <v>13533</v>
       </c>
       <c r="E320" s="1">
-        <v>14934</v>
+        <v>14933</v>
       </c>
       <c r="F320" s="1">
-        <v>14758</v>
+        <v>14759</v>
       </c>
       <c r="G320" s="1">
-        <v>15101</v>
+        <v>15099</v>
       </c>
       <c r="H320" s="2">
         <v>1.02</v>
@@ -14788,10 +14807,10 @@
         <v>13387</v>
       </c>
       <c r="C321" s="1">
-        <v>13234</v>
+        <v>13233</v>
       </c>
       <c r="D321" s="1">
-        <v>13509</v>
+        <v>13506</v>
       </c>
       <c r="E321" s="1">
         <v>14127</v>
@@ -14800,7 +14819,7 @@
         <v>13963</v>
       </c>
       <c r="G321" s="1">
-        <v>14276</v>
+        <v>14273</v>
       </c>
       <c r="H321" s="2">
         <v>0.95</v>
@@ -14826,19 +14845,19 @@
         <v>332</v>
       </c>
       <c r="B322" s="1">
-        <v>11978</v>
+        <v>11976</v>
       </c>
       <c r="C322" s="1">
-        <v>11829</v>
+        <v>11825</v>
       </c>
       <c r="D322" s="1">
-        <v>12128</v>
+        <v>12135</v>
       </c>
       <c r="E322" s="1">
-        <v>13321</v>
+        <v>13320</v>
       </c>
       <c r="F322" s="1">
-        <v>13166</v>
+        <v>13165</v>
       </c>
       <c r="G322" s="1">
         <v>13459</v>
@@ -14867,22 +14886,22 @@
         <v>333</v>
       </c>
       <c r="B323" s="1">
-        <v>12009</v>
+        <v>12007</v>
       </c>
       <c r="C323" s="1">
-        <v>11846</v>
+        <v>11843</v>
       </c>
       <c r="D323" s="1">
-        <v>12153</v>
+        <v>12158</v>
       </c>
       <c r="E323" s="1">
-        <v>12698</v>
+        <v>12697</v>
       </c>
       <c r="F323" s="1">
-        <v>12546</v>
+        <v>12542</v>
       </c>
       <c r="G323" s="1">
-        <v>12831</v>
+        <v>12833</v>
       </c>
       <c r="H323" s="2">
         <v>0.84</v>
@@ -14908,22 +14927,22 @@
         <v>334</v>
       </c>
       <c r="B324" s="1">
-        <v>15286</v>
+        <v>15285</v>
       </c>
       <c r="C324" s="1">
-        <v>15108</v>
+        <v>15110</v>
       </c>
       <c r="D324" s="1">
-        <v>15430</v>
+        <v>15427</v>
       </c>
       <c r="E324" s="1">
-        <v>13165</v>
+        <v>13164</v>
       </c>
       <c r="F324" s="1">
-        <v>13004</v>
+        <v>13002</v>
       </c>
       <c r="G324" s="1">
-        <v>13305</v>
+        <v>13306</v>
       </c>
       <c r="H324" s="2">
         <v>0.88</v>
@@ -14949,22 +14968,22 @@
         <v>335</v>
       </c>
       <c r="B325" s="1">
-        <v>13828</v>
+        <v>13825</v>
       </c>
       <c r="C325" s="1">
-        <v>13673</v>
+        <v>13670</v>
       </c>
       <c r="D325" s="1">
-        <v>13978</v>
+        <v>13964</v>
       </c>
       <c r="E325" s="1">
-        <v>13275</v>
+        <v>13273</v>
       </c>
       <c r="F325" s="1">
-        <v>13114</v>
+        <v>13112</v>
       </c>
       <c r="G325" s="1">
-        <v>13422</v>
+        <v>13421</v>
       </c>
       <c r="H325" s="2">
         <v>0.94</v>
@@ -14993,19 +15012,19 @@
         <v>13188</v>
       </c>
       <c r="C326" s="1">
-        <v>13035</v>
+        <v>13042</v>
       </c>
       <c r="D326" s="1">
-        <v>13340</v>
+        <v>13355</v>
       </c>
       <c r="E326" s="1">
-        <v>13578</v>
+        <v>13576</v>
       </c>
       <c r="F326" s="1">
-        <v>13415</v>
+        <v>13416</v>
       </c>
       <c r="G326" s="1">
-        <v>13725</v>
+        <v>13726</v>
       </c>
       <c r="H326" s="2">
         <v>1.02</v>
@@ -15031,22 +15050,22 @@
         <v>337</v>
       </c>
       <c r="B327" s="1">
-        <v>11601</v>
+        <v>11600</v>
       </c>
       <c r="C327" s="1">
-        <v>11451</v>
+        <v>11431</v>
       </c>
       <c r="D327" s="1">
-        <v>11743</v>
+        <v>11747</v>
       </c>
       <c r="E327" s="1">
-        <v>13476</v>
+        <v>13475</v>
       </c>
       <c r="F327" s="1">
-        <v>13317</v>
+        <v>13313</v>
       </c>
       <c r="G327" s="1">
-        <v>13622</v>
+        <v>13623</v>
       </c>
       <c r="H327" s="2">
         <v>1.06</v>
@@ -15072,22 +15091,22 @@
         <v>338</v>
       </c>
       <c r="B328" s="1">
-        <v>11481</v>
+        <v>11474</v>
       </c>
       <c r="C328" s="1">
-        <v>11338</v>
+        <v>11324</v>
       </c>
       <c r="D328" s="1">
-        <v>11615</v>
+        <v>11600</v>
       </c>
       <c r="E328" s="1">
-        <v>12525</v>
+        <v>12522</v>
       </c>
       <c r="F328" s="1">
-        <v>12374</v>
+        <v>12366</v>
       </c>
       <c r="G328" s="1">
-        <v>12669</v>
+        <v>12666</v>
       </c>
       <c r="H328" s="2">
         <v>0.95</v>
@@ -15113,22 +15132,22 @@
         <v>339</v>
       </c>
       <c r="B329" s="1">
-        <v>10266</v>
+        <v>10265</v>
       </c>
       <c r="C329" s="1">
-        <v>10124</v>
+        <v>10125</v>
       </c>
       <c r="D329" s="1">
-        <v>10428</v>
+        <v>10396</v>
       </c>
       <c r="E329" s="1">
-        <v>11634</v>
+        <v>11632</v>
       </c>
       <c r="F329" s="1">
-        <v>11487</v>
+        <v>11480</v>
       </c>
       <c r="G329" s="1">
-        <v>11781</v>
+        <v>11774</v>
       </c>
       <c r="H329" s="2">
         <v>0.88</v>
@@ -15154,22 +15173,22 @@
         <v>340</v>
       </c>
       <c r="B330" s="1">
-        <v>9918</v>
+        <v>9923</v>
       </c>
       <c r="C330" s="1">
-        <v>9790</v>
+        <v>9794</v>
       </c>
       <c r="D330" s="1">
-        <v>10037</v>
+        <v>10052</v>
       </c>
       <c r="E330" s="1">
-        <v>10816</v>
+        <v>10815</v>
       </c>
       <c r="F330" s="1">
-        <v>10676</v>
+        <v>10668</v>
       </c>
       <c r="G330" s="1">
-        <v>10956</v>
+        <v>10949</v>
       </c>
       <c r="H330" s="2">
         <v>0.8</v>
@@ -15195,22 +15214,22 @@
         <v>341</v>
       </c>
       <c r="B331" s="1">
-        <v>12460</v>
+        <v>12461</v>
       </c>
       <c r="C331" s="1">
-        <v>12357</v>
+        <v>12341</v>
       </c>
       <c r="D331" s="1">
-        <v>12564</v>
+        <v>12580</v>
       </c>
       <c r="E331" s="1">
         <v>11031</v>
       </c>
       <c r="F331" s="1">
-        <v>10902</v>
+        <v>10896</v>
       </c>
       <c r="G331" s="1">
-        <v>11161</v>
+        <v>11157</v>
       </c>
       <c r="H331" s="2">
         <v>0.82</v>
@@ -15236,19 +15255,19 @@
         <v>342</v>
       </c>
       <c r="B332" s="1">
-        <v>11272</v>
+        <v>11275</v>
       </c>
       <c r="C332" s="1">
-        <v>11156</v>
+        <v>11153</v>
       </c>
       <c r="D332" s="1">
         <v>11405</v>
       </c>
       <c r="E332" s="1">
-        <v>10979</v>
+        <v>10981</v>
       </c>
       <c r="F332" s="1">
-        <v>10857</v>
+        <v>10853</v>
       </c>
       <c r="G332" s="1">
         <v>11108</v>
@@ -15277,22 +15296,22 @@
         <v>343</v>
       </c>
       <c r="B333" s="1">
-        <v>10268</v>
+        <v>10265</v>
       </c>
       <c r="C333" s="1">
-        <v>10141</v>
+        <v>10159</v>
       </c>
       <c r="D333" s="1">
-        <v>10377</v>
+        <v>10378</v>
       </c>
       <c r="E333" s="1">
-        <v>10980</v>
+        <v>10981</v>
       </c>
       <c r="F333" s="1">
-        <v>10861</v>
+        <v>10862</v>
       </c>
       <c r="G333" s="1">
-        <v>11096</v>
+        <v>11103</v>
       </c>
       <c r="H333" s="2">
         <v>0.94</v>
@@ -15318,22 +15337,22 @@
         <v>344</v>
       </c>
       <c r="B334" s="1">
-        <v>9765</v>
+        <v>9755</v>
       </c>
       <c r="C334" s="1">
-        <v>9625</v>
+        <v>9632</v>
       </c>
       <c r="D334" s="1">
-        <v>9904</v>
+        <v>9892</v>
       </c>
       <c r="E334" s="1">
-        <v>10941</v>
+        <v>10939</v>
       </c>
       <c r="F334" s="1">
-        <v>10819</v>
+        <v>10821</v>
       </c>
       <c r="G334" s="1">
-        <v>11062</v>
+        <v>11063</v>
       </c>
       <c r="H334" s="2">
         <v>1.01</v>
@@ -15362,16 +15381,16 @@
         <v>9361</v>
       </c>
       <c r="C335" s="1">
-        <v>9237</v>
+        <v>9202</v>
       </c>
       <c r="D335" s="1">
-        <v>9479</v>
+        <v>9492</v>
       </c>
       <c r="E335" s="1">
-        <v>10166</v>
+        <v>10164</v>
       </c>
       <c r="F335" s="1">
-        <v>10039</v>
+        <v>10036</v>
       </c>
       <c r="G335" s="1">
         <v>10291</v>
@@ -15400,22 +15419,22 @@
         <v>346</v>
       </c>
       <c r="B336" s="1">
-        <v>8280</v>
+        <v>8286</v>
       </c>
       <c r="C336" s="1">
-        <v>8152</v>
+        <v>8164</v>
       </c>
       <c r="D336" s="1">
-        <v>8380</v>
+        <v>8391</v>
       </c>
       <c r="E336" s="1">
-        <v>9418</v>
+        <v>9417</v>
       </c>
       <c r="F336" s="1">
-        <v>9288</v>
+        <v>9289</v>
       </c>
       <c r="G336" s="1">
-        <v>9535</v>
+        <v>9538</v>
       </c>
       <c r="H336" s="2">
         <v>0.86</v>
@@ -15424,7 +15443,7 @@
         <v>0.85</v>
       </c>
       <c r="J336" s="2">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="K336" s="2">
         <v>0.9</v>
@@ -15441,22 +15460,22 @@
         <v>347</v>
       </c>
       <c r="B337" s="1">
-        <v>8055</v>
+        <v>8042</v>
       </c>
       <c r="C337" s="1">
-        <v>7947</v>
+        <v>7923</v>
       </c>
       <c r="D337" s="1">
-        <v>8146</v>
+        <v>8156</v>
       </c>
       <c r="E337" s="1">
-        <v>8865</v>
+        <v>8861</v>
       </c>
       <c r="F337" s="1">
-        <v>8740</v>
+        <v>8730</v>
       </c>
       <c r="G337" s="1">
-        <v>8977</v>
+        <v>8982</v>
       </c>
       <c r="H337" s="2">
         <v>0.81</v>
@@ -15482,22 +15501,22 @@
         <v>348</v>
       </c>
       <c r="B338" s="1">
-        <v>10373</v>
+        <v>10341</v>
       </c>
       <c r="C338" s="1">
-        <v>10245</v>
+        <v>10247</v>
       </c>
       <c r="D338" s="1">
-        <v>10493</v>
+        <v>10445</v>
       </c>
       <c r="E338" s="1">
-        <v>9017</v>
+        <v>9007</v>
       </c>
       <c r="F338" s="1">
-        <v>8895</v>
+        <v>8884</v>
       </c>
       <c r="G338" s="1">
-        <v>9124</v>
+        <v>9121</v>
       </c>
       <c r="H338" s="2">
         <v>0.82</v>
@@ -15523,22 +15542,22 @@
         <v>349</v>
       </c>
       <c r="B339" s="1">
-        <v>9467</v>
+        <v>9457</v>
       </c>
       <c r="C339" s="1">
-        <v>9344</v>
+        <v>9339</v>
       </c>
       <c r="D339" s="1">
-        <v>9613</v>
+        <v>9583</v>
       </c>
       <c r="E339" s="1">
-        <v>9044</v>
+        <v>9031</v>
       </c>
       <c r="F339" s="1">
-        <v>8922</v>
+        <v>8918</v>
       </c>
       <c r="G339" s="1">
-        <v>9158</v>
+        <v>9143</v>
       </c>
       <c r="H339" s="2">
         <v>0.89</v>
@@ -15564,22 +15583,22 @@
         <v>350</v>
       </c>
       <c r="B340" s="1">
-        <v>8700</v>
+        <v>8683</v>
       </c>
       <c r="C340" s="1">
-        <v>8578</v>
+        <v>8555</v>
       </c>
       <c r="D340" s="1">
-        <v>8819</v>
+        <v>8814</v>
       </c>
       <c r="E340" s="1">
-        <v>9149</v>
+        <v>9131</v>
       </c>
       <c r="F340" s="1">
-        <v>9028</v>
+        <v>9016</v>
       </c>
       <c r="G340" s="1">
-        <v>9268</v>
+        <v>9249</v>
       </c>
       <c r="H340" s="2">
         <v>0.97</v>
@@ -15605,28 +15624,28 @@
         <v>351</v>
       </c>
       <c r="B341" s="1">
-        <v>7783</v>
+        <v>7757</v>
       </c>
       <c r="C341" s="1">
-        <v>7673</v>
+        <v>7644</v>
       </c>
       <c r="D341" s="1">
-        <v>7882</v>
+        <v>7859</v>
       </c>
       <c r="E341" s="1">
-        <v>9081</v>
+        <v>9059</v>
       </c>
       <c r="F341" s="1">
-        <v>8960</v>
+        <v>8946</v>
       </c>
       <c r="G341" s="1">
-        <v>9202</v>
+        <v>9175</v>
       </c>
       <c r="H341" s="2">
         <v>1.02</v>
       </c>
       <c r="I341" s="2">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="J341" s="2">
         <v>1.03</v>
@@ -15646,22 +15665,22 @@
         <v>352</v>
       </c>
       <c r="B342" s="1">
-        <v>7547</v>
+        <v>7532</v>
       </c>
       <c r="C342" s="1">
-        <v>7440</v>
+        <v>7415</v>
       </c>
       <c r="D342" s="1">
-        <v>7657</v>
+        <v>7639</v>
       </c>
       <c r="E342" s="1">
-        <v>8374</v>
+        <v>8357</v>
       </c>
       <c r="F342" s="1">
-        <v>8258</v>
+        <v>8238</v>
       </c>
       <c r="G342" s="1">
-        <v>8493</v>
+        <v>8473</v>
       </c>
       <c r="H342" s="2">
         <v>0.93</v>
@@ -15687,22 +15706,22 @@
         <v>353</v>
       </c>
       <c r="B343" s="1">
-        <v>6730</v>
+        <v>6718</v>
       </c>
       <c r="C343" s="1">
-        <v>6635</v>
+        <v>6614</v>
       </c>
       <c r="D343" s="1">
-        <v>6830</v>
+        <v>6801</v>
       </c>
       <c r="E343" s="1">
-        <v>7690</v>
+        <v>7673</v>
       </c>
       <c r="F343" s="1">
-        <v>7581</v>
+        <v>7557</v>
       </c>
       <c r="G343" s="1">
-        <v>7797</v>
+        <v>7778</v>
       </c>
       <c r="H343" s="2">
         <v>0.85</v>
@@ -15720,7 +15739,7 @@
         <v>0.89</v>
       </c>
       <c r="M343" s="2">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="344" spans="1:13">
@@ -15728,22 +15747,22 @@
         <v>354</v>
       </c>
       <c r="B344" s="1">
-        <v>6451</v>
+        <v>6440</v>
       </c>
       <c r="C344" s="1">
-        <v>6272</v>
+        <v>6335</v>
       </c>
       <c r="D344" s="1">
-        <v>6621</v>
+        <v>6566</v>
       </c>
       <c r="E344" s="1">
-        <v>7128</v>
+        <v>7112</v>
       </c>
       <c r="F344" s="1">
-        <v>7005</v>
+        <v>7002</v>
       </c>
       <c r="G344" s="1">
-        <v>7247</v>
+        <v>7216</v>
       </c>
       <c r="H344" s="2">
         <v>0.78</v>
@@ -15769,25 +15788,25 @@
         <v>355</v>
       </c>
       <c r="B345" s="1">
-        <v>8125</v>
+        <v>8136</v>
       </c>
       <c r="C345" s="1">
-        <v>7954</v>
+        <v>8018</v>
       </c>
       <c r="D345" s="1">
-        <v>8312</v>
+        <v>8289</v>
       </c>
       <c r="E345" s="1">
-        <v>7213</v>
+        <v>7207</v>
       </c>
       <c r="F345" s="1">
-        <v>7075</v>
+        <v>7096</v>
       </c>
       <c r="G345" s="1">
-        <v>7355</v>
+        <v>7324</v>
       </c>
       <c r="H345" s="2">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="I345" s="2">
         <v>0.79</v>
@@ -15810,22 +15829,22 @@
         <v>356</v>
       </c>
       <c r="B346" s="1">
-        <v>7699</v>
+        <v>7682</v>
       </c>
       <c r="C346" s="1">
-        <v>7569</v>
+        <v>7582</v>
       </c>
       <c r="D346" s="1">
-        <v>7836</v>
+        <v>7790</v>
       </c>
       <c r="E346" s="1">
-        <v>7251</v>
+        <v>7244</v>
       </c>
       <c r="F346" s="1">
-        <v>7108</v>
+        <v>7137</v>
       </c>
       <c r="G346" s="1">
-        <v>7400</v>
+        <v>7362</v>
       </c>
       <c r="H346" s="2">
         <v>0.87</v>
@@ -15851,22 +15870,22 @@
         <v>357</v>
       </c>
       <c r="B347" s="1">
-        <v>7461</v>
+        <v>7439</v>
       </c>
       <c r="C347" s="1">
-        <v>7335</v>
+        <v>7332</v>
       </c>
       <c r="D347" s="1">
-        <v>7576</v>
+        <v>7534</v>
       </c>
       <c r="E347" s="1">
-        <v>7434</v>
+        <v>7424</v>
       </c>
       <c r="F347" s="1">
-        <v>7283</v>
+        <v>7317</v>
       </c>
       <c r="G347" s="1">
-        <v>7586</v>
+        <v>7545</v>
       </c>
       <c r="H347" s="2">
         <v>0.97</v>
@@ -15892,22 +15911,22 @@
         <v>358</v>
       </c>
       <c r="B348" s="1">
-        <v>6687</v>
+        <v>6681</v>
       </c>
       <c r="C348" s="1">
-        <v>6536</v>
+        <v>6578</v>
       </c>
       <c r="D348" s="1">
-        <v>6825</v>
+        <v>6782</v>
       </c>
       <c r="E348" s="1">
-        <v>7493</v>
+        <v>7484</v>
       </c>
       <c r="F348" s="1">
-        <v>7349</v>
+        <v>7377</v>
       </c>
       <c r="G348" s="1">
-        <v>7637</v>
+        <v>7599</v>
       </c>
       <c r="H348" s="2">
         <v>1.05</v>
@@ -15933,28 +15952,28 @@
         <v>359</v>
       </c>
       <c r="B349" s="1">
-        <v>6893</v>
+        <v>6919</v>
       </c>
       <c r="C349" s="1">
-        <v>6752</v>
+        <v>6815</v>
       </c>
       <c r="D349" s="1">
-        <v>7045</v>
+        <v>7023</v>
       </c>
       <c r="E349" s="1">
-        <v>7185</v>
+        <v>7180</v>
       </c>
       <c r="F349" s="1">
-        <v>7048</v>
+        <v>7077</v>
       </c>
       <c r="G349" s="1">
-        <v>7320</v>
+        <v>7282</v>
       </c>
       <c r="H349" s="2">
         <v>1</v>
       </c>
       <c r="I349" s="2">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="J349" s="2">
         <v>1.01</v>
@@ -15974,22 +15993,22 @@
         <v>360</v>
       </c>
       <c r="B350" s="1">
-        <v>6463</v>
+        <v>6438</v>
       </c>
       <c r="C350" s="1">
-        <v>6345</v>
+        <v>6305</v>
       </c>
       <c r="D350" s="1">
-        <v>6594</v>
+        <v>6590</v>
       </c>
       <c r="E350" s="1">
-        <v>6876</v>
+        <v>6869</v>
       </c>
       <c r="F350" s="1">
-        <v>6742</v>
+        <v>6757</v>
       </c>
       <c r="G350" s="1">
-        <v>7010</v>
+        <v>6982</v>
       </c>
       <c r="H350" s="2">
         <v>0.95</v>
@@ -16015,22 +16034,22 @@
         <v>361</v>
       </c>
       <c r="B351" s="1">
-        <v>6702</v>
+        <v>6666</v>
       </c>
       <c r="C351" s="1">
-        <v>6557</v>
+        <v>6548</v>
       </c>
       <c r="D351" s="1">
-        <v>6846</v>
+        <v>6785</v>
       </c>
       <c r="E351" s="1">
-        <v>6686</v>
+        <v>6676</v>
       </c>
       <c r="F351" s="1">
-        <v>6547</v>
+        <v>6561</v>
       </c>
       <c r="G351" s="1">
-        <v>6828</v>
+        <v>6795</v>
       </c>
       <c r="H351" s="2">
         <v>0.9</v>
@@ -16059,19 +16078,19 @@
         <v>8556</v>
       </c>
       <c r="C352" s="1">
-        <v>8413</v>
+        <v>8441</v>
       </c>
       <c r="D352" s="1">
-        <v>8692</v>
+        <v>8682</v>
       </c>
       <c r="E352" s="1">
-        <v>7154</v>
+        <v>7145</v>
       </c>
       <c r="F352" s="1">
-        <v>7016</v>
+        <v>7027</v>
       </c>
       <c r="G352" s="1">
-        <v>7294</v>
+        <v>7270</v>
       </c>
       <c r="H352" s="2">
         <v>0.95</v>
@@ -16080,7 +16099,7 @@
         <v>0.94</v>
       </c>
       <c r="J352" s="2">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="K352" s="2">
         <v>1.02</v>
@@ -16089,7 +16108,7 @@
         <v>1.01</v>
       </c>
       <c r="M352" s="2">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="353" spans="1:13">
@@ -16097,22 +16116,22 @@
         <v>363</v>
       </c>
       <c r="B353" s="1">
-        <v>8221</v>
+        <v>8176</v>
       </c>
       <c r="C353" s="1">
-        <v>8078</v>
+        <v>8071</v>
       </c>
       <c r="D353" s="1">
-        <v>8408</v>
+        <v>8304</v>
       </c>
       <c r="E353" s="1">
-        <v>7486</v>
+        <v>7459</v>
       </c>
       <c r="F353" s="1">
-        <v>7348</v>
+        <v>7341</v>
       </c>
       <c r="G353" s="1">
-        <v>7635</v>
+        <v>7590</v>
       </c>
       <c r="H353" s="2">
         <v>1.04</v>
@@ -16130,7 +16149,7 @@
         <v>1.03</v>
       </c>
       <c r="M353" s="2">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="354" spans="1:13">
@@ -16138,22 +16157,22 @@
         <v>364</v>
       </c>
       <c r="B354" s="1">
-        <v>8113</v>
+        <v>8111</v>
       </c>
       <c r="C354" s="1">
-        <v>7971</v>
+        <v>7982</v>
       </c>
       <c r="D354" s="1">
-        <v>8262</v>
+        <v>8230</v>
       </c>
       <c r="E354" s="1">
-        <v>7898</v>
+        <v>7877</v>
       </c>
       <c r="F354" s="1">
-        <v>7755</v>
+        <v>7760</v>
       </c>
       <c r="G354" s="1">
-        <v>8052</v>
+        <v>8000</v>
       </c>
       <c r="H354" s="2">
         <v>1.1499999999999999</v>
@@ -16179,22 +16198,22 @@
         <v>365</v>
       </c>
       <c r="B355" s="1">
-        <v>7764</v>
+        <v>7750</v>
       </c>
       <c r="C355" s="1">
-        <v>7586</v>
+        <v>7638</v>
       </c>
       <c r="D355" s="1">
-        <v>7925</v>
+        <v>7862</v>
       </c>
       <c r="E355" s="1">
-        <v>8164</v>
+        <v>8148</v>
       </c>
       <c r="F355" s="1">
-        <v>8012</v>
+        <v>8033</v>
       </c>
       <c r="G355" s="1">
-        <v>8322</v>
+        <v>8269</v>
       </c>
       <c r="H355" s="2">
         <v>1.22</v>
@@ -16220,22 +16239,22 @@
         <v>366</v>
       </c>
       <c r="B356" s="1">
-        <v>7693</v>
+        <v>7701</v>
       </c>
       <c r="C356" s="1">
-        <v>7514</v>
+        <v>7581</v>
       </c>
       <c r="D356" s="1">
-        <v>7866</v>
+        <v>7824</v>
       </c>
       <c r="E356" s="1">
-        <v>7948</v>
+        <v>7935</v>
       </c>
       <c r="F356" s="1">
-        <v>7787</v>
+        <v>7818</v>
       </c>
       <c r="G356" s="1">
-        <v>8115</v>
+        <v>8055</v>
       </c>
       <c r="H356" s="2">
         <v>1.1100000000000001</v>
@@ -16244,7 +16263,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J356" s="2">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K356" s="2">
         <v>1.07</v>
@@ -16261,22 +16280,22 @@
         <v>367</v>
       </c>
       <c r="B357" s="1">
-        <v>7440</v>
+        <v>7416</v>
       </c>
       <c r="C357" s="1">
-        <v>7222</v>
+        <v>7295</v>
       </c>
       <c r="D357" s="1">
-        <v>7640</v>
+        <v>7552</v>
       </c>
       <c r="E357" s="1">
-        <v>7753</v>
+        <v>7745</v>
       </c>
       <c r="F357" s="1">
-        <v>7573</v>
+        <v>7624</v>
       </c>
       <c r="G357" s="1">
-        <v>7923</v>
+        <v>7867</v>
       </c>
       <c r="H357" s="2">
         <v>1.04</v>
@@ -16302,22 +16321,22 @@
         <v>368</v>
       </c>
       <c r="B358" s="1">
-        <v>7241</v>
+        <v>7218</v>
       </c>
       <c r="C358" s="1">
-        <v>6987</v>
+        <v>7085</v>
       </c>
       <c r="D358" s="1">
-        <v>7471</v>
+        <v>7316</v>
       </c>
       <c r="E358" s="1">
-        <v>7534</v>
+        <v>7521</v>
       </c>
       <c r="F358" s="1">
-        <v>7327</v>
+        <v>7400</v>
       </c>
       <c r="G358" s="1">
-        <v>7725</v>
+        <v>7638</v>
       </c>
       <c r="H358" s="2">
         <v>0.95</v>
@@ -16343,31 +16362,31 @@
         <v>369</v>
       </c>
       <c r="B359" s="1">
-        <v>8930</v>
+        <v>8954</v>
       </c>
       <c r="C359" s="1">
-        <v>8561</v>
+        <v>8775</v>
       </c>
       <c r="D359" s="1">
-        <v>9263</v>
+        <v>9115</v>
       </c>
       <c r="E359" s="1">
-        <v>7826</v>
+        <v>7822</v>
       </c>
       <c r="F359" s="1">
-        <v>7571</v>
+        <v>7684</v>
       </c>
       <c r="G359" s="1">
-        <v>8060</v>
+        <v>7952</v>
       </c>
       <c r="H359" s="2">
         <v>0.96</v>
       </c>
       <c r="I359" s="2">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="J359" s="2">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="K359" s="2">
         <v>1.04</v>
@@ -16384,31 +16403,31 @@
         <v>370</v>
       </c>
       <c r="B360" s="1">
-        <v>8561</v>
+        <v>8494</v>
       </c>
       <c r="C360" s="1">
-        <v>8147</v>
+        <v>8293</v>
       </c>
       <c r="D360" s="1">
-        <v>8912</v>
+        <v>8658</v>
       </c>
       <c r="E360" s="1">
-        <v>8043</v>
+        <v>8020</v>
       </c>
       <c r="F360" s="1">
-        <v>7729</v>
+        <v>7862</v>
       </c>
       <c r="G360" s="1">
-        <v>8321</v>
+        <v>8160</v>
       </c>
       <c r="H360" s="2">
         <v>1.01</v>
       </c>
       <c r="I360" s="2">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="J360" s="2">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K360" s="2">
         <v>1.02</v>
@@ -16425,37 +16444,37 @@
         <v>371</v>
       </c>
       <c r="B361" s="1">
-        <v>7993</v>
+        <v>8033</v>
       </c>
       <c r="C361" s="1">
-        <v>7628</v>
+        <v>7853</v>
       </c>
       <c r="D361" s="1">
-        <v>8402</v>
+        <v>8222</v>
       </c>
       <c r="E361" s="1">
-        <v>8181</v>
+        <v>8175</v>
       </c>
       <c r="F361" s="1">
-        <v>7831</v>
+        <v>8001</v>
       </c>
       <c r="G361" s="1">
-        <v>8512</v>
+        <v>8328</v>
       </c>
       <c r="H361" s="2">
         <v>1.06</v>
       </c>
       <c r="I361" s="2">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J361" s="2">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K361" s="2">
         <v>1.01</v>
       </c>
       <c r="L361" s="2">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="M361" s="2">
         <v>1.02</v>
@@ -16466,37 +16485,37 @@
         <v>372</v>
       </c>
       <c r="B362" s="1">
-        <v>7629</v>
+        <v>7669</v>
       </c>
       <c r="C362" s="1">
-        <v>7125</v>
+        <v>7524</v>
       </c>
       <c r="D362" s="1">
-        <v>8089</v>
+        <v>7835</v>
       </c>
       <c r="E362" s="1">
-        <v>8278</v>
+        <v>8288</v>
       </c>
       <c r="F362" s="1">
-        <v>7865</v>
+        <v>8111</v>
       </c>
       <c r="G362" s="1">
-        <v>8667</v>
+        <v>8457</v>
       </c>
       <c r="H362" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I362" s="2">
-        <v>1.07</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J362" s="2">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K362" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="L362" s="2">
         <v>1</v>
-      </c>
-      <c r="L362" s="2">
-        <v>0.99</v>
       </c>
       <c r="M362" s="2">
         <v>1.02</v>
@@ -16507,37 +16526,37 @@
         <v>373</v>
       </c>
       <c r="B363" s="1">
-        <v>7879</v>
+        <v>7968</v>
       </c>
       <c r="C363" s="1">
-        <v>7390</v>
+        <v>7667</v>
       </c>
       <c r="D363" s="1">
-        <v>8379</v>
+        <v>8215</v>
       </c>
       <c r="E363" s="1">
-        <v>8015</v>
+        <v>8041</v>
       </c>
       <c r="F363" s="1">
-        <v>7572</v>
+        <v>7834</v>
       </c>
       <c r="G363" s="1">
-        <v>8446</v>
+        <v>8232</v>
       </c>
       <c r="H363" s="2">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="I363" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="J363" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="K363" s="2">
+        <v>1</v>
+      </c>
+      <c r="L363" s="2">
         <v>0.99</v>
-      </c>
-      <c r="J363" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="K363" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="L363" s="2">
-        <v>0.98</v>
       </c>
       <c r="M363" s="2">
         <v>1.01</v>
@@ -16548,40 +16567,40 @@
         <v>374</v>
       </c>
       <c r="B364" s="1">
-        <v>7202</v>
+        <v>7229</v>
       </c>
       <c r="C364" s="1">
-        <v>6594</v>
+        <v>7013</v>
       </c>
       <c r="D364" s="1">
-        <v>7788</v>
+        <v>7505</v>
       </c>
       <c r="E364" s="1">
-        <v>7676</v>
+        <v>7725</v>
       </c>
       <c r="F364" s="1">
-        <v>7184</v>
+        <v>7514</v>
       </c>
       <c r="G364" s="1">
-        <v>8164</v>
+        <v>7944</v>
       </c>
       <c r="H364" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="I364" s="2">
         <v>0.95</v>
       </c>
-      <c r="I364" s="2">
-        <v>0.92</v>
-      </c>
       <c r="J364" s="2">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="K364" s="2">
         <v>1</v>
       </c>
       <c r="L364" s="2">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="M364" s="2">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="365" spans="1:13">
@@ -16589,40 +16608,40 @@
         <v>375</v>
       </c>
       <c r="B365" s="1">
-        <v>7443</v>
+        <v>7402</v>
       </c>
       <c r="C365" s="1">
-        <v>6725</v>
+        <v>7080</v>
       </c>
       <c r="D365" s="1">
-        <v>8097</v>
+        <v>7705</v>
       </c>
       <c r="E365" s="1">
-        <v>7538</v>
+        <v>7567</v>
       </c>
       <c r="F365" s="1">
-        <v>6959</v>
+        <v>7321</v>
       </c>
       <c r="G365" s="1">
-        <v>8088</v>
+        <v>7815</v>
       </c>
       <c r="H365" s="2">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="I365" s="2">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="J365" s="2">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
       <c r="K365" s="2">
         <v>1.01</v>
       </c>
       <c r="L365" s="2">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="M365" s="2">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="366" spans="1:13">
@@ -16630,40 +16649,40 @@
         <v>376</v>
       </c>
       <c r="B366" s="1">
-        <v>9254</v>
+        <v>9403</v>
       </c>
       <c r="C366" s="1">
-        <v>8262</v>
+        <v>8973</v>
       </c>
       <c r="D366" s="1">
-        <v>10251</v>
+        <v>9795</v>
       </c>
       <c r="E366" s="1">
-        <v>7945</v>
+        <v>8000</v>
       </c>
       <c r="F366" s="1">
-        <v>7243</v>
+        <v>7683</v>
       </c>
       <c r="G366" s="1">
-        <v>8629</v>
+        <v>8305</v>
       </c>
       <c r="H366" s="2">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="I366" s="2">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="J366" s="2">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
       <c r="K366" s="2">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="L366" s="2">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="M366" s="2">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="367" spans="1:13">
@@ -16671,40 +16690,40 @@
         <v>377</v>
       </c>
       <c r="B367" s="1">
-        <v>8891</v>
+        <v>8942</v>
       </c>
       <c r="C367" s="1">
-        <v>7414</v>
+        <v>8572</v>
       </c>
       <c r="D367" s="1">
-        <v>10237</v>
+        <v>9382</v>
       </c>
       <c r="E367" s="1">
-        <v>8198</v>
+        <v>8244</v>
       </c>
       <c r="F367" s="1">
-        <v>7249</v>
+        <v>7910</v>
       </c>
       <c r="G367" s="1">
-        <v>9093</v>
+        <v>8597</v>
       </c>
       <c r="H367" s="2">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="I367" s="2">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="J367" s="2">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K367" s="2">
         <v>1.03</v>
       </c>
       <c r="L367" s="2">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="M367" s="2">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="368" spans="1:13">
@@ -16712,40 +16731,40 @@
         <v>378</v>
       </c>
       <c r="B368" s="1">
-        <v>8532</v>
+        <v>8884</v>
       </c>
       <c r="C368" s="1">
-        <v>6857</v>
+        <v>8291</v>
       </c>
       <c r="D368" s="1">
-        <v>10415</v>
+        <v>9453</v>
       </c>
       <c r="E368" s="1">
-        <v>8530</v>
+        <v>8658</v>
       </c>
       <c r="F368" s="1">
-        <v>7314</v>
+        <v>8229</v>
       </c>
       <c r="G368" s="1">
-        <v>9750</v>
+        <v>9084</v>
       </c>
       <c r="H368" s="2">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I368" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J368" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K368" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="L368" s="2">
         <v>1.03</v>
       </c>
-      <c r="J368" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="K368" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="L368" s="2">
-        <v>0.95</v>
-      </c>
       <c r="M368" s="2">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="369" spans="1:13">
@@ -16753,40 +16772,40 @@
         <v>379</v>
       </c>
       <c r="B369" s="1">
-        <v>7393</v>
+        <v>8442</v>
       </c>
       <c r="C369" s="1">
-        <v>5310</v>
+        <v>7772</v>
       </c>
       <c r="D369" s="1">
-        <v>9648</v>
+        <v>9033</v>
       </c>
       <c r="E369" s="1">
-        <v>8518</v>
+        <v>8917</v>
       </c>
       <c r="F369" s="1">
-        <v>6961</v>
+        <v>8402</v>
       </c>
       <c r="G369" s="1">
-        <v>10138</v>
+        <v>9416</v>
       </c>
       <c r="H369" s="2">
-        <v>1.1299999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="I369" s="2">
-        <v>1.01</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="J369" s="2">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="K369" s="2">
-        <v>0.97</v>
+        <v>1.05</v>
       </c>
       <c r="L369" s="2">
-        <v>0.91</v>
+        <v>1.02</v>
       </c>
       <c r="M369" s="2">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="370" spans="1:13">
@@ -16794,40 +16813,245 @@
         <v>380</v>
       </c>
       <c r="B370" s="1">
-        <v>5776</v>
+        <v>8823</v>
       </c>
       <c r="C370" s="1">
-        <v>3851</v>
+        <v>8002</v>
       </c>
       <c r="D370" s="1">
-        <v>7713</v>
+        <v>9669</v>
       </c>
       <c r="E370" s="1">
-        <v>7648</v>
+        <v>8773</v>
       </c>
       <c r="F370" s="1">
-        <v>5858</v>
+        <v>8159</v>
       </c>
       <c r="G370" s="1">
-        <v>9503</v>
+        <v>9384</v>
       </c>
       <c r="H370" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I370" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="J370" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="K370" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="L370" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="M370" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13">
+      <c r="A371" t="s">
+        <v>381</v>
+      </c>
+      <c r="B371" s="1">
+        <v>8759</v>
+      </c>
+      <c r="C371" s="1">
+        <v>7739</v>
+      </c>
+      <c r="D371" s="1">
+        <v>9967</v>
+      </c>
+      <c r="E371" s="1">
+        <v>8727</v>
+      </c>
+      <c r="F371" s="1">
+        <v>7951</v>
+      </c>
+      <c r="G371" s="1">
+        <v>9530</v>
+      </c>
+      <c r="H371" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="I371" s="2">
+        <v>1</v>
+      </c>
+      <c r="J371" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="K371" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="L371" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="M371" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13">
+      <c r="A372" t="s">
+        <v>382</v>
+      </c>
+      <c r="B372" s="1">
+        <v>9244</v>
+      </c>
+      <c r="C372" s="1">
+        <v>8087</v>
+      </c>
+      <c r="D372" s="1">
+        <v>10494</v>
+      </c>
+      <c r="E372" s="1">
+        <v>8817</v>
+      </c>
+      <c r="F372" s="1">
+        <v>7900</v>
+      </c>
+      <c r="G372" s="1">
+        <v>9791</v>
+      </c>
+      <c r="H372" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="I372" s="2">
         <v>0.96</v>
       </c>
-      <c r="I370" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="J370" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K370" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="L370" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="M370" s="2" t="s">
-        <v>388</v>
+      <c r="J372" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="K372" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L372" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="M372" s="2">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13">
+      <c r="A373" t="s">
+        <v>383</v>
+      </c>
+      <c r="B373" s="1">
+        <v>12167</v>
+      </c>
+      <c r="C373" s="1">
+        <v>9166</v>
+      </c>
+      <c r="D373" s="1">
+        <v>15035</v>
+      </c>
+      <c r="E373" s="1">
+        <v>9748</v>
+      </c>
+      <c r="F373" s="1">
+        <v>8249</v>
+      </c>
+      <c r="G373" s="1">
+        <v>11291</v>
+      </c>
+      <c r="H373" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I373" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="J373" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="K373" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L373" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="M373" s="2">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13">
+      <c r="A374" t="s">
+        <v>384</v>
+      </c>
+      <c r="B374" s="1">
+        <v>12409</v>
+      </c>
+      <c r="C374" s="1">
+        <v>8866</v>
+      </c>
+      <c r="D374" s="1">
+        <v>16086</v>
+      </c>
+      <c r="E374" s="1">
+        <v>10645</v>
+      </c>
+      <c r="F374" s="1">
+        <v>8465</v>
+      </c>
+      <c r="G374" s="1">
+        <v>12896</v>
+      </c>
+      <c r="H374" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="I374" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="J374" s="2">
+        <v>1.37</v>
+      </c>
+      <c r="K374" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="L374" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="M374" s="2">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13">
+      <c r="A375" t="s">
+        <v>385</v>
+      </c>
+      <c r="B375" s="1">
+        <v>12620</v>
+      </c>
+      <c r="C375" s="1">
+        <v>7544</v>
+      </c>
+      <c r="D375" s="1">
+        <v>16928</v>
+      </c>
+      <c r="E375" s="1">
+        <v>11610</v>
+      </c>
+      <c r="F375" s="1">
+        <v>8416</v>
+      </c>
+      <c r="G375" s="1">
+        <v>14636</v>
+      </c>
+      <c r="H375" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="I375" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J375" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="K375" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L375" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="M375" s="2" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/rki-data/RKI-Nowcasting_Zahlen.xlsx
+++ b/rki-data/RKI-Nowcasting_Zahlen.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF60395-2DB3-4D11-894E-78E8EAFA7414}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A85AB7E-556C-4AD5-B460-7A09A0930139}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13845" windowHeight="13965" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7515" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
     <sheet name="Nowcast_R" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="411">
   <si>
     <t>Erläuterung</t>
   </si>
@@ -27,7 +27,7 @@
     <t>Ergebnisse des Nowcastings und der Schätzung der Reproduktionszahl R</t>
   </si>
   <si>
-    <t>Datenstand: 2021-03-25, 00:00 Uhr</t>
+    <t>Datenstand: 2021-03-26, 00:00 Uhr</t>
   </si>
   <si>
     <t>Die Ergebnisse des Nowcastings, also die Schätzung der Anzahl von COVID-19 Neuerkrankungen wird dargestellt mit einem gleitenden 4-Tages-Mittelwert.</t>
@@ -36,7 +36,7 @@
     <t>Dabei wird jeder Wert mit den Werten der 3 vorhergehenden Tage gemittelt.</t>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-03-25 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-03-26 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -1207,6 +1207,9 @@
   </si>
   <si>
     <t>21.03.2021</t>
+  </si>
+  <si>
+    <t>22.03.2021</t>
   </si>
   <si>
     <t>Punktschätzer der Anzahl Neuerkrankungen (ohne Glättung)</t>
@@ -1281,7 +1284,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1601,9 +1604,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1703,15 +1708,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M386"/>
+  <dimension ref="A1:M387"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:M386"/>
+      <selection activeCell="H6" sqref="H6:M387"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="13" width="19.7109375" customWidth="1"/>
+    <col min="1" max="13" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="90">
@@ -1719,40 +1724,40 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1778,22 +1783,22 @@
         <v>238</v>
       </c>
       <c r="H2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1819,22 +1824,22 @@
         <v>276</v>
       </c>
       <c r="H3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1860,22 +1865,22 @@
         <v>342</v>
       </c>
       <c r="H4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1901,22 +1906,22 @@
         <v>412</v>
       </c>
       <c r="H5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -15009,7 +15014,7 @@
         <v>13668</v>
       </c>
       <c r="D325" s="2">
-        <v>13965</v>
+        <v>13966</v>
       </c>
       <c r="E325" s="2">
         <v>13274</v>
@@ -15047,10 +15052,10 @@
         <v>13187</v>
       </c>
       <c r="C326" s="2">
-        <v>13043</v>
+        <v>13041</v>
       </c>
       <c r="D326" s="2">
-        <v>13348</v>
+        <v>13347</v>
       </c>
       <c r="E326" s="2">
         <v>13576</v>
@@ -15088,16 +15093,16 @@
         <v>11600</v>
       </c>
       <c r="C327" s="2">
-        <v>11432</v>
+        <v>11431</v>
       </c>
       <c r="D327" s="2">
-        <v>11742</v>
+        <v>11741</v>
       </c>
       <c r="E327" s="2">
         <v>13475</v>
       </c>
       <c r="F327" s="2">
-        <v>13313</v>
+        <v>13312</v>
       </c>
       <c r="G327" s="2">
         <v>13620</v>
@@ -15129,7 +15134,7 @@
         <v>11472</v>
       </c>
       <c r="C328" s="2">
-        <v>11329</v>
+        <v>11327</v>
       </c>
       <c r="D328" s="2">
         <v>11597</v>
@@ -15138,10 +15143,10 @@
         <v>12521</v>
       </c>
       <c r="F328" s="2">
-        <v>12368</v>
+        <v>12367</v>
       </c>
       <c r="G328" s="2">
-        <v>12663</v>
+        <v>12662</v>
       </c>
       <c r="H328" s="3">
         <v>0.95</v>
@@ -15173,16 +15178,16 @@
         <v>10122</v>
       </c>
       <c r="D329" s="2">
-        <v>10400</v>
+        <v>10399</v>
       </c>
       <c r="E329" s="2">
         <v>11631</v>
       </c>
       <c r="F329" s="2">
-        <v>11481</v>
+        <v>11480</v>
       </c>
       <c r="G329" s="2">
-        <v>11772</v>
+        <v>11771</v>
       </c>
       <c r="H329" s="3">
         <v>0.88</v>
@@ -15208,22 +15213,22 @@
         <v>340</v>
       </c>
       <c r="B330" s="2">
-        <v>9925</v>
+        <v>9924</v>
       </c>
       <c r="C330" s="2">
-        <v>9797</v>
+        <v>9796</v>
       </c>
       <c r="D330" s="2">
-        <v>10049</v>
+        <v>10050</v>
       </c>
       <c r="E330" s="2">
         <v>10815</v>
       </c>
       <c r="F330" s="2">
-        <v>10670</v>
+        <v>10669</v>
       </c>
       <c r="G330" s="2">
-        <v>10947</v>
+        <v>10946</v>
       </c>
       <c r="H330" s="3">
         <v>0.8</v>
@@ -15252,16 +15257,16 @@
         <v>12463</v>
       </c>
       <c r="C331" s="2">
-        <v>12338</v>
+        <v>12337</v>
       </c>
       <c r="D331" s="2">
-        <v>12592</v>
+        <v>12589</v>
       </c>
       <c r="E331" s="2">
         <v>11031</v>
       </c>
       <c r="F331" s="2">
-        <v>10896</v>
+        <v>10895</v>
       </c>
       <c r="G331" s="2">
         <v>11159</v>
@@ -15296,16 +15301,16 @@
         <v>11147</v>
       </c>
       <c r="D332" s="2">
-        <v>11398</v>
+        <v>11399</v>
       </c>
       <c r="E332" s="2">
         <v>10982</v>
       </c>
       <c r="F332" s="2">
-        <v>10851</v>
+        <v>10850</v>
       </c>
       <c r="G332" s="2">
-        <v>11110</v>
+        <v>11109</v>
       </c>
       <c r="H332" s="3">
         <v>0.88</v>
@@ -15331,22 +15336,22 @@
         <v>343</v>
       </c>
       <c r="B333" s="2">
-        <v>10264</v>
+        <v>10265</v>
       </c>
       <c r="C333" s="2">
         <v>10154</v>
       </c>
       <c r="D333" s="2">
-        <v>10386</v>
+        <v>10383</v>
       </c>
       <c r="E333" s="2">
-        <v>10982</v>
+        <v>10983</v>
       </c>
       <c r="F333" s="2">
-        <v>10859</v>
+        <v>10858</v>
       </c>
       <c r="G333" s="2">
-        <v>11106</v>
+        <v>11105</v>
       </c>
       <c r="H333" s="3">
         <v>0.94</v>
@@ -15378,16 +15383,16 @@
         <v>9622</v>
       </c>
       <c r="D334" s="2">
-        <v>9882</v>
+        <v>9881</v>
       </c>
       <c r="E334" s="2">
-        <v>10939</v>
+        <v>10940</v>
       </c>
       <c r="F334" s="2">
         <v>10815</v>
       </c>
       <c r="G334" s="2">
-        <v>11064</v>
+        <v>11063</v>
       </c>
       <c r="H334" s="3">
         <v>1.01</v>
@@ -15416,19 +15421,19 @@
         <v>9360</v>
       </c>
       <c r="C335" s="2">
-        <v>9204</v>
+        <v>9203</v>
       </c>
       <c r="D335" s="2">
-        <v>9522</v>
+        <v>9521</v>
       </c>
       <c r="E335" s="2">
         <v>10164</v>
       </c>
       <c r="F335" s="2">
-        <v>10032</v>
+        <v>10031</v>
       </c>
       <c r="G335" s="2">
-        <v>10297</v>
+        <v>10296</v>
       </c>
       <c r="H335" s="3">
         <v>0.92</v>
@@ -15457,19 +15462,19 @@
         <v>8288</v>
       </c>
       <c r="C336" s="2">
-        <v>8160</v>
+        <v>8163</v>
       </c>
       <c r="D336" s="2">
-        <v>8401</v>
+        <v>8399</v>
       </c>
       <c r="E336" s="2">
         <v>9416</v>
       </c>
       <c r="F336" s="2">
-        <v>9285</v>
+        <v>9286</v>
       </c>
       <c r="G336" s="2">
-        <v>9548</v>
+        <v>9546</v>
       </c>
       <c r="H336" s="3">
         <v>0.86</v>
@@ -15495,13 +15500,13 @@
         <v>347</v>
       </c>
       <c r="B337" s="2">
-        <v>8041</v>
+        <v>8040</v>
       </c>
       <c r="C337" s="2">
-        <v>7899</v>
+        <v>7897</v>
       </c>
       <c r="D337" s="2">
-        <v>8152</v>
+        <v>8155</v>
       </c>
       <c r="E337" s="2">
         <v>8860</v>
@@ -15539,13 +15544,13 @@
         <v>10341</v>
       </c>
       <c r="C338" s="2">
-        <v>10250</v>
+        <v>10248</v>
       </c>
       <c r="D338" s="2">
         <v>10461</v>
       </c>
       <c r="E338" s="2">
-        <v>9008</v>
+        <v>9007</v>
       </c>
       <c r="F338" s="2">
         <v>8878</v>
@@ -15577,22 +15582,22 @@
         <v>349</v>
       </c>
       <c r="B339" s="2">
-        <v>9444</v>
+        <v>9442</v>
       </c>
       <c r="C339" s="2">
-        <v>9340</v>
+        <v>9337</v>
       </c>
       <c r="D339" s="2">
-        <v>9546</v>
+        <v>9540</v>
       </c>
       <c r="E339" s="2">
-        <v>9029</v>
+        <v>9028</v>
       </c>
       <c r="F339" s="2">
-        <v>8912</v>
+        <v>8911</v>
       </c>
       <c r="G339" s="2">
-        <v>9140</v>
+        <v>9138</v>
       </c>
       <c r="H339" s="3">
         <v>0.89</v>
@@ -15618,22 +15623,22 @@
         <v>350</v>
       </c>
       <c r="B340" s="2">
-        <v>8675</v>
+        <v>8673</v>
       </c>
       <c r="C340" s="2">
-        <v>8577</v>
+        <v>8573</v>
       </c>
       <c r="D340" s="2">
-        <v>8793</v>
+        <v>8789</v>
       </c>
       <c r="E340" s="2">
-        <v>9125</v>
+        <v>9124</v>
       </c>
       <c r="F340" s="2">
-        <v>9016</v>
+        <v>9014</v>
       </c>
       <c r="G340" s="2">
-        <v>9238</v>
+        <v>9236</v>
       </c>
       <c r="H340" s="3">
         <v>0.97</v>
@@ -15659,22 +15664,22 @@
         <v>351</v>
       </c>
       <c r="B341" s="2">
-        <v>7753</v>
+        <v>7752</v>
       </c>
       <c r="C341" s="2">
-        <v>7659</v>
+        <v>7662</v>
       </c>
       <c r="D341" s="2">
-        <v>7853</v>
+        <v>7847</v>
       </c>
       <c r="E341" s="2">
-        <v>9053</v>
+        <v>9052</v>
       </c>
       <c r="F341" s="2">
-        <v>8956</v>
+        <v>8955</v>
       </c>
       <c r="G341" s="2">
-        <v>9163</v>
+        <v>9159</v>
       </c>
       <c r="H341" s="3">
         <v>1.02</v>
@@ -15700,22 +15705,22 @@
         <v>352</v>
       </c>
       <c r="B342" s="2">
-        <v>7522</v>
+        <v>7524</v>
       </c>
       <c r="C342" s="2">
-        <v>7397</v>
+        <v>7392</v>
       </c>
       <c r="D342" s="2">
-        <v>7631</v>
+        <v>7637</v>
       </c>
       <c r="E342" s="2">
-        <v>8349</v>
+        <v>8348</v>
       </c>
       <c r="F342" s="2">
-        <v>8243</v>
+        <v>8241</v>
       </c>
       <c r="G342" s="2">
-        <v>8456</v>
+        <v>8453</v>
       </c>
       <c r="H342" s="3">
         <v>0.93</v>
@@ -15741,22 +15746,22 @@
         <v>353</v>
       </c>
       <c r="B343" s="2">
-        <v>6735</v>
+        <v>6736</v>
       </c>
       <c r="C343" s="2">
-        <v>6649</v>
+        <v>6644</v>
       </c>
       <c r="D343" s="2">
-        <v>6850</v>
+        <v>6842</v>
       </c>
       <c r="E343" s="2">
         <v>7671</v>
       </c>
       <c r="F343" s="2">
-        <v>7570</v>
+        <v>7567</v>
       </c>
       <c r="G343" s="2">
-        <v>7782</v>
+        <v>7778</v>
       </c>
       <c r="H343" s="3">
         <v>0.85</v>
@@ -15774,7 +15779,7 @@
         <v>0.89</v>
       </c>
       <c r="M343" s="3">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="344" spans="1:13">
@@ -15785,19 +15790,19 @@
         <v>6434</v>
       </c>
       <c r="C344" s="2">
-        <v>6342</v>
+        <v>6341</v>
       </c>
       <c r="D344" s="2">
-        <v>6527</v>
+        <v>6525</v>
       </c>
       <c r="E344" s="2">
         <v>7111</v>
       </c>
       <c r="F344" s="2">
-        <v>7012</v>
+        <v>7009</v>
       </c>
       <c r="G344" s="2">
-        <v>7215</v>
+        <v>7213</v>
       </c>
       <c r="H344" s="3">
         <v>0.78</v>
@@ -15823,22 +15828,22 @@
         <v>355</v>
       </c>
       <c r="B345" s="2">
-        <v>8133</v>
+        <v>8136</v>
       </c>
       <c r="C345" s="2">
-        <v>8008</v>
+        <v>8009</v>
       </c>
       <c r="D345" s="2">
-        <v>8250</v>
+        <v>8240</v>
       </c>
       <c r="E345" s="2">
-        <v>7206</v>
+        <v>7207</v>
       </c>
       <c r="F345" s="2">
-        <v>7099</v>
+        <v>7096</v>
       </c>
       <c r="G345" s="2">
-        <v>7314</v>
+        <v>7311</v>
       </c>
       <c r="H345" s="3">
         <v>0.8</v>
@@ -15856,7 +15861,7 @@
         <v>0.88</v>
       </c>
       <c r="M345" s="3">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="346" spans="1:13">
@@ -15864,22 +15869,22 @@
         <v>356</v>
       </c>
       <c r="B346" s="2">
-        <v>7686</v>
+        <v>7685</v>
       </c>
       <c r="C346" s="2">
-        <v>7586</v>
+        <v>7585</v>
       </c>
       <c r="D346" s="2">
-        <v>7790</v>
+        <v>7789</v>
       </c>
       <c r="E346" s="2">
-        <v>7247</v>
+        <v>7248</v>
       </c>
       <c r="F346" s="2">
-        <v>7146</v>
+        <v>7144</v>
       </c>
       <c r="G346" s="2">
-        <v>7354</v>
+        <v>7349</v>
       </c>
       <c r="H346" s="3">
         <v>0.87</v>
@@ -15905,22 +15910,22 @@
         <v>357</v>
       </c>
       <c r="B347" s="2">
-        <v>7429</v>
+        <v>7432</v>
       </c>
       <c r="C347" s="2">
-        <v>7312</v>
+        <v>7315</v>
       </c>
       <c r="D347" s="2">
-        <v>7520</v>
+        <v>7522</v>
       </c>
       <c r="E347" s="2">
-        <v>7421</v>
+        <v>7422</v>
       </c>
       <c r="F347" s="2">
         <v>7312</v>
       </c>
       <c r="G347" s="2">
-        <v>7522</v>
+        <v>7519</v>
       </c>
       <c r="H347" s="3">
         <v>0.97</v>
@@ -15935,7 +15940,7 @@
         <v>0.89</v>
       </c>
       <c r="L347" s="3">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="M347" s="3">
         <v>0.89</v>
@@ -15946,22 +15951,22 @@
         <v>358</v>
       </c>
       <c r="B348" s="2">
-        <v>6686</v>
+        <v>6690</v>
       </c>
       <c r="C348" s="2">
-        <v>6575</v>
+        <v>6600</v>
       </c>
       <c r="D348" s="2">
-        <v>6795</v>
+        <v>6789</v>
       </c>
       <c r="E348" s="2">
-        <v>7484</v>
+        <v>7486</v>
       </c>
       <c r="F348" s="2">
-        <v>7370</v>
+        <v>7377</v>
       </c>
       <c r="G348" s="2">
-        <v>7588</v>
+        <v>7585</v>
       </c>
       <c r="H348" s="3">
         <v>1.05</v>
@@ -15987,22 +15992,22 @@
         <v>359</v>
       </c>
       <c r="B349" s="2">
-        <v>6910</v>
+        <v>6912</v>
       </c>
       <c r="C349" s="2">
-        <v>6818</v>
+        <v>6819</v>
       </c>
       <c r="D349" s="2">
-        <v>7038</v>
+        <v>7030</v>
       </c>
       <c r="E349" s="2">
-        <v>7178</v>
+        <v>7180</v>
       </c>
       <c r="F349" s="2">
-        <v>7073</v>
+        <v>7079</v>
       </c>
       <c r="G349" s="2">
-        <v>7286</v>
+        <v>7282</v>
       </c>
       <c r="H349" s="3">
         <v>1</v>
@@ -16028,22 +16033,22 @@
         <v>360</v>
       </c>
       <c r="B350" s="2">
-        <v>6424</v>
+        <v>6423</v>
       </c>
       <c r="C350" s="2">
-        <v>6329</v>
+        <v>6317</v>
       </c>
       <c r="D350" s="2">
-        <v>6519</v>
+        <v>6515</v>
       </c>
       <c r="E350" s="2">
-        <v>6862</v>
+        <v>6864</v>
       </c>
       <c r="F350" s="2">
-        <v>6758</v>
+        <v>6763</v>
       </c>
       <c r="G350" s="2">
-        <v>6968</v>
+        <v>6964</v>
       </c>
       <c r="H350" s="3">
         <v>0.95</v>
@@ -16069,22 +16074,22 @@
         <v>361</v>
       </c>
       <c r="B351" s="2">
-        <v>6623</v>
+        <v>6625</v>
       </c>
       <c r="C351" s="2">
-        <v>6520</v>
+        <v>6512</v>
       </c>
       <c r="D351" s="2">
-        <v>6713</v>
+        <v>6721</v>
       </c>
       <c r="E351" s="2">
-        <v>6661</v>
+        <v>6663</v>
       </c>
       <c r="F351" s="2">
-        <v>6560</v>
+        <v>6562</v>
       </c>
       <c r="G351" s="2">
-        <v>6766</v>
+        <v>6764</v>
       </c>
       <c r="H351" s="3">
         <v>0.9</v>
@@ -16110,22 +16115,22 @@
         <v>362</v>
       </c>
       <c r="B352" s="2">
-        <v>8535</v>
+        <v>8538</v>
       </c>
       <c r="C352" s="2">
-        <v>8437</v>
+        <v>8425</v>
       </c>
       <c r="D352" s="2">
-        <v>8632</v>
+        <v>8661</v>
       </c>
       <c r="E352" s="2">
-        <v>7123</v>
+        <v>7124</v>
       </c>
       <c r="F352" s="2">
-        <v>7026</v>
+        <v>7018</v>
       </c>
       <c r="G352" s="2">
-        <v>7225</v>
+        <v>7232</v>
       </c>
       <c r="H352" s="3">
         <v>0.95</v>
@@ -16151,31 +16156,31 @@
         <v>363</v>
       </c>
       <c r="B353" s="2">
-        <v>8153</v>
+        <v>8146</v>
       </c>
       <c r="C353" s="2">
-        <v>8031</v>
+        <v>8051</v>
       </c>
       <c r="D353" s="2">
-        <v>8276</v>
+        <v>8253</v>
       </c>
       <c r="E353" s="2">
-        <v>7434</v>
+        <v>7433</v>
       </c>
       <c r="F353" s="2">
-        <v>7329</v>
+        <v>7326</v>
       </c>
       <c r="G353" s="2">
-        <v>7535</v>
+        <v>7537</v>
       </c>
       <c r="H353" s="3">
         <v>1.04</v>
       </c>
       <c r="I353" s="3">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J353" s="3">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K353" s="3">
         <v>1.03</v>
@@ -16192,22 +16197,22 @@
         <v>364</v>
       </c>
       <c r="B354" s="2">
-        <v>8072</v>
+        <v>8071</v>
       </c>
       <c r="C354" s="2">
-        <v>7954</v>
+        <v>7963</v>
       </c>
       <c r="D354" s="2">
-        <v>8166</v>
+        <v>8198</v>
       </c>
       <c r="E354" s="2">
-        <v>7846</v>
+        <v>7845</v>
       </c>
       <c r="F354" s="2">
-        <v>7735</v>
+        <v>7738</v>
       </c>
       <c r="G354" s="2">
-        <v>7947</v>
+        <v>7958</v>
       </c>
       <c r="H354" s="3">
         <v>1.1399999999999999</v>
@@ -16233,28 +16238,28 @@
         <v>365</v>
       </c>
       <c r="B355" s="2">
-        <v>7729</v>
+        <v>7722</v>
       </c>
       <c r="C355" s="2">
-        <v>7620</v>
+        <v>7601</v>
       </c>
       <c r="D355" s="2">
-        <v>7844</v>
+        <v>7825</v>
       </c>
       <c r="E355" s="2">
-        <v>8122</v>
+        <v>8119</v>
       </c>
       <c r="F355" s="2">
         <v>8010</v>
       </c>
       <c r="G355" s="2">
-        <v>8229</v>
+        <v>8234</v>
       </c>
       <c r="H355" s="3">
         <v>1.22</v>
       </c>
       <c r="I355" s="3">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="J355" s="3">
         <v>1.23</v>
@@ -16274,22 +16279,22 @@
         <v>366</v>
       </c>
       <c r="B356" s="2">
-        <v>7678</v>
+        <v>7672</v>
       </c>
       <c r="C356" s="2">
-        <v>7568</v>
+        <v>7563</v>
       </c>
       <c r="D356" s="2">
-        <v>7777</v>
+        <v>7780</v>
       </c>
       <c r="E356" s="2">
-        <v>7908</v>
+        <v>7903</v>
       </c>
       <c r="F356" s="2">
-        <v>7793</v>
+        <v>7795</v>
       </c>
       <c r="G356" s="2">
-        <v>8016</v>
+        <v>8014</v>
       </c>
       <c r="H356" s="3">
         <v>1.1100000000000001</v>
@@ -16315,22 +16320,22 @@
         <v>367</v>
       </c>
       <c r="B357" s="2">
-        <v>7360</v>
+        <v>7355</v>
       </c>
       <c r="C357" s="2">
-        <v>7238</v>
+        <v>7263</v>
       </c>
       <c r="D357" s="2">
-        <v>7449</v>
+        <v>7446</v>
       </c>
       <c r="E357" s="2">
-        <v>7710</v>
+        <v>7705</v>
       </c>
       <c r="F357" s="2">
-        <v>7595</v>
+        <v>7597</v>
       </c>
       <c r="G357" s="2">
-        <v>7809</v>
+        <v>7812</v>
       </c>
       <c r="H357" s="3">
         <v>1.04</v>
@@ -16356,22 +16361,22 @@
         <v>368</v>
       </c>
       <c r="B358" s="2">
-        <v>7135</v>
+        <v>7129</v>
       </c>
       <c r="C358" s="2">
-        <v>7045</v>
+        <v>7023</v>
       </c>
       <c r="D358" s="2">
-        <v>7246</v>
+        <v>7235</v>
       </c>
       <c r="E358" s="2">
-        <v>7475</v>
+        <v>7470</v>
       </c>
       <c r="F358" s="2">
-        <v>7368</v>
+        <v>7362</v>
       </c>
       <c r="G358" s="2">
-        <v>7579</v>
+        <v>7571</v>
       </c>
       <c r="H358" s="3">
         <v>0.95</v>
@@ -16397,22 +16402,22 @@
         <v>369</v>
       </c>
       <c r="B359" s="2">
-        <v>8945</v>
+        <v>8950</v>
       </c>
       <c r="C359" s="2">
-        <v>8850</v>
+        <v>8823</v>
       </c>
       <c r="D359" s="2">
-        <v>9055</v>
+        <v>9081</v>
       </c>
       <c r="E359" s="2">
-        <v>7779</v>
+        <v>7776</v>
       </c>
       <c r="F359" s="2">
-        <v>7675</v>
+        <v>7668</v>
       </c>
       <c r="G359" s="2">
-        <v>7881</v>
+        <v>7885</v>
       </c>
       <c r="H359" s="3">
         <v>0.96</v>
@@ -16438,22 +16443,22 @@
         <v>370</v>
       </c>
       <c r="B360" s="2">
-        <v>8507</v>
+        <v>8509</v>
       </c>
       <c r="C360" s="2">
-        <v>8354</v>
+        <v>8389</v>
       </c>
       <c r="D360" s="2">
-        <v>8661</v>
+        <v>8621</v>
       </c>
       <c r="E360" s="2">
-        <v>7987</v>
+        <v>7986</v>
       </c>
       <c r="F360" s="2">
-        <v>7872</v>
+        <v>7874</v>
       </c>
       <c r="G360" s="2">
-        <v>8103</v>
+        <v>8096</v>
       </c>
       <c r="H360" s="3">
         <v>1.01</v>
@@ -16479,22 +16484,22 @@
         <v>371</v>
       </c>
       <c r="B361" s="2">
-        <v>8089</v>
+        <v>8091</v>
       </c>
       <c r="C361" s="2">
-        <v>7955</v>
+        <v>7949</v>
       </c>
       <c r="D361" s="2">
-        <v>8212</v>
+        <v>8230</v>
       </c>
       <c r="E361" s="2">
-        <v>8169</v>
+        <v>8170</v>
       </c>
       <c r="F361" s="2">
-        <v>8051</v>
+        <v>8046</v>
       </c>
       <c r="G361" s="2">
-        <v>8294</v>
+        <v>8292</v>
       </c>
       <c r="H361" s="3">
         <v>1.06</v>
@@ -16520,13 +16525,13 @@
         <v>372</v>
       </c>
       <c r="B362" s="2">
-        <v>7685</v>
+        <v>7675</v>
       </c>
       <c r="C362" s="2">
-        <v>7532</v>
+        <v>7529</v>
       </c>
       <c r="D362" s="2">
-        <v>7825</v>
+        <v>7789</v>
       </c>
       <c r="E362" s="2">
         <v>8306</v>
@@ -16535,7 +16540,7 @@
         <v>8173</v>
       </c>
       <c r="G362" s="2">
-        <v>8439</v>
+        <v>8430</v>
       </c>
       <c r="H362" s="3">
         <v>1.1100000000000001</v>
@@ -16561,22 +16566,22 @@
         <v>373</v>
       </c>
       <c r="B363" s="2">
-        <v>7973</v>
+        <v>7951</v>
       </c>
       <c r="C363" s="2">
-        <v>7864</v>
+        <v>7803</v>
       </c>
       <c r="D363" s="2">
-        <v>8119</v>
+        <v>8080</v>
       </c>
       <c r="E363" s="2">
-        <v>8063</v>
+        <v>8057</v>
       </c>
       <c r="F363" s="2">
-        <v>7926</v>
+        <v>7917</v>
       </c>
       <c r="G363" s="2">
-        <v>8205</v>
+        <v>8180</v>
       </c>
       <c r="H363" s="3">
         <v>1.04</v>
@@ -16602,22 +16607,22 @@
         <v>374</v>
       </c>
       <c r="B364" s="2">
-        <v>7205</v>
+        <v>7188</v>
       </c>
       <c r="C364" s="2">
-        <v>7072</v>
+        <v>7064</v>
       </c>
       <c r="D364" s="2">
-        <v>7333</v>
+        <v>7310</v>
       </c>
       <c r="E364" s="2">
-        <v>7738</v>
+        <v>7726</v>
       </c>
       <c r="F364" s="2">
-        <v>7606</v>
+        <v>7586</v>
       </c>
       <c r="G364" s="2">
-        <v>7872</v>
+        <v>7852</v>
       </c>
       <c r="H364" s="3">
         <v>0.97</v>
@@ -16643,28 +16648,28 @@
         <v>375</v>
       </c>
       <c r="B365" s="2">
-        <v>7380</v>
+        <v>7368</v>
       </c>
       <c r="C365" s="2">
-        <v>7244</v>
+        <v>7235</v>
       </c>
       <c r="D365" s="2">
-        <v>7522</v>
+        <v>7494</v>
       </c>
       <c r="E365" s="2">
-        <v>7561</v>
+        <v>7545</v>
       </c>
       <c r="F365" s="2">
-        <v>7428</v>
+        <v>7408</v>
       </c>
       <c r="G365" s="2">
-        <v>7700</v>
+        <v>7668</v>
       </c>
       <c r="H365" s="3">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="I365" s="3">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="J365" s="3">
         <v>0.93</v>
@@ -16684,22 +16689,22 @@
         <v>376</v>
       </c>
       <c r="B366" s="2">
-        <v>9545</v>
+        <v>9559</v>
       </c>
       <c r="C366" s="2">
-        <v>9372</v>
+        <v>9409</v>
       </c>
       <c r="D366" s="2">
-        <v>9695</v>
+        <v>9743</v>
       </c>
       <c r="E366" s="2">
-        <v>8025</v>
+        <v>8016</v>
       </c>
       <c r="F366" s="2">
-        <v>7888</v>
+        <v>7878</v>
       </c>
       <c r="G366" s="2">
-        <v>8167</v>
+        <v>8157</v>
       </c>
       <c r="H366" s="3">
         <v>0.97</v>
@@ -16725,25 +16730,25 @@
         <v>377</v>
       </c>
       <c r="B367" s="2">
-        <v>8929</v>
+        <v>8950</v>
       </c>
       <c r="C367" s="2">
-        <v>8778</v>
+        <v>8815</v>
       </c>
       <c r="D367" s="2">
-        <v>9109</v>
+        <v>9105</v>
       </c>
       <c r="E367" s="2">
-        <v>8265</v>
+        <v>8266</v>
       </c>
       <c r="F367" s="2">
-        <v>8116</v>
+        <v>8131</v>
       </c>
       <c r="G367" s="2">
-        <v>8415</v>
+        <v>8413</v>
       </c>
       <c r="H367" s="3">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="I367" s="3">
         <v>1.01</v>
@@ -16758,7 +16763,7 @@
         <v>1.03</v>
       </c>
       <c r="M367" s="3">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="368" spans="1:13">
@@ -16766,25 +16771,25 @@
         <v>378</v>
       </c>
       <c r="B368" s="2">
-        <v>8930</v>
+        <v>8952</v>
       </c>
       <c r="C368" s="2">
-        <v>8799</v>
+        <v>8784</v>
       </c>
       <c r="D368" s="2">
-        <v>9084</v>
+        <v>9149</v>
       </c>
       <c r="E368" s="2">
-        <v>8696</v>
+        <v>8707</v>
       </c>
       <c r="F368" s="2">
-        <v>8548</v>
+        <v>8561</v>
       </c>
       <c r="G368" s="2">
-        <v>8852</v>
+        <v>8873</v>
       </c>
       <c r="H368" s="3">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I368" s="3">
         <v>1.1100000000000001</v>
@@ -16807,28 +16812,28 @@
         <v>379</v>
       </c>
       <c r="B369" s="2">
-        <v>8621</v>
+        <v>8656</v>
       </c>
       <c r="C369" s="2">
-        <v>8482</v>
+        <v>8512</v>
       </c>
       <c r="D369" s="2">
-        <v>8780</v>
+        <v>8827</v>
       </c>
       <c r="E369" s="2">
-        <v>9006</v>
+        <v>9029</v>
       </c>
       <c r="F369" s="2">
-        <v>8858</v>
+        <v>8880</v>
       </c>
       <c r="G369" s="2">
-        <v>9167</v>
+        <v>9206</v>
       </c>
       <c r="H369" s="3">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="I369" s="3">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="J369" s="3">
         <v>1.21</v>
@@ -16840,7 +16845,7 @@
         <v>1.05</v>
       </c>
       <c r="M369" s="3">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="370" spans="1:13">
@@ -16848,28 +16853,28 @@
         <v>380</v>
       </c>
       <c r="B370" s="2">
-        <v>8994</v>
+        <v>9020</v>
       </c>
       <c r="C370" s="2">
-        <v>8796</v>
+        <v>8846</v>
       </c>
       <c r="D370" s="2">
-        <v>9149</v>
+        <v>9172</v>
       </c>
       <c r="E370" s="2">
-        <v>8868</v>
+        <v>8895</v>
       </c>
       <c r="F370" s="2">
-        <v>8714</v>
+        <v>8739</v>
       </c>
       <c r="G370" s="2">
-        <v>9030</v>
+        <v>9063</v>
       </c>
       <c r="H370" s="3">
         <v>1.1100000000000001</v>
       </c>
       <c r="I370" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J370" s="3">
         <v>1.1200000000000001</v>
@@ -16889,22 +16894,22 @@
         <v>381</v>
       </c>
       <c r="B371" s="2">
-        <v>8852</v>
+        <v>8897</v>
       </c>
       <c r="C371" s="2">
-        <v>8683</v>
+        <v>8684</v>
       </c>
       <c r="D371" s="2">
-        <v>9005</v>
+        <v>9111</v>
       </c>
       <c r="E371" s="2">
-        <v>8849</v>
+        <v>8881</v>
       </c>
       <c r="F371" s="2">
-        <v>8690</v>
+        <v>8707</v>
       </c>
       <c r="G371" s="2">
-        <v>9004</v>
+        <v>9065</v>
       </c>
       <c r="H371" s="3">
         <v>1.07</v>
@@ -16913,10 +16918,10 @@
         <v>1.06</v>
       </c>
       <c r="J371" s="3">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K371" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L371" s="3">
         <v>1.0900000000000001</v>
@@ -16933,19 +16938,19 @@
         <v>9102</v>
       </c>
       <c r="C372" s="2">
-        <v>8904</v>
+        <v>8921</v>
       </c>
       <c r="D372" s="2">
-        <v>9296</v>
+        <v>9264</v>
       </c>
       <c r="E372" s="2">
-        <v>8892</v>
+        <v>8919</v>
       </c>
       <c r="F372" s="2">
-        <v>8716</v>
+        <v>8741</v>
       </c>
       <c r="G372" s="2">
-        <v>9057</v>
+        <v>9094</v>
       </c>
       <c r="H372" s="3">
         <v>1.02</v>
@@ -16957,10 +16962,10 @@
         <v>1.04</v>
       </c>
       <c r="K372" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L372" s="3">
         <v>1.1100000000000001</v>
-      </c>
-      <c r="L372" s="3">
-        <v>1.1000000000000001</v>
       </c>
       <c r="M372" s="3">
         <v>1.1200000000000001</v>
@@ -16971,22 +16976,22 @@
         <v>383</v>
       </c>
       <c r="B373" s="2">
-        <v>11841</v>
+        <v>11814</v>
       </c>
       <c r="C373" s="2">
-        <v>11482</v>
+        <v>11463</v>
       </c>
       <c r="D373" s="2">
-        <v>12129</v>
+        <v>12042</v>
       </c>
       <c r="E373" s="2">
-        <v>9697</v>
+        <v>9708</v>
       </c>
       <c r="F373" s="2">
-        <v>9466</v>
+        <v>9479</v>
       </c>
       <c r="G373" s="2">
-        <v>9895</v>
+        <v>9897</v>
       </c>
       <c r="H373" s="3">
         <v>1.08</v>
@@ -17012,22 +17017,22 @@
         <v>384</v>
       </c>
       <c r="B374" s="2">
-        <v>11507</v>
+        <v>11520</v>
       </c>
       <c r="C374" s="2">
-        <v>11148</v>
+        <v>11163</v>
       </c>
       <c r="D374" s="2">
-        <v>11897</v>
+        <v>11851</v>
       </c>
       <c r="E374" s="2">
-        <v>10326</v>
+        <v>10333</v>
       </c>
       <c r="F374" s="2">
-        <v>10054</v>
+        <v>10058</v>
       </c>
       <c r="G374" s="2">
-        <v>10582</v>
+        <v>10567</v>
       </c>
       <c r="H374" s="3">
         <v>1.1599999999999999</v>
@@ -17053,25 +17058,25 @@
         <v>385</v>
       </c>
       <c r="B375" s="2">
-        <v>11627</v>
+        <v>11675</v>
       </c>
       <c r="C375" s="2">
-        <v>11270</v>
+        <v>11337</v>
       </c>
       <c r="D375" s="2">
-        <v>12010</v>
+        <v>12046</v>
       </c>
       <c r="E375" s="2">
-        <v>11019</v>
+        <v>11028</v>
       </c>
       <c r="F375" s="2">
-        <v>10701</v>
+        <v>10721</v>
       </c>
       <c r="G375" s="2">
-        <v>11333</v>
+        <v>11301</v>
       </c>
       <c r="H375" s="3">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="I375" s="3">
         <v>1.22</v>
@@ -17080,7 +17085,7 @@
         <v>1.26</v>
       </c>
       <c r="K375" s="3">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L375" s="3">
         <v>1.1499999999999999</v>
@@ -17094,25 +17099,25 @@
         <v>386</v>
       </c>
       <c r="B376" s="2">
-        <v>11513</v>
+        <v>11503</v>
       </c>
       <c r="C376" s="2">
-        <v>11035</v>
+        <v>11163</v>
       </c>
       <c r="D376" s="2">
-        <v>11968</v>
+        <v>11946</v>
       </c>
       <c r="E376" s="2">
-        <v>11622</v>
+        <v>11628</v>
       </c>
       <c r="F376" s="2">
-        <v>11234</v>
+        <v>11281</v>
       </c>
       <c r="G376" s="2">
-        <v>12001</v>
+        <v>11971</v>
       </c>
       <c r="H376" s="3">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="I376" s="3">
         <v>1.28</v>
@@ -17124,7 +17129,7 @@
         <v>1.17</v>
       </c>
       <c r="L376" s="3">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="M376" s="3">
         <v>1.18</v>
@@ -17135,28 +17140,28 @@
         <v>387</v>
       </c>
       <c r="B377" s="2">
-        <v>11862</v>
+        <v>11935</v>
       </c>
       <c r="C377" s="2">
-        <v>11335</v>
+        <v>11483</v>
       </c>
       <c r="D377" s="2">
         <v>12446</v>
       </c>
       <c r="E377" s="2">
-        <v>11627</v>
+        <v>11658</v>
       </c>
       <c r="F377" s="2">
-        <v>11197</v>
+        <v>11287</v>
       </c>
       <c r="G377" s="2">
-        <v>12080</v>
+        <v>12072</v>
       </c>
       <c r="H377" s="3">
         <v>1.2</v>
       </c>
       <c r="I377" s="3">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="J377" s="3">
         <v>1.22</v>
@@ -17176,28 +17181,28 @@
         <v>388</v>
       </c>
       <c r="B378" s="2">
-        <v>11775</v>
+        <v>11725</v>
       </c>
       <c r="C378" s="2">
-        <v>11150</v>
+        <v>11121</v>
       </c>
       <c r="D378" s="2">
-        <v>12294</v>
+        <v>12292</v>
       </c>
       <c r="E378" s="2">
-        <v>11694</v>
+        <v>11709</v>
       </c>
       <c r="F378" s="2">
-        <v>11198</v>
+        <v>11276</v>
       </c>
       <c r="G378" s="2">
-        <v>12179</v>
+        <v>12182</v>
       </c>
       <c r="H378" s="3">
         <v>1.1299999999999999</v>
       </c>
       <c r="I378" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J378" s="3">
         <v>1.1599999999999999</v>
@@ -17206,7 +17211,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="L378" s="3">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M378" s="3">
         <v>1.18</v>
@@ -17217,40 +17222,40 @@
         <v>389</v>
       </c>
       <c r="B379" s="2">
-        <v>11963</v>
+        <v>12091</v>
       </c>
       <c r="C379" s="2">
-        <v>11167</v>
+        <v>11379</v>
       </c>
       <c r="D379" s="2">
-        <v>12655</v>
+        <v>12595</v>
       </c>
       <c r="E379" s="2">
-        <v>11778</v>
+        <v>11814</v>
       </c>
       <c r="F379" s="2">
-        <v>11172</v>
+        <v>11286</v>
       </c>
       <c r="G379" s="2">
-        <v>12341</v>
+        <v>12320</v>
       </c>
       <c r="H379" s="3">
         <v>1.07</v>
       </c>
       <c r="I379" s="3">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J379" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="K379" s="3">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="L379" s="3">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="M379" s="3">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="380" spans="1:13">
@@ -17258,28 +17263,28 @@
         <v>390</v>
       </c>
       <c r="B380" s="2">
-        <v>15146</v>
+        <v>15272</v>
       </c>
       <c r="C380" s="2">
-        <v>13937</v>
+        <v>14440</v>
       </c>
       <c r="D380" s="2">
-        <v>16388</v>
+        <v>16224</v>
       </c>
       <c r="E380" s="2">
-        <v>12687</v>
+        <v>12756</v>
       </c>
       <c r="F380" s="2">
-        <v>11897</v>
+        <v>12106</v>
       </c>
       <c r="G380" s="2">
-        <v>13445</v>
+        <v>13389</v>
       </c>
       <c r="H380" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I380" s="3">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="J380" s="3">
         <v>1.1299999999999999</v>
@@ -17288,7 +17293,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="L380" s="3">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="M380" s="3">
         <v>1.19</v>
@@ -17299,28 +17304,28 @@
         <v>391</v>
       </c>
       <c r="B381" s="2">
-        <v>14766</v>
+        <v>14843</v>
       </c>
       <c r="C381" s="2">
-        <v>13345</v>
+        <v>13811</v>
       </c>
       <c r="D381" s="2">
-        <v>16121</v>
+        <v>16108</v>
       </c>
       <c r="E381" s="2">
-        <v>13413</v>
+        <v>13483</v>
       </c>
       <c r="F381" s="2">
-        <v>12400</v>
+        <v>12688</v>
       </c>
       <c r="G381" s="2">
-        <v>14364</v>
+        <v>14305</v>
       </c>
       <c r="H381" s="3">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I381" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J381" s="3">
         <v>1.2</v>
@@ -17329,7 +17334,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="L381" s="3">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="M381" s="3">
         <v>1.19</v>
@@ -17340,40 +17345,40 @@
         <v>392</v>
       </c>
       <c r="B382" s="2">
-        <v>14601</v>
+        <v>14799</v>
       </c>
       <c r="C382" s="2">
-        <v>12758</v>
+        <v>13289</v>
       </c>
       <c r="D382" s="2">
-        <v>16672</v>
+        <v>16164</v>
       </c>
       <c r="E382" s="2">
-        <v>14119</v>
+        <v>14251</v>
       </c>
       <c r="F382" s="2">
-        <v>12802</v>
+        <v>13230</v>
       </c>
       <c r="G382" s="2">
-        <v>15459</v>
+        <v>15273</v>
       </c>
       <c r="H382" s="3">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="I382" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="J382" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="K382" s="3">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J382" s="3">
-        <v>1.26</v>
-      </c>
-      <c r="K382" s="3">
-        <v>1.1399999999999999</v>
-      </c>
       <c r="L382" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="M382" s="3">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="383" spans="1:13">
@@ -17381,40 +17386,40 @@
         <v>393</v>
       </c>
       <c r="B383" s="2">
-        <v>13531</v>
+        <v>14234</v>
       </c>
       <c r="C383" s="2">
-        <v>11467</v>
+        <v>12662</v>
       </c>
       <c r="D383" s="2">
-        <v>15406</v>
+        <v>15966</v>
       </c>
       <c r="E383" s="2">
-        <v>14511</v>
+        <v>14787</v>
       </c>
       <c r="F383" s="2">
-        <v>12877</v>
+        <v>13551</v>
       </c>
       <c r="G383" s="2">
-        <v>16146</v>
+        <v>16115</v>
       </c>
       <c r="H383" s="3">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="I383" s="3">
-        <v>1.1599999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="J383" s="3">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="K383" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L383" s="3">
-        <v>1.07</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M383" s="3">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="384" spans="1:13">
@@ -17422,37 +17427,37 @@
         <v>394</v>
       </c>
       <c r="B384" s="2">
-        <v>13231</v>
+        <v>14173</v>
       </c>
       <c r="C384" s="2">
-        <v>10792</v>
+        <v>12013</v>
       </c>
       <c r="D384" s="2">
-        <v>15961</v>
+        <v>16307</v>
       </c>
       <c r="E384" s="2">
-        <v>14032</v>
+        <v>14512</v>
       </c>
       <c r="F384" s="2">
-        <v>12091</v>
+        <v>12944</v>
       </c>
       <c r="G384" s="2">
-        <v>16040</v>
+        <v>16136</v>
       </c>
       <c r="H384" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I384" s="3">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="J384" s="3">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="K384" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="L384" s="3">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="M384" s="3">
         <v>1.1599999999999999</v>
@@ -17463,40 +17468,40 @@
         <v>395</v>
       </c>
       <c r="B385" s="2">
-        <v>13690</v>
+        <v>14246</v>
       </c>
       <c r="C385" s="2">
-        <v>10078</v>
+        <v>11261</v>
       </c>
       <c r="D385" s="2">
-        <v>17233</v>
+        <v>17133</v>
       </c>
       <c r="E385" s="2">
-        <v>13763</v>
+        <v>14363</v>
       </c>
       <c r="F385" s="2">
-        <v>11274</v>
+        <v>12306</v>
       </c>
       <c r="G385" s="2">
-        <v>16318</v>
+        <v>16392</v>
       </c>
       <c r="H385" s="3">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="I385" s="3">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="J385" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K385" s="3">
         <v>1.1299999999999999</v>
       </c>
-      <c r="K385" s="3">
-        <v>1.08</v>
-      </c>
       <c r="L385" s="3">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="M385" s="3">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="386" spans="1:13">
@@ -17504,40 +17509,81 @@
         <v>396</v>
       </c>
       <c r="B386" s="2">
-        <v>13871</v>
+        <v>16427</v>
       </c>
       <c r="C386" s="2">
-        <v>9051</v>
+        <v>12767</v>
       </c>
       <c r="D386" s="2">
-        <v>20043</v>
+        <v>20689</v>
       </c>
       <c r="E386" s="2">
-        <v>13581</v>
+        <v>14770</v>
       </c>
       <c r="F386" s="2">
-        <v>10347</v>
+        <v>12176</v>
       </c>
       <c r="G386" s="2">
-        <v>17161</v>
+        <v>17524</v>
       </c>
       <c r="H386" s="3">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="I386" s="3">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="J386" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K386" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="L386" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="M386" s="3" t="s">
-        <v>402</v>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="K386" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L386" s="3">
+        <v>1.06</v>
+      </c>
+      <c r="M386" s="3">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13">
+      <c r="A387" t="s">
+        <v>397</v>
+      </c>
+      <c r="B387" s="2">
+        <v>19522</v>
+      </c>
+      <c r="C387" s="2">
+        <v>12812</v>
+      </c>
+      <c r="D387" s="2">
+        <v>27368</v>
+      </c>
+      <c r="E387" s="2">
+        <v>16092</v>
+      </c>
+      <c r="F387" s="2">
+        <v>12213</v>
+      </c>
+      <c r="G387" s="2">
+        <v>20374</v>
+      </c>
+      <c r="H387" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I387" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="J387" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="K387" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="L387" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="M387" s="3" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/rki-data/RKI-Nowcasting_Zahlen.xlsx
+++ b/rki-data/RKI-Nowcasting_Zahlen.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF1E86A-FBDF-47EF-9EE6-F56A443E10C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAAC9FD-DD11-4103-8567-FC9A3F501811}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="429">
   <si>
     <t>Erläuterung</t>
   </si>
@@ -27,7 +27,7 @@
     <t>Ergebnisse des Nowcastings und der Schätzung der Reproduktionszahl R</t>
   </si>
   <si>
-    <t>Datenstand: 2021-04-12, 00:00 Uhr</t>
+    <t>Datenstand: 2021-04-13, 00:00 Uhr</t>
   </si>
   <si>
     <t>Die Ergebnisse des Nowcastings, also die Schätzung der Anzahl von COVID-19 Neuerkrankungen wird dargestellt mit einem gleitenden 4-Tages-Mittelwert.</t>
@@ -36,7 +36,7 @@
     <t>Dabei wird jeder Wert mit den Werten der 3 vorhergehenden Tage gemittelt.</t>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-04-12 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-04-13 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -1263,6 +1263,9 @@
     <t>08.04.2021</t>
   </si>
   <si>
+    <t>09.04.2021</t>
+  </si>
+  <si>
     <t>Punktschätzer der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
@@ -1275,18 +1278,9 @@
     <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen</t>
   </si>
   <si>
-    <t>Punktschätzer der 4-Tage R-Wert</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
-    <t>Untere Grenze des 95%-Prädiktionsintervalls der 4-Tage R-Wert</t>
-  </si>
-  <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls der 4-Tage R-Wert</t>
-  </si>
-  <si>
     <t>Punktschätzer des 7-Tage-R Wertes</t>
   </si>
   <si>
@@ -1299,7 +1293,16 @@
     <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glätttung)</t>
+  </si>
+  <si>
+    <t>Punktschätzer des 4-Tage R-Wertes</t>
+  </si>
+  <si>
+    <t>Untere Grenze des 95%-Prädiktionsintervalls des 4-Tage R-Wertes</t>
+  </si>
+  <si>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls des 4-Tage R-Wertes</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1660,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1751,62 +1754,73 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M404"/>
+  <dimension ref="A1:M405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:M404"/>
+      <selection activeCell="H6" sqref="H6:M405"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="13" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="13" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="70.900000000000006" customHeight="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="94.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -15798,10 +15812,10 @@
         <v>6735</v>
       </c>
       <c r="C343" s="2">
-        <v>6640</v>
+        <v>6641</v>
       </c>
       <c r="D343" s="2">
-        <v>6836</v>
+        <v>6835</v>
       </c>
       <c r="E343" s="2">
         <v>7672</v>
@@ -15848,10 +15862,10 @@
         <v>7112</v>
       </c>
       <c r="F344" s="2">
-        <v>7009</v>
+        <v>7010</v>
       </c>
       <c r="G344" s="2">
-        <v>7215</v>
+        <v>7214</v>
       </c>
       <c r="H344" s="3">
         <v>0.78</v>
@@ -15918,13 +15932,13 @@
         <v>356</v>
       </c>
       <c r="B346" s="2">
-        <v>7685</v>
+        <v>7684</v>
       </c>
       <c r="C346" s="2">
-        <v>7588</v>
+        <v>7585</v>
       </c>
       <c r="D346" s="2">
-        <v>7785</v>
+        <v>7788</v>
       </c>
       <c r="E346" s="2">
         <v>7248</v>
@@ -15962,19 +15976,19 @@
         <v>7430</v>
       </c>
       <c r="C347" s="2">
-        <v>7326</v>
+        <v>7328</v>
       </c>
       <c r="D347" s="2">
-        <v>7519</v>
+        <v>7518</v>
       </c>
       <c r="E347" s="2">
-        <v>7422</v>
+        <v>7421</v>
       </c>
       <c r="F347" s="2">
         <v>7318</v>
       </c>
       <c r="G347" s="2">
-        <v>7521</v>
+        <v>7522</v>
       </c>
       <c r="H347" s="3">
         <v>0.97</v>
@@ -16003,7 +16017,7 @@
         <v>6691</v>
       </c>
       <c r="C348" s="2">
-        <v>6597</v>
+        <v>6598</v>
       </c>
       <c r="D348" s="2">
         <v>6804</v>
@@ -16012,10 +16026,10 @@
         <v>7485</v>
       </c>
       <c r="F348" s="2">
-        <v>7381</v>
+        <v>7380</v>
       </c>
       <c r="G348" s="2">
-        <v>7589</v>
+        <v>7590</v>
       </c>
       <c r="H348" s="3">
         <v>1.05</v>
@@ -16044,7 +16058,7 @@
         <v>6907</v>
       </c>
       <c r="C349" s="2">
-        <v>6812</v>
+        <v>6809</v>
       </c>
       <c r="D349" s="2">
         <v>7023</v>
@@ -16053,10 +16067,10 @@
         <v>7178</v>
       </c>
       <c r="F349" s="2">
-        <v>7081</v>
+        <v>7080</v>
       </c>
       <c r="G349" s="2">
-        <v>7282</v>
+        <v>7283</v>
       </c>
       <c r="H349" s="3">
         <v>1</v>
@@ -16085,16 +16099,16 @@
         <v>6423</v>
       </c>
       <c r="C350" s="2">
-        <v>6326</v>
+        <v>6321</v>
       </c>
       <c r="D350" s="2">
-        <v>6539</v>
+        <v>6538</v>
       </c>
       <c r="E350" s="2">
         <v>6863</v>
       </c>
       <c r="F350" s="2">
-        <v>6765</v>
+        <v>6764</v>
       </c>
       <c r="G350" s="2">
         <v>6971</v>
@@ -16123,19 +16137,19 @@
         <v>361</v>
       </c>
       <c r="B351" s="2">
-        <v>6625</v>
+        <v>6626</v>
       </c>
       <c r="C351" s="2">
-        <v>6546</v>
+        <v>6543</v>
       </c>
       <c r="D351" s="2">
-        <v>6734</v>
+        <v>6735</v>
       </c>
       <c r="E351" s="2">
-        <v>6662</v>
+        <v>6661</v>
       </c>
       <c r="F351" s="2">
-        <v>6570</v>
+        <v>6567</v>
       </c>
       <c r="G351" s="2">
         <v>6775</v>
@@ -16167,16 +16181,16 @@
         <v>8545</v>
       </c>
       <c r="C352" s="2">
-        <v>8436</v>
+        <v>8434</v>
       </c>
       <c r="D352" s="2">
-        <v>8653</v>
+        <v>8652</v>
       </c>
       <c r="E352" s="2">
         <v>7125</v>
       </c>
       <c r="F352" s="2">
-        <v>7030</v>
+        <v>7027</v>
       </c>
       <c r="G352" s="2">
         <v>7237</v>
@@ -16208,16 +16222,16 @@
         <v>8146</v>
       </c>
       <c r="C353" s="2">
-        <v>8032</v>
+        <v>8029</v>
       </c>
       <c r="D353" s="2">
-        <v>8282</v>
+        <v>8285</v>
       </c>
       <c r="E353" s="2">
         <v>7435</v>
       </c>
       <c r="F353" s="2">
-        <v>7335</v>
+        <v>7332</v>
       </c>
       <c r="G353" s="2">
         <v>7552</v>
@@ -16252,13 +16266,13 @@
         <v>7946</v>
       </c>
       <c r="D354" s="2">
-        <v>8174</v>
+        <v>8173</v>
       </c>
       <c r="E354" s="2">
         <v>7847</v>
       </c>
       <c r="F354" s="2">
-        <v>7740</v>
+        <v>7738</v>
       </c>
       <c r="G354" s="2">
         <v>7961</v>
@@ -16290,16 +16304,16 @@
         <v>7719</v>
       </c>
       <c r="C355" s="2">
-        <v>7593</v>
+        <v>7596</v>
       </c>
       <c r="D355" s="2">
-        <v>7831</v>
+        <v>7830</v>
       </c>
       <c r="E355" s="2">
         <v>8121</v>
       </c>
       <c r="F355" s="2">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="G355" s="2">
         <v>8235</v>
@@ -16334,16 +16348,16 @@
         <v>7535</v>
       </c>
       <c r="D356" s="2">
-        <v>7767</v>
+        <v>7755</v>
       </c>
       <c r="E356" s="2">
-        <v>7898</v>
+        <v>7897</v>
       </c>
       <c r="F356" s="2">
         <v>7776</v>
       </c>
       <c r="G356" s="2">
-        <v>8013</v>
+        <v>8010</v>
       </c>
       <c r="H356" s="3">
         <v>1.1100000000000001</v>
@@ -16372,10 +16386,10 @@
         <v>7382</v>
       </c>
       <c r="C357" s="2">
-        <v>7282</v>
+        <v>7278</v>
       </c>
       <c r="D357" s="2">
-        <v>7484</v>
+        <v>7490</v>
       </c>
       <c r="E357" s="2">
         <v>7707</v>
@@ -16384,7 +16398,7 @@
         <v>7589</v>
       </c>
       <c r="G357" s="2">
-        <v>7814</v>
+        <v>7812</v>
       </c>
       <c r="H357" s="3">
         <v>1.04</v>
@@ -16410,22 +16424,22 @@
         <v>368</v>
       </c>
       <c r="B358" s="2">
-        <v>7125</v>
+        <v>7126</v>
       </c>
       <c r="C358" s="2">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="D358" s="2">
-        <v>7230</v>
+        <v>7233</v>
       </c>
       <c r="E358" s="2">
         <v>7470</v>
       </c>
       <c r="F358" s="2">
-        <v>7360</v>
+        <v>7359</v>
       </c>
       <c r="G358" s="2">
-        <v>7578</v>
+        <v>7577</v>
       </c>
       <c r="H358" s="3">
         <v>0.95</v>
@@ -16451,13 +16465,13 @@
         <v>369</v>
       </c>
       <c r="B359" s="2">
-        <v>8957</v>
+        <v>8956</v>
       </c>
       <c r="C359" s="2">
-        <v>8823</v>
+        <v>8829</v>
       </c>
       <c r="D359" s="2">
-        <v>9061</v>
+        <v>9068</v>
       </c>
       <c r="E359" s="2">
         <v>7779</v>
@@ -16466,7 +16480,7 @@
         <v>7667</v>
       </c>
       <c r="G359" s="2">
-        <v>7885</v>
+        <v>7886</v>
       </c>
       <c r="H359" s="3">
         <v>0.96</v>
@@ -16492,22 +16506,22 @@
         <v>370</v>
       </c>
       <c r="B360" s="2">
-        <v>8501</v>
+        <v>8499</v>
       </c>
       <c r="C360" s="2">
-        <v>8394</v>
+        <v>8392</v>
       </c>
       <c r="D360" s="2">
-        <v>8598</v>
+        <v>8604</v>
       </c>
       <c r="E360" s="2">
         <v>7991</v>
       </c>
       <c r="F360" s="2">
-        <v>7882</v>
+        <v>7881</v>
       </c>
       <c r="G360" s="2">
-        <v>8093</v>
+        <v>8098</v>
       </c>
       <c r="H360" s="3">
         <v>1.01</v>
@@ -16533,22 +16547,22 @@
         <v>371</v>
       </c>
       <c r="B361" s="2">
-        <v>8088</v>
+        <v>8089</v>
       </c>
       <c r="C361" s="2">
-        <v>7985</v>
+        <v>7984</v>
       </c>
       <c r="D361" s="2">
-        <v>8207</v>
+        <v>8205</v>
       </c>
       <c r="E361" s="2">
         <v>8168</v>
       </c>
       <c r="F361" s="2">
-        <v>8057</v>
+        <v>8058</v>
       </c>
       <c r="G361" s="2">
-        <v>8274</v>
+        <v>8277</v>
       </c>
       <c r="H361" s="3">
         <v>1.06</v>
@@ -16574,22 +16588,22 @@
         <v>372</v>
       </c>
       <c r="B362" s="2">
-        <v>7659</v>
+        <v>7658</v>
       </c>
       <c r="C362" s="2">
-        <v>7545</v>
+        <v>7546</v>
       </c>
       <c r="D362" s="2">
-        <v>7775</v>
+        <v>7774</v>
       </c>
       <c r="E362" s="2">
         <v>8301</v>
       </c>
       <c r="F362" s="2">
-        <v>8187</v>
+        <v>8188</v>
       </c>
       <c r="G362" s="2">
-        <v>8410</v>
+        <v>8412</v>
       </c>
       <c r="H362" s="3">
         <v>1.1100000000000001</v>
@@ -16615,19 +16629,19 @@
         <v>373</v>
       </c>
       <c r="B363" s="2">
-        <v>7939</v>
+        <v>7940</v>
       </c>
       <c r="C363" s="2">
-        <v>7846</v>
+        <v>7844</v>
       </c>
       <c r="D363" s="2">
-        <v>8054</v>
+        <v>8050</v>
       </c>
       <c r="E363" s="2">
         <v>8047</v>
       </c>
       <c r="F363" s="2">
-        <v>7942</v>
+        <v>7941</v>
       </c>
       <c r="G363" s="2">
         <v>8158</v>
@@ -16636,7 +16650,7 @@
         <v>1.03</v>
       </c>
       <c r="I363" s="3">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J363" s="3">
         <v>1.04</v>
@@ -16656,22 +16670,22 @@
         <v>374</v>
       </c>
       <c r="B364" s="2">
-        <v>7183</v>
+        <v>7182</v>
       </c>
       <c r="C364" s="2">
-        <v>7083</v>
+        <v>7082</v>
       </c>
       <c r="D364" s="2">
-        <v>7297</v>
+        <v>7288</v>
       </c>
       <c r="E364" s="2">
         <v>7717</v>
       </c>
       <c r="F364" s="2">
-        <v>7615</v>
+        <v>7614</v>
       </c>
       <c r="G364" s="2">
-        <v>7833</v>
+        <v>7829</v>
       </c>
       <c r="H364" s="3">
         <v>0.97</v>
@@ -16697,22 +16711,22 @@
         <v>375</v>
       </c>
       <c r="B365" s="2">
-        <v>7352</v>
+        <v>7350</v>
       </c>
       <c r="C365" s="2">
-        <v>7237</v>
+        <v>7227</v>
       </c>
       <c r="D365" s="2">
-        <v>7466</v>
+        <v>7453</v>
       </c>
       <c r="E365" s="2">
-        <v>7533</v>
+        <v>7532</v>
       </c>
       <c r="F365" s="2">
-        <v>7428</v>
+        <v>7424</v>
       </c>
       <c r="G365" s="2">
-        <v>7648</v>
+        <v>7641</v>
       </c>
       <c r="H365" s="3">
         <v>0.92</v>
@@ -16738,22 +16752,22 @@
         <v>376</v>
       </c>
       <c r="B366" s="2">
-        <v>9526</v>
+        <v>9525</v>
       </c>
       <c r="C366" s="2">
-        <v>9409</v>
+        <v>9416</v>
       </c>
       <c r="D366" s="2">
-        <v>9621</v>
+        <v>9644</v>
       </c>
       <c r="E366" s="2">
-        <v>8000</v>
+        <v>7999</v>
       </c>
       <c r="F366" s="2">
-        <v>7894</v>
+        <v>7892</v>
       </c>
       <c r="G366" s="2">
-        <v>8109</v>
+        <v>8108</v>
       </c>
       <c r="H366" s="3">
         <v>0.96</v>
@@ -16782,19 +16796,19 @@
         <v>8913</v>
       </c>
       <c r="C367" s="2">
-        <v>8797</v>
+        <v>8817</v>
       </c>
       <c r="D367" s="2">
-        <v>9042</v>
+        <v>9029</v>
       </c>
       <c r="E367" s="2">
-        <v>8244</v>
+        <v>8243</v>
       </c>
       <c r="F367" s="2">
-        <v>8131</v>
+        <v>8135</v>
       </c>
       <c r="G367" s="2">
-        <v>8356</v>
+        <v>8353</v>
       </c>
       <c r="H367" s="3">
         <v>1.02</v>
@@ -16803,7 +16817,7 @@
         <v>1.02</v>
       </c>
       <c r="J367" s="3">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K367" s="3">
         <v>1.04</v>
@@ -16820,22 +16834,22 @@
         <v>378</v>
       </c>
       <c r="B368" s="2">
-        <v>9005</v>
+        <v>9001</v>
       </c>
       <c r="C368" s="2">
-        <v>8887</v>
+        <v>8875</v>
       </c>
       <c r="D368" s="2">
-        <v>9115</v>
+        <v>9107</v>
       </c>
       <c r="E368" s="2">
-        <v>8699</v>
+        <v>8697</v>
       </c>
       <c r="F368" s="2">
-        <v>8582</v>
+        <v>8583</v>
       </c>
       <c r="G368" s="2">
-        <v>8811</v>
+        <v>8808</v>
       </c>
       <c r="H368" s="3">
         <v>1.1299999999999999</v>
@@ -16861,22 +16875,22 @@
         <v>379</v>
       </c>
       <c r="B369" s="2">
-        <v>8661</v>
+        <v>8659</v>
       </c>
       <c r="C369" s="2">
-        <v>8546</v>
+        <v>8545</v>
       </c>
       <c r="D369" s="2">
         <v>8764</v>
       </c>
       <c r="E369" s="2">
-        <v>9026</v>
+        <v>9025</v>
       </c>
       <c r="F369" s="2">
-        <v>8910</v>
+        <v>8913</v>
       </c>
       <c r="G369" s="2">
-        <v>9135</v>
+        <v>9136</v>
       </c>
       <c r="H369" s="3">
         <v>1.2</v>
@@ -16891,7 +16905,7 @@
         <v>1.06</v>
       </c>
       <c r="L369" s="3">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="M369" s="3">
         <v>1.07</v>
@@ -16902,22 +16916,22 @@
         <v>380</v>
       </c>
       <c r="B370" s="2">
-        <v>9030</v>
+        <v>9026</v>
       </c>
       <c r="C370" s="2">
-        <v>8936</v>
+        <v>8924</v>
       </c>
       <c r="D370" s="2">
-        <v>9153</v>
+        <v>9136</v>
       </c>
       <c r="E370" s="2">
-        <v>8902</v>
+        <v>8900</v>
       </c>
       <c r="F370" s="2">
-        <v>8791</v>
+        <v>8790</v>
       </c>
       <c r="G370" s="2">
-        <v>9018</v>
+        <v>9009</v>
       </c>
       <c r="H370" s="3">
         <v>1.1100000000000001</v>
@@ -16943,22 +16957,22 @@
         <v>381</v>
       </c>
       <c r="B371" s="2">
-        <v>8889</v>
+        <v>8901</v>
       </c>
       <c r="C371" s="2">
-        <v>8804</v>
+        <v>8776</v>
       </c>
       <c r="D371" s="2">
-        <v>9007</v>
+        <v>9024</v>
       </c>
       <c r="E371" s="2">
-        <v>8896</v>
+        <v>8897</v>
       </c>
       <c r="F371" s="2">
-        <v>8793</v>
+        <v>8780</v>
       </c>
       <c r="G371" s="2">
-        <v>9009</v>
+        <v>9008</v>
       </c>
       <c r="H371" s="3">
         <v>1.08</v>
@@ -16984,22 +16998,22 @@
         <v>382</v>
       </c>
       <c r="B372" s="2">
-        <v>9053</v>
+        <v>9037</v>
       </c>
       <c r="C372" s="2">
-        <v>8915</v>
+        <v>8926</v>
       </c>
       <c r="D372" s="2">
-        <v>9162</v>
+        <v>9148</v>
       </c>
       <c r="E372" s="2">
-        <v>8908</v>
+        <v>8906</v>
       </c>
       <c r="F372" s="2">
-        <v>8800</v>
+        <v>8793</v>
       </c>
       <c r="G372" s="2">
-        <v>9021</v>
+        <v>9018</v>
       </c>
       <c r="H372" s="3">
         <v>1.02</v>
@@ -17025,28 +17039,28 @@
         <v>383</v>
       </c>
       <c r="B373" s="2">
-        <v>11783</v>
+        <v>11800</v>
       </c>
       <c r="C373" s="2">
-        <v>11655</v>
+        <v>11671</v>
       </c>
       <c r="D373" s="2">
-        <v>11900</v>
+        <v>11925</v>
       </c>
       <c r="E373" s="2">
-        <v>9689</v>
+        <v>9691</v>
       </c>
       <c r="F373" s="2">
-        <v>9577</v>
+        <v>9574</v>
       </c>
       <c r="G373" s="2">
-        <v>9805</v>
+        <v>9808</v>
       </c>
       <c r="H373" s="3">
         <v>1.07</v>
       </c>
       <c r="I373" s="3">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="J373" s="3">
         <v>1.08</v>
@@ -17066,22 +17080,22 @@
         <v>384</v>
       </c>
       <c r="B374" s="2">
-        <v>11507</v>
+        <v>11499</v>
       </c>
       <c r="C374" s="2">
-        <v>11382</v>
+        <v>11361</v>
       </c>
       <c r="D374" s="2">
-        <v>11671</v>
+        <v>11650</v>
       </c>
       <c r="E374" s="2">
-        <v>10308</v>
+        <v>10309</v>
       </c>
       <c r="F374" s="2">
-        <v>10189</v>
+        <v>10183</v>
       </c>
       <c r="G374" s="2">
-        <v>10435</v>
+        <v>10437</v>
       </c>
       <c r="H374" s="3">
         <v>1.1599999999999999</v>
@@ -17099,7 +17113,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="M374" s="3">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="375" spans="1:13">
@@ -17110,16 +17124,16 @@
         <v>11706</v>
       </c>
       <c r="C375" s="2">
-        <v>11576</v>
+        <v>11579</v>
       </c>
       <c r="D375" s="2">
-        <v>11825</v>
+        <v>11833</v>
       </c>
       <c r="E375" s="2">
-        <v>11012</v>
+        <v>11010</v>
       </c>
       <c r="F375" s="2">
-        <v>10882</v>
+        <v>10884</v>
       </c>
       <c r="G375" s="2">
         <v>11139</v>
@@ -17134,7 +17148,7 @@
         <v>1.25</v>
       </c>
       <c r="K375" s="3">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="L375" s="3">
         <v>1.1599999999999999</v>
@@ -17148,28 +17162,28 @@
         <v>386</v>
       </c>
       <c r="B376" s="2">
-        <v>11512</v>
+        <v>11522</v>
       </c>
       <c r="C376" s="2">
-        <v>11372</v>
+        <v>11370</v>
       </c>
       <c r="D376" s="2">
-        <v>11642</v>
+        <v>11675</v>
       </c>
       <c r="E376" s="2">
-        <v>11627</v>
+        <v>11632</v>
       </c>
       <c r="F376" s="2">
-        <v>11496</v>
+        <v>11495</v>
       </c>
       <c r="G376" s="2">
-        <v>11759</v>
+        <v>11771</v>
       </c>
       <c r="H376" s="3">
         <v>1.31</v>
       </c>
       <c r="I376" s="3">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="J376" s="3">
         <v>1.32</v>
@@ -17189,22 +17203,22 @@
         <v>387</v>
       </c>
       <c r="B377" s="2">
-        <v>12055</v>
+        <v>12062</v>
       </c>
       <c r="C377" s="2">
-        <v>11919</v>
+        <v>11923</v>
       </c>
       <c r="D377" s="2">
-        <v>12219</v>
+        <v>12176</v>
       </c>
       <c r="E377" s="2">
-        <v>11695</v>
+        <v>11697</v>
       </c>
       <c r="F377" s="2">
-        <v>11562</v>
+        <v>11558</v>
       </c>
       <c r="G377" s="2">
-        <v>11839</v>
+        <v>11833</v>
       </c>
       <c r="H377" s="3">
         <v>1.21</v>
@@ -17230,22 +17244,22 @@
         <v>388</v>
       </c>
       <c r="B378" s="2">
-        <v>11833</v>
+        <v>11835</v>
       </c>
       <c r="C378" s="2">
-        <v>11689</v>
+        <v>11707</v>
       </c>
       <c r="D378" s="2">
-        <v>11990</v>
+        <v>11960</v>
       </c>
       <c r="E378" s="2">
-        <v>11776</v>
+        <v>11781</v>
       </c>
       <c r="F378" s="2">
-        <v>11639</v>
+        <v>11644</v>
       </c>
       <c r="G378" s="2">
-        <v>11919</v>
+        <v>11911</v>
       </c>
       <c r="H378" s="3">
         <v>1.1399999999999999</v>
@@ -17271,22 +17285,22 @@
         <v>389</v>
       </c>
       <c r="B379" s="2">
-        <v>12127</v>
+        <v>12125</v>
       </c>
       <c r="C379" s="2">
-        <v>11974</v>
+        <v>11958</v>
       </c>
       <c r="D379" s="2">
-        <v>12293</v>
+        <v>12291</v>
       </c>
       <c r="E379" s="2">
-        <v>11882</v>
+        <v>11886</v>
       </c>
       <c r="F379" s="2">
-        <v>11738</v>
+        <v>11739</v>
       </c>
       <c r="G379" s="2">
-        <v>12036</v>
+        <v>12025</v>
       </c>
       <c r="H379" s="3">
         <v>1.08</v>
@@ -17312,22 +17326,22 @@
         <v>390</v>
       </c>
       <c r="B380" s="2">
-        <v>15414</v>
+        <v>15421</v>
       </c>
       <c r="C380" s="2">
-        <v>15250</v>
+        <v>15230</v>
       </c>
       <c r="D380" s="2">
-        <v>15612</v>
+        <v>15576</v>
       </c>
       <c r="E380" s="2">
-        <v>12857</v>
+        <v>12861</v>
       </c>
       <c r="F380" s="2">
-        <v>12708</v>
+        <v>12704</v>
       </c>
       <c r="G380" s="2">
-        <v>13028</v>
+        <v>13001</v>
       </c>
       <c r="H380" s="3">
         <v>1.1100000000000001</v>
@@ -17342,10 +17356,10 @@
         <v>1.17</v>
       </c>
       <c r="L380" s="3">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="M380" s="3">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="381" spans="1:13">
@@ -17353,22 +17367,22 @@
         <v>391</v>
       </c>
       <c r="B381" s="2">
-        <v>14897</v>
+        <v>14893</v>
       </c>
       <c r="C381" s="2">
-        <v>14691</v>
+        <v>14665</v>
       </c>
       <c r="D381" s="2">
-        <v>15074</v>
+        <v>15118</v>
       </c>
       <c r="E381" s="2">
-        <v>13568</v>
+        <v>13569</v>
       </c>
       <c r="F381" s="2">
-        <v>13401</v>
+        <v>13390</v>
       </c>
       <c r="G381" s="2">
-        <v>13742</v>
+        <v>13736</v>
       </c>
       <c r="H381" s="3">
         <v>1.1599999999999999</v>
@@ -17394,22 +17408,22 @@
         <v>392</v>
       </c>
       <c r="B382" s="2">
-        <v>15029</v>
+        <v>15011</v>
       </c>
       <c r="C382" s="2">
-        <v>14869</v>
+        <v>14828</v>
       </c>
       <c r="D382" s="2">
-        <v>15206</v>
+        <v>15213</v>
       </c>
       <c r="E382" s="2">
-        <v>14367</v>
+        <v>14362</v>
       </c>
       <c r="F382" s="2">
-        <v>14196</v>
+        <v>14170</v>
       </c>
       <c r="G382" s="2">
-        <v>14546</v>
+        <v>14549</v>
       </c>
       <c r="H382" s="3">
         <v>1.22</v>
@@ -17435,22 +17449,22 @@
         <v>393</v>
       </c>
       <c r="B383" s="2">
-        <v>14275</v>
+        <v>14281</v>
       </c>
       <c r="C383" s="2">
-        <v>14055</v>
+        <v>14116</v>
       </c>
       <c r="D383" s="2">
-        <v>14430</v>
+        <v>14450</v>
       </c>
       <c r="E383" s="2">
-        <v>14904</v>
+        <v>14901</v>
       </c>
       <c r="F383" s="2">
-        <v>14716</v>
+        <v>14710</v>
       </c>
       <c r="G383" s="2">
-        <v>15080</v>
+        <v>15089</v>
       </c>
       <c r="H383" s="3">
         <v>1.25</v>
@@ -17476,22 +17490,22 @@
         <v>394</v>
       </c>
       <c r="B384" s="2">
-        <v>14855</v>
+        <v>14838</v>
       </c>
       <c r="C384" s="2">
         <v>14656</v>
       </c>
       <c r="D384" s="2">
-        <v>15050</v>
+        <v>15049</v>
       </c>
       <c r="E384" s="2">
-        <v>14764</v>
+        <v>14755</v>
       </c>
       <c r="F384" s="2">
-        <v>14568</v>
+        <v>14566</v>
       </c>
       <c r="G384" s="2">
-        <v>14940</v>
+        <v>14957</v>
       </c>
       <c r="H384" s="3">
         <v>1.1499999999999999</v>
@@ -17517,22 +17531,22 @@
         <v>395</v>
       </c>
       <c r="B385" s="2">
-        <v>15026</v>
+        <v>15005</v>
       </c>
       <c r="C385" s="2">
-        <v>14767</v>
+        <v>14787</v>
       </c>
       <c r="D385" s="2">
-        <v>15266</v>
+        <v>15208</v>
       </c>
       <c r="E385" s="2">
-        <v>14797</v>
+        <v>14784</v>
       </c>
       <c r="F385" s="2">
-        <v>14587</v>
+        <v>14597</v>
       </c>
       <c r="G385" s="2">
-        <v>14988</v>
+        <v>14980</v>
       </c>
       <c r="H385" s="3">
         <v>1.0900000000000001</v>
@@ -17550,7 +17564,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="M385" s="3">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="386" spans="1:13">
@@ -17558,22 +17572,22 @@
         <v>396</v>
       </c>
       <c r="B386" s="2">
-        <v>15416</v>
+        <v>15432</v>
       </c>
       <c r="C386" s="2">
-        <v>15174</v>
+        <v>15238</v>
       </c>
       <c r="D386" s="2">
-        <v>15680</v>
+        <v>15658</v>
       </c>
       <c r="E386" s="2">
-        <v>14893</v>
+        <v>14889</v>
       </c>
       <c r="F386" s="2">
-        <v>14663</v>
+        <v>14699</v>
       </c>
       <c r="G386" s="2">
-        <v>15106</v>
+        <v>15091</v>
       </c>
       <c r="H386" s="3">
         <v>1.04</v>
@@ -17599,28 +17613,28 @@
         <v>397</v>
       </c>
       <c r="B387" s="2">
-        <v>18814</v>
+        <v>18843</v>
       </c>
       <c r="C387" s="2">
-        <v>18561</v>
+        <v>18520</v>
       </c>
       <c r="D387" s="2">
-        <v>19135</v>
+        <v>19227</v>
       </c>
       <c r="E387" s="2">
-        <v>16028</v>
+        <v>16029</v>
       </c>
       <c r="F387" s="2">
-        <v>15789</v>
+        <v>15800</v>
       </c>
       <c r="G387" s="2">
-        <v>16283</v>
+        <v>16285</v>
       </c>
       <c r="H387" s="3">
         <v>1.08</v>
       </c>
       <c r="I387" s="3">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="J387" s="3">
         <v>1.0900000000000001</v>
@@ -17640,22 +17654,22 @@
         <v>398</v>
       </c>
       <c r="B388" s="2">
-        <v>18588</v>
+        <v>18608</v>
       </c>
       <c r="C388" s="2">
-        <v>18283</v>
+        <v>18315</v>
       </c>
       <c r="D388" s="2">
-        <v>18873</v>
+        <v>18924</v>
       </c>
       <c r="E388" s="2">
-        <v>16961</v>
+        <v>16972</v>
       </c>
       <c r="F388" s="2">
-        <v>16696</v>
+        <v>16715</v>
       </c>
       <c r="G388" s="2">
-        <v>17239</v>
+        <v>17254</v>
       </c>
       <c r="H388" s="3">
         <v>1.1499999999999999</v>
@@ -17670,7 +17684,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="L388" s="3">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="M388" s="3">
         <v>1.1399999999999999</v>
@@ -17681,28 +17695,28 @@
         <v>399</v>
       </c>
       <c r="B389" s="2">
-        <v>17880</v>
+        <v>17952</v>
       </c>
       <c r="C389" s="2">
-        <v>17573</v>
+        <v>17610</v>
       </c>
       <c r="D389" s="2">
-        <v>18257</v>
+        <v>18301</v>
       </c>
       <c r="E389" s="2">
-        <v>17674</v>
+        <v>17709</v>
       </c>
       <c r="F389" s="2">
-        <v>17398</v>
+        <v>17421</v>
       </c>
       <c r="G389" s="2">
-        <v>17986</v>
+        <v>18028</v>
       </c>
       <c r="H389" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="I389" s="3">
         <v>1.19</v>
-      </c>
-      <c r="I389" s="3">
-        <v>1.18</v>
       </c>
       <c r="J389" s="3">
         <v>1.21</v>
@@ -17722,34 +17736,34 @@
         <v>400</v>
       </c>
       <c r="B390" s="2">
-        <v>16582</v>
+        <v>16557</v>
       </c>
       <c r="C390" s="2">
-        <v>16183</v>
+        <v>16256</v>
       </c>
       <c r="D390" s="2">
-        <v>16943</v>
+        <v>16933</v>
       </c>
       <c r="E390" s="2">
-        <v>17966</v>
+        <v>17990</v>
       </c>
       <c r="F390" s="2">
-        <v>17650</v>
+        <v>17675</v>
       </c>
       <c r="G390" s="2">
-        <v>18302</v>
+        <v>18346</v>
       </c>
       <c r="H390" s="3">
         <v>1.21</v>
       </c>
       <c r="I390" s="3">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="J390" s="3">
         <v>1.22</v>
       </c>
       <c r="K390" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L390" s="3">
         <v>1.0900000000000001</v>
@@ -17763,22 +17777,22 @@
         <v>401</v>
       </c>
       <c r="B391" s="2">
-        <v>16294</v>
+        <v>16252</v>
       </c>
       <c r="C391" s="2">
-        <v>15832</v>
+        <v>15899</v>
       </c>
       <c r="D391" s="2">
-        <v>16718</v>
+        <v>16563</v>
       </c>
       <c r="E391" s="2">
-        <v>17336</v>
+        <v>17342</v>
       </c>
       <c r="F391" s="2">
-        <v>16968</v>
+        <v>17020</v>
       </c>
       <c r="G391" s="2">
-        <v>17698</v>
+        <v>17680</v>
       </c>
       <c r="H391" s="3">
         <v>1.08</v>
@@ -17804,22 +17818,22 @@
         <v>402</v>
       </c>
       <c r="B392" s="2">
-        <v>15195</v>
+        <v>15236</v>
       </c>
       <c r="C392" s="2">
-        <v>14677</v>
+        <v>14834</v>
       </c>
       <c r="D392" s="2">
-        <v>15640</v>
+        <v>15705</v>
       </c>
       <c r="E392" s="2">
-        <v>16488</v>
+        <v>16499</v>
       </c>
       <c r="F392" s="2">
-        <v>16066</v>
+        <v>16150</v>
       </c>
       <c r="G392" s="2">
-        <v>16889</v>
+        <v>16876</v>
       </c>
       <c r="H392" s="3">
         <v>0.97</v>
@@ -17845,22 +17859,22 @@
         <v>403</v>
       </c>
       <c r="B393" s="2">
-        <v>14804</v>
+        <v>14803</v>
       </c>
       <c r="C393" s="2">
-        <v>14339</v>
+        <v>14283</v>
       </c>
       <c r="D393" s="2">
-        <v>15370</v>
+        <v>15334</v>
       </c>
       <c r="E393" s="2">
-        <v>15719</v>
+        <v>15712</v>
       </c>
       <c r="F393" s="2">
-        <v>15258</v>
+        <v>15318</v>
       </c>
       <c r="G393" s="2">
-        <v>16167</v>
+        <v>16134</v>
       </c>
       <c r="H393" s="3">
         <v>0.89</v>
@@ -17886,25 +17900,25 @@
         <v>404</v>
       </c>
       <c r="B394" s="2">
-        <v>18124</v>
+        <v>18089</v>
       </c>
       <c r="C394" s="2">
-        <v>17419</v>
+        <v>17408</v>
       </c>
       <c r="D394" s="2">
-        <v>18925</v>
+        <v>18994</v>
       </c>
       <c r="E394" s="2">
-        <v>16104</v>
+        <v>16095</v>
       </c>
       <c r="F394" s="2">
-        <v>15567</v>
+        <v>15606</v>
       </c>
       <c r="G394" s="2">
-        <v>16663</v>
+        <v>16649</v>
       </c>
       <c r="H394" s="3">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="I394" s="3">
         <v>0.88</v>
@@ -17916,7 +17930,7 @@
         <v>0.98</v>
       </c>
       <c r="L394" s="3">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="M394" s="3">
         <v>0.99</v>
@@ -17927,22 +17941,22 @@
         <v>405</v>
       </c>
       <c r="B395" s="2">
-        <v>16971</v>
+        <v>16967</v>
       </c>
       <c r="C395" s="2">
-        <v>16098</v>
+        <v>16275</v>
       </c>
       <c r="D395" s="2">
-        <v>17668</v>
+        <v>17719</v>
       </c>
       <c r="E395" s="2">
-        <v>16273</v>
+        <v>16274</v>
       </c>
       <c r="F395" s="2">
-        <v>15633</v>
+        <v>15700</v>
       </c>
       <c r="G395" s="2">
-        <v>16901</v>
+        <v>16938</v>
       </c>
       <c r="H395" s="3">
         <v>0.94</v>
@@ -17951,13 +17965,13 @@
         <v>0.92</v>
       </c>
       <c r="J395" s="3">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="K395" s="3">
         <v>0.96</v>
       </c>
       <c r="L395" s="3">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="M395" s="3">
         <v>0.97</v>
@@ -17968,31 +17982,31 @@
         <v>406</v>
       </c>
       <c r="B396" s="2">
-        <v>15800</v>
+        <v>15728</v>
       </c>
       <c r="C396" s="2">
-        <v>14771</v>
+        <v>14986</v>
       </c>
       <c r="D396" s="2">
-        <v>16767</v>
+        <v>16488</v>
       </c>
       <c r="E396" s="2">
-        <v>16425</v>
+        <v>16397</v>
       </c>
       <c r="F396" s="2">
-        <v>15657</v>
+        <v>15738</v>
       </c>
       <c r="G396" s="2">
-        <v>17182</v>
+        <v>17134</v>
       </c>
       <c r="H396" s="3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="I396" s="3">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="J396" s="3">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K396" s="3">
         <v>0.96</v>
@@ -18001,7 +18015,7 @@
         <v>0.94</v>
       </c>
       <c r="M396" s="3">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="397" spans="1:13">
@@ -18009,22 +18023,22 @@
         <v>407</v>
       </c>
       <c r="B397" s="2">
-        <v>16245</v>
+        <v>16304</v>
       </c>
       <c r="C397" s="2">
-        <v>14904</v>
+        <v>15138</v>
       </c>
       <c r="D397" s="2">
-        <v>17369</v>
+        <v>17262</v>
       </c>
       <c r="E397" s="2">
-        <v>16785</v>
+        <v>16772</v>
       </c>
       <c r="F397" s="2">
-        <v>15798</v>
+        <v>15952</v>
       </c>
       <c r="G397" s="2">
-        <v>17682</v>
+        <v>17616</v>
       </c>
       <c r="H397" s="3">
         <v>1.07</v>
@@ -18033,13 +18047,13 @@
         <v>1.04</v>
       </c>
       <c r="J397" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K397" s="3">
         <v>0.95</v>
       </c>
       <c r="L397" s="3">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="M397" s="3">
         <v>0.97</v>
@@ -18050,22 +18064,22 @@
         <v>408</v>
       </c>
       <c r="B398" s="2">
-        <v>14880</v>
+        <v>14911</v>
       </c>
       <c r="C398" s="2">
-        <v>13698</v>
+        <v>13743</v>
       </c>
       <c r="D398" s="2">
-        <v>16165</v>
+        <v>16054</v>
       </c>
       <c r="E398" s="2">
-        <v>15974</v>
+        <v>15978</v>
       </c>
       <c r="F398" s="2">
-        <v>14868</v>
+        <v>15035</v>
       </c>
       <c r="G398" s="2">
-        <v>16992</v>
+        <v>16881</v>
       </c>
       <c r="H398" s="3">
         <v>0.99</v>
@@ -18074,7 +18088,7 @@
         <v>0.96</v>
       </c>
       <c r="J398" s="3">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K398" s="3">
         <v>0.96</v>
@@ -18083,7 +18097,7 @@
         <v>0.94</v>
       </c>
       <c r="M398" s="3">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="399" spans="1:13">
@@ -18091,37 +18105,37 @@
         <v>409</v>
       </c>
       <c r="B399" s="2">
-        <v>14335</v>
+        <v>14268</v>
       </c>
       <c r="C399" s="2">
-        <v>12586</v>
+        <v>12866</v>
       </c>
       <c r="D399" s="2">
-        <v>16534</v>
+        <v>15538</v>
       </c>
       <c r="E399" s="2">
-        <v>15315</v>
+        <v>15303</v>
       </c>
       <c r="F399" s="2">
-        <v>13990</v>
+        <v>14183</v>
       </c>
       <c r="G399" s="2">
-        <v>16709</v>
+        <v>16335</v>
       </c>
       <c r="H399" s="3">
         <v>0.94</v>
       </c>
       <c r="I399" s="3">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="J399" s="3">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="K399" s="3">
         <v>0.97</v>
       </c>
       <c r="L399" s="3">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="M399" s="3">
         <v>1</v>
@@ -18132,40 +18146,40 @@
         <v>410</v>
       </c>
       <c r="B400" s="2">
-        <v>14453</v>
+        <v>14475</v>
       </c>
       <c r="C400" s="2">
-        <v>11925</v>
+        <v>12470</v>
       </c>
       <c r="D400" s="2">
-        <v>16921</v>
+        <v>16429</v>
       </c>
       <c r="E400" s="2">
-        <v>14979</v>
+        <v>14990</v>
       </c>
       <c r="F400" s="2">
-        <v>13278</v>
+        <v>13554</v>
       </c>
       <c r="G400" s="2">
-        <v>16747</v>
+        <v>16321</v>
       </c>
       <c r="H400" s="3">
         <v>0.91</v>
       </c>
       <c r="I400" s="3">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="J400" s="3">
         <v>0.96</v>
       </c>
       <c r="K400" s="3">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="L400" s="3">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="M400" s="3">
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:13">
@@ -18173,40 +18187,40 @@
         <v>411</v>
       </c>
       <c r="B401" s="2">
-        <v>16910</v>
+        <v>16321</v>
       </c>
       <c r="C401" s="2">
-        <v>13544</v>
+        <v>13918</v>
       </c>
       <c r="D401" s="2">
-        <v>20068</v>
+        <v>18152</v>
       </c>
       <c r="E401" s="2">
-        <v>15145</v>
+        <v>14994</v>
       </c>
       <c r="F401" s="2">
-        <v>12938</v>
+        <v>13249</v>
       </c>
       <c r="G401" s="2">
-        <v>17422</v>
+        <v>16543</v>
       </c>
       <c r="H401" s="3">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="I401" s="3">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="J401" s="3">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="K401" s="3">
         <v>1</v>
       </c>
       <c r="L401" s="3">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="M401" s="3">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="402" spans="1:13">
@@ -18214,40 +18228,40 @@
         <v>412</v>
       </c>
       <c r="B402" s="2">
-        <v>19585</v>
+        <v>19551</v>
       </c>
       <c r="C402" s="2">
-        <v>14912</v>
+        <v>16062</v>
       </c>
       <c r="D402" s="2">
-        <v>25092</v>
+        <v>23710</v>
       </c>
       <c r="E402" s="2">
-        <v>16321</v>
+        <v>16154</v>
       </c>
       <c r="F402" s="2">
-        <v>13242</v>
+        <v>13829</v>
       </c>
       <c r="G402" s="2">
-        <v>19654</v>
+        <v>18457</v>
       </c>
       <c r="H402" s="3">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="I402" s="3">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="J402" s="3">
-        <v>1.1299999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K402" s="3">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="L402" s="3">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="M402" s="3">
-        <v>1.1399999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="403" spans="1:13">
@@ -18255,40 +18269,40 @@
         <v>413</v>
       </c>
       <c r="B403" s="2">
-        <v>21314</v>
+        <v>20038</v>
       </c>
       <c r="C403" s="2">
-        <v>14936</v>
+        <v>14359</v>
       </c>
       <c r="D403" s="2">
-        <v>28267</v>
+        <v>24261</v>
       </c>
       <c r="E403" s="2">
-        <v>18066</v>
+        <v>17596</v>
       </c>
       <c r="F403" s="2">
-        <v>13829</v>
+        <v>14202</v>
       </c>
       <c r="G403" s="2">
-        <v>22587</v>
+        <v>20638</v>
       </c>
       <c r="H403" s="3">
-        <v>1.18</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I403" s="3">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J403" s="3">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="K403" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="L403" s="3">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="M403" s="3">
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="404" spans="1:13">
@@ -18296,44 +18310,85 @@
         <v>414</v>
       </c>
       <c r="B404" s="2">
-        <v>19693</v>
+        <v>18408</v>
       </c>
       <c r="C404" s="2">
-        <v>12173</v>
+        <v>10749</v>
       </c>
       <c r="D404" s="2">
-        <v>27973</v>
+        <v>24300</v>
       </c>
       <c r="E404" s="2">
-        <v>19376</v>
+        <v>18580</v>
       </c>
       <c r="F404" s="2">
-        <v>13891</v>
+        <v>13772</v>
       </c>
       <c r="G404" s="2">
-        <v>25350</v>
+        <v>22606</v>
       </c>
       <c r="H404" s="3">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="I404" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J404" s="3">
-        <v>1.48</v>
-      </c>
-      <c r="K404" s="3" t="s">
+        <v>1.43</v>
+      </c>
+      <c r="K404" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="L404" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="M404" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13">
+      <c r="A405" t="s">
+        <v>415</v>
+      </c>
+      <c r="B405" s="2">
+        <v>14597</v>
+      </c>
+      <c r="C405" s="2">
+        <v>8973</v>
+      </c>
+      <c r="D405" s="2">
+        <v>20035</v>
+      </c>
+      <c r="E405" s="2">
+        <v>18149</v>
+      </c>
+      <c r="F405" s="2">
+        <v>12536</v>
+      </c>
+      <c r="G405" s="2">
+        <v>23077</v>
+      </c>
+      <c r="H405" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="I405" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="J405" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="K405" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="L404" s="3" t="s">
+      <c r="L405" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="M404" s="3" t="s">
+      <c r="M405" s="3" t="s">
         <v>420</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rki-data/RKI-Nowcasting_Zahlen.xlsx
+++ b/rki-data/RKI-Nowcasting_Zahlen.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAAC9FD-DD11-4103-8567-FC9A3F501811}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734B81DC-68D9-452D-B243-D6C449C2E7FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="430">
   <si>
     <t>Erläuterung</t>
   </si>
@@ -27,7 +27,7 @@
     <t>Ergebnisse des Nowcastings und der Schätzung der Reproduktionszahl R</t>
   </si>
   <si>
-    <t>Datenstand: 2021-04-13, 00:00 Uhr</t>
+    <t>Datenstand: 2021-04-14, 00:00 Uhr</t>
   </si>
   <si>
     <t>Die Ergebnisse des Nowcastings, also die Schätzung der Anzahl von COVID-19 Neuerkrankungen wird dargestellt mit einem gleitenden 4-Tages-Mittelwert.</t>
@@ -36,7 +36,7 @@
     <t>Dabei wird jeder Wert mit den Werten der 3 vorhergehenden Tage gemittelt.</t>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-04-13 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-04-14 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -1266,6 +1266,9 @@
     <t>09.04.2021</t>
   </si>
   <si>
+    <t>10.04.2021</t>
+  </si>
+  <si>
     <t>Punktschätzer der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
@@ -1278,9 +1281,18 @@
     <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen</t>
   </si>
   <si>
+    <t>Punktschätzer der 4-Tage R-Wert</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
+    <t>Untere Grenze des 95%-Prädiktionsintervalls der 4-Tage R-Wert</t>
+  </si>
+  <si>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls der 4-Tage R-Wert</t>
+  </si>
+  <si>
     <t>Punktschätzer des 7-Tage-R Wertes</t>
   </si>
   <si>
@@ -1293,16 +1305,7 @@
     <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glätttung)</t>
-  </si>
-  <si>
-    <t>Punktschätzer des 4-Tage R-Wertes</t>
-  </si>
-  <si>
-    <t>Untere Grenze des 95%-Prädiktionsintervalls des 4-Tage R-Wertes</t>
-  </si>
-  <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls des 4-Tage R-Wertes</t>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1341,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1660,7 +1663,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1760,67 +1763,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M405"/>
+  <dimension ref="A1:M406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:M405"/>
+      <selection activeCell="H6" sqref="H6:M406"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="13" width="19.140625" customWidth="1"/>
+    <col min="1" max="13" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="94.5" customHeight="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="90">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1846,22 +1838,22 @@
         <v>238</v>
       </c>
       <c r="H2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1887,22 +1879,22 @@
         <v>276</v>
       </c>
       <c r="H3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1928,22 +1920,22 @@
         <v>342</v>
       </c>
       <c r="H4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1969,22 +1961,22 @@
         <v>412</v>
       </c>
       <c r="H5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -15894,10 +15886,10 @@
         <v>8136</v>
       </c>
       <c r="C345" s="2">
-        <v>8012</v>
+        <v>8011</v>
       </c>
       <c r="D345" s="2">
-        <v>8249</v>
+        <v>8246</v>
       </c>
       <c r="E345" s="2">
         <v>7208</v>
@@ -15906,7 +15898,7 @@
         <v>7098</v>
       </c>
       <c r="G345" s="2">
-        <v>7314</v>
+        <v>7313</v>
       </c>
       <c r="H345" s="3">
         <v>0.8</v>
@@ -15935,19 +15927,19 @@
         <v>7684</v>
       </c>
       <c r="C346" s="2">
-        <v>7585</v>
+        <v>7588</v>
       </c>
       <c r="D346" s="2">
-        <v>7788</v>
+        <v>7784</v>
       </c>
       <c r="E346" s="2">
         <v>7248</v>
       </c>
       <c r="F346" s="2">
-        <v>7146</v>
+        <v>7147</v>
       </c>
       <c r="G346" s="2">
-        <v>7351</v>
+        <v>7350</v>
       </c>
       <c r="H346" s="3">
         <v>0.87</v>
@@ -15976,10 +15968,10 @@
         <v>7430</v>
       </c>
       <c r="C347" s="2">
-        <v>7328</v>
+        <v>7327</v>
       </c>
       <c r="D347" s="2">
-        <v>7518</v>
+        <v>7520</v>
       </c>
       <c r="E347" s="2">
         <v>7421</v>
@@ -15988,7 +15980,7 @@
         <v>7318</v>
       </c>
       <c r="G347" s="2">
-        <v>7522</v>
+        <v>7521</v>
       </c>
       <c r="H347" s="3">
         <v>0.97</v>
@@ -16014,22 +16006,22 @@
         <v>358</v>
       </c>
       <c r="B348" s="2">
-        <v>6691</v>
+        <v>6692</v>
       </c>
       <c r="C348" s="2">
         <v>6598</v>
       </c>
       <c r="D348" s="2">
-        <v>6804</v>
+        <v>6807</v>
       </c>
       <c r="E348" s="2">
-        <v>7485</v>
+        <v>7486</v>
       </c>
       <c r="F348" s="2">
-        <v>7380</v>
+        <v>7381</v>
       </c>
       <c r="G348" s="2">
-        <v>7590</v>
+        <v>7589</v>
       </c>
       <c r="H348" s="3">
         <v>1.05</v>
@@ -16055,19 +16047,19 @@
         <v>359</v>
       </c>
       <c r="B349" s="2">
-        <v>6907</v>
+        <v>6908</v>
       </c>
       <c r="C349" s="2">
-        <v>6809</v>
+        <v>6815</v>
       </c>
       <c r="D349" s="2">
-        <v>7023</v>
+        <v>7024</v>
       </c>
       <c r="E349" s="2">
-        <v>7178</v>
+        <v>7179</v>
       </c>
       <c r="F349" s="2">
-        <v>7080</v>
+        <v>7082</v>
       </c>
       <c r="G349" s="2">
         <v>7283</v>
@@ -16099,19 +16091,19 @@
         <v>6423</v>
       </c>
       <c r="C350" s="2">
-        <v>6321</v>
+        <v>6324</v>
       </c>
       <c r="D350" s="2">
-        <v>6538</v>
+        <v>6541</v>
       </c>
       <c r="E350" s="2">
         <v>6863</v>
       </c>
       <c r="F350" s="2">
-        <v>6764</v>
+        <v>6766</v>
       </c>
       <c r="G350" s="2">
-        <v>6971</v>
+        <v>6973</v>
       </c>
       <c r="H350" s="3">
         <v>0.95</v>
@@ -16140,19 +16132,19 @@
         <v>6626</v>
       </c>
       <c r="C351" s="2">
-        <v>6543</v>
+        <v>6542</v>
       </c>
       <c r="D351" s="2">
-        <v>6735</v>
+        <v>6739</v>
       </c>
       <c r="E351" s="2">
-        <v>6661</v>
+        <v>6662</v>
       </c>
       <c r="F351" s="2">
-        <v>6567</v>
+        <v>6570</v>
       </c>
       <c r="G351" s="2">
-        <v>6775</v>
+        <v>6777</v>
       </c>
       <c r="H351" s="3">
         <v>0.9</v>
@@ -16181,19 +16173,19 @@
         <v>8545</v>
       </c>
       <c r="C352" s="2">
-        <v>8434</v>
+        <v>8437</v>
       </c>
       <c r="D352" s="2">
-        <v>8652</v>
+        <v>8653</v>
       </c>
       <c r="E352" s="2">
-        <v>7125</v>
+        <v>7126</v>
       </c>
       <c r="F352" s="2">
-        <v>7027</v>
+        <v>7029</v>
       </c>
       <c r="G352" s="2">
-        <v>7237</v>
+        <v>7239</v>
       </c>
       <c r="H352" s="3">
         <v>0.95</v>
@@ -16222,10 +16214,10 @@
         <v>8146</v>
       </c>
       <c r="C353" s="2">
-        <v>8029</v>
+        <v>8028</v>
       </c>
       <c r="D353" s="2">
-        <v>8285</v>
+        <v>8286</v>
       </c>
       <c r="E353" s="2">
         <v>7435</v>
@@ -16234,13 +16226,13 @@
         <v>7332</v>
       </c>
       <c r="G353" s="2">
-        <v>7552</v>
+        <v>7554</v>
       </c>
       <c r="H353" s="3">
         <v>1.04</v>
       </c>
       <c r="I353" s="3">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="J353" s="3">
         <v>1.05</v>
@@ -16263,19 +16255,19 @@
         <v>8073</v>
       </c>
       <c r="C354" s="2">
-        <v>7946</v>
+        <v>7948</v>
       </c>
       <c r="D354" s="2">
-        <v>8173</v>
+        <v>8171</v>
       </c>
       <c r="E354" s="2">
         <v>7847</v>
       </c>
       <c r="F354" s="2">
-        <v>7738</v>
+        <v>7739</v>
       </c>
       <c r="G354" s="2">
-        <v>7961</v>
+        <v>7962</v>
       </c>
       <c r="H354" s="3">
         <v>1.1399999999999999</v>
@@ -16301,19 +16293,19 @@
         <v>365</v>
       </c>
       <c r="B355" s="2">
-        <v>7719</v>
+        <v>7720</v>
       </c>
       <c r="C355" s="2">
-        <v>7596</v>
+        <v>7595</v>
       </c>
       <c r="D355" s="2">
-        <v>7830</v>
+        <v>7831</v>
       </c>
       <c r="E355" s="2">
         <v>8121</v>
       </c>
       <c r="F355" s="2">
-        <v>8001</v>
+        <v>8002</v>
       </c>
       <c r="G355" s="2">
         <v>8235</v>
@@ -16345,19 +16337,19 @@
         <v>7652</v>
       </c>
       <c r="C356" s="2">
-        <v>7535</v>
+        <v>7537</v>
       </c>
       <c r="D356" s="2">
-        <v>7755</v>
+        <v>7762</v>
       </c>
       <c r="E356" s="2">
         <v>7897</v>
       </c>
       <c r="F356" s="2">
-        <v>7776</v>
+        <v>7777</v>
       </c>
       <c r="G356" s="2">
-        <v>8010</v>
+        <v>8012</v>
       </c>
       <c r="H356" s="3">
         <v>1.1100000000000001</v>
@@ -16383,13 +16375,13 @@
         <v>367</v>
       </c>
       <c r="B357" s="2">
-        <v>7382</v>
+        <v>7383</v>
       </c>
       <c r="C357" s="2">
         <v>7278</v>
       </c>
       <c r="D357" s="2">
-        <v>7490</v>
+        <v>7489</v>
       </c>
       <c r="E357" s="2">
         <v>7707</v>
@@ -16398,7 +16390,7 @@
         <v>7589</v>
       </c>
       <c r="G357" s="2">
-        <v>7812</v>
+        <v>7813</v>
       </c>
       <c r="H357" s="3">
         <v>1.04</v>
@@ -16424,22 +16416,22 @@
         <v>368</v>
       </c>
       <c r="B358" s="2">
-        <v>7126</v>
+        <v>7125</v>
       </c>
       <c r="C358" s="2">
-        <v>7027</v>
+        <v>7022</v>
       </c>
       <c r="D358" s="2">
-        <v>7233</v>
+        <v>7234</v>
       </c>
       <c r="E358" s="2">
         <v>7470</v>
       </c>
       <c r="F358" s="2">
-        <v>7359</v>
+        <v>7358</v>
       </c>
       <c r="G358" s="2">
-        <v>7577</v>
+        <v>7579</v>
       </c>
       <c r="H358" s="3">
         <v>0.95</v>
@@ -16471,13 +16463,13 @@
         <v>8829</v>
       </c>
       <c r="D359" s="2">
-        <v>9068</v>
+        <v>9059</v>
       </c>
       <c r="E359" s="2">
         <v>7779</v>
       </c>
       <c r="F359" s="2">
-        <v>7667</v>
+        <v>7666</v>
       </c>
       <c r="G359" s="2">
         <v>7886</v>
@@ -16506,22 +16498,22 @@
         <v>370</v>
       </c>
       <c r="B360" s="2">
-        <v>8499</v>
+        <v>8501</v>
       </c>
       <c r="C360" s="2">
-        <v>8392</v>
+        <v>8390</v>
       </c>
       <c r="D360" s="2">
-        <v>8604</v>
+        <v>8596</v>
       </c>
       <c r="E360" s="2">
-        <v>7991</v>
+        <v>7992</v>
       </c>
       <c r="F360" s="2">
-        <v>7881</v>
+        <v>7880</v>
       </c>
       <c r="G360" s="2">
-        <v>8098</v>
+        <v>8094</v>
       </c>
       <c r="H360" s="3">
         <v>1.01</v>
@@ -16547,13 +16539,13 @@
         <v>371</v>
       </c>
       <c r="B361" s="2">
-        <v>8089</v>
+        <v>8088</v>
       </c>
       <c r="C361" s="2">
-        <v>7984</v>
+        <v>7990</v>
       </c>
       <c r="D361" s="2">
-        <v>8205</v>
+        <v>8204</v>
       </c>
       <c r="E361" s="2">
         <v>8168</v>
@@ -16562,7 +16554,7 @@
         <v>8058</v>
       </c>
       <c r="G361" s="2">
-        <v>8277</v>
+        <v>8273</v>
       </c>
       <c r="H361" s="3">
         <v>1.06</v>
@@ -16588,10 +16580,10 @@
         <v>372</v>
       </c>
       <c r="B362" s="2">
-        <v>7658</v>
+        <v>7657</v>
       </c>
       <c r="C362" s="2">
-        <v>7546</v>
+        <v>7535</v>
       </c>
       <c r="D362" s="2">
         <v>7774</v>
@@ -16600,10 +16592,10 @@
         <v>8301</v>
       </c>
       <c r="F362" s="2">
-        <v>8188</v>
+        <v>8186</v>
       </c>
       <c r="G362" s="2">
-        <v>8412</v>
+        <v>8408</v>
       </c>
       <c r="H362" s="3">
         <v>1.1100000000000001</v>
@@ -16629,22 +16621,22 @@
         <v>373</v>
       </c>
       <c r="B363" s="2">
-        <v>7940</v>
+        <v>7939</v>
       </c>
       <c r="C363" s="2">
-        <v>7844</v>
+        <v>7836</v>
       </c>
       <c r="D363" s="2">
         <v>8050</v>
       </c>
       <c r="E363" s="2">
-        <v>8047</v>
+        <v>8046</v>
       </c>
       <c r="F363" s="2">
-        <v>7941</v>
+        <v>7938</v>
       </c>
       <c r="G363" s="2">
-        <v>8158</v>
+        <v>8156</v>
       </c>
       <c r="H363" s="3">
         <v>1.03</v>
@@ -16670,22 +16662,22 @@
         <v>374</v>
       </c>
       <c r="B364" s="2">
-        <v>7182</v>
+        <v>7185</v>
       </c>
       <c r="C364" s="2">
-        <v>7082</v>
+        <v>7083</v>
       </c>
       <c r="D364" s="2">
-        <v>7288</v>
+        <v>7282</v>
       </c>
       <c r="E364" s="2">
         <v>7717</v>
       </c>
       <c r="F364" s="2">
-        <v>7614</v>
+        <v>7611</v>
       </c>
       <c r="G364" s="2">
-        <v>7829</v>
+        <v>7827</v>
       </c>
       <c r="H364" s="3">
         <v>0.97</v>
@@ -16711,22 +16703,22 @@
         <v>375</v>
       </c>
       <c r="B365" s="2">
-        <v>7350</v>
+        <v>7351</v>
       </c>
       <c r="C365" s="2">
-        <v>7227</v>
+        <v>7234</v>
       </c>
       <c r="D365" s="2">
-        <v>7453</v>
+        <v>7444</v>
       </c>
       <c r="E365" s="2">
-        <v>7532</v>
+        <v>7533</v>
       </c>
       <c r="F365" s="2">
-        <v>7424</v>
+        <v>7422</v>
       </c>
       <c r="G365" s="2">
-        <v>7641</v>
+        <v>7637</v>
       </c>
       <c r="H365" s="3">
         <v>0.92</v>
@@ -16752,22 +16744,22 @@
         <v>376</v>
       </c>
       <c r="B366" s="2">
-        <v>9525</v>
+        <v>9526</v>
       </c>
       <c r="C366" s="2">
         <v>9416</v>
       </c>
       <c r="D366" s="2">
-        <v>9644</v>
+        <v>9631</v>
       </c>
       <c r="E366" s="2">
-        <v>7999</v>
+        <v>8000</v>
       </c>
       <c r="F366" s="2">
         <v>7892</v>
       </c>
       <c r="G366" s="2">
-        <v>8108</v>
+        <v>8102</v>
       </c>
       <c r="H366" s="3">
         <v>0.96</v>
@@ -16793,22 +16785,22 @@
         <v>377</v>
       </c>
       <c r="B367" s="2">
-        <v>8913</v>
+        <v>8911</v>
       </c>
       <c r="C367" s="2">
-        <v>8817</v>
+        <v>8794</v>
       </c>
       <c r="D367" s="2">
-        <v>9029</v>
+        <v>9038</v>
       </c>
       <c r="E367" s="2">
         <v>8243</v>
       </c>
       <c r="F367" s="2">
-        <v>8135</v>
+        <v>8132</v>
       </c>
       <c r="G367" s="2">
-        <v>8353</v>
+        <v>8349</v>
       </c>
       <c r="H367" s="3">
         <v>1.02</v>
@@ -16834,22 +16826,22 @@
         <v>378</v>
       </c>
       <c r="B368" s="2">
-        <v>9001</v>
+        <v>9000</v>
       </c>
       <c r="C368" s="2">
-        <v>8875</v>
+        <v>8860</v>
       </c>
       <c r="D368" s="2">
-        <v>9107</v>
+        <v>9086</v>
       </c>
       <c r="E368" s="2">
         <v>8697</v>
       </c>
       <c r="F368" s="2">
-        <v>8583</v>
+        <v>8576</v>
       </c>
       <c r="G368" s="2">
-        <v>8808</v>
+        <v>8800</v>
       </c>
       <c r="H368" s="3">
         <v>1.1299999999999999</v>
@@ -16875,22 +16867,22 @@
         <v>379</v>
       </c>
       <c r="B369" s="2">
-        <v>8659</v>
+        <v>8651</v>
       </c>
       <c r="C369" s="2">
-        <v>8545</v>
+        <v>8541</v>
       </c>
       <c r="D369" s="2">
-        <v>8764</v>
+        <v>8768</v>
       </c>
       <c r="E369" s="2">
-        <v>9025</v>
+        <v>9022</v>
       </c>
       <c r="F369" s="2">
-        <v>8913</v>
+        <v>8902</v>
       </c>
       <c r="G369" s="2">
-        <v>9136</v>
+        <v>9131</v>
       </c>
       <c r="H369" s="3">
         <v>1.2</v>
@@ -16919,19 +16911,19 @@
         <v>9026</v>
       </c>
       <c r="C370" s="2">
-        <v>8924</v>
+        <v>8913</v>
       </c>
       <c r="D370" s="2">
-        <v>9136</v>
+        <v>9149</v>
       </c>
       <c r="E370" s="2">
-        <v>8900</v>
+        <v>8897</v>
       </c>
       <c r="F370" s="2">
-        <v>8790</v>
+        <v>8777</v>
       </c>
       <c r="G370" s="2">
-        <v>9009</v>
+        <v>9010</v>
       </c>
       <c r="H370" s="3">
         <v>1.1100000000000001</v>
@@ -16957,22 +16949,22 @@
         <v>381</v>
       </c>
       <c r="B371" s="2">
-        <v>8901</v>
+        <v>8892</v>
       </c>
       <c r="C371" s="2">
-        <v>8776</v>
+        <v>8779</v>
       </c>
       <c r="D371" s="2">
-        <v>9024</v>
+        <v>9022</v>
       </c>
       <c r="E371" s="2">
-        <v>8897</v>
+        <v>8892</v>
       </c>
       <c r="F371" s="2">
-        <v>8780</v>
+        <v>8773</v>
       </c>
       <c r="G371" s="2">
-        <v>9008</v>
+        <v>9006</v>
       </c>
       <c r="H371" s="3">
         <v>1.08</v>
@@ -17001,19 +16993,19 @@
         <v>9037</v>
       </c>
       <c r="C372" s="2">
-        <v>8926</v>
+        <v>8903</v>
       </c>
       <c r="D372" s="2">
-        <v>9148</v>
+        <v>9163</v>
       </c>
       <c r="E372" s="2">
-        <v>8906</v>
+        <v>8902</v>
       </c>
       <c r="F372" s="2">
-        <v>8793</v>
+        <v>8784</v>
       </c>
       <c r="G372" s="2">
-        <v>9018</v>
+        <v>9025</v>
       </c>
       <c r="H372" s="3">
         <v>1.02</v>
@@ -17039,22 +17031,22 @@
         <v>383</v>
       </c>
       <c r="B373" s="2">
-        <v>11800</v>
+        <v>11781</v>
       </c>
       <c r="C373" s="2">
-        <v>11671</v>
+        <v>11636</v>
       </c>
       <c r="D373" s="2">
-        <v>11925</v>
+        <v>11935</v>
       </c>
       <c r="E373" s="2">
-        <v>9691</v>
+        <v>9684</v>
       </c>
       <c r="F373" s="2">
-        <v>9574</v>
+        <v>9558</v>
       </c>
       <c r="G373" s="2">
-        <v>9808</v>
+        <v>9817</v>
       </c>
       <c r="H373" s="3">
         <v>1.07</v>
@@ -17080,22 +17072,22 @@
         <v>384</v>
       </c>
       <c r="B374" s="2">
-        <v>11499</v>
+        <v>11500</v>
       </c>
       <c r="C374" s="2">
-        <v>11361</v>
+        <v>11350</v>
       </c>
       <c r="D374" s="2">
-        <v>11650</v>
+        <v>11668</v>
       </c>
       <c r="E374" s="2">
-        <v>10309</v>
+        <v>10303</v>
       </c>
       <c r="F374" s="2">
-        <v>10183</v>
+        <v>10167</v>
       </c>
       <c r="G374" s="2">
-        <v>10437</v>
+        <v>10447</v>
       </c>
       <c r="H374" s="3">
         <v>1.1599999999999999</v>
@@ -17121,22 +17113,22 @@
         <v>385</v>
       </c>
       <c r="B375" s="2">
-        <v>11706</v>
+        <v>11716</v>
       </c>
       <c r="C375" s="2">
-        <v>11579</v>
+        <v>11588</v>
       </c>
       <c r="D375" s="2">
-        <v>11833</v>
+        <v>11840</v>
       </c>
       <c r="E375" s="2">
-        <v>11010</v>
+        <v>11009</v>
       </c>
       <c r="F375" s="2">
-        <v>10884</v>
+        <v>10869</v>
       </c>
       <c r="G375" s="2">
-        <v>11139</v>
+        <v>11151</v>
       </c>
       <c r="H375" s="3">
         <v>1.24</v>
@@ -17162,19 +17154,19 @@
         <v>386</v>
       </c>
       <c r="B376" s="2">
-        <v>11522</v>
+        <v>11507</v>
       </c>
       <c r="C376" s="2">
-        <v>11370</v>
+        <v>11365</v>
       </c>
       <c r="D376" s="2">
-        <v>11675</v>
+        <v>11643</v>
       </c>
       <c r="E376" s="2">
-        <v>11632</v>
+        <v>11626</v>
       </c>
       <c r="F376" s="2">
-        <v>11495</v>
+        <v>11485</v>
       </c>
       <c r="G376" s="2">
         <v>11771</v>
@@ -17183,7 +17175,7 @@
         <v>1.31</v>
       </c>
       <c r="I376" s="3">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="J376" s="3">
         <v>1.32</v>
@@ -17203,22 +17195,22 @@
         <v>387</v>
       </c>
       <c r="B377" s="2">
-        <v>12062</v>
+        <v>12041</v>
       </c>
       <c r="C377" s="2">
-        <v>11923</v>
+        <v>11898</v>
       </c>
       <c r="D377" s="2">
-        <v>12176</v>
+        <v>12200</v>
       </c>
       <c r="E377" s="2">
-        <v>11697</v>
+        <v>11691</v>
       </c>
       <c r="F377" s="2">
-        <v>11558</v>
+        <v>11550</v>
       </c>
       <c r="G377" s="2">
-        <v>11833</v>
+        <v>11838</v>
       </c>
       <c r="H377" s="3">
         <v>1.21</v>
@@ -17244,22 +17236,22 @@
         <v>388</v>
       </c>
       <c r="B378" s="2">
-        <v>11835</v>
+        <v>11848</v>
       </c>
       <c r="C378" s="2">
-        <v>11707</v>
+        <v>11724</v>
       </c>
       <c r="D378" s="2">
-        <v>11960</v>
+        <v>12001</v>
       </c>
       <c r="E378" s="2">
-        <v>11781</v>
+        <v>11778</v>
       </c>
       <c r="F378" s="2">
         <v>11644</v>
       </c>
       <c r="G378" s="2">
-        <v>11911</v>
+        <v>11921</v>
       </c>
       <c r="H378" s="3">
         <v>1.1399999999999999</v>
@@ -17285,19 +17277,19 @@
         <v>389</v>
       </c>
       <c r="B379" s="2">
-        <v>12125</v>
+        <v>12126</v>
       </c>
       <c r="C379" s="2">
-        <v>11958</v>
+        <v>11964</v>
       </c>
       <c r="D379" s="2">
-        <v>12291</v>
+        <v>12255</v>
       </c>
       <c r="E379" s="2">
-        <v>11886</v>
+        <v>11880</v>
       </c>
       <c r="F379" s="2">
-        <v>11739</v>
+        <v>11738</v>
       </c>
       <c r="G379" s="2">
         <v>12025</v>
@@ -17326,22 +17318,22 @@
         <v>390</v>
       </c>
       <c r="B380" s="2">
-        <v>15421</v>
+        <v>15427</v>
       </c>
       <c r="C380" s="2">
-        <v>15230</v>
+        <v>15284</v>
       </c>
       <c r="D380" s="2">
-        <v>15576</v>
+        <v>15619</v>
       </c>
       <c r="E380" s="2">
-        <v>12861</v>
+        <v>12860</v>
       </c>
       <c r="F380" s="2">
-        <v>12704</v>
+        <v>12717</v>
       </c>
       <c r="G380" s="2">
-        <v>13001</v>
+        <v>13019</v>
       </c>
       <c r="H380" s="3">
         <v>1.1100000000000001</v>
@@ -17367,22 +17359,22 @@
         <v>391</v>
       </c>
       <c r="B381" s="2">
-        <v>14893</v>
+        <v>14878</v>
       </c>
       <c r="C381" s="2">
-        <v>14665</v>
+        <v>14675</v>
       </c>
       <c r="D381" s="2">
-        <v>15118</v>
+        <v>15076</v>
       </c>
       <c r="E381" s="2">
-        <v>13569</v>
+        <v>13570</v>
       </c>
       <c r="F381" s="2">
-        <v>13390</v>
+        <v>13412</v>
       </c>
       <c r="G381" s="2">
-        <v>13736</v>
+        <v>13738</v>
       </c>
       <c r="H381" s="3">
         <v>1.1599999999999999</v>
@@ -17408,22 +17400,22 @@
         <v>392</v>
       </c>
       <c r="B382" s="2">
-        <v>15011</v>
+        <v>15025</v>
       </c>
       <c r="C382" s="2">
-        <v>14828</v>
+        <v>14809</v>
       </c>
       <c r="D382" s="2">
-        <v>15213</v>
+        <v>15219</v>
       </c>
       <c r="E382" s="2">
-        <v>14362</v>
+        <v>14364</v>
       </c>
       <c r="F382" s="2">
-        <v>14170</v>
+        <v>14183</v>
       </c>
       <c r="G382" s="2">
-        <v>14549</v>
+        <v>14542</v>
       </c>
       <c r="H382" s="3">
         <v>1.22</v>
@@ -17449,22 +17441,22 @@
         <v>393</v>
       </c>
       <c r="B383" s="2">
-        <v>14281</v>
+        <v>14277</v>
       </c>
       <c r="C383" s="2">
-        <v>14116</v>
+        <v>14063</v>
       </c>
       <c r="D383" s="2">
-        <v>14450</v>
+        <v>14484</v>
       </c>
       <c r="E383" s="2">
-        <v>14901</v>
+        <v>14902</v>
       </c>
       <c r="F383" s="2">
-        <v>14710</v>
+        <v>14708</v>
       </c>
       <c r="G383" s="2">
-        <v>15089</v>
+        <v>15099</v>
       </c>
       <c r="H383" s="3">
         <v>1.25</v>
@@ -17490,22 +17482,22 @@
         <v>394</v>
       </c>
       <c r="B384" s="2">
-        <v>14838</v>
+        <v>14858</v>
       </c>
       <c r="C384" s="2">
-        <v>14656</v>
+        <v>14637</v>
       </c>
       <c r="D384" s="2">
-        <v>15049</v>
+        <v>15090</v>
       </c>
       <c r="E384" s="2">
-        <v>14755</v>
+        <v>14759</v>
       </c>
       <c r="F384" s="2">
-        <v>14566</v>
+        <v>14546</v>
       </c>
       <c r="G384" s="2">
-        <v>14957</v>
+        <v>14967</v>
       </c>
       <c r="H384" s="3">
         <v>1.1499999999999999</v>
@@ -17531,22 +17523,22 @@
         <v>395</v>
       </c>
       <c r="B385" s="2">
-        <v>15005</v>
+        <v>15031</v>
       </c>
       <c r="C385" s="2">
-        <v>14787</v>
+        <v>14829</v>
       </c>
       <c r="D385" s="2">
-        <v>15208</v>
+        <v>15291</v>
       </c>
       <c r="E385" s="2">
-        <v>14784</v>
+        <v>14798</v>
       </c>
       <c r="F385" s="2">
-        <v>14597</v>
+        <v>14584</v>
       </c>
       <c r="G385" s="2">
-        <v>14980</v>
+        <v>15021</v>
       </c>
       <c r="H385" s="3">
         <v>1.0900000000000001</v>
@@ -17561,7 +17553,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="L385" s="3">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="M385" s="3">
         <v>1.1299999999999999</v>
@@ -17572,22 +17564,22 @@
         <v>396</v>
       </c>
       <c r="B386" s="2">
-        <v>15432</v>
+        <v>15426</v>
       </c>
       <c r="C386" s="2">
-        <v>15238</v>
+        <v>15190</v>
       </c>
       <c r="D386" s="2">
-        <v>15658</v>
+        <v>15694</v>
       </c>
       <c r="E386" s="2">
-        <v>14889</v>
+        <v>14898</v>
       </c>
       <c r="F386" s="2">
-        <v>14699</v>
+        <v>14679</v>
       </c>
       <c r="G386" s="2">
-        <v>15091</v>
+        <v>15140</v>
       </c>
       <c r="H386" s="3">
         <v>1.04</v>
@@ -17613,28 +17605,28 @@
         <v>397</v>
       </c>
       <c r="B387" s="2">
-        <v>18843</v>
+        <v>18839</v>
       </c>
       <c r="C387" s="2">
-        <v>18520</v>
+        <v>18587</v>
       </c>
       <c r="D387" s="2">
-        <v>19227</v>
+        <v>19086</v>
       </c>
       <c r="E387" s="2">
-        <v>16029</v>
+        <v>16038</v>
       </c>
       <c r="F387" s="2">
-        <v>15800</v>
+        <v>15810</v>
       </c>
       <c r="G387" s="2">
-        <v>16285</v>
+        <v>16290</v>
       </c>
       <c r="H387" s="3">
         <v>1.08</v>
       </c>
       <c r="I387" s="3">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="J387" s="3">
         <v>1.0900000000000001</v>
@@ -17654,22 +17646,22 @@
         <v>398</v>
       </c>
       <c r="B388" s="2">
-        <v>18608</v>
+        <v>18578</v>
       </c>
       <c r="C388" s="2">
-        <v>18315</v>
+        <v>18242</v>
       </c>
       <c r="D388" s="2">
-        <v>18924</v>
+        <v>18843</v>
       </c>
       <c r="E388" s="2">
-        <v>16972</v>
+        <v>16969</v>
       </c>
       <c r="F388" s="2">
-        <v>16715</v>
+        <v>16712</v>
       </c>
       <c r="G388" s="2">
-        <v>17254</v>
+        <v>17228</v>
       </c>
       <c r="H388" s="3">
         <v>1.1499999999999999</v>
@@ -17695,28 +17687,28 @@
         <v>399</v>
       </c>
       <c r="B389" s="2">
-        <v>17952</v>
+        <v>17921</v>
       </c>
       <c r="C389" s="2">
-        <v>17610</v>
+        <v>17647</v>
       </c>
       <c r="D389" s="2">
-        <v>18301</v>
+        <v>18172</v>
       </c>
       <c r="E389" s="2">
-        <v>17709</v>
+        <v>17691</v>
       </c>
       <c r="F389" s="2">
-        <v>17421</v>
+        <v>17416</v>
       </c>
       <c r="G389" s="2">
-        <v>18028</v>
+        <v>17949</v>
       </c>
       <c r="H389" s="3">
         <v>1.2</v>
       </c>
       <c r="I389" s="3">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="J389" s="3">
         <v>1.21</v>
@@ -17736,22 +17728,22 @@
         <v>400</v>
       </c>
       <c r="B390" s="2">
-        <v>16557</v>
+        <v>16632</v>
       </c>
       <c r="C390" s="2">
-        <v>16256</v>
+        <v>16335</v>
       </c>
       <c r="D390" s="2">
-        <v>16933</v>
+        <v>16944</v>
       </c>
       <c r="E390" s="2">
-        <v>17990</v>
+        <v>17993</v>
       </c>
       <c r="F390" s="2">
-        <v>17675</v>
+        <v>17703</v>
       </c>
       <c r="G390" s="2">
-        <v>18346</v>
+        <v>18261</v>
       </c>
       <c r="H390" s="3">
         <v>1.21</v>
@@ -17777,22 +17769,22 @@
         <v>401</v>
       </c>
       <c r="B391" s="2">
-        <v>16252</v>
+        <v>16295</v>
       </c>
       <c r="C391" s="2">
-        <v>15899</v>
+        <v>15997</v>
       </c>
       <c r="D391" s="2">
-        <v>16563</v>
+        <v>16585</v>
       </c>
       <c r="E391" s="2">
-        <v>17342</v>
+        <v>17357</v>
       </c>
       <c r="F391" s="2">
-        <v>17020</v>
+        <v>17055</v>
       </c>
       <c r="G391" s="2">
-        <v>17680</v>
+        <v>17636</v>
       </c>
       <c r="H391" s="3">
         <v>1.08</v>
@@ -17818,22 +17810,22 @@
         <v>402</v>
       </c>
       <c r="B392" s="2">
-        <v>15236</v>
+        <v>15190</v>
       </c>
       <c r="C392" s="2">
-        <v>14834</v>
+        <v>14750</v>
       </c>
       <c r="D392" s="2">
-        <v>15705</v>
+        <v>15629</v>
       </c>
       <c r="E392" s="2">
-        <v>16499</v>
+        <v>16510</v>
       </c>
       <c r="F392" s="2">
-        <v>16150</v>
+        <v>16182</v>
       </c>
       <c r="G392" s="2">
-        <v>16876</v>
+        <v>16832</v>
       </c>
       <c r="H392" s="3">
         <v>0.97</v>
@@ -17859,28 +17851,28 @@
         <v>403</v>
       </c>
       <c r="B393" s="2">
-        <v>14803</v>
+        <v>14778</v>
       </c>
       <c r="C393" s="2">
-        <v>14283</v>
+        <v>14305</v>
       </c>
       <c r="D393" s="2">
-        <v>15334</v>
+        <v>15190</v>
       </c>
       <c r="E393" s="2">
-        <v>15712</v>
+        <v>15724</v>
       </c>
       <c r="F393" s="2">
-        <v>15318</v>
+        <v>15346</v>
       </c>
       <c r="G393" s="2">
-        <v>16134</v>
+        <v>16087</v>
       </c>
       <c r="H393" s="3">
         <v>0.89</v>
       </c>
       <c r="I393" s="3">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J393" s="3">
         <v>0.9</v>
@@ -17900,22 +17892,22 @@
         <v>404</v>
       </c>
       <c r="B394" s="2">
-        <v>18089</v>
+        <v>18114</v>
       </c>
       <c r="C394" s="2">
-        <v>17408</v>
+        <v>17414</v>
       </c>
       <c r="D394" s="2">
-        <v>18994</v>
+        <v>18645</v>
       </c>
       <c r="E394" s="2">
-        <v>16095</v>
+        <v>16094</v>
       </c>
       <c r="F394" s="2">
-        <v>15606</v>
+        <v>15616</v>
       </c>
       <c r="G394" s="2">
-        <v>16649</v>
+        <v>16512</v>
       </c>
       <c r="H394" s="3">
         <v>0.89</v>
@@ -17930,7 +17922,7 @@
         <v>0.98</v>
       </c>
       <c r="L394" s="3">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="M394" s="3">
         <v>0.99</v>
@@ -17941,22 +17933,22 @@
         <v>405</v>
       </c>
       <c r="B395" s="2">
-        <v>16967</v>
+        <v>17003</v>
       </c>
       <c r="C395" s="2">
-        <v>16275</v>
+        <v>16334</v>
       </c>
       <c r="D395" s="2">
-        <v>17719</v>
+        <v>17830</v>
       </c>
       <c r="E395" s="2">
-        <v>16274</v>
+        <v>16271</v>
       </c>
       <c r="F395" s="2">
-        <v>15700</v>
+        <v>15701</v>
       </c>
       <c r="G395" s="2">
-        <v>16938</v>
+        <v>16823</v>
       </c>
       <c r="H395" s="3">
         <v>0.94</v>
@@ -17965,7 +17957,7 @@
         <v>0.92</v>
       </c>
       <c r="J395" s="3">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="K395" s="3">
         <v>0.96</v>
@@ -17982,22 +17974,22 @@
         <v>406</v>
       </c>
       <c r="B396" s="2">
-        <v>15728</v>
+        <v>15758</v>
       </c>
       <c r="C396" s="2">
-        <v>14986</v>
+        <v>14936</v>
       </c>
       <c r="D396" s="2">
-        <v>16488</v>
+        <v>16764</v>
       </c>
       <c r="E396" s="2">
-        <v>16397</v>
+        <v>16413</v>
       </c>
       <c r="F396" s="2">
-        <v>15738</v>
+        <v>15747</v>
       </c>
       <c r="G396" s="2">
-        <v>17134</v>
+        <v>17107</v>
       </c>
       <c r="H396" s="3">
         <v>0.99</v>
@@ -18012,10 +18004,10 @@
         <v>0.96</v>
       </c>
       <c r="L396" s="3">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="M396" s="3">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="397" spans="1:13">
@@ -18023,34 +18015,34 @@
         <v>407</v>
       </c>
       <c r="B397" s="2">
-        <v>16304</v>
+        <v>16426</v>
       </c>
       <c r="C397" s="2">
-        <v>15138</v>
+        <v>15573</v>
       </c>
       <c r="D397" s="2">
-        <v>17262</v>
+        <v>17278</v>
       </c>
       <c r="E397" s="2">
-        <v>16772</v>
+        <v>16825</v>
       </c>
       <c r="F397" s="2">
-        <v>15952</v>
+        <v>16064</v>
       </c>
       <c r="G397" s="2">
-        <v>17616</v>
+        <v>17629</v>
       </c>
       <c r="H397" s="3">
         <v>1.07</v>
       </c>
       <c r="I397" s="3">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="J397" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K397" s="3">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="L397" s="3">
         <v>0.94</v>
@@ -18064,28 +18056,28 @@
         <v>408</v>
       </c>
       <c r="B398" s="2">
-        <v>14911</v>
+        <v>14961</v>
       </c>
       <c r="C398" s="2">
-        <v>13743</v>
+        <v>14181</v>
       </c>
       <c r="D398" s="2">
-        <v>16054</v>
+        <v>15885</v>
       </c>
       <c r="E398" s="2">
-        <v>15978</v>
+        <v>16037</v>
       </c>
       <c r="F398" s="2">
-        <v>15035</v>
+        <v>15256</v>
       </c>
       <c r="G398" s="2">
-        <v>16881</v>
+        <v>16939</v>
       </c>
       <c r="H398" s="3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I398" s="3">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="J398" s="3">
         <v>1.02</v>
@@ -18105,22 +18097,22 @@
         <v>409</v>
       </c>
       <c r="B399" s="2">
-        <v>14268</v>
+        <v>14309</v>
       </c>
       <c r="C399" s="2">
-        <v>12866</v>
+        <v>13244</v>
       </c>
       <c r="D399" s="2">
-        <v>15538</v>
+        <v>15288</v>
       </c>
       <c r="E399" s="2">
-        <v>15303</v>
+        <v>15363</v>
       </c>
       <c r="F399" s="2">
-        <v>14183</v>
+        <v>14484</v>
       </c>
       <c r="G399" s="2">
-        <v>16335</v>
+        <v>16303</v>
       </c>
       <c r="H399" s="3">
         <v>0.94</v>
@@ -18132,13 +18124,13 @@
         <v>0.97</v>
       </c>
       <c r="K399" s="3">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="L399" s="3">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="M399" s="3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="400" spans="1:13">
@@ -18146,28 +18138,28 @@
         <v>410</v>
       </c>
       <c r="B400" s="2">
-        <v>14475</v>
+        <v>14645</v>
       </c>
       <c r="C400" s="2">
-        <v>12470</v>
+        <v>13310</v>
       </c>
       <c r="D400" s="2">
-        <v>16429</v>
+        <v>15906</v>
       </c>
       <c r="E400" s="2">
-        <v>14990</v>
+        <v>15085</v>
       </c>
       <c r="F400" s="2">
-        <v>13554</v>
+        <v>14077</v>
       </c>
       <c r="G400" s="2">
-        <v>16321</v>
+        <v>16089</v>
       </c>
       <c r="H400" s="3">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="I400" s="3">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J400" s="3">
         <v>0.96</v>
@@ -18176,10 +18168,10 @@
         <v>0.96</v>
       </c>
       <c r="L400" s="3">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="M400" s="3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="401" spans="1:13">
@@ -18187,25 +18179,25 @@
         <v>411</v>
       </c>
       <c r="B401" s="2">
-        <v>16321</v>
+        <v>16462</v>
       </c>
       <c r="C401" s="2">
-        <v>13918</v>
+        <v>14235</v>
       </c>
       <c r="D401" s="2">
-        <v>18152</v>
+        <v>18312</v>
       </c>
       <c r="E401" s="2">
-        <v>14994</v>
+        <v>15094</v>
       </c>
       <c r="F401" s="2">
-        <v>13249</v>
+        <v>13742</v>
       </c>
       <c r="G401" s="2">
-        <v>16543</v>
+        <v>16348</v>
       </c>
       <c r="H401" s="3">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="I401" s="3">
         <v>0.85</v>
@@ -18220,7 +18212,7 @@
         <v>0.96</v>
       </c>
       <c r="M401" s="3">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="402" spans="1:13">
@@ -18228,22 +18220,22 @@
         <v>412</v>
       </c>
       <c r="B402" s="2">
-        <v>19551</v>
+        <v>19183</v>
       </c>
       <c r="C402" s="2">
-        <v>16062</v>
+        <v>15263</v>
       </c>
       <c r="D402" s="2">
-        <v>23710</v>
+        <v>22212</v>
       </c>
       <c r="E402" s="2">
-        <v>16154</v>
+        <v>16150</v>
       </c>
       <c r="F402" s="2">
-        <v>13829</v>
+        <v>14013</v>
       </c>
       <c r="G402" s="2">
-        <v>18457</v>
+        <v>17930</v>
       </c>
       <c r="H402" s="3">
         <v>1.01</v>
@@ -18252,16 +18244,16 @@
         <v>0.94</v>
       </c>
       <c r="J402" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="K402" s="3">
         <v>1.04</v>
       </c>
       <c r="L402" s="3">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="M402" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="403" spans="1:13">
@@ -18269,22 +18261,22 @@
         <v>413</v>
       </c>
       <c r="B403" s="2">
-        <v>20038</v>
+        <v>20093</v>
       </c>
       <c r="C403" s="2">
-        <v>14359</v>
+        <v>15976</v>
       </c>
       <c r="D403" s="2">
-        <v>24261</v>
+        <v>24985</v>
       </c>
       <c r="E403" s="2">
         <v>17596</v>
       </c>
       <c r="F403" s="2">
-        <v>14202</v>
+        <v>14696</v>
       </c>
       <c r="G403" s="2">
-        <v>20638</v>
+        <v>20354</v>
       </c>
       <c r="H403" s="3">
         <v>1.1499999999999999</v>
@@ -18293,16 +18285,16 @@
         <v>1.04</v>
       </c>
       <c r="J403" s="3">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="K403" s="3">
         <v>1.07</v>
       </c>
       <c r="L403" s="3">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="M403" s="3">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="404" spans="1:13">
@@ -18310,40 +18302,40 @@
         <v>414</v>
       </c>
       <c r="B404" s="2">
-        <v>18408</v>
+        <v>19243</v>
       </c>
       <c r="C404" s="2">
-        <v>10749</v>
+        <v>12916</v>
       </c>
       <c r="D404" s="2">
-        <v>24300</v>
+        <v>24338</v>
       </c>
       <c r="E404" s="2">
-        <v>18580</v>
+        <v>18745</v>
       </c>
       <c r="F404" s="2">
-        <v>13772</v>
+        <v>14598</v>
       </c>
       <c r="G404" s="2">
-        <v>22606</v>
+        <v>22462</v>
       </c>
       <c r="H404" s="3">
         <v>1.24</v>
       </c>
       <c r="I404" s="3">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J404" s="3">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="K404" s="3">
-        <v>1.08</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L404" s="3">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="M404" s="3">
-        <v>1.1599999999999999</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="405" spans="1:13">
@@ -18351,40 +18343,81 @@
         <v>415</v>
       </c>
       <c r="B405" s="2">
-        <v>14597</v>
+        <v>17256</v>
       </c>
       <c r="C405" s="2">
-        <v>8973</v>
+        <v>11317</v>
       </c>
       <c r="D405" s="2">
-        <v>20035</v>
+        <v>22948</v>
       </c>
       <c r="E405" s="2">
-        <v>18149</v>
+        <v>18944</v>
       </c>
       <c r="F405" s="2">
-        <v>12536</v>
+        <v>13868</v>
       </c>
       <c r="G405" s="2">
-        <v>23077</v>
+        <v>23621</v>
       </c>
       <c r="H405" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="I405" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="J405" s="3">
+        <v>1.44</v>
+      </c>
+      <c r="K405" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="L405" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="M405" s="3">
         <v>1.21</v>
       </c>
-      <c r="I405" s="3">
-        <v>0.98</v>
-      </c>
-      <c r="J405" s="3">
-        <v>1.39</v>
-      </c>
-      <c r="K405" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="L405" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="M405" s="3" t="s">
-        <v>420</v>
+    </row>
+    <row r="406" spans="1:13">
+      <c r="A406" t="s">
+        <v>416</v>
+      </c>
+      <c r="B406" s="2">
+        <v>16875</v>
+      </c>
+      <c r="C406" s="2">
+        <v>10288</v>
+      </c>
+      <c r="D406" s="2">
+        <v>23871</v>
+      </c>
+      <c r="E406" s="2">
+        <v>18367</v>
+      </c>
+      <c r="F406" s="2">
+        <v>12624</v>
+      </c>
+      <c r="G406" s="2">
+        <v>24036</v>
+      </c>
+      <c r="H406" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I406" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="J406" s="3">
+        <v>1.32</v>
+      </c>
+      <c r="K406" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="L406" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M406" s="3" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/rki-data/RKI-Nowcasting_Zahlen.xlsx
+++ b/rki-data/RKI-Nowcasting_Zahlen.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8708DC6-2CA6-42A2-BE81-9AFB8421B317}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4054224-2E5B-4822-A4B2-1332A555F077}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="7320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="457">
   <si>
     <t>Erläuterung</t>
   </si>
@@ -33,7 +33,7 @@
     <t/>
   </si>
   <si>
-    <t>Datenstand: 2021-04-25, 00:00 Uhr</t>
+    <t>Datenstand: 2021-04-26, 00:00 Uhr</t>
   </si>
   <si>
     <t/>
@@ -48,7 +48,7 @@
     <t/>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-04-25 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-04-26 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -1321,6 +1321,9 @@
   </si>
   <si>
     <t>21.04.2021</t>
+  </si>
+  <si>
+    <t>22.04.2021</t>
   </si>
   <si>
     <t>Punktschätzer der Anzahl Neuerkrankungen (ohne Glättung)</t>
@@ -1741,7 +1744,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1841,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M417"/>
+  <dimension ref="A1:M418"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:M417"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:M418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1857,40 +1860,40 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1916,22 +1919,22 @@
         <v>238</v>
       </c>
       <c r="H2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1957,22 +1960,22 @@
         <v>276</v>
       </c>
       <c r="H3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1998,22 +2001,22 @@
         <v>342</v>
       </c>
       <c r="H4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2039,22 +2042,22 @@
         <v>412</v>
       </c>
       <c r="H5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -16415,7 +16418,7 @@
         <v>7651</v>
       </c>
       <c r="C356" s="2">
-        <v>7541</v>
+        <v>7540</v>
       </c>
       <c r="D356" s="2">
         <v>7757</v>
@@ -16456,10 +16459,10 @@
         <v>7383</v>
       </c>
       <c r="C357" s="2">
-        <v>7277</v>
+        <v>7281</v>
       </c>
       <c r="D357" s="2">
-        <v>7491</v>
+        <v>7492</v>
       </c>
       <c r="E357" s="2">
         <v>7707</v>
@@ -16494,19 +16497,19 @@
         <v>375</v>
       </c>
       <c r="B358" s="2">
-        <v>7126</v>
+        <v>7125</v>
       </c>
       <c r="C358" s="2">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="D358" s="2">
-        <v>7234</v>
+        <v>7233</v>
       </c>
       <c r="E358" s="2">
         <v>7470</v>
       </c>
       <c r="F358" s="2">
-        <v>7360</v>
+        <v>7361</v>
       </c>
       <c r="G358" s="2">
         <v>7578</v>
@@ -16535,13 +16538,13 @@
         <v>376</v>
       </c>
       <c r="B359" s="2">
-        <v>8955</v>
+        <v>8956</v>
       </c>
       <c r="C359" s="2">
-        <v>8826</v>
+        <v>8825</v>
       </c>
       <c r="D359" s="2">
-        <v>9067</v>
+        <v>9068</v>
       </c>
       <c r="E359" s="2">
         <v>7779</v>
@@ -16579,19 +16582,19 @@
         <v>8501</v>
       </c>
       <c r="C360" s="2">
-        <v>8388</v>
+        <v>8389</v>
       </c>
       <c r="D360" s="2">
-        <v>8599</v>
+        <v>8602</v>
       </c>
       <c r="E360" s="2">
         <v>7991</v>
       </c>
       <c r="F360" s="2">
-        <v>7879</v>
+        <v>7880</v>
       </c>
       <c r="G360" s="2">
-        <v>8097</v>
+        <v>8098</v>
       </c>
       <c r="H360" s="3">
         <v>1.01</v>
@@ -16620,19 +16623,19 @@
         <v>8089</v>
       </c>
       <c r="C361" s="2">
-        <v>7993</v>
+        <v>7989</v>
       </c>
       <c r="D361" s="2">
-        <v>8207</v>
+        <v>8205</v>
       </c>
       <c r="E361" s="2">
         <v>8168</v>
       </c>
       <c r="F361" s="2">
-        <v>8058</v>
+        <v>8057</v>
       </c>
       <c r="G361" s="2">
-        <v>8276</v>
+        <v>8277</v>
       </c>
       <c r="H361" s="3">
         <v>1.06</v>
@@ -16658,22 +16661,22 @@
         <v>379</v>
       </c>
       <c r="B362" s="2">
-        <v>7658</v>
+        <v>7659</v>
       </c>
       <c r="C362" s="2">
         <v>7547</v>
       </c>
       <c r="D362" s="2">
-        <v>7770</v>
+        <v>7771</v>
       </c>
       <c r="E362" s="2">
         <v>8301</v>
       </c>
       <c r="F362" s="2">
-        <v>8188</v>
+        <v>8187</v>
       </c>
       <c r="G362" s="2">
-        <v>8410</v>
+        <v>8411</v>
       </c>
       <c r="H362" s="3">
         <v>1.1100000000000001</v>
@@ -16702,10 +16705,10 @@
         <v>7940</v>
       </c>
       <c r="C363" s="2">
-        <v>7831</v>
+        <v>7832</v>
       </c>
       <c r="D363" s="2">
-        <v>8058</v>
+        <v>8061</v>
       </c>
       <c r="E363" s="2">
         <v>8047</v>
@@ -16714,7 +16717,7 @@
         <v>7939</v>
       </c>
       <c r="G363" s="2">
-        <v>8158</v>
+        <v>8160</v>
       </c>
       <c r="H363" s="3">
         <v>1.03</v>
@@ -16740,19 +16743,19 @@
         <v>381</v>
       </c>
       <c r="B364" s="2">
-        <v>7182</v>
+        <v>7181</v>
       </c>
       <c r="C364" s="2">
-        <v>7088</v>
+        <v>7083</v>
       </c>
       <c r="D364" s="2">
-        <v>7287</v>
+        <v>7282</v>
       </c>
       <c r="E364" s="2">
         <v>7717</v>
       </c>
       <c r="F364" s="2">
-        <v>7614</v>
+        <v>7613</v>
       </c>
       <c r="G364" s="2">
         <v>7830</v>
@@ -16781,19 +16784,19 @@
         <v>382</v>
       </c>
       <c r="B365" s="2">
-        <v>7343</v>
+        <v>7344</v>
       </c>
       <c r="C365" s="2">
         <v>7229</v>
       </c>
       <c r="D365" s="2">
-        <v>7430</v>
+        <v>7431</v>
       </c>
       <c r="E365" s="2">
         <v>7531</v>
       </c>
       <c r="F365" s="2">
-        <v>7423</v>
+        <v>7422</v>
       </c>
       <c r="G365" s="2">
         <v>7636</v>
@@ -16822,13 +16825,13 @@
         <v>383</v>
       </c>
       <c r="B366" s="2">
-        <v>9528</v>
+        <v>9527</v>
       </c>
       <c r="C366" s="2">
-        <v>9407</v>
+        <v>9408</v>
       </c>
       <c r="D366" s="2">
-        <v>9650</v>
+        <v>9651</v>
       </c>
       <c r="E366" s="2">
         <v>7998</v>
@@ -16863,22 +16866,22 @@
         <v>384</v>
       </c>
       <c r="B367" s="2">
-        <v>8913</v>
+        <v>8912</v>
       </c>
       <c r="C367" s="2">
-        <v>8809</v>
+        <v>8810</v>
       </c>
       <c r="D367" s="2">
-        <v>9040</v>
+        <v>9038</v>
       </c>
       <c r="E367" s="2">
         <v>8241</v>
       </c>
       <c r="F367" s="2">
-        <v>8133</v>
+        <v>8132</v>
       </c>
       <c r="G367" s="2">
-        <v>8352</v>
+        <v>8350</v>
       </c>
       <c r="H367" s="3">
         <v>1.02</v>
@@ -16904,13 +16907,13 @@
         <v>385</v>
       </c>
       <c r="B368" s="2">
-        <v>8997</v>
+        <v>8995</v>
       </c>
       <c r="C368" s="2">
-        <v>8866</v>
+        <v>8863</v>
       </c>
       <c r="D368" s="2">
-        <v>9107</v>
+        <v>9108</v>
       </c>
       <c r="E368" s="2">
         <v>8695</v>
@@ -16919,7 +16922,7 @@
         <v>8577</v>
       </c>
       <c r="G368" s="2">
-        <v>8806</v>
+        <v>8807</v>
       </c>
       <c r="H368" s="3">
         <v>1.1299999999999999</v>
@@ -16945,10 +16948,10 @@
         <v>386</v>
       </c>
       <c r="B369" s="2">
-        <v>8646</v>
+        <v>8647</v>
       </c>
       <c r="C369" s="2">
-        <v>8530</v>
+        <v>8531</v>
       </c>
       <c r="D369" s="2">
         <v>8756</v>
@@ -16978,7 +16981,7 @@
         <v>1.06</v>
       </c>
       <c r="M369" s="3">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="370" spans="1:13">
@@ -16986,22 +16989,22 @@
         <v>387</v>
       </c>
       <c r="B370" s="2">
-        <v>9018</v>
+        <v>9019</v>
       </c>
       <c r="C370" s="2">
         <v>8915</v>
       </c>
       <c r="D370" s="2">
-        <v>9141</v>
+        <v>9152</v>
       </c>
       <c r="E370" s="2">
-        <v>8894</v>
+        <v>8893</v>
       </c>
       <c r="F370" s="2">
-        <v>8780</v>
+        <v>8779</v>
       </c>
       <c r="G370" s="2">
-        <v>9011</v>
+        <v>9013</v>
       </c>
       <c r="H370" s="3">
         <v>1.1100000000000001</v>
@@ -17027,22 +17030,22 @@
         <v>388</v>
       </c>
       <c r="B371" s="2">
-        <v>8899</v>
+        <v>8901</v>
       </c>
       <c r="C371" s="2">
-        <v>8776</v>
+        <v>8775</v>
       </c>
       <c r="D371" s="2">
-        <v>9033</v>
+        <v>9025</v>
       </c>
       <c r="E371" s="2">
-        <v>8890</v>
+        <v>8891</v>
       </c>
       <c r="F371" s="2">
-        <v>8772</v>
+        <v>8771</v>
       </c>
       <c r="G371" s="2">
-        <v>9009</v>
+        <v>9010</v>
       </c>
       <c r="H371" s="3">
         <v>1.08</v>
@@ -17068,22 +17071,22 @@
         <v>389</v>
       </c>
       <c r="B372" s="2">
-        <v>9031</v>
+        <v>9032</v>
       </c>
       <c r="C372" s="2">
-        <v>8907</v>
+        <v>8899</v>
       </c>
       <c r="D372" s="2">
-        <v>9154</v>
+        <v>9157</v>
       </c>
       <c r="E372" s="2">
-        <v>8899</v>
+        <v>8900</v>
       </c>
       <c r="F372" s="2">
-        <v>8782</v>
+        <v>8780</v>
       </c>
       <c r="G372" s="2">
-        <v>9021</v>
+        <v>9022</v>
       </c>
       <c r="H372" s="3">
         <v>1.02</v>
@@ -17109,22 +17112,22 @@
         <v>390</v>
       </c>
       <c r="B373" s="2">
-        <v>11796</v>
+        <v>11793</v>
       </c>
       <c r="C373" s="2">
-        <v>11685</v>
+        <v>11665</v>
       </c>
       <c r="D373" s="2">
-        <v>11928</v>
+        <v>11934</v>
       </c>
       <c r="E373" s="2">
         <v>9686</v>
       </c>
       <c r="F373" s="2">
-        <v>9571</v>
+        <v>9563</v>
       </c>
       <c r="G373" s="2">
-        <v>9814</v>
+        <v>9817</v>
       </c>
       <c r="H373" s="3">
         <v>1.07</v>
@@ -17153,16 +17156,16 @@
         <v>11501</v>
       </c>
       <c r="C374" s="2">
-        <v>11361</v>
+        <v>11354</v>
       </c>
       <c r="D374" s="2">
-        <v>11634</v>
+        <v>11633</v>
       </c>
       <c r="E374" s="2">
         <v>10307</v>
       </c>
       <c r="F374" s="2">
-        <v>10182</v>
+        <v>10173</v>
       </c>
       <c r="G374" s="2">
         <v>10437</v>
@@ -17191,22 +17194,22 @@
         <v>392</v>
       </c>
       <c r="B375" s="2">
-        <v>11731</v>
+        <v>11730</v>
       </c>
       <c r="C375" s="2">
-        <v>11593</v>
+        <v>11590</v>
       </c>
       <c r="D375" s="2">
-        <v>11857</v>
+        <v>11863</v>
       </c>
       <c r="E375" s="2">
-        <v>11015</v>
+        <v>11014</v>
       </c>
       <c r="F375" s="2">
-        <v>10886</v>
+        <v>10877</v>
       </c>
       <c r="G375" s="2">
-        <v>11143</v>
+        <v>11146</v>
       </c>
       <c r="H375" s="3">
         <v>1.24</v>
@@ -17232,28 +17235,28 @@
         <v>393</v>
       </c>
       <c r="B376" s="2">
-        <v>11500</v>
+        <v>11497</v>
       </c>
       <c r="C376" s="2">
-        <v>11366</v>
+        <v>11349</v>
       </c>
       <c r="D376" s="2">
-        <v>11655</v>
+        <v>11647</v>
       </c>
       <c r="E376" s="2">
-        <v>11632</v>
+        <v>11630</v>
       </c>
       <c r="F376" s="2">
-        <v>11501</v>
+        <v>11489</v>
       </c>
       <c r="G376" s="2">
-        <v>11768</v>
+        <v>11769</v>
       </c>
       <c r="H376" s="3">
         <v>1.31</v>
       </c>
       <c r="I376" s="3">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="J376" s="3">
         <v>1.32</v>
@@ -17273,22 +17276,22 @@
         <v>394</v>
       </c>
       <c r="B377" s="2">
-        <v>12061</v>
+        <v>12059</v>
       </c>
       <c r="C377" s="2">
-        <v>11926</v>
+        <v>11927</v>
       </c>
       <c r="D377" s="2">
-        <v>12193</v>
+        <v>12203</v>
       </c>
       <c r="E377" s="2">
-        <v>11698</v>
+        <v>11697</v>
       </c>
       <c r="F377" s="2">
-        <v>11561</v>
+        <v>11555</v>
       </c>
       <c r="G377" s="2">
-        <v>11835</v>
+        <v>11836</v>
       </c>
       <c r="H377" s="3">
         <v>1.21</v>
@@ -17317,19 +17320,19 @@
         <v>11831</v>
       </c>
       <c r="C378" s="2">
-        <v>11709</v>
+        <v>11694</v>
       </c>
       <c r="D378" s="2">
-        <v>11994</v>
+        <v>11961</v>
       </c>
       <c r="E378" s="2">
-        <v>11781</v>
+        <v>11779</v>
       </c>
       <c r="F378" s="2">
-        <v>11648</v>
+        <v>11640</v>
       </c>
       <c r="G378" s="2">
-        <v>11925</v>
+        <v>11918</v>
       </c>
       <c r="H378" s="3">
         <v>1.1399999999999999</v>
@@ -17355,22 +17358,22 @@
         <v>396</v>
       </c>
       <c r="B379" s="2">
-        <v>12089</v>
+        <v>12082</v>
       </c>
       <c r="C379" s="2">
-        <v>11950</v>
+        <v>11962</v>
       </c>
       <c r="D379" s="2">
-        <v>12227</v>
+        <v>12212</v>
       </c>
       <c r="E379" s="2">
-        <v>11870</v>
+        <v>11867</v>
       </c>
       <c r="F379" s="2">
-        <v>11737</v>
+        <v>11733</v>
       </c>
       <c r="G379" s="2">
-        <v>12017</v>
+        <v>12006</v>
       </c>
       <c r="H379" s="3">
         <v>1.08</v>
@@ -17379,7 +17382,7 @@
         <v>1.07</v>
       </c>
       <c r="J379" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="K379" s="3">
         <v>1.17</v>
@@ -17396,25 +17399,25 @@
         <v>397</v>
       </c>
       <c r="B380" s="2">
-        <v>15432</v>
+        <v>15434</v>
       </c>
       <c r="C380" s="2">
-        <v>15303</v>
+        <v>15285</v>
       </c>
       <c r="D380" s="2">
-        <v>15567</v>
+        <v>15596</v>
       </c>
       <c r="E380" s="2">
-        <v>12853</v>
+        <v>12851</v>
       </c>
       <c r="F380" s="2">
-        <v>12722</v>
+        <v>12717</v>
       </c>
       <c r="G380" s="2">
-        <v>12995</v>
+        <v>12993</v>
       </c>
       <c r="H380" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I380" s="3">
         <v>1.1000000000000001</v>
@@ -17437,19 +17440,19 @@
         <v>398</v>
       </c>
       <c r="B381" s="2">
-        <v>14878</v>
+        <v>14887</v>
       </c>
       <c r="C381" s="2">
-        <v>14724</v>
+        <v>14749</v>
       </c>
       <c r="D381" s="2">
-        <v>15043</v>
+        <v>15059</v>
       </c>
       <c r="E381" s="2">
         <v>13558</v>
       </c>
       <c r="F381" s="2">
-        <v>13421</v>
+        <v>13422</v>
       </c>
       <c r="G381" s="2">
         <v>13707</v>
@@ -17478,22 +17481,22 @@
         <v>399</v>
       </c>
       <c r="B382" s="2">
-        <v>15010</v>
+        <v>15023</v>
       </c>
       <c r="C382" s="2">
-        <v>14876</v>
+        <v>14862</v>
       </c>
       <c r="D382" s="2">
-        <v>15151</v>
+        <v>15228</v>
       </c>
       <c r="E382" s="2">
-        <v>14352</v>
+        <v>14356</v>
       </c>
       <c r="F382" s="2">
-        <v>14213</v>
+        <v>14214</v>
       </c>
       <c r="G382" s="2">
-        <v>14497</v>
+        <v>14524</v>
       </c>
       <c r="H382" s="3">
         <v>1.22</v>
@@ -17519,22 +17522,22 @@
         <v>400</v>
       </c>
       <c r="B383" s="2">
-        <v>14273</v>
+        <v>14266</v>
       </c>
       <c r="C383" s="2">
-        <v>14142</v>
+        <v>14102</v>
       </c>
       <c r="D383" s="2">
-        <v>14391</v>
+        <v>14394</v>
       </c>
       <c r="E383" s="2">
-        <v>14898</v>
+        <v>14902</v>
       </c>
       <c r="F383" s="2">
-        <v>14761</v>
+        <v>14749</v>
       </c>
       <c r="G383" s="2">
-        <v>15038</v>
+        <v>15069</v>
       </c>
       <c r="H383" s="3">
         <v>1.26</v>
@@ -17543,7 +17546,7 @@
         <v>1.25</v>
       </c>
       <c r="J383" s="3">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="K383" s="3">
         <v>1.1399999999999999</v>
@@ -17560,22 +17563,22 @@
         <v>401</v>
       </c>
       <c r="B384" s="2">
-        <v>14840</v>
+        <v>14836</v>
       </c>
       <c r="C384" s="2">
-        <v>14708</v>
+        <v>14684</v>
       </c>
       <c r="D384" s="2">
-        <v>14952</v>
+        <v>14962</v>
       </c>
       <c r="E384" s="2">
-        <v>14750</v>
+        <v>14753</v>
       </c>
       <c r="F384" s="2">
-        <v>14613</v>
+        <v>14599</v>
       </c>
       <c r="G384" s="2">
-        <v>14884</v>
+        <v>14911</v>
       </c>
       <c r="H384" s="3">
         <v>1.1499999999999999</v>
@@ -17601,22 +17604,22 @@
         <v>402</v>
       </c>
       <c r="B385" s="2">
-        <v>14994</v>
+        <v>14997</v>
       </c>
       <c r="C385" s="2">
-        <v>14835</v>
+        <v>14860</v>
       </c>
       <c r="D385" s="2">
-        <v>15143</v>
+        <v>15138</v>
       </c>
       <c r="E385" s="2">
-        <v>14779</v>
+        <v>14780</v>
       </c>
       <c r="F385" s="2">
-        <v>14640</v>
+        <v>14627</v>
       </c>
       <c r="G385" s="2">
-        <v>14909</v>
+        <v>14930</v>
       </c>
       <c r="H385" s="3">
         <v>1.0900000000000001</v>
@@ -17642,22 +17645,22 @@
         <v>403</v>
       </c>
       <c r="B386" s="2">
-        <v>15344</v>
+        <v>15340</v>
       </c>
       <c r="C386" s="2">
-        <v>15182</v>
+        <v>15186</v>
       </c>
       <c r="D386" s="2">
-        <v>15490</v>
+        <v>15492</v>
       </c>
       <c r="E386" s="2">
-        <v>14863</v>
+        <v>14860</v>
       </c>
       <c r="F386" s="2">
-        <v>14717</v>
+        <v>14708</v>
       </c>
       <c r="G386" s="2">
-        <v>14994</v>
+        <v>14996</v>
       </c>
       <c r="H386" s="3">
         <v>1.04</v>
@@ -17683,22 +17686,22 @@
         <v>404</v>
       </c>
       <c r="B387" s="2">
-        <v>18827</v>
+        <v>18836</v>
       </c>
       <c r="C387" s="2">
-        <v>18611</v>
+        <v>18670</v>
       </c>
       <c r="D387" s="2">
-        <v>18996</v>
+        <v>18992</v>
       </c>
       <c r="E387" s="2">
-        <v>16001</v>
+        <v>16002</v>
       </c>
       <c r="F387" s="2">
-        <v>15834</v>
+        <v>15850</v>
       </c>
       <c r="G387" s="2">
-        <v>16145</v>
+        <v>16146</v>
       </c>
       <c r="H387" s="3">
         <v>1.07</v>
@@ -17724,22 +17727,22 @@
         <v>405</v>
       </c>
       <c r="B388" s="2">
-        <v>18482</v>
+        <v>18475</v>
       </c>
       <c r="C388" s="2">
-        <v>18306</v>
+        <v>18247</v>
       </c>
       <c r="D388" s="2">
-        <v>18642</v>
+        <v>18632</v>
       </c>
       <c r="E388" s="2">
         <v>16912</v>
       </c>
       <c r="F388" s="2">
-        <v>16733</v>
+        <v>16741</v>
       </c>
       <c r="G388" s="2">
-        <v>17068</v>
+        <v>17063</v>
       </c>
       <c r="H388" s="3">
         <v>1.1499999999999999</v>
@@ -17754,7 +17757,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="L388" s="3">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="M388" s="3">
         <v>1.1299999999999999</v>
@@ -17765,19 +17768,19 @@
         <v>406</v>
       </c>
       <c r="B389" s="2">
-        <v>17870</v>
+        <v>17875</v>
       </c>
       <c r="C389" s="2">
-        <v>17683</v>
+        <v>17657</v>
       </c>
       <c r="D389" s="2">
-        <v>18026</v>
+        <v>18036</v>
       </c>
       <c r="E389" s="2">
-        <v>17631</v>
+        <v>17632</v>
       </c>
       <c r="F389" s="2">
-        <v>17445</v>
+        <v>17440</v>
       </c>
       <c r="G389" s="2">
         <v>17788</v>
@@ -17806,22 +17809,22 @@
         <v>407</v>
       </c>
       <c r="B390" s="2">
-        <v>16671</v>
+        <v>16669</v>
       </c>
       <c r="C390" s="2">
-        <v>16519</v>
+        <v>16484</v>
       </c>
       <c r="D390" s="2">
-        <v>16825</v>
+        <v>16850</v>
       </c>
       <c r="E390" s="2">
-        <v>17962</v>
+        <v>17964</v>
       </c>
       <c r="F390" s="2">
-        <v>17780</v>
+        <v>17764</v>
       </c>
       <c r="G390" s="2">
-        <v>18122</v>
+        <v>18127</v>
       </c>
       <c r="H390" s="3">
         <v>1.21</v>
@@ -17847,22 +17850,22 @@
         <v>408</v>
       </c>
       <c r="B391" s="2">
-        <v>16336</v>
+        <v>16321</v>
       </c>
       <c r="C391" s="2">
-        <v>16107</v>
+        <v>16167</v>
       </c>
       <c r="D391" s="2">
-        <v>16539</v>
+        <v>16454</v>
       </c>
       <c r="E391" s="2">
-        <v>17340</v>
+        <v>17335</v>
       </c>
       <c r="F391" s="2">
-        <v>17154</v>
+        <v>17139</v>
       </c>
       <c r="G391" s="2">
-        <v>17508</v>
+        <v>17493</v>
       </c>
       <c r="H391" s="3">
         <v>1.08</v>
@@ -17888,22 +17891,22 @@
         <v>409</v>
       </c>
       <c r="B392" s="2">
-        <v>15163</v>
+        <v>15178</v>
       </c>
       <c r="C392" s="2">
-        <v>14937</v>
+        <v>15017</v>
       </c>
       <c r="D392" s="2">
-        <v>15384</v>
+        <v>15359</v>
       </c>
       <c r="E392" s="2">
-        <v>16510</v>
+        <v>16511</v>
       </c>
       <c r="F392" s="2">
-        <v>16311</v>
+        <v>16331</v>
       </c>
       <c r="G392" s="2">
-        <v>16693</v>
+        <v>16675</v>
       </c>
       <c r="H392" s="3">
         <v>0.98</v>
@@ -17929,28 +17932,28 @@
         <v>410</v>
       </c>
       <c r="B393" s="2">
-        <v>14734</v>
+        <v>14705</v>
       </c>
       <c r="C393" s="2">
-        <v>14491</v>
+        <v>14477</v>
       </c>
       <c r="D393" s="2">
-        <v>14915</v>
+        <v>14944</v>
       </c>
       <c r="E393" s="2">
-        <v>15726</v>
+        <v>15718</v>
       </c>
       <c r="F393" s="2">
-        <v>15513</v>
+        <v>15536</v>
       </c>
       <c r="G393" s="2">
-        <v>15916</v>
+        <v>15902</v>
       </c>
       <c r="H393" s="3">
         <v>0.89</v>
       </c>
       <c r="I393" s="3">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="J393" s="3">
         <v>0.9</v>
@@ -17970,22 +17973,22 @@
         <v>411</v>
       </c>
       <c r="B394" s="2">
-        <v>18255</v>
+        <v>18246</v>
       </c>
       <c r="C394" s="2">
-        <v>17955</v>
+        <v>18001</v>
       </c>
       <c r="D394" s="2">
-        <v>18512</v>
+        <v>18461</v>
       </c>
       <c r="E394" s="2">
-        <v>16122</v>
+        <v>16113</v>
       </c>
       <c r="F394" s="2">
-        <v>15872</v>
+        <v>15915</v>
       </c>
       <c r="G394" s="2">
-        <v>16337</v>
+        <v>16304</v>
       </c>
       <c r="H394" s="3">
         <v>0.9</v>
@@ -18011,22 +18014,22 @@
         <v>412</v>
       </c>
       <c r="B395" s="2">
-        <v>17004</v>
+        <v>17007</v>
       </c>
       <c r="C395" s="2">
-        <v>16833</v>
+        <v>16778</v>
       </c>
       <c r="D395" s="2">
-        <v>17211</v>
+        <v>17290</v>
       </c>
       <c r="E395" s="2">
-        <v>16289</v>
+        <v>16284</v>
       </c>
       <c r="F395" s="2">
-        <v>16054</v>
+        <v>16068</v>
       </c>
       <c r="G395" s="2">
-        <v>16505</v>
+        <v>16513</v>
       </c>
       <c r="H395" s="3">
         <v>0.94</v>
@@ -18052,22 +18055,22 @@
         <v>413</v>
       </c>
       <c r="B396" s="2">
-        <v>15847</v>
+        <v>15827</v>
       </c>
       <c r="C396" s="2">
-        <v>15564</v>
+        <v>15688</v>
       </c>
       <c r="D396" s="2">
-        <v>16062</v>
+        <v>16018</v>
       </c>
       <c r="E396" s="2">
-        <v>16460</v>
+        <v>16446</v>
       </c>
       <c r="F396" s="2">
-        <v>16211</v>
+        <v>16236</v>
       </c>
       <c r="G396" s="2">
-        <v>16675</v>
+        <v>16678</v>
       </c>
       <c r="H396" s="3">
         <v>1</v>
@@ -18076,10 +18079,10 @@
         <v>0.99</v>
       </c>
       <c r="J396" s="3">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="K396" s="3">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="L396" s="3">
         <v>0.96</v>
@@ -18093,22 +18096,22 @@
         <v>414</v>
       </c>
       <c r="B397" s="2">
-        <v>16621</v>
+        <v>16597</v>
       </c>
       <c r="C397" s="2">
-        <v>16333</v>
+        <v>16339</v>
       </c>
       <c r="D397" s="2">
-        <v>16853</v>
+        <v>16856</v>
       </c>
       <c r="E397" s="2">
-        <v>16932</v>
+        <v>16919</v>
       </c>
       <c r="F397" s="2">
-        <v>16671</v>
+        <v>16702</v>
       </c>
       <c r="G397" s="2">
-        <v>17159</v>
+        <v>17156</v>
       </c>
       <c r="H397" s="3">
         <v>1.08</v>
@@ -18134,22 +18137,22 @@
         <v>415</v>
       </c>
       <c r="B398" s="2">
-        <v>15197</v>
+        <v>15192</v>
       </c>
       <c r="C398" s="2">
-        <v>14958</v>
+        <v>14907</v>
       </c>
       <c r="D398" s="2">
-        <v>15497</v>
+        <v>15457</v>
       </c>
       <c r="E398" s="2">
-        <v>16167</v>
+        <v>16156</v>
       </c>
       <c r="F398" s="2">
-        <v>15922</v>
+        <v>15928</v>
       </c>
       <c r="G398" s="2">
-        <v>16406</v>
+        <v>16405</v>
       </c>
       <c r="H398" s="3">
         <v>1</v>
@@ -18175,22 +18178,22 @@
         <v>416</v>
       </c>
       <c r="B399" s="2">
-        <v>14455</v>
+        <v>14475</v>
       </c>
       <c r="C399" s="2">
-        <v>14150</v>
+        <v>14259</v>
       </c>
       <c r="D399" s="2">
-        <v>14720</v>
+        <v>14684</v>
       </c>
       <c r="E399" s="2">
-        <v>15530</v>
+        <v>15523</v>
       </c>
       <c r="F399" s="2">
-        <v>15251</v>
+        <v>15298</v>
       </c>
       <c r="G399" s="2">
-        <v>15783</v>
+        <v>15754</v>
       </c>
       <c r="H399" s="3">
         <v>0.95</v>
@@ -18216,22 +18219,22 @@
         <v>417</v>
       </c>
       <c r="B400" s="2">
-        <v>14658</v>
+        <v>14664</v>
       </c>
       <c r="C400" s="2">
-        <v>14339</v>
+        <v>14368</v>
       </c>
       <c r="D400" s="2">
-        <v>14960</v>
+        <v>14916</v>
       </c>
       <c r="E400" s="2">
-        <v>15233</v>
+        <v>15232</v>
       </c>
       <c r="F400" s="2">
-        <v>14945</v>
+        <v>14968</v>
       </c>
       <c r="G400" s="2">
-        <v>15507</v>
+        <v>15478</v>
       </c>
       <c r="H400" s="3">
         <v>0.93</v>
@@ -18240,7 +18243,7 @@
         <v>0.92</v>
       </c>
       <c r="J400" s="3">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="K400" s="3">
         <v>0.97</v>
@@ -18249,7 +18252,7 @@
         <v>0.96</v>
       </c>
       <c r="M400" s="3">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="401" spans="1:13">
@@ -18257,22 +18260,22 @@
         <v>418</v>
       </c>
       <c r="B401" s="2">
-        <v>16674</v>
+        <v>16664</v>
       </c>
       <c r="C401" s="2">
-        <v>16267</v>
+        <v>16337</v>
       </c>
       <c r="D401" s="2">
-        <v>17004</v>
+        <v>17064</v>
       </c>
       <c r="E401" s="2">
-        <v>15246</v>
+        <v>15249</v>
       </c>
       <c r="F401" s="2">
-        <v>14928</v>
+        <v>14968</v>
       </c>
       <c r="G401" s="2">
-        <v>15545</v>
+        <v>15530</v>
       </c>
       <c r="H401" s="3">
         <v>0.9</v>
@@ -18298,22 +18301,22 @@
         <v>419</v>
       </c>
       <c r="B402" s="2">
-        <v>19098</v>
+        <v>19100</v>
       </c>
       <c r="C402" s="2">
-        <v>18638</v>
+        <v>18798</v>
       </c>
       <c r="D402" s="2">
-        <v>19569</v>
+        <v>19506</v>
       </c>
       <c r="E402" s="2">
-        <v>16222</v>
+        <v>16226</v>
       </c>
       <c r="F402" s="2">
-        <v>15848</v>
+        <v>15941</v>
       </c>
       <c r="G402" s="2">
-        <v>16563</v>
+        <v>16543</v>
       </c>
       <c r="H402" s="3">
         <v>1</v>
@@ -18322,7 +18325,7 @@
         <v>0.99</v>
       </c>
       <c r="J402" s="3">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K402" s="3">
         <v>1.04</v>
@@ -18339,19 +18342,19 @@
         <v>420</v>
       </c>
       <c r="B403" s="2">
-        <v>19489</v>
+        <v>19474</v>
       </c>
       <c r="C403" s="2">
-        <v>19050</v>
+        <v>18995</v>
       </c>
       <c r="D403" s="2">
-        <v>19929</v>
+        <v>19976</v>
       </c>
       <c r="E403" s="2">
-        <v>17480</v>
+        <v>17475</v>
       </c>
       <c r="F403" s="2">
-        <v>17073</v>
+        <v>17125</v>
       </c>
       <c r="G403" s="2">
         <v>17865</v>
@@ -18380,22 +18383,22 @@
         <v>421</v>
       </c>
       <c r="B404" s="2">
-        <v>19073</v>
+        <v>19017</v>
       </c>
       <c r="C404" s="2">
+        <v>18599</v>
+      </c>
+      <c r="D404" s="2">
+        <v>19507</v>
+      </c>
+      <c r="E404" s="2">
         <v>18564</v>
       </c>
-      <c r="D404" s="2">
-        <v>19521</v>
-      </c>
-      <c r="E404" s="2">
-        <v>18584</v>
-      </c>
       <c r="F404" s="2">
-        <v>18130</v>
+        <v>18182</v>
       </c>
       <c r="G404" s="2">
-        <v>19006</v>
+        <v>19013</v>
       </c>
       <c r="H404" s="3">
         <v>1.22</v>
@@ -18421,22 +18424,22 @@
         <v>422</v>
       </c>
       <c r="B405" s="2">
-        <v>18725</v>
+        <v>18713</v>
       </c>
       <c r="C405" s="2">
-        <v>18070</v>
+        <v>18224</v>
       </c>
       <c r="D405" s="2">
-        <v>19288</v>
+        <v>19195</v>
       </c>
       <c r="E405" s="2">
-        <v>19096</v>
+        <v>19076</v>
       </c>
       <c r="F405" s="2">
-        <v>18580</v>
+        <v>18654</v>
       </c>
       <c r="G405" s="2">
-        <v>19577</v>
+        <v>19546</v>
       </c>
       <c r="H405" s="3">
         <v>1.25</v>
@@ -18462,22 +18465,22 @@
         <v>423</v>
       </c>
       <c r="B406" s="2">
-        <v>18639</v>
+        <v>18621</v>
       </c>
       <c r="C406" s="2">
-        <v>17959</v>
+        <v>18034</v>
       </c>
       <c r="D406" s="2">
-        <v>19398</v>
+        <v>19165</v>
       </c>
       <c r="E406" s="2">
-        <v>18982</v>
+        <v>18956</v>
       </c>
       <c r="F406" s="2">
-        <v>18411</v>
+        <v>18463</v>
       </c>
       <c r="G406" s="2">
-        <v>19534</v>
+        <v>19461</v>
       </c>
       <c r="H406" s="3">
         <v>1.17</v>
@@ -18486,13 +18489,13 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="J406" s="3">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="K406" s="3">
         <v>1.1200000000000001</v>
       </c>
       <c r="L406" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M406" s="3">
         <v>1.1299999999999999</v>
@@ -18503,22 +18506,22 @@
         <v>424</v>
       </c>
       <c r="B407" s="2">
-        <v>18130</v>
+        <v>18093</v>
       </c>
       <c r="C407" s="2">
-        <v>17311</v>
+        <v>17430</v>
       </c>
       <c r="D407" s="2">
-        <v>18795</v>
+        <v>18699</v>
       </c>
       <c r="E407" s="2">
-        <v>18642</v>
+        <v>18611</v>
       </c>
       <c r="F407" s="2">
-        <v>17976</v>
+        <v>18072</v>
       </c>
       <c r="G407" s="2">
-        <v>19250</v>
+        <v>19142</v>
       </c>
       <c r="H407" s="3">
         <v>1.07</v>
@@ -18536,7 +18539,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="M407" s="3">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="408" spans="1:13">
@@ -18544,22 +18547,22 @@
         <v>425</v>
       </c>
       <c r="B408" s="2">
-        <v>22207</v>
+        <v>22255</v>
       </c>
       <c r="C408" s="2">
-        <v>21175</v>
+        <v>21374</v>
       </c>
       <c r="D408" s="2">
-        <v>22962</v>
+        <v>23093</v>
       </c>
       <c r="E408" s="2">
-        <v>19425</v>
+        <v>19421</v>
       </c>
       <c r="F408" s="2">
-        <v>18629</v>
+        <v>18765</v>
       </c>
       <c r="G408" s="2">
-        <v>20111</v>
+        <v>20038</v>
       </c>
       <c r="H408" s="3">
         <v>1.05</v>
@@ -18574,10 +18577,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="L408" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="M408" s="3">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="409" spans="1:13">
@@ -18585,22 +18588,22 @@
         <v>426</v>
       </c>
       <c r="B409" s="2">
-        <v>20879</v>
+        <v>20805</v>
       </c>
       <c r="C409" s="2">
-        <v>19759</v>
+        <v>19698</v>
       </c>
       <c r="D409" s="2">
-        <v>21872</v>
+        <v>21889</v>
       </c>
       <c r="E409" s="2">
-        <v>19964</v>
+        <v>19944</v>
       </c>
       <c r="F409" s="2">
-        <v>19051</v>
+        <v>19134</v>
       </c>
       <c r="G409" s="2">
-        <v>20757</v>
+        <v>20711</v>
       </c>
       <c r="H409" s="3">
         <v>1.05</v>
@@ -18618,7 +18621,7 @@
         <v>1.07</v>
       </c>
       <c r="M409" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="410" spans="1:13">
@@ -18626,22 +18629,22 @@
         <v>427</v>
       </c>
       <c r="B410" s="2">
-        <v>20131</v>
+        <v>20102</v>
       </c>
       <c r="C410" s="2">
-        <v>18818</v>
+        <v>18832</v>
       </c>
       <c r="D410" s="2">
-        <v>21276</v>
+        <v>21275</v>
       </c>
       <c r="E410" s="2">
-        <v>20337</v>
+        <v>20314</v>
       </c>
       <c r="F410" s="2">
-        <v>19266</v>
+        <v>19333</v>
       </c>
       <c r="G410" s="2">
-        <v>21226</v>
+        <v>21239</v>
       </c>
       <c r="H410" s="3">
         <v>1.07</v>
@@ -18667,22 +18670,22 @@
         <v>428</v>
       </c>
       <c r="B411" s="2">
-        <v>19020</v>
+        <v>19043</v>
       </c>
       <c r="C411" s="2">
-        <v>17558</v>
+        <v>17891</v>
       </c>
       <c r="D411" s="2">
-        <v>20413</v>
+        <v>20145</v>
       </c>
       <c r="E411" s="2">
-        <v>20559</v>
+        <v>20551</v>
       </c>
       <c r="F411" s="2">
-        <v>19328</v>
+        <v>19449</v>
       </c>
       <c r="G411" s="2">
-        <v>21631</v>
+        <v>21600</v>
       </c>
       <c r="H411" s="3">
         <v>1.1000000000000001</v>
@@ -18697,7 +18700,7 @@
         <v>1.03</v>
       </c>
       <c r="L411" s="3">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="M411" s="3">
         <v>1.05</v>
@@ -18708,31 +18711,31 @@
         <v>429</v>
       </c>
       <c r="B412" s="2">
-        <v>19943</v>
+        <v>19985</v>
       </c>
       <c r="C412" s="2">
-        <v>17991</v>
+        <v>18156</v>
       </c>
       <c r="D412" s="2">
-        <v>21909</v>
+        <v>21433</v>
       </c>
       <c r="E412" s="2">
-        <v>19993</v>
+        <v>19984</v>
       </c>
       <c r="F412" s="2">
-        <v>18531</v>
+        <v>18644</v>
       </c>
       <c r="G412" s="2">
-        <v>21368</v>
+        <v>21185</v>
       </c>
       <c r="H412" s="3">
         <v>1.03</v>
       </c>
       <c r="I412" s="3">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="J412" s="3">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K412" s="3">
         <v>1.02</v>
@@ -18741,7 +18744,7 @@
         <v>0.99</v>
       </c>
       <c r="M412" s="3">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="413" spans="1:13">
@@ -18749,31 +18752,31 @@
         <v>430</v>
       </c>
       <c r="B413" s="2">
-        <v>19417</v>
+        <v>19266</v>
       </c>
       <c r="C413" s="2">
-        <v>16966</v>
+        <v>17427</v>
       </c>
       <c r="D413" s="2">
-        <v>21559</v>
+        <v>20644</v>
       </c>
       <c r="E413" s="2">
-        <v>19628</v>
+        <v>19599</v>
       </c>
       <c r="F413" s="2">
-        <v>17833</v>
+        <v>18077</v>
       </c>
       <c r="G413" s="2">
-        <v>21289</v>
+        <v>20874</v>
       </c>
       <c r="H413" s="3">
         <v>0.98</v>
       </c>
       <c r="I413" s="3">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="J413" s="3">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K413" s="3">
         <v>1.03</v>
@@ -18782,7 +18785,7 @@
         <v>1</v>
       </c>
       <c r="M413" s="3">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="414" spans="1:13">
@@ -18790,40 +18793,40 @@
         <v>431</v>
       </c>
       <c r="B414" s="2">
-        <v>20834</v>
+        <v>20180</v>
       </c>
       <c r="C414" s="2">
-        <v>17493</v>
+        <v>17758</v>
       </c>
       <c r="D414" s="2">
-        <v>24821</v>
+        <v>22509</v>
       </c>
       <c r="E414" s="2">
-        <v>19804</v>
+        <v>19619</v>
       </c>
       <c r="F414" s="2">
-        <v>17502</v>
+        <v>17808</v>
       </c>
       <c r="G414" s="2">
-        <v>22176</v>
+        <v>21183</v>
       </c>
       <c r="H414" s="3">
         <v>0.97</v>
       </c>
       <c r="I414" s="3">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="J414" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="K414" s="3">
         <v>1.04</v>
       </c>
-      <c r="K414" s="3">
-        <v>1.05</v>
-      </c>
       <c r="L414" s="3">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="M414" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="415" spans="1:13">
@@ -18831,40 +18834,40 @@
         <v>432</v>
       </c>
       <c r="B415" s="2">
-        <v>24536</v>
+        <v>23735</v>
       </c>
       <c r="C415" s="2">
-        <v>19247</v>
+        <v>20330</v>
       </c>
       <c r="D415" s="2">
-        <v>29448</v>
+        <v>26584</v>
       </c>
       <c r="E415" s="2">
-        <v>21183</v>
+        <v>20792</v>
       </c>
       <c r="F415" s="2">
-        <v>17924</v>
+        <v>18418</v>
       </c>
       <c r="G415" s="2">
-        <v>24434</v>
+        <v>22792</v>
       </c>
       <c r="H415" s="3">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="I415" s="3">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="J415" s="3">
-        <v>1.1200000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="K415" s="3">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="L415" s="3">
         <v>1</v>
       </c>
       <c r="M415" s="3">
-        <v>1.1299999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="416" spans="1:13">
@@ -18872,40 +18875,40 @@
         <v>433</v>
       </c>
       <c r="B416" s="2">
-        <v>24135</v>
+        <v>22213</v>
       </c>
       <c r="C416" s="2">
-        <v>16684</v>
+        <v>17395</v>
       </c>
       <c r="D416" s="2">
-        <v>31201</v>
+        <v>26882</v>
       </c>
       <c r="E416" s="2">
-        <v>22230</v>
+        <v>21348</v>
       </c>
       <c r="F416" s="2">
-        <v>17597</v>
+        <v>18227</v>
       </c>
       <c r="G416" s="2">
-        <v>26757</v>
+        <v>24155</v>
       </c>
       <c r="H416" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="I416" s="3">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="J416" s="3">
-        <v>1.22</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K416" s="3">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="L416" s="3">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="M416" s="3">
-        <v>1.1499999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="417" spans="1:13">
@@ -18913,40 +18916,81 @@
         <v>434</v>
       </c>
       <c r="B417" s="2">
-        <v>22368</v>
+        <v>20284</v>
       </c>
       <c r="C417" s="2">
-        <v>14989</v>
+        <v>14454</v>
       </c>
       <c r="D417" s="2">
-        <v>29828</v>
+        <v>25907</v>
       </c>
       <c r="E417" s="2">
-        <v>22968</v>
+        <v>21603</v>
       </c>
       <c r="F417" s="2">
-        <v>17103</v>
+        <v>17484</v>
       </c>
       <c r="G417" s="2">
-        <v>28824</v>
+        <v>25470</v>
       </c>
       <c r="H417" s="3">
-        <v>1.17</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I417" s="3">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="J417" s="3">
-        <v>1.32</v>
-      </c>
-      <c r="K417" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="L417" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="M417" s="3" t="s">
-        <v>453</v>
+        <v>1.23</v>
+      </c>
+      <c r="K417" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="L417" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="M417" s="3">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13">
+      <c r="A418" t="s">
+        <v>435</v>
+      </c>
+      <c r="B418" s="2">
+        <v>17763</v>
+      </c>
+      <c r="C418" s="2">
+        <v>11684</v>
+      </c>
+      <c r="D418" s="2">
+        <v>24243</v>
+      </c>
+      <c r="E418" s="2">
+        <v>20999</v>
+      </c>
+      <c r="F418" s="2">
+        <v>15966</v>
+      </c>
+      <c r="G418" s="2">
+        <v>25904</v>
+      </c>
+      <c r="H418" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="I418" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="J418" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="K418" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="L418" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="M418" s="3" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/rki-data/RKI-Nowcasting_Zahlen.xlsx
+++ b/rki-data/RKI-Nowcasting_Zahlen.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4054224-2E5B-4822-A4B2-1332A555F077}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2247320-0BE7-4862-B107-39B8831D7C4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="7320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="458">
   <si>
     <t>Erläuterung</t>
   </si>
@@ -33,7 +33,7 @@
     <t/>
   </si>
   <si>
-    <t>Datenstand: 2021-04-26, 00:00 Uhr</t>
+    <t>Datenstand: 2021-04-27, 00:00 Uhr</t>
   </si>
   <si>
     <t/>
@@ -48,7 +48,7 @@
     <t/>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-04-26 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-04-27 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -1326,6 +1326,9 @@
     <t>22.04.2021</t>
   </si>
   <si>
+    <t>23.04.2021</t>
+  </si>
+  <si>
     <t>Punktschätzer der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
@@ -1338,21 +1341,12 @@
     <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen</t>
   </si>
   <si>
-    <t>Punktschätzer der 4-Tage R-Wert</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
-    <t>Untere Grenze des 95%-Prädiktionsintervalls der 4-Tage R-Wert</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls der 4-Tage R-Wert</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -1365,18 +1359,12 @@
     <t>.</t>
   </si>
   <si>
-    <t>Untere Grenze des 95%-Prädiktionsintervalls des 7-Tage-R Wertes</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls des 7-Tage-R Wertes</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -1386,7 +1374,22 @@
     <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glätttung)</t>
+  </si>
+  <si>
+    <t>Untere Grenze des 95%-Prädiktionsintervalls des 4-Tage-R-Wertes</t>
+  </si>
+  <si>
+    <t>Punktschätzer des 4-Tage-R-Wertes</t>
+  </si>
+  <si>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls des 4-Tage-R-Wertes</t>
+  </si>
+  <si>
+    <t>Untere Grenze des 95%-Prädiktionsintervalls des 7-Tage-R-Wertes</t>
+  </si>
+  <si>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls des 7-Tage-R-Wertes</t>
   </si>
 </sst>
 </file>
@@ -1844,56 +1847,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M418"/>
+  <dimension ref="A1:M419"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:M418"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:M419"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="13" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="90" customHeight="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="102.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1922,19 +1926,19 @@
         <v>441</v>
       </c>
       <c r="I2" t="s">
+        <v>442</v>
+      </c>
+      <c r="J2" t="s">
         <v>443</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>445</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>447</v>
       </c>
-      <c r="L2" t="s">
-        <v>450</v>
-      </c>
       <c r="M2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1963,19 +1967,19 @@
         <v>441</v>
       </c>
       <c r="I3" t="s">
+        <v>442</v>
+      </c>
+      <c r="J3" t="s">
         <v>443</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>445</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>447</v>
       </c>
-      <c r="L3" t="s">
-        <v>450</v>
-      </c>
       <c r="M3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2004,19 +2008,19 @@
         <v>441</v>
       </c>
       <c r="I4" t="s">
+        <v>442</v>
+      </c>
+      <c r="J4" t="s">
         <v>443</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>445</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>447</v>
       </c>
-      <c r="L4" t="s">
-        <v>450</v>
-      </c>
       <c r="M4" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2045,19 +2049,19 @@
         <v>441</v>
       </c>
       <c r="I5" t="s">
+        <v>442</v>
+      </c>
+      <c r="J5" t="s">
         <v>443</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>445</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>447</v>
       </c>
-      <c r="L5" t="s">
-        <v>450</v>
-      </c>
       <c r="M5" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -16462,7 +16466,7 @@
         <v>7281</v>
       </c>
       <c r="D357" s="2">
-        <v>7492</v>
+        <v>7491</v>
       </c>
       <c r="E357" s="2">
         <v>7707</v>
@@ -16497,13 +16501,13 @@
         <v>375</v>
       </c>
       <c r="B358" s="2">
-        <v>7125</v>
+        <v>7126</v>
       </c>
       <c r="C358" s="2">
-        <v>7024</v>
+        <v>7026</v>
       </c>
       <c r="D358" s="2">
-        <v>7233</v>
+        <v>7234</v>
       </c>
       <c r="E358" s="2">
         <v>7470</v>
@@ -16541,10 +16545,10 @@
         <v>8956</v>
       </c>
       <c r="C359" s="2">
-        <v>8825</v>
+        <v>8824</v>
       </c>
       <c r="D359" s="2">
-        <v>9068</v>
+        <v>9063</v>
       </c>
       <c r="E359" s="2">
         <v>7779</v>
@@ -16553,7 +16557,7 @@
         <v>7667</v>
       </c>
       <c r="G359" s="2">
-        <v>7887</v>
+        <v>7886</v>
       </c>
       <c r="H359" s="3">
         <v>0.96</v>
@@ -16579,22 +16583,22 @@
         <v>377</v>
       </c>
       <c r="B360" s="2">
-        <v>8501</v>
+        <v>8500</v>
       </c>
       <c r="C360" s="2">
-        <v>8389</v>
+        <v>8387</v>
       </c>
       <c r="D360" s="2">
-        <v>8602</v>
+        <v>8599</v>
       </c>
       <c r="E360" s="2">
         <v>7991</v>
       </c>
       <c r="F360" s="2">
-        <v>7880</v>
+        <v>7879</v>
       </c>
       <c r="G360" s="2">
-        <v>8098</v>
+        <v>8097</v>
       </c>
       <c r="H360" s="3">
         <v>1.01</v>
@@ -16623,10 +16627,10 @@
         <v>8089</v>
       </c>
       <c r="C361" s="2">
-        <v>7989</v>
+        <v>7991</v>
       </c>
       <c r="D361" s="2">
-        <v>8205</v>
+        <v>8207</v>
       </c>
       <c r="E361" s="2">
         <v>8168</v>
@@ -16635,7 +16639,7 @@
         <v>8057</v>
       </c>
       <c r="G361" s="2">
-        <v>8277</v>
+        <v>8276</v>
       </c>
       <c r="H361" s="3">
         <v>1.06</v>
@@ -16661,10 +16665,10 @@
         <v>379</v>
       </c>
       <c r="B362" s="2">
-        <v>7659</v>
+        <v>7658</v>
       </c>
       <c r="C362" s="2">
-        <v>7547</v>
+        <v>7549</v>
       </c>
       <c r="D362" s="2">
         <v>7771</v>
@@ -16673,10 +16677,10 @@
         <v>8301</v>
       </c>
       <c r="F362" s="2">
-        <v>8187</v>
+        <v>8188</v>
       </c>
       <c r="G362" s="2">
-        <v>8411</v>
+        <v>8410</v>
       </c>
       <c r="H362" s="3">
         <v>1.1100000000000001</v>
@@ -16705,19 +16709,19 @@
         <v>7940</v>
       </c>
       <c r="C363" s="2">
-        <v>7832</v>
+        <v>7835</v>
       </c>
       <c r="D363" s="2">
-        <v>8061</v>
+        <v>8054</v>
       </c>
       <c r="E363" s="2">
         <v>8047</v>
       </c>
       <c r="F363" s="2">
-        <v>7939</v>
+        <v>7940</v>
       </c>
       <c r="G363" s="2">
-        <v>8160</v>
+        <v>8158</v>
       </c>
       <c r="H363" s="3">
         <v>1.03</v>
@@ -16746,19 +16750,19 @@
         <v>7181</v>
       </c>
       <c r="C364" s="2">
-        <v>7083</v>
+        <v>7084</v>
       </c>
       <c r="D364" s="2">
-        <v>7282</v>
+        <v>7284</v>
       </c>
       <c r="E364" s="2">
         <v>7717</v>
       </c>
       <c r="F364" s="2">
-        <v>7613</v>
+        <v>7615</v>
       </c>
       <c r="G364" s="2">
-        <v>7830</v>
+        <v>7829</v>
       </c>
       <c r="H364" s="3">
         <v>0.97</v>
@@ -16790,16 +16794,16 @@
         <v>7229</v>
       </c>
       <c r="D365" s="2">
-        <v>7431</v>
+        <v>7433</v>
       </c>
       <c r="E365" s="2">
         <v>7531</v>
       </c>
       <c r="F365" s="2">
-        <v>7422</v>
+        <v>7424</v>
       </c>
       <c r="G365" s="2">
-        <v>7636</v>
+        <v>7635</v>
       </c>
       <c r="H365" s="3">
         <v>0.92</v>
@@ -16825,13 +16829,13 @@
         <v>383</v>
       </c>
       <c r="B366" s="2">
-        <v>9527</v>
+        <v>9529</v>
       </c>
       <c r="C366" s="2">
-        <v>9408</v>
+        <v>9405</v>
       </c>
       <c r="D366" s="2">
-        <v>9651</v>
+        <v>9649</v>
       </c>
       <c r="E366" s="2">
         <v>7998</v>
@@ -16840,7 +16844,7 @@
         <v>7888</v>
       </c>
       <c r="G366" s="2">
-        <v>8106</v>
+        <v>8105</v>
       </c>
       <c r="H366" s="3">
         <v>0.96</v>
@@ -16866,16 +16870,16 @@
         <v>384</v>
       </c>
       <c r="B367" s="2">
-        <v>8912</v>
+        <v>8913</v>
       </c>
       <c r="C367" s="2">
-        <v>8810</v>
+        <v>8809</v>
       </c>
       <c r="D367" s="2">
-        <v>9038</v>
+        <v>9037</v>
       </c>
       <c r="E367" s="2">
-        <v>8241</v>
+        <v>8242</v>
       </c>
       <c r="F367" s="2">
         <v>8132</v>
@@ -16907,19 +16911,19 @@
         <v>385</v>
       </c>
       <c r="B368" s="2">
-        <v>8995</v>
+        <v>8996</v>
       </c>
       <c r="C368" s="2">
-        <v>8863</v>
+        <v>8862</v>
       </c>
       <c r="D368" s="2">
-        <v>9108</v>
+        <v>9110</v>
       </c>
       <c r="E368" s="2">
         <v>8695</v>
       </c>
       <c r="F368" s="2">
-        <v>8577</v>
+        <v>8576</v>
       </c>
       <c r="G368" s="2">
         <v>8807</v>
@@ -16948,19 +16952,19 @@
         <v>386</v>
       </c>
       <c r="B369" s="2">
-        <v>8647</v>
+        <v>8646</v>
       </c>
       <c r="C369" s="2">
         <v>8531</v>
       </c>
       <c r="D369" s="2">
-        <v>8756</v>
+        <v>8757</v>
       </c>
       <c r="E369" s="2">
         <v>9021</v>
       </c>
       <c r="F369" s="2">
-        <v>8903</v>
+        <v>8902</v>
       </c>
       <c r="G369" s="2">
         <v>9138</v>
@@ -16981,7 +16985,7 @@
         <v>1.06</v>
       </c>
       <c r="M369" s="3">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="370" spans="1:13">
@@ -16989,13 +16993,13 @@
         <v>387</v>
       </c>
       <c r="B370" s="2">
-        <v>9019</v>
+        <v>9017</v>
       </c>
       <c r="C370" s="2">
-        <v>8915</v>
+        <v>8916</v>
       </c>
       <c r="D370" s="2">
-        <v>9152</v>
+        <v>9147</v>
       </c>
       <c r="E370" s="2">
         <v>8893</v>
@@ -17030,22 +17034,22 @@
         <v>388</v>
       </c>
       <c r="B371" s="2">
-        <v>8901</v>
+        <v>8902</v>
       </c>
       <c r="C371" s="2">
         <v>8775</v>
       </c>
       <c r="D371" s="2">
-        <v>9025</v>
+        <v>9030</v>
       </c>
       <c r="E371" s="2">
-        <v>8891</v>
+        <v>8890</v>
       </c>
       <c r="F371" s="2">
         <v>8771</v>
       </c>
       <c r="G371" s="2">
-        <v>9010</v>
+        <v>9011</v>
       </c>
       <c r="H371" s="3">
         <v>1.08</v>
@@ -17074,19 +17078,19 @@
         <v>9032</v>
       </c>
       <c r="C372" s="2">
+        <v>8892</v>
+      </c>
+      <c r="D372" s="2">
+        <v>9150</v>
+      </c>
+      <c r="E372" s="2">
         <v>8899</v>
       </c>
-      <c r="D372" s="2">
-        <v>9157</v>
-      </c>
-      <c r="E372" s="2">
-        <v>8900</v>
-      </c>
       <c r="F372" s="2">
-        <v>8780</v>
+        <v>8778</v>
       </c>
       <c r="G372" s="2">
-        <v>9022</v>
+        <v>9021</v>
       </c>
       <c r="H372" s="3">
         <v>1.02</v>
@@ -17115,7 +17119,7 @@
         <v>11793</v>
       </c>
       <c r="C373" s="2">
-        <v>11665</v>
+        <v>11658</v>
       </c>
       <c r="D373" s="2">
         <v>11934</v>
@@ -17124,10 +17128,10 @@
         <v>9686</v>
       </c>
       <c r="F373" s="2">
-        <v>9563</v>
+        <v>9560</v>
       </c>
       <c r="G373" s="2">
-        <v>9817</v>
+        <v>9815</v>
       </c>
       <c r="H373" s="3">
         <v>1.07</v>
@@ -17153,22 +17157,22 @@
         <v>391</v>
       </c>
       <c r="B374" s="2">
-        <v>11501</v>
+        <v>11498</v>
       </c>
       <c r="C374" s="2">
-        <v>11354</v>
+        <v>11364</v>
       </c>
       <c r="D374" s="2">
-        <v>11633</v>
+        <v>11631</v>
       </c>
       <c r="E374" s="2">
-        <v>10307</v>
+        <v>10306</v>
       </c>
       <c r="F374" s="2">
-        <v>10173</v>
+        <v>10172</v>
       </c>
       <c r="G374" s="2">
-        <v>10437</v>
+        <v>10436</v>
       </c>
       <c r="H374" s="3">
         <v>1.1599999999999999</v>
@@ -17194,22 +17198,22 @@
         <v>392</v>
       </c>
       <c r="B375" s="2">
-        <v>11730</v>
+        <v>11731</v>
       </c>
       <c r="C375" s="2">
-        <v>11590</v>
+        <v>11602</v>
       </c>
       <c r="D375" s="2">
-        <v>11863</v>
+        <v>11843</v>
       </c>
       <c r="E375" s="2">
-        <v>11014</v>
+        <v>11013</v>
       </c>
       <c r="F375" s="2">
-        <v>10877</v>
+        <v>10879</v>
       </c>
       <c r="G375" s="2">
-        <v>11146</v>
+        <v>11139</v>
       </c>
       <c r="H375" s="3">
         <v>1.24</v>
@@ -17235,28 +17239,28 @@
         <v>393</v>
       </c>
       <c r="B376" s="2">
-        <v>11497</v>
+        <v>11500</v>
       </c>
       <c r="C376" s="2">
-        <v>11349</v>
+        <v>11367</v>
       </c>
       <c r="D376" s="2">
-        <v>11647</v>
+        <v>11667</v>
       </c>
       <c r="E376" s="2">
         <v>11630</v>
       </c>
       <c r="F376" s="2">
-        <v>11489</v>
+        <v>11497</v>
       </c>
       <c r="G376" s="2">
-        <v>11769</v>
+        <v>11768</v>
       </c>
       <c r="H376" s="3">
         <v>1.31</v>
       </c>
       <c r="I376" s="3">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="J376" s="3">
         <v>1.32</v>
@@ -17276,22 +17280,22 @@
         <v>394</v>
       </c>
       <c r="B377" s="2">
-        <v>12059</v>
+        <v>12055</v>
       </c>
       <c r="C377" s="2">
-        <v>11927</v>
+        <v>11904</v>
       </c>
       <c r="D377" s="2">
-        <v>12203</v>
+        <v>12194</v>
       </c>
       <c r="E377" s="2">
-        <v>11697</v>
+        <v>11696</v>
       </c>
       <c r="F377" s="2">
-        <v>11555</v>
+        <v>11559</v>
       </c>
       <c r="G377" s="2">
-        <v>11836</v>
+        <v>11833</v>
       </c>
       <c r="H377" s="3">
         <v>1.21</v>
@@ -17317,22 +17321,22 @@
         <v>395</v>
       </c>
       <c r="B378" s="2">
-        <v>11831</v>
+        <v>11826</v>
       </c>
       <c r="C378" s="2">
-        <v>11694</v>
+        <v>11693</v>
       </c>
       <c r="D378" s="2">
-        <v>11961</v>
+        <v>11977</v>
       </c>
       <c r="E378" s="2">
-        <v>11779</v>
+        <v>11778</v>
       </c>
       <c r="F378" s="2">
-        <v>11640</v>
+        <v>11641</v>
       </c>
       <c r="G378" s="2">
-        <v>11918</v>
+        <v>11920</v>
       </c>
       <c r="H378" s="3">
         <v>1.1399999999999999</v>
@@ -17358,22 +17362,22 @@
         <v>396</v>
       </c>
       <c r="B379" s="2">
-        <v>12082</v>
+        <v>12085</v>
       </c>
       <c r="C379" s="2">
-        <v>11962</v>
+        <v>11934</v>
       </c>
       <c r="D379" s="2">
-        <v>12212</v>
+        <v>12207</v>
       </c>
       <c r="E379" s="2">
         <v>11867</v>
       </c>
       <c r="F379" s="2">
-        <v>11733</v>
+        <v>11724</v>
       </c>
       <c r="G379" s="2">
-        <v>12006</v>
+        <v>12011</v>
       </c>
       <c r="H379" s="3">
         <v>1.08</v>
@@ -17399,22 +17403,22 @@
         <v>397</v>
       </c>
       <c r="B380" s="2">
-        <v>15434</v>
+        <v>15426</v>
       </c>
       <c r="C380" s="2">
-        <v>15285</v>
+        <v>15296</v>
       </c>
       <c r="D380" s="2">
-        <v>15596</v>
+        <v>15571</v>
       </c>
       <c r="E380" s="2">
-        <v>12851</v>
+        <v>12848</v>
       </c>
       <c r="F380" s="2">
-        <v>12717</v>
+        <v>12707</v>
       </c>
       <c r="G380" s="2">
-        <v>12993</v>
+        <v>12987</v>
       </c>
       <c r="H380" s="3">
         <v>1.1000000000000001</v>
@@ -17440,22 +17444,22 @@
         <v>398</v>
       </c>
       <c r="B381" s="2">
-        <v>14887</v>
+        <v>14880</v>
       </c>
       <c r="C381" s="2">
-        <v>14749</v>
+        <v>14737</v>
       </c>
       <c r="D381" s="2">
-        <v>15059</v>
+        <v>15020</v>
       </c>
       <c r="E381" s="2">
-        <v>13558</v>
+        <v>13554</v>
       </c>
       <c r="F381" s="2">
-        <v>13422</v>
+        <v>13415</v>
       </c>
       <c r="G381" s="2">
-        <v>13707</v>
+        <v>13694</v>
       </c>
       <c r="H381" s="3">
         <v>1.1599999999999999</v>
@@ -17481,22 +17485,22 @@
         <v>399</v>
       </c>
       <c r="B382" s="2">
-        <v>15023</v>
+        <v>15030</v>
       </c>
       <c r="C382" s="2">
-        <v>14862</v>
+        <v>14850</v>
       </c>
       <c r="D382" s="2">
-        <v>15228</v>
+        <v>15252</v>
       </c>
       <c r="E382" s="2">
-        <v>14356</v>
+        <v>14355</v>
       </c>
       <c r="F382" s="2">
-        <v>14214</v>
+        <v>14204</v>
       </c>
       <c r="G382" s="2">
-        <v>14524</v>
+        <v>14512</v>
       </c>
       <c r="H382" s="3">
         <v>1.22</v>
@@ -17522,22 +17526,22 @@
         <v>400</v>
       </c>
       <c r="B383" s="2">
-        <v>14266</v>
+        <v>14259</v>
       </c>
       <c r="C383" s="2">
-        <v>14102</v>
+        <v>14091</v>
       </c>
       <c r="D383" s="2">
-        <v>14394</v>
+        <v>14391</v>
       </c>
       <c r="E383" s="2">
-        <v>14902</v>
+        <v>14899</v>
       </c>
       <c r="F383" s="2">
-        <v>14749</v>
+        <v>14743</v>
       </c>
       <c r="G383" s="2">
-        <v>15069</v>
+        <v>15058</v>
       </c>
       <c r="H383" s="3">
         <v>1.26</v>
@@ -17563,22 +17567,22 @@
         <v>401</v>
       </c>
       <c r="B384" s="2">
-        <v>14836</v>
+        <v>14841</v>
       </c>
       <c r="C384" s="2">
-        <v>14684</v>
+        <v>14698</v>
       </c>
       <c r="D384" s="2">
-        <v>14962</v>
+        <v>15011</v>
       </c>
       <c r="E384" s="2">
         <v>14753</v>
       </c>
       <c r="F384" s="2">
-        <v>14599</v>
+        <v>14594</v>
       </c>
       <c r="G384" s="2">
-        <v>14911</v>
+        <v>14918</v>
       </c>
       <c r="H384" s="3">
         <v>1.1499999999999999</v>
@@ -17604,22 +17608,22 @@
         <v>402</v>
       </c>
       <c r="B385" s="2">
-        <v>14997</v>
+        <v>14990</v>
       </c>
       <c r="C385" s="2">
-        <v>14860</v>
+        <v>14818</v>
       </c>
       <c r="D385" s="2">
-        <v>15138</v>
+        <v>15164</v>
       </c>
       <c r="E385" s="2">
         <v>14780</v>
       </c>
       <c r="F385" s="2">
-        <v>14627</v>
+        <v>14614</v>
       </c>
       <c r="G385" s="2">
-        <v>14930</v>
+        <v>14954</v>
       </c>
       <c r="H385" s="3">
         <v>1.0900000000000001</v>
@@ -17645,25 +17649,25 @@
         <v>403</v>
       </c>
       <c r="B386" s="2">
-        <v>15340</v>
+        <v>15333</v>
       </c>
       <c r="C386" s="2">
-        <v>15186</v>
+        <v>15191</v>
       </c>
       <c r="D386" s="2">
-        <v>15492</v>
+        <v>15502</v>
       </c>
       <c r="E386" s="2">
-        <v>14860</v>
+        <v>14856</v>
       </c>
       <c r="F386" s="2">
-        <v>14708</v>
+        <v>14699</v>
       </c>
       <c r="G386" s="2">
-        <v>14996</v>
+        <v>15017</v>
       </c>
       <c r="H386" s="3">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="I386" s="3">
         <v>1.03</v>
@@ -17686,22 +17690,22 @@
         <v>404</v>
       </c>
       <c r="B387" s="2">
-        <v>18836</v>
+        <v>18805</v>
       </c>
       <c r="C387" s="2">
-        <v>18670</v>
+        <v>18625</v>
       </c>
       <c r="D387" s="2">
-        <v>18992</v>
+        <v>18942</v>
       </c>
       <c r="E387" s="2">
-        <v>16002</v>
+        <v>15992</v>
       </c>
       <c r="F387" s="2">
-        <v>15850</v>
+        <v>15833</v>
       </c>
       <c r="G387" s="2">
-        <v>16146</v>
+        <v>16154</v>
       </c>
       <c r="H387" s="3">
         <v>1.07</v>
@@ -17727,22 +17731,22 @@
         <v>405</v>
       </c>
       <c r="B388" s="2">
-        <v>18475</v>
+        <v>18447</v>
       </c>
       <c r="C388" s="2">
-        <v>18247</v>
+        <v>18291</v>
       </c>
       <c r="D388" s="2">
-        <v>18632</v>
+        <v>18589</v>
       </c>
       <c r="E388" s="2">
-        <v>16912</v>
+        <v>16894</v>
       </c>
       <c r="F388" s="2">
-        <v>16741</v>
+        <v>16731</v>
       </c>
       <c r="G388" s="2">
-        <v>17063</v>
+        <v>17049</v>
       </c>
       <c r="H388" s="3">
         <v>1.1499999999999999</v>
@@ -17768,28 +17772,28 @@
         <v>406</v>
       </c>
       <c r="B389" s="2">
-        <v>17875</v>
+        <v>17873</v>
       </c>
       <c r="C389" s="2">
-        <v>17657</v>
+        <v>17670</v>
       </c>
       <c r="D389" s="2">
-        <v>18036</v>
+        <v>18062</v>
       </c>
       <c r="E389" s="2">
-        <v>17632</v>
+        <v>17614</v>
       </c>
       <c r="F389" s="2">
-        <v>17440</v>
+        <v>17444</v>
       </c>
       <c r="G389" s="2">
-        <v>17788</v>
+        <v>17774</v>
       </c>
       <c r="H389" s="3">
         <v>1.19</v>
       </c>
       <c r="I389" s="3">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="J389" s="3">
         <v>1.2</v>
@@ -17809,22 +17813,22 @@
         <v>407</v>
       </c>
       <c r="B390" s="2">
-        <v>16669</v>
+        <v>16685</v>
       </c>
       <c r="C390" s="2">
-        <v>16484</v>
+        <v>16505</v>
       </c>
       <c r="D390" s="2">
-        <v>16850</v>
+        <v>16859</v>
       </c>
       <c r="E390" s="2">
-        <v>17964</v>
+        <v>17953</v>
       </c>
       <c r="F390" s="2">
-        <v>17764</v>
+        <v>17773</v>
       </c>
       <c r="G390" s="2">
-        <v>18127</v>
+        <v>18113</v>
       </c>
       <c r="H390" s="3">
         <v>1.21</v>
@@ -17850,22 +17854,22 @@
         <v>408</v>
       </c>
       <c r="B391" s="2">
-        <v>16321</v>
+        <v>16335</v>
       </c>
       <c r="C391" s="2">
-        <v>16167</v>
+        <v>16192</v>
       </c>
       <c r="D391" s="2">
-        <v>16454</v>
+        <v>16481</v>
       </c>
       <c r="E391" s="2">
         <v>17335</v>
       </c>
       <c r="F391" s="2">
-        <v>17139</v>
+        <v>17164</v>
       </c>
       <c r="G391" s="2">
-        <v>17493</v>
+        <v>17498</v>
       </c>
       <c r="H391" s="3">
         <v>1.08</v>
@@ -17891,22 +17895,22 @@
         <v>409</v>
       </c>
       <c r="B392" s="2">
-        <v>15178</v>
+        <v>15172</v>
       </c>
       <c r="C392" s="2">
         <v>15017</v>
       </c>
       <c r="D392" s="2">
-        <v>15359</v>
+        <v>15357</v>
       </c>
       <c r="E392" s="2">
-        <v>16511</v>
+        <v>16516</v>
       </c>
       <c r="F392" s="2">
-        <v>16331</v>
+        <v>16346</v>
       </c>
       <c r="G392" s="2">
-        <v>16675</v>
+        <v>16690</v>
       </c>
       <c r="H392" s="3">
         <v>0.98</v>
@@ -17932,28 +17936,28 @@
         <v>410</v>
       </c>
       <c r="B393" s="2">
-        <v>14705</v>
+        <v>14726</v>
       </c>
       <c r="C393" s="2">
-        <v>14477</v>
+        <v>14514</v>
       </c>
       <c r="D393" s="2">
-        <v>14944</v>
+        <v>14921</v>
       </c>
       <c r="E393" s="2">
-        <v>15718</v>
+        <v>15730</v>
       </c>
       <c r="F393" s="2">
-        <v>15536</v>
+        <v>15557</v>
       </c>
       <c r="G393" s="2">
-        <v>15902</v>
+        <v>15904</v>
       </c>
       <c r="H393" s="3">
         <v>0.89</v>
       </c>
       <c r="I393" s="3">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="J393" s="3">
         <v>0.9</v>
@@ -17973,22 +17977,22 @@
         <v>411</v>
       </c>
       <c r="B394" s="2">
-        <v>18246</v>
+        <v>18208</v>
       </c>
       <c r="C394" s="2">
-        <v>18001</v>
+        <v>17980</v>
       </c>
       <c r="D394" s="2">
-        <v>18461</v>
+        <v>18412</v>
       </c>
       <c r="E394" s="2">
-        <v>16113</v>
+        <v>16110</v>
       </c>
       <c r="F394" s="2">
-        <v>15915</v>
+        <v>15925</v>
       </c>
       <c r="G394" s="2">
-        <v>16304</v>
+        <v>16293</v>
       </c>
       <c r="H394" s="3">
         <v>0.9</v>
@@ -18014,22 +18018,22 @@
         <v>412</v>
       </c>
       <c r="B395" s="2">
-        <v>17007</v>
+        <v>17002</v>
       </c>
       <c r="C395" s="2">
-        <v>16778</v>
+        <v>16822</v>
       </c>
       <c r="D395" s="2">
-        <v>17290</v>
+        <v>17195</v>
       </c>
       <c r="E395" s="2">
-        <v>16284</v>
+        <v>16277</v>
       </c>
       <c r="F395" s="2">
-        <v>16068</v>
+        <v>16083</v>
       </c>
       <c r="G395" s="2">
-        <v>16513</v>
+        <v>16471</v>
       </c>
       <c r="H395" s="3">
         <v>0.94</v>
@@ -18055,31 +18059,31 @@
         <v>413</v>
       </c>
       <c r="B396" s="2">
-        <v>15827</v>
+        <v>15840</v>
       </c>
       <c r="C396" s="2">
-        <v>15688</v>
+        <v>15618</v>
       </c>
       <c r="D396" s="2">
-        <v>16018</v>
+        <v>16081</v>
       </c>
       <c r="E396" s="2">
-        <v>16446</v>
+        <v>16444</v>
       </c>
       <c r="F396" s="2">
-        <v>16236</v>
+        <v>16233</v>
       </c>
       <c r="G396" s="2">
-        <v>16678</v>
+        <v>16652</v>
       </c>
       <c r="H396" s="3">
         <v>1</v>
       </c>
       <c r="I396" s="3">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="J396" s="3">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K396" s="3">
         <v>0.96</v>
@@ -18096,22 +18100,22 @@
         <v>414</v>
       </c>
       <c r="B397" s="2">
-        <v>16597</v>
+        <v>16588</v>
       </c>
       <c r="C397" s="2">
-        <v>16339</v>
+        <v>16403</v>
       </c>
       <c r="D397" s="2">
-        <v>16856</v>
+        <v>16775</v>
       </c>
       <c r="E397" s="2">
-        <v>16919</v>
+        <v>16909</v>
       </c>
       <c r="F397" s="2">
-        <v>16702</v>
+        <v>16706</v>
       </c>
       <c r="G397" s="2">
-        <v>17156</v>
+        <v>17116</v>
       </c>
       <c r="H397" s="3">
         <v>1.08</v>
@@ -18120,7 +18124,7 @@
         <v>1.07</v>
       </c>
       <c r="J397" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="K397" s="3">
         <v>0.96</v>
@@ -18137,22 +18141,22 @@
         <v>415</v>
       </c>
       <c r="B398" s="2">
-        <v>15192</v>
+        <v>15179</v>
       </c>
       <c r="C398" s="2">
-        <v>14907</v>
+        <v>14936</v>
       </c>
       <c r="D398" s="2">
-        <v>15457</v>
+        <v>15387</v>
       </c>
       <c r="E398" s="2">
-        <v>16156</v>
+        <v>16152</v>
       </c>
       <c r="F398" s="2">
-        <v>15928</v>
+        <v>15945</v>
       </c>
       <c r="G398" s="2">
-        <v>16405</v>
+        <v>16360</v>
       </c>
       <c r="H398" s="3">
         <v>1</v>
@@ -18178,28 +18182,28 @@
         <v>416</v>
       </c>
       <c r="B399" s="2">
-        <v>14475</v>
+        <v>14461</v>
       </c>
       <c r="C399" s="2">
-        <v>14259</v>
+        <v>14226</v>
       </c>
       <c r="D399" s="2">
-        <v>14684</v>
+        <v>14683</v>
       </c>
       <c r="E399" s="2">
-        <v>15523</v>
+        <v>15517</v>
       </c>
       <c r="F399" s="2">
-        <v>15298</v>
+        <v>15296</v>
       </c>
       <c r="G399" s="2">
-        <v>15754</v>
+        <v>15732</v>
       </c>
       <c r="H399" s="3">
         <v>0.95</v>
       </c>
       <c r="I399" s="3">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="J399" s="3">
         <v>0.96</v>
@@ -18219,22 +18223,22 @@
         <v>417</v>
       </c>
       <c r="B400" s="2">
-        <v>14664</v>
+        <v>14651</v>
       </c>
       <c r="C400" s="2">
-        <v>14368</v>
+        <v>14414</v>
       </c>
       <c r="D400" s="2">
-        <v>14916</v>
+        <v>14920</v>
       </c>
       <c r="E400" s="2">
-        <v>15232</v>
+        <v>15220</v>
       </c>
       <c r="F400" s="2">
-        <v>14968</v>
+        <v>14995</v>
       </c>
       <c r="G400" s="2">
-        <v>15478</v>
+        <v>15441</v>
       </c>
       <c r="H400" s="3">
         <v>0.93</v>
@@ -18260,22 +18264,22 @@
         <v>418</v>
       </c>
       <c r="B401" s="2">
-        <v>16664</v>
+        <v>16680</v>
       </c>
       <c r="C401" s="2">
-        <v>16337</v>
+        <v>16385</v>
       </c>
       <c r="D401" s="2">
-        <v>17064</v>
+        <v>16924</v>
       </c>
       <c r="E401" s="2">
-        <v>15249</v>
+        <v>15243</v>
       </c>
       <c r="F401" s="2">
-        <v>14968</v>
+        <v>14990</v>
       </c>
       <c r="G401" s="2">
-        <v>15530</v>
+        <v>15479</v>
       </c>
       <c r="H401" s="3">
         <v>0.9</v>
@@ -18301,22 +18305,22 @@
         <v>419</v>
       </c>
       <c r="B402" s="2">
-        <v>19100</v>
+        <v>19109</v>
       </c>
       <c r="C402" s="2">
-        <v>18798</v>
+        <v>18790</v>
       </c>
       <c r="D402" s="2">
-        <v>19506</v>
+        <v>19540</v>
       </c>
       <c r="E402" s="2">
-        <v>16226</v>
+        <v>16225</v>
       </c>
       <c r="F402" s="2">
-        <v>15941</v>
+        <v>15954</v>
       </c>
       <c r="G402" s="2">
-        <v>16543</v>
+        <v>16517</v>
       </c>
       <c r="H402" s="3">
         <v>1</v>
@@ -18334,7 +18338,7 @@
         <v>1.03</v>
       </c>
       <c r="M402" s="3">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="403" spans="1:13">
@@ -18342,22 +18346,22 @@
         <v>420</v>
       </c>
       <c r="B403" s="2">
-        <v>19474</v>
+        <v>19460</v>
       </c>
       <c r="C403" s="2">
-        <v>18995</v>
+        <v>19016</v>
       </c>
       <c r="D403" s="2">
-        <v>19976</v>
+        <v>19869</v>
       </c>
       <c r="E403" s="2">
         <v>17475</v>
       </c>
       <c r="F403" s="2">
-        <v>17125</v>
+        <v>17152</v>
       </c>
       <c r="G403" s="2">
-        <v>17865</v>
+        <v>17814</v>
       </c>
       <c r="H403" s="3">
         <v>1.1299999999999999</v>
@@ -18383,28 +18387,28 @@
         <v>421</v>
       </c>
       <c r="B404" s="2">
-        <v>19017</v>
+        <v>19037</v>
       </c>
       <c r="C404" s="2">
-        <v>18599</v>
+        <v>18575</v>
       </c>
       <c r="D404" s="2">
-        <v>19507</v>
+        <v>19489</v>
       </c>
       <c r="E404" s="2">
-        <v>18564</v>
+        <v>18572</v>
       </c>
       <c r="F404" s="2">
-        <v>18182</v>
+        <v>18192</v>
       </c>
       <c r="G404" s="2">
-        <v>19013</v>
+        <v>18956</v>
       </c>
       <c r="H404" s="3">
         <v>1.22</v>
       </c>
       <c r="I404" s="3">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="J404" s="3">
         <v>1.24</v>
@@ -18424,28 +18428,28 @@
         <v>422</v>
       </c>
       <c r="B405" s="2">
-        <v>18713</v>
+        <v>18743</v>
       </c>
       <c r="C405" s="2">
-        <v>18224</v>
+        <v>18178</v>
       </c>
       <c r="D405" s="2">
-        <v>19195</v>
+        <v>19181</v>
       </c>
       <c r="E405" s="2">
-        <v>19076</v>
+        <v>19087</v>
       </c>
       <c r="F405" s="2">
-        <v>18654</v>
+        <v>18640</v>
       </c>
       <c r="G405" s="2">
-        <v>19546</v>
+        <v>19520</v>
       </c>
       <c r="H405" s="3">
         <v>1.25</v>
       </c>
       <c r="I405" s="3">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="J405" s="3">
         <v>1.27</v>
@@ -18454,7 +18458,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="L405" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="M405" s="3">
         <v>1.1299999999999999</v>
@@ -18465,22 +18469,22 @@
         <v>423</v>
       </c>
       <c r="B406" s="2">
-        <v>18621</v>
+        <v>18630</v>
       </c>
       <c r="C406" s="2">
-        <v>18034</v>
+        <v>18210</v>
       </c>
       <c r="D406" s="2">
-        <v>19165</v>
+        <v>19156</v>
       </c>
       <c r="E406" s="2">
-        <v>18956</v>
+        <v>18967</v>
       </c>
       <c r="F406" s="2">
-        <v>18463</v>
+        <v>18495</v>
       </c>
       <c r="G406" s="2">
-        <v>19461</v>
+        <v>19424</v>
       </c>
       <c r="H406" s="3">
         <v>1.17</v>
@@ -18489,13 +18493,13 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="J406" s="3">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="K406" s="3">
         <v>1.1200000000000001</v>
       </c>
       <c r="L406" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="M406" s="3">
         <v>1.1299999999999999</v>
@@ -18506,31 +18510,31 @@
         <v>424</v>
       </c>
       <c r="B407" s="2">
-        <v>18093</v>
+        <v>18021</v>
       </c>
       <c r="C407" s="2">
-        <v>17430</v>
+        <v>17373</v>
       </c>
       <c r="D407" s="2">
-        <v>18699</v>
+        <v>18516</v>
       </c>
       <c r="E407" s="2">
-        <v>18611</v>
+        <v>18608</v>
       </c>
       <c r="F407" s="2">
-        <v>18072</v>
+        <v>18084</v>
       </c>
       <c r="G407" s="2">
-        <v>19142</v>
+        <v>19086</v>
       </c>
       <c r="H407" s="3">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="I407" s="3">
         <v>1.05</v>
       </c>
       <c r="J407" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="K407" s="3">
         <v>1.1399999999999999</v>
@@ -18547,31 +18551,31 @@
         <v>425</v>
       </c>
       <c r="B408" s="2">
-        <v>22255</v>
+        <v>22179</v>
       </c>
       <c r="C408" s="2">
-        <v>21374</v>
+        <v>21431</v>
       </c>
       <c r="D408" s="2">
-        <v>23093</v>
+        <v>23090</v>
       </c>
       <c r="E408" s="2">
-        <v>19421</v>
+        <v>19393</v>
       </c>
       <c r="F408" s="2">
-        <v>18765</v>
+        <v>18798</v>
       </c>
       <c r="G408" s="2">
-        <v>20038</v>
+        <v>19986</v>
       </c>
       <c r="H408" s="3">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="I408" s="3">
         <v>1.02</v>
       </c>
       <c r="J408" s="3">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K408" s="3">
         <v>1.1200000000000001</v>
@@ -18588,37 +18592,37 @@
         <v>426</v>
       </c>
       <c r="B409" s="2">
-        <v>20805</v>
+        <v>20819</v>
       </c>
       <c r="C409" s="2">
-        <v>19698</v>
+        <v>19924</v>
       </c>
       <c r="D409" s="2">
-        <v>21889</v>
+        <v>21563</v>
       </c>
       <c r="E409" s="2">
-        <v>19944</v>
+        <v>19912</v>
       </c>
       <c r="F409" s="2">
-        <v>19134</v>
+        <v>19234</v>
       </c>
       <c r="G409" s="2">
-        <v>20711</v>
+        <v>20582</v>
       </c>
       <c r="H409" s="3">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="I409" s="3">
         <v>1.02</v>
       </c>
       <c r="J409" s="3">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K409" s="3">
         <v>1.0900000000000001</v>
       </c>
       <c r="L409" s="3">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="M409" s="3">
         <v>1.1000000000000001</v>
@@ -18629,31 +18633,31 @@
         <v>427</v>
       </c>
       <c r="B410" s="2">
-        <v>20102</v>
+        <v>19981</v>
       </c>
       <c r="C410" s="2">
-        <v>18832</v>
+        <v>18893</v>
       </c>
       <c r="D410" s="2">
-        <v>21275</v>
+        <v>20824</v>
       </c>
       <c r="E410" s="2">
-        <v>20314</v>
+        <v>20250</v>
       </c>
       <c r="F410" s="2">
-        <v>19333</v>
+        <v>19405</v>
       </c>
       <c r="G410" s="2">
-        <v>21239</v>
+        <v>20999</v>
       </c>
       <c r="H410" s="3">
         <v>1.07</v>
       </c>
       <c r="I410" s="3">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="J410" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K410" s="3">
         <v>1.06</v>
@@ -18662,7 +18666,7 @@
         <v>1.04</v>
       </c>
       <c r="M410" s="3">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="411" spans="1:13">
@@ -18670,22 +18674,22 @@
         <v>428</v>
       </c>
       <c r="B411" s="2">
-        <v>19043</v>
+        <v>19055</v>
       </c>
       <c r="C411" s="2">
-        <v>17891</v>
+        <v>17948</v>
       </c>
       <c r="D411" s="2">
-        <v>20145</v>
+        <v>20118</v>
       </c>
       <c r="E411" s="2">
-        <v>20551</v>
+        <v>20509</v>
       </c>
       <c r="F411" s="2">
-        <v>19449</v>
+        <v>19549</v>
       </c>
       <c r="G411" s="2">
-        <v>21600</v>
+        <v>21399</v>
       </c>
       <c r="H411" s="3">
         <v>1.1000000000000001</v>
@@ -18694,16 +18698,16 @@
         <v>1.07</v>
       </c>
       <c r="J411" s="3">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K411" s="3">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="L411" s="3">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="M411" s="3">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="412" spans="1:13">
@@ -18711,22 +18715,22 @@
         <v>429</v>
       </c>
       <c r="B412" s="2">
-        <v>19985</v>
+        <v>19774</v>
       </c>
       <c r="C412" s="2">
-        <v>18156</v>
+        <v>18614</v>
       </c>
       <c r="D412" s="2">
-        <v>21433</v>
+        <v>20993</v>
       </c>
       <c r="E412" s="2">
-        <v>19984</v>
+        <v>19907</v>
       </c>
       <c r="F412" s="2">
-        <v>18644</v>
+        <v>18845</v>
       </c>
       <c r="G412" s="2">
-        <v>21185</v>
+        <v>20875</v>
       </c>
       <c r="H412" s="3">
         <v>1.03</v>
@@ -18741,7 +18745,7 @@
         <v>1.02</v>
       </c>
       <c r="L412" s="3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="M412" s="3">
         <v>1.04</v>
@@ -18752,40 +18756,40 @@
         <v>430</v>
       </c>
       <c r="B413" s="2">
-        <v>19266</v>
+        <v>19321</v>
       </c>
       <c r="C413" s="2">
-        <v>17427</v>
+        <v>17963</v>
       </c>
       <c r="D413" s="2">
-        <v>20644</v>
+        <v>20662</v>
       </c>
       <c r="E413" s="2">
-        <v>19599</v>
+        <v>19533</v>
       </c>
       <c r="F413" s="2">
-        <v>18077</v>
+        <v>18355</v>
       </c>
       <c r="G413" s="2">
-        <v>20874</v>
+        <v>20649</v>
       </c>
       <c r="H413" s="3">
         <v>0.98</v>
       </c>
       <c r="I413" s="3">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="J413" s="3">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K413" s="3">
         <v>1.03</v>
       </c>
       <c r="L413" s="3">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="M413" s="3">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="414" spans="1:13">
@@ -18793,31 +18797,31 @@
         <v>431</v>
       </c>
       <c r="B414" s="2">
-        <v>20180</v>
+        <v>20091</v>
       </c>
       <c r="C414" s="2">
-        <v>17758</v>
+        <v>18050</v>
       </c>
       <c r="D414" s="2">
-        <v>22509</v>
+        <v>22035</v>
       </c>
       <c r="E414" s="2">
-        <v>19619</v>
+        <v>19560</v>
       </c>
       <c r="F414" s="2">
-        <v>17808</v>
+        <v>18144</v>
       </c>
       <c r="G414" s="2">
-        <v>21183</v>
+        <v>20952</v>
       </c>
       <c r="H414" s="3">
         <v>0.97</v>
       </c>
       <c r="I414" s="3">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="J414" s="3">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="K414" s="3">
         <v>1.04</v>
@@ -18826,7 +18830,7 @@
         <v>1.01</v>
       </c>
       <c r="M414" s="3">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="415" spans="1:13">
@@ -18834,31 +18838,31 @@
         <v>432</v>
       </c>
       <c r="B415" s="2">
-        <v>23735</v>
+        <v>23404</v>
       </c>
       <c r="C415" s="2">
-        <v>20330</v>
+        <v>20278</v>
       </c>
       <c r="D415" s="2">
-        <v>26584</v>
+        <v>26321</v>
       </c>
       <c r="E415" s="2">
-        <v>20792</v>
+        <v>20648</v>
       </c>
       <c r="F415" s="2">
-        <v>18418</v>
+        <v>18726</v>
       </c>
       <c r="G415" s="2">
-        <v>22792</v>
+        <v>22503</v>
       </c>
       <c r="H415" s="3">
         <v>1.01</v>
       </c>
       <c r="I415" s="3">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="J415" s="3">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K415" s="3">
         <v>1.04</v>
@@ -18867,7 +18871,7 @@
         <v>1</v>
       </c>
       <c r="M415" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="416" spans="1:13">
@@ -18875,40 +18879,40 @@
         <v>433</v>
       </c>
       <c r="B416" s="2">
-        <v>22213</v>
+        <v>21774</v>
       </c>
       <c r="C416" s="2">
-        <v>17395</v>
+        <v>18645</v>
       </c>
       <c r="D416" s="2">
-        <v>26882</v>
+        <v>24746</v>
       </c>
       <c r="E416" s="2">
-        <v>21348</v>
+        <v>21148</v>
       </c>
       <c r="F416" s="2">
-        <v>18227</v>
+        <v>18734</v>
       </c>
       <c r="G416" s="2">
-        <v>24155</v>
+        <v>23441</v>
       </c>
       <c r="H416" s="3">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="I416" s="3">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="J416" s="3">
-        <v>1.1599999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K416" s="3">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="L416" s="3">
         <v>0.98</v>
       </c>
       <c r="M416" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="417" spans="1:13">
@@ -18916,40 +18920,40 @@
         <v>434</v>
       </c>
       <c r="B417" s="2">
-        <v>20284</v>
+        <v>19494</v>
       </c>
       <c r="C417" s="2">
-        <v>14454</v>
+        <v>15890</v>
       </c>
       <c r="D417" s="2">
-        <v>25907</v>
+        <v>23656</v>
       </c>
       <c r="E417" s="2">
-        <v>21603</v>
+        <v>21191</v>
       </c>
       <c r="F417" s="2">
-        <v>17484</v>
+        <v>18216</v>
       </c>
       <c r="G417" s="2">
-        <v>25470</v>
+        <v>24190</v>
       </c>
       <c r="H417" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I417" s="3">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="J417" s="3">
-        <v>1.23</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K417" s="3">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="L417" s="3">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="M417" s="3">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="418" spans="1:13">
@@ -18957,40 +18961,81 @@
         <v>435</v>
       </c>
       <c r="B418" s="2">
-        <v>17763</v>
+        <v>16430</v>
       </c>
       <c r="C418" s="2">
-        <v>11684</v>
+        <v>11678</v>
       </c>
       <c r="D418" s="2">
-        <v>24243</v>
+        <v>20727</v>
       </c>
       <c r="E418" s="2">
-        <v>20999</v>
+        <v>20275</v>
       </c>
       <c r="F418" s="2">
-        <v>15966</v>
+        <v>16623</v>
       </c>
       <c r="G418" s="2">
-        <v>25904</v>
+        <v>23863</v>
       </c>
       <c r="H418" s="3">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="I418" s="3">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="J418" s="3">
-        <v>1.22</v>
-      </c>
-      <c r="K418" s="3" t="s">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K418" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="L418" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="M418" s="3">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13">
+      <c r="A419" t="s">
+        <v>436</v>
+      </c>
+      <c r="B419" s="2">
+        <v>12195</v>
+      </c>
+      <c r="C419" s="2">
+        <v>7663</v>
+      </c>
+      <c r="D419" s="2">
+        <v>16958</v>
+      </c>
+      <c r="E419" s="2">
+        <v>17473</v>
+      </c>
+      <c r="F419" s="2">
+        <v>13469</v>
+      </c>
+      <c r="G419" s="2">
+        <v>21522</v>
+      </c>
+      <c r="H419" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="I419" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="J419" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="K419" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="L419" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="L418" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="M418" s="3" t="s">
-        <v>454</v>
+      <c r="M419" s="3" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
